--- a/LineData.xlsx
+++ b/LineData.xlsx
@@ -740,7 +740,7 @@
     <col min="7" max="7" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="23" width="10.147857142857141" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="24" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="25" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="25" width="24.005" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="23" width="19.576428571428572" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="25" width="19.576428571428572" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>

--- a/LineData.xlsx
+++ b/LineData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Config</t>
   </si>
@@ -117,12 +117,6 @@
   </si>
   <si>
     <t>M4</t>
-  </si>
-  <si>
-    <t>M5</t>
-  </si>
-  <si>
-    <t>M6</t>
   </si>
   <si>
     <t>END</t>
@@ -621,7 +615,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ505"/>
+  <dimension ref="A1:AJ501"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -976,42 +970,18 @@
       <c r="AJ5" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="14">
-        <v>100</v>
-      </c>
-      <c r="C6" s="14">
-        <v>1</v>
-      </c>
-      <c r="D6" s="14">
-        <v>1</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="14">
-        <v>1</v>
-      </c>
-      <c r="G6" s="14">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="14">
-        <v>3600</v>
-      </c>
-      <c r="J6" s="14">
-        <v>100</v>
-      </c>
-      <c r="K6" s="15">
-        <v>10</v>
-      </c>
-      <c r="L6" s="6">
-        <v>5</v>
-      </c>
+      <c r="A6" s="12"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -1038,42 +1008,18 @@
       <c r="AJ6" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="14">
-        <v>100</v>
-      </c>
-      <c r="C7" s="14">
-        <v>1</v>
-      </c>
-      <c r="D7" s="14">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="14">
-        <v>1</v>
-      </c>
-      <c r="G7" s="14">
-        <v>0</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="14">
-        <v>3600</v>
-      </c>
-      <c r="J7" s="14">
-        <v>100</v>
-      </c>
-      <c r="K7" s="15">
-        <v>10</v>
-      </c>
-      <c r="L7" s="6">
-        <v>6</v>
-      </c>
+      <c r="A7" s="12"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -1100,15 +1046,15 @@
       <c r="AJ7" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -2125,7 +2071,7 @@
       <c r="AI34" s="12"/>
       <c r="AJ34" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="12"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -2163,7 +2109,7 @@
       <c r="AI35" s="12"/>
       <c r="AJ35" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="12"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -2201,7 +2147,7 @@
       <c r="AI36" s="12"/>
       <c r="AJ36" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="12"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -2239,7 +2185,7 @@
       <c r="AI37" s="12"/>
       <c r="AJ37" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="12"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -19871,158 +19817,6 @@
       <c r="AI501" s="12"/>
       <c r="AJ501" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="18.75">
-      <c r="A502" s="12"/>
-      <c r="B502" s="15"/>
-      <c r="C502" s="15"/>
-      <c r="D502" s="15"/>
-      <c r="E502" s="12"/>
-      <c r="F502" s="15"/>
-      <c r="G502" s="15"/>
-      <c r="H502" s="12"/>
-      <c r="I502" s="15"/>
-      <c r="J502" s="15"/>
-      <c r="K502" s="15"/>
-      <c r="L502" s="15"/>
-      <c r="M502" s="12"/>
-      <c r="N502" s="12"/>
-      <c r="O502" s="12"/>
-      <c r="P502" s="12"/>
-      <c r="Q502" s="12"/>
-      <c r="R502" s="12"/>
-      <c r="S502" s="12"/>
-      <c r="T502" s="12"/>
-      <c r="U502" s="12"/>
-      <c r="V502" s="12"/>
-      <c r="W502" s="12"/>
-      <c r="X502" s="12"/>
-      <c r="Y502" s="12"/>
-      <c r="Z502" s="12"/>
-      <c r="AA502" s="12"/>
-      <c r="AB502" s="12"/>
-      <c r="AC502" s="12"/>
-      <c r="AD502" s="12"/>
-      <c r="AE502" s="12"/>
-      <c r="AF502" s="12"/>
-      <c r="AG502" s="12"/>
-      <c r="AH502" s="12"/>
-      <c r="AI502" s="12"/>
-      <c r="AJ502" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="18.75">
-      <c r="A503" s="12"/>
-      <c r="B503" s="15"/>
-      <c r="C503" s="15"/>
-      <c r="D503" s="15"/>
-      <c r="E503" s="12"/>
-      <c r="F503" s="15"/>
-      <c r="G503" s="15"/>
-      <c r="H503" s="12"/>
-      <c r="I503" s="15"/>
-      <c r="J503" s="15"/>
-      <c r="K503" s="15"/>
-      <c r="L503" s="15"/>
-      <c r="M503" s="12"/>
-      <c r="N503" s="12"/>
-      <c r="O503" s="12"/>
-      <c r="P503" s="12"/>
-      <c r="Q503" s="12"/>
-      <c r="R503" s="12"/>
-      <c r="S503" s="12"/>
-      <c r="T503" s="12"/>
-      <c r="U503" s="12"/>
-      <c r="V503" s="12"/>
-      <c r="W503" s="12"/>
-      <c r="X503" s="12"/>
-      <c r="Y503" s="12"/>
-      <c r="Z503" s="12"/>
-      <c r="AA503" s="12"/>
-      <c r="AB503" s="12"/>
-      <c r="AC503" s="12"/>
-      <c r="AD503" s="12"/>
-      <c r="AE503" s="12"/>
-      <c r="AF503" s="12"/>
-      <c r="AG503" s="12"/>
-      <c r="AH503" s="12"/>
-      <c r="AI503" s="12"/>
-      <c r="AJ503" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="18.75">
-      <c r="A504" s="12"/>
-      <c r="B504" s="15"/>
-      <c r="C504" s="15"/>
-      <c r="D504" s="15"/>
-      <c r="E504" s="12"/>
-      <c r="F504" s="15"/>
-      <c r="G504" s="15"/>
-      <c r="H504" s="12"/>
-      <c r="I504" s="15"/>
-      <c r="J504" s="15"/>
-      <c r="K504" s="15"/>
-      <c r="L504" s="15"/>
-      <c r="M504" s="12"/>
-      <c r="N504" s="12"/>
-      <c r="O504" s="12"/>
-      <c r="P504" s="12"/>
-      <c r="Q504" s="12"/>
-      <c r="R504" s="12"/>
-      <c r="S504" s="12"/>
-      <c r="T504" s="12"/>
-      <c r="U504" s="12"/>
-      <c r="V504" s="12"/>
-      <c r="W504" s="12"/>
-      <c r="X504" s="12"/>
-      <c r="Y504" s="12"/>
-      <c r="Z504" s="12"/>
-      <c r="AA504" s="12"/>
-      <c r="AB504" s="12"/>
-      <c r="AC504" s="12"/>
-      <c r="AD504" s="12"/>
-      <c r="AE504" s="12"/>
-      <c r="AF504" s="12"/>
-      <c r="AG504" s="12"/>
-      <c r="AH504" s="12"/>
-      <c r="AI504" s="12"/>
-      <c r="AJ504" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="18.75">
-      <c r="A505" s="12"/>
-      <c r="B505" s="15"/>
-      <c r="C505" s="15"/>
-      <c r="D505" s="15"/>
-      <c r="E505" s="12"/>
-      <c r="F505" s="15"/>
-      <c r="G505" s="15"/>
-      <c r="H505" s="12"/>
-      <c r="I505" s="15"/>
-      <c r="J505" s="15"/>
-      <c r="K505" s="15"/>
-      <c r="L505" s="15"/>
-      <c r="M505" s="12"/>
-      <c r="N505" s="12"/>
-      <c r="O505" s="12"/>
-      <c r="P505" s="12"/>
-      <c r="Q505" s="12"/>
-      <c r="R505" s="12"/>
-      <c r="S505" s="12"/>
-      <c r="T505" s="12"/>
-      <c r="U505" s="12"/>
-      <c r="V505" s="12"/>
-      <c r="W505" s="12"/>
-      <c r="X505" s="12"/>
-      <c r="Y505" s="12"/>
-      <c r="Z505" s="12"/>
-      <c r="AA505" s="12"/>
-      <c r="AB505" s="12"/>
-      <c r="AC505" s="12"/>
-      <c r="AD505" s="12"/>
-      <c r="AE505" s="12"/>
-      <c r="AF505" s="12"/>
-      <c r="AG505" s="12"/>
-      <c r="AH505" s="12"/>
-      <c r="AI505" s="12"/>
-      <c r="AJ505" s="12"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/LineData.xlsx
+++ b/LineData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>Config</t>
   </si>
@@ -107,7 +107,7 @@
     <t>M1</t>
   </si>
   <si>
-    <t>M3</t>
+    <t>["M2", "M3"]</t>
   </si>
   <si>
     <t>3600*24</t>
@@ -116,7 +116,22 @@
     <t>M2</t>
   </si>
   <si>
+    <t>["M4", "M5"]</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
     <t>M4</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M7</t>
   </si>
   <si>
     <t>END</t>
@@ -615,7 +630,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ501"/>
+  <dimension ref="A1:AJ499"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -797,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F3" s="14">
         <v>1</v>
@@ -847,7 +862,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B4" s="14">
         <v>100</v>
@@ -909,7 +924,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" s="14">
         <v>100</v>
@@ -921,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" s="14">
         <v>1</v>
@@ -970,18 +985,42 @@
       <c r="AJ5" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="12"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="A6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="14">
+        <v>100</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="14">
+        <v>3600</v>
+      </c>
+      <c r="J6" s="14">
+        <v>100</v>
+      </c>
+      <c r="K6" s="15">
+        <v>10</v>
+      </c>
+      <c r="L6" s="6">
+        <v>5</v>
+      </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -1007,19 +1046,43 @@
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="12"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
+      <c r="A7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="14">
+        <v>100</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="14">
+        <v>3600</v>
+      </c>
+      <c r="J7" s="14">
+        <v>100</v>
+      </c>
+      <c r="K7" s="15">
+        <v>10</v>
+      </c>
+      <c r="L7" s="6">
+        <v>6</v>
+      </c>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -1046,18 +1109,42 @@
       <c r="AJ7" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="12"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="A8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="14">
+        <v>100</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="14">
+        <v>3600</v>
+      </c>
+      <c r="J8" s="14">
+        <v>100</v>
+      </c>
+      <c r="K8" s="15">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6">
+        <v>7</v>
+      </c>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
@@ -19741,82 +19828,6 @@
       <c r="AI499" s="12"/>
       <c r="AJ499" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="18.75">
-      <c r="A500" s="12"/>
-      <c r="B500" s="15"/>
-      <c r="C500" s="15"/>
-      <c r="D500" s="15"/>
-      <c r="E500" s="12"/>
-      <c r="F500" s="15"/>
-      <c r="G500" s="15"/>
-      <c r="H500" s="12"/>
-      <c r="I500" s="15"/>
-      <c r="J500" s="15"/>
-      <c r="K500" s="15"/>
-      <c r="L500" s="15"/>
-      <c r="M500" s="12"/>
-      <c r="N500" s="12"/>
-      <c r="O500" s="12"/>
-      <c r="P500" s="12"/>
-      <c r="Q500" s="12"/>
-      <c r="R500" s="12"/>
-      <c r="S500" s="12"/>
-      <c r="T500" s="12"/>
-      <c r="U500" s="12"/>
-      <c r="V500" s="12"/>
-      <c r="W500" s="12"/>
-      <c r="X500" s="12"/>
-      <c r="Y500" s="12"/>
-      <c r="Z500" s="12"/>
-      <c r="AA500" s="12"/>
-      <c r="AB500" s="12"/>
-      <c r="AC500" s="12"/>
-      <c r="AD500" s="12"/>
-      <c r="AE500" s="12"/>
-      <c r="AF500" s="12"/>
-      <c r="AG500" s="12"/>
-      <c r="AH500" s="12"/>
-      <c r="AI500" s="12"/>
-      <c r="AJ500" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="18.75">
-      <c r="A501" s="12"/>
-      <c r="B501" s="15"/>
-      <c r="C501" s="15"/>
-      <c r="D501" s="15"/>
-      <c r="E501" s="12"/>
-      <c r="F501" s="15"/>
-      <c r="G501" s="15"/>
-      <c r="H501" s="12"/>
-      <c r="I501" s="15"/>
-      <c r="J501" s="15"/>
-      <c r="K501" s="15"/>
-      <c r="L501" s="15"/>
-      <c r="M501" s="12"/>
-      <c r="N501" s="12"/>
-      <c r="O501" s="12"/>
-      <c r="P501" s="12"/>
-      <c r="Q501" s="12"/>
-      <c r="R501" s="12"/>
-      <c r="S501" s="12"/>
-      <c r="T501" s="12"/>
-      <c r="U501" s="12"/>
-      <c r="V501" s="12"/>
-      <c r="W501" s="12"/>
-      <c r="X501" s="12"/>
-      <c r="Y501" s="12"/>
-      <c r="Z501" s="12"/>
-      <c r="AA501" s="12"/>
-      <c r="AB501" s="12"/>
-      <c r="AC501" s="12"/>
-      <c r="AD501" s="12"/>
-      <c r="AE501" s="12"/>
-      <c r="AF501" s="12"/>
-      <c r="AG501" s="12"/>
-      <c r="AH501" s="12"/>
-      <c r="AI501" s="12"/>
-      <c r="AJ501" s="12"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/LineData.xlsx
+++ b/LineData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>Config</t>
   </si>
@@ -107,7 +107,7 @@
     <t>M1</t>
   </si>
   <si>
-    <t>["M2", "M3"]</t>
+    <t>M3</t>
   </si>
   <si>
     <t>3600*24</t>
@@ -116,19 +116,16 @@
     <t>M2</t>
   </si>
   <si>
-    <t>["M4", "M5"]</t>
+    <t>["M3","M4"]</t>
   </si>
   <si>
-    <t>M3</t>
+    <t>M5</t>
   </si>
   <si>
     <t>M4</t>
   </si>
   <si>
     <t>M6</t>
-  </si>
-  <si>
-    <t>M5</t>
   </si>
   <si>
     <t>M7</t>
@@ -862,7 +859,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B4" s="14">
         <v>100</v>
@@ -874,7 +871,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" s="14">
         <v>1</v>
@@ -936,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F5" s="14">
         <v>1</v>
@@ -986,7 +983,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6" s="14">
         <v>100</v>
@@ -1060,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="14">
         <v>1</v>
@@ -1110,7 +1107,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="14">
         <v>100</v>
@@ -1122,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="14">
         <v>1</v>

--- a/LineData.xlsx
+++ b/LineData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Line Data"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>Config</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Simulation Time</t>
   </si>
   <si>
-    <t>3600*24*200</t>
+    <t>3600*24</t>
   </si>
   <si>
     <t>Yearly Volume</t>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>M3</t>
-  </si>
-  <si>
-    <t>3600*24</t>
   </si>
   <si>
     <t>M2</t>
@@ -629,7 +626,7 @@
   </sheetPr>
   <dimension ref="A1:AJ499"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -756,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="I2" s="14">
         <v>3600</v>
@@ -797,7 +794,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="14">
         <v>100</v>
@@ -809,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="14">
         <v>1</v>
@@ -818,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="I3" s="14">
         <v>3600</v>
@@ -871,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="14">
         <v>1</v>
@@ -880,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="I4" s="14">
         <v>3600</v>
@@ -919,9 +916,9 @@
       <c r="AI4" s="12"/>
       <c r="AJ4" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="14">
         <v>100</v>
@@ -933,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="14">
         <v>1</v>
@@ -942,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="I5" s="14">
         <v>3600</v>
@@ -983,7 +980,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="14">
         <v>100</v>
@@ -995,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="14">
         <v>1</v>
@@ -1004,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="I6" s="14">
         <v>3600</v>
@@ -1043,9 +1040,9 @@
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="14">
         <v>100</v>
@@ -1057,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="14">
         <v>1</v>
@@ -1066,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="I7" s="14">
         <v>3600</v>
@@ -1105,9 +1102,9 @@
       <c r="AI7" s="12"/>
       <c r="AJ7" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="14">
         <v>100</v>
@@ -1119,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="14">
         <v>1</v>
@@ -1128,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="I8" s="14">
         <v>3600</v>
@@ -2155,7 +2152,7 @@
       <c r="AI34" s="12"/>
       <c r="AJ34" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="12"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -2193,7 +2190,7 @@
       <c r="AI35" s="12"/>
       <c r="AJ35" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="12"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -19840,7 +19837,7 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/LineData.xlsx
+++ b/LineData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Line Data"/>
@@ -107,19 +107,19 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>3600*24*2</t>
+  </si>
+  <si>
     <t>M3</t>
   </si>
   <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>["M3","M4"]</t>
+    <t>M4</t>
   </si>
   <si>
     <t>M5</t>
-  </si>
-  <si>
-    <t>M4</t>
   </si>
   <si>
     <t>M6</t>
@@ -316,8 +316,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L4" displayName="Table2" name="Table2" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:L4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L3" displayName="Table2" name="Table2" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:L3"/>
   <tableColumns count="12">
     <tableColumn name="Machine" id="1"/>
     <tableColumn name="CT" id="2"/>
@@ -624,9 +624,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ499"/>
+  <dimension ref="A1:AJ498"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -637,7 +637,7 @@
     <col min="5" max="5" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="17" width="18.433571428571426" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="16" width="10.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="16" width="15.719285714285713" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="17" width="10.290714285714287" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="17" width="24.005" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="17" width="19.576428571428572" customWidth="1" bestFit="1"/>
@@ -735,7 +735,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="14">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C2" s="14">
         <v>1</v>
@@ -747,22 +747,20 @@
         <v>30</v>
       </c>
       <c r="F2" s="14">
+        <v>900</v>
+      </c>
+      <c r="G2" s="14">
         <v>1</v>
       </c>
-      <c r="G2" s="14">
-        <v>0</v>
-      </c>
       <c r="H2" s="13" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="I2" s="14">
         <v>3600</v>
       </c>
-      <c r="J2" s="14">
-        <v>100</v>
-      </c>
+      <c r="J2" s="14"/>
       <c r="K2" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L2" s="14">
         <v>1</v>
@@ -794,10 +792,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="14">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C3" s="14">
         <v>1</v>
@@ -809,13 +807,13 @@
         <v>32</v>
       </c>
       <c r="F3" s="14">
+        <v>173</v>
+      </c>
+      <c r="G3" s="14">
         <v>1</v>
       </c>
-      <c r="G3" s="14">
-        <v>0</v>
-      </c>
       <c r="H3" s="13" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="I3" s="14">
         <v>3600</v>
@@ -824,7 +822,7 @@
         <v>100</v>
       </c>
       <c r="K3" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L3" s="14">
         <v>2</v>
@@ -856,10 +854,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" s="14">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C4" s="14">
         <v>1</v>
@@ -874,10 +872,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="I4" s="14">
         <v>3600</v>
@@ -886,9 +884,9 @@
         <v>100</v>
       </c>
       <c r="K4" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="6">
         <v>3</v>
       </c>
       <c r="M4" s="12"/>
@@ -918,10 +916,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="14">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C5" s="14">
         <v>1</v>
@@ -930,16 +928,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" s="14">
         <v>1</v>
       </c>
       <c r="G5" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="I5" s="14">
         <v>3600</v>
@@ -948,7 +946,7 @@
         <v>100</v>
       </c>
       <c r="K5" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L5" s="6">
         <v>4</v>
@@ -980,7 +978,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="14">
         <v>100</v>
@@ -998,10 +996,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="I6" s="14">
         <v>3600</v>
@@ -1010,7 +1008,7 @@
         <v>100</v>
       </c>
       <c r="K6" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L6" s="6">
         <v>5</v>
@@ -1040,12 +1038,12 @@
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="14">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C7" s="14">
         <v>1</v>
@@ -1060,10 +1058,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="I7" s="14">
         <v>3600</v>
@@ -1072,7 +1070,7 @@
         <v>100</v>
       </c>
       <c r="K7" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L7" s="6">
         <v>6</v>
@@ -1102,41 +1100,41 @@
       <c r="AI7" s="12"/>
       <c r="AJ7" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
-      <c r="A8" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="14">
-        <v>100</v>
+      <c r="B8" s="15">
+        <v>50</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="15">
         <v>1</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="15">
         <v>1</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="15">
         <v>1</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="15">
         <v>0</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>5</v>
+      <c r="H8" s="12" t="s">
+        <v>31</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="15">
         <v>3600</v>
       </c>
       <c r="J8" s="14">
         <v>100</v>
       </c>
       <c r="K8" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="15">
         <v>7</v>
       </c>
       <c r="M8" s="12"/>
@@ -2190,7 +2188,7 @@
       <c r="AI35" s="12"/>
       <c r="AJ35" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="12"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -19784,44 +19782,6 @@
       <c r="AI498" s="12"/>
       <c r="AJ498" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="18.75">
-      <c r="A499" s="12"/>
-      <c r="B499" s="15"/>
-      <c r="C499" s="15"/>
-      <c r="D499" s="15"/>
-      <c r="E499" s="12"/>
-      <c r="F499" s="15"/>
-      <c r="G499" s="15"/>
-      <c r="H499" s="12"/>
-      <c r="I499" s="15"/>
-      <c r="J499" s="15"/>
-      <c r="K499" s="15"/>
-      <c r="L499" s="15"/>
-      <c r="M499" s="12"/>
-      <c r="N499" s="12"/>
-      <c r="O499" s="12"/>
-      <c r="P499" s="12"/>
-      <c r="Q499" s="12"/>
-      <c r="R499" s="12"/>
-      <c r="S499" s="12"/>
-      <c r="T499" s="12"/>
-      <c r="U499" s="12"/>
-      <c r="V499" s="12"/>
-      <c r="W499" s="12"/>
-      <c r="X499" s="12"/>
-      <c r="Y499" s="12"/>
-      <c r="Z499" s="12"/>
-      <c r="AA499" s="12"/>
-      <c r="AB499" s="12"/>
-      <c r="AC499" s="12"/>
-      <c r="AD499" s="12"/>
-      <c r="AE499" s="12"/>
-      <c r="AF499" s="12"/>
-      <c r="AG499" s="12"/>
-      <c r="AH499" s="12"/>
-      <c r="AI499" s="12"/>
-      <c r="AJ499" s="12"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -19837,7 +19797,7 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19885,7 +19845,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="6">
-        <v>1000</v>
+        <v>200000</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">

--- a/LineData.xlsx
+++ b/LineData.xlsx
@@ -747,10 +747,10 @@
         <v>30</v>
       </c>
       <c r="F2" s="14">
-        <v>900</v>
+        <v>1</v>
       </c>
       <c r="G2" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>31</v>
@@ -758,9 +758,11 @@
       <c r="I2" s="14">
         <v>3600</v>
       </c>
-      <c r="J2" s="14"/>
+      <c r="J2" s="14">
+        <v>100</v>
+      </c>
       <c r="K2" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L2" s="14">
         <v>1</v>
@@ -807,10 +809,10 @@
         <v>32</v>
       </c>
       <c r="F3" s="14">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="G3" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>31</v>
@@ -822,7 +824,7 @@
         <v>100</v>
       </c>
       <c r="K3" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L3" s="14">
         <v>2</v>
@@ -872,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>31</v>
@@ -884,7 +886,7 @@
         <v>100</v>
       </c>
       <c r="K4" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L4" s="6">
         <v>3</v>
@@ -934,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>31</v>
@@ -946,7 +948,7 @@
         <v>100</v>
       </c>
       <c r="K5" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L5" s="6">
         <v>4</v>
@@ -996,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>31</v>
@@ -1008,7 +1010,7 @@
         <v>100</v>
       </c>
       <c r="K6" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L6" s="6">
         <v>5</v>
@@ -1058,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>31</v>
@@ -1070,7 +1072,7 @@
         <v>100</v>
       </c>
       <c r="K7" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L7" s="6">
         <v>6</v>
@@ -1132,7 +1134,7 @@
         <v>100</v>
       </c>
       <c r="K8" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="15">
         <v>7</v>
@@ -19845,7 +19847,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="6">
-        <v>200000</v>
+        <v>1000</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">

--- a/LineData.xlsx
+++ b/LineData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Line Data"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>Config</t>
   </si>
@@ -107,19 +107,25 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>3600*24*2</t>
+  </si>
+  <si>
+    <t>["M33","M3"]</t>
+  </si>
+  <si>
+    <t>M33</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
     <t>M3</t>
   </si>
   <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>["M3","M4"]</t>
-  </si>
-  <si>
     <t>M5</t>
-  </si>
-  <si>
-    <t>M4</t>
   </si>
   <si>
     <t>M6</t>
@@ -316,8 +322,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L4" displayName="Table2" name="Table2" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:L4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L5" displayName="Table2" name="Table2" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:L5"/>
   <tableColumns count="12">
     <tableColumn name="Machine" id="1"/>
     <tableColumn name="CT" id="2"/>
@@ -624,9 +630,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ499"/>
+  <dimension ref="A1:AJ500"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -637,7 +643,7 @@
     <col min="5" max="5" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="17" width="18.433571428571426" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="16" width="10.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="16" width="18.862142857142857" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="17" width="10.290714285714287" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="17" width="24.005" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="17" width="19.576428571428572" customWidth="1" bestFit="1"/>
@@ -753,16 +759,14 @@
         <v>0</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="I2" s="14">
         <v>3600</v>
       </c>
-      <c r="J2" s="14">
-        <v>100</v>
-      </c>
-      <c r="K2" s="15">
-        <v>10</v>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14">
+        <v>0</v>
       </c>
       <c r="L2" s="14">
         <v>1</v>
@@ -794,10 +798,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="14">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C3" s="14">
         <v>1</v>
@@ -815,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="I3" s="14">
         <v>3600</v>
       </c>
       <c r="J3" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
-      <c r="K3" s="15">
-        <v>10</v>
+      <c r="K3" s="14">
+        <v>0</v>
       </c>
       <c r="L3" s="14">
         <v>2</v>
@@ -854,12 +858,12 @@
       <c r="AI3" s="12"/>
       <c r="AJ3" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B4" s="14">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C4" s="14">
         <v>1</v>
@@ -868,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" s="14">
         <v>1</v>
@@ -877,16 +881,16 @@
         <v>0</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="I4" s="14">
         <v>3600</v>
       </c>
       <c r="J4" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
-      <c r="K4" s="15">
-        <v>10</v>
+      <c r="K4" s="14">
+        <v>0</v>
       </c>
       <c r="L4" s="14">
         <v>3</v>
@@ -918,10 +922,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="14">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C5" s="14">
         <v>1</v>
@@ -930,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" s="14">
         <v>1</v>
@@ -939,18 +943,18 @@
         <v>0</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="I5" s="14">
         <v>3600</v>
       </c>
       <c r="J5" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
-      <c r="K5" s="15">
-        <v>10</v>
+      <c r="K5" s="14">
+        <v>0</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="14">
         <v>4</v>
       </c>
       <c r="M5" s="12"/>
@@ -980,10 +984,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C6" s="14">
         <v>1</v>
@@ -992,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" s="14">
         <v>1</v>
@@ -1001,16 +1005,16 @@
         <v>0</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="I6" s="14">
         <v>3600</v>
       </c>
       <c r="J6" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
-      <c r="K6" s="15">
-        <v>10</v>
+      <c r="K6" s="14">
+        <v>0</v>
       </c>
       <c r="L6" s="6">
         <v>5</v>
@@ -1042,10 +1046,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="14">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C7" s="14">
         <v>1</v>
@@ -1054,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="14">
         <v>1</v>
@@ -1063,16 +1067,16 @@
         <v>0</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="I7" s="14">
         <v>3600</v>
       </c>
       <c r="J7" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
-      <c r="K7" s="15">
-        <v>10</v>
+      <c r="K7" s="14">
+        <v>0</v>
       </c>
       <c r="L7" s="6">
         <v>6</v>
@@ -1102,9 +1106,9 @@
       <c r="AI7" s="12"/>
       <c r="AJ7" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="14">
         <v>100</v>
@@ -1116,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" s="14">
         <v>1</v>
@@ -1125,16 +1129,16 @@
         <v>0</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="I8" s="14">
         <v>3600</v>
       </c>
       <c r="J8" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
-      <c r="K8" s="15">
-        <v>10</v>
+      <c r="K8" s="14">
+        <v>0</v>
       </c>
       <c r="L8" s="6">
         <v>7</v>
@@ -1164,19 +1168,43 @@
       <c r="AI8" s="12"/>
       <c r="AJ8" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="12"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+      <c r="A9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="14">
+        <v>50</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="14">
+        <v>3600</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>8</v>
+      </c>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
@@ -2228,7 +2256,7 @@
       <c r="AI36" s="12"/>
       <c r="AJ36" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="12"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -19822,6 +19850,44 @@
       <c r="AI499" s="12"/>
       <c r="AJ499" s="12"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="18.75">
+      <c r="A500" s="12"/>
+      <c r="B500" s="15"/>
+      <c r="C500" s="15"/>
+      <c r="D500" s="15"/>
+      <c r="E500" s="12"/>
+      <c r="F500" s="15"/>
+      <c r="G500" s="15"/>
+      <c r="H500" s="12"/>
+      <c r="I500" s="15"/>
+      <c r="J500" s="15"/>
+      <c r="K500" s="15"/>
+      <c r="L500" s="15"/>
+      <c r="M500" s="12"/>
+      <c r="N500" s="12"/>
+      <c r="O500" s="12"/>
+      <c r="P500" s="12"/>
+      <c r="Q500" s="12"/>
+      <c r="R500" s="12"/>
+      <c r="S500" s="12"/>
+      <c r="T500" s="12"/>
+      <c r="U500" s="12"/>
+      <c r="V500" s="12"/>
+      <c r="W500" s="12"/>
+      <c r="X500" s="12"/>
+      <c r="Y500" s="12"/>
+      <c r="Z500" s="12"/>
+      <c r="AA500" s="12"/>
+      <c r="AB500" s="12"/>
+      <c r="AC500" s="12"/>
+      <c r="AD500" s="12"/>
+      <c r="AE500" s="12"/>
+      <c r="AF500" s="12"/>
+      <c r="AG500" s="12"/>
+      <c r="AH500" s="12"/>
+      <c r="AI500" s="12"/>
+      <c r="AJ500" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -19837,7 +19903,7 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19846,7 +19912,7 @@
     <col min="3" max="3" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19857,7 +19923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -19868,7 +19934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -19877,7 +19943,7 @@
         <v>864000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -19888,7 +19954,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -19897,7 +19963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -19906,7 +19972,7 @@
         <v>120</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
@@ -19915,7 +19981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>12</v>
@@ -19924,7 +19990,7 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -19933,21 +19999,21 @@
       </c>
       <c r="C9" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>

--- a/LineData.xlsx
+++ b/LineData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>Config</t>
   </si>
@@ -113,16 +113,10 @@
     <t>3600*24*2</t>
   </si>
   <si>
-    <t>["M33","M3"]</t>
-  </si>
-  <si>
-    <t>M33</t>
+    <t>M3</t>
   </si>
   <si>
     <t>M4</t>
-  </si>
-  <si>
-    <t>M3</t>
   </si>
   <si>
     <t>M5</t>
@@ -322,8 +316,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L5" displayName="Table2" name="Table2" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:L5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L4" displayName="Table2" name="Table2" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:L4"/>
   <tableColumns count="12">
     <tableColumn name="Machine" id="1"/>
     <tableColumn name="CT" id="2"/>
@@ -630,7 +624,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ500"/>
+  <dimension ref="A1:AJ499"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -764,7 +758,9 @@
       <c r="I2" s="14">
         <v>3600</v>
       </c>
-      <c r="J2" s="14"/>
+      <c r="J2" s="14">
+        <v>100</v>
+      </c>
       <c r="K2" s="14">
         <v>0</v>
       </c>
@@ -825,7 +821,7 @@
         <v>3600</v>
       </c>
       <c r="J3" s="14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K3" s="14">
         <v>0</v>
@@ -858,9 +854,9 @@
       <c r="AI3" s="12"/>
       <c r="AJ3" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="14">
         <v>200</v>
@@ -872,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="14">
         <v>1</v>
@@ -887,7 +883,7 @@
         <v>3600</v>
       </c>
       <c r="J4" s="14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K4" s="14">
         <v>0</v>
@@ -922,10 +918,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="14">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C5" s="14">
         <v>1</v>
@@ -949,12 +945,12 @@
         <v>3600</v>
       </c>
       <c r="J5" s="14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K5" s="14">
         <v>0</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="6">
         <v>4</v>
       </c>
       <c r="M5" s="12"/>
@@ -987,7 +983,7 @@
         <v>34</v>
       </c>
       <c r="B6" s="14">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C6" s="14">
         <v>1</v>
@@ -996,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="14">
         <v>1</v>
@@ -1011,7 +1007,7 @@
         <v>3600</v>
       </c>
       <c r="J6" s="14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K6" s="14">
         <v>0</v>
@@ -1046,10 +1042,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="14">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C7" s="14">
         <v>1</v>
@@ -1058,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="14">
         <v>1</v>
@@ -1073,7 +1069,7 @@
         <v>3600</v>
       </c>
       <c r="J7" s="14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K7" s="14">
         <v>0</v>
@@ -1106,12 +1102,12 @@
       <c r="AI7" s="12"/>
       <c r="AJ7" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C8" s="14">
         <v>1</v>
@@ -1120,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="14">
         <v>1</v>
@@ -1135,7 +1131,7 @@
         <v>3600</v>
       </c>
       <c r="J8" s="14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="14">
         <v>0</v>
@@ -1168,43 +1164,19 @@
       <c r="AI8" s="12"/>
       <c r="AJ8" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
-      <c r="A9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="14">
-        <v>50</v>
-      </c>
-      <c r="C9" s="14">
-        <v>1</v>
-      </c>
-      <c r="D9" s="14">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="14">
-        <v>1</v>
-      </c>
-      <c r="G9" s="14">
-        <v>0</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="14">
-        <v>3600</v>
-      </c>
-      <c r="J9" s="14">
-        <v>0</v>
-      </c>
-      <c r="K9" s="14">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <v>8</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="12"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
@@ -2256,7 +2228,7 @@
       <c r="AI36" s="12"/>
       <c r="AJ36" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="12"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -19850,44 +19822,6 @@
       <c r="AI499" s="12"/>
       <c r="AJ499" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="18.75">
-      <c r="A500" s="12"/>
-      <c r="B500" s="15"/>
-      <c r="C500" s="15"/>
-      <c r="D500" s="15"/>
-      <c r="E500" s="12"/>
-      <c r="F500" s="15"/>
-      <c r="G500" s="15"/>
-      <c r="H500" s="12"/>
-      <c r="I500" s="15"/>
-      <c r="J500" s="15"/>
-      <c r="K500" s="15"/>
-      <c r="L500" s="15"/>
-      <c r="M500" s="12"/>
-      <c r="N500" s="12"/>
-      <c r="O500" s="12"/>
-      <c r="P500" s="12"/>
-      <c r="Q500" s="12"/>
-      <c r="R500" s="12"/>
-      <c r="S500" s="12"/>
-      <c r="T500" s="12"/>
-      <c r="U500" s="12"/>
-      <c r="V500" s="12"/>
-      <c r="W500" s="12"/>
-      <c r="X500" s="12"/>
-      <c r="Y500" s="12"/>
-      <c r="Z500" s="12"/>
-      <c r="AA500" s="12"/>
-      <c r="AB500" s="12"/>
-      <c r="AC500" s="12"/>
-      <c r="AD500" s="12"/>
-      <c r="AE500" s="12"/>
-      <c r="AF500" s="12"/>
-      <c r="AG500" s="12"/>
-      <c r="AH500" s="12"/>
-      <c r="AI500" s="12"/>
-      <c r="AJ500" s="12"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/LineData.xlsx
+++ b/LineData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Line Data"/>
@@ -626,7 +626,7 @@
   </sheetPr>
   <dimension ref="A1:AJ499"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -758,9 +758,7 @@
       <c r="I2" s="14">
         <v>3600</v>
       </c>
-      <c r="J2" s="14">
-        <v>100</v>
-      </c>
+      <c r="J2" s="14"/>
       <c r="K2" s="14">
         <v>0</v>
       </c>
@@ -19837,7 +19835,7 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/LineData.xlsx
+++ b/LineData.xlsx
@@ -1203,7 +1203,7 @@
         <v>3600</v>
       </c>
       <c r="J8" s="17">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="K8" s="17">
         <v>0</v>

--- a/LineData.xlsx
+++ b/LineData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>Available Strategies</t>
   </si>
@@ -156,7 +156,7 @@
     <t>M8</t>
   </si>
   <si>
-    <t>M12</t>
+    <t>["M11", "M12"]</t>
   </si>
   <si>
     <t>M9</t>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>END</t>
+  </si>
+  <si>
+    <t>M12</t>
   </si>
 </sst>
 </file>
@@ -740,7 +743,7 @@
     <col min="36" max="36" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="13" t="s">
         <v>23</v>
       </c>
@@ -1436,7 +1439,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F12" s="17">
         <v>1</v>
@@ -1486,7 +1489,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B13" s="17">
         <v>50</v>

--- a/LineData.xlsx
+++ b/LineData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Line Data"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>Available Strategies</t>
   </si>
@@ -129,19 +129,16 @@
     <t>M1</t>
   </si>
   <si>
-    <t>["M3", "M4","M5","M6", "M7", "M8"]</t>
+    <t>["M3", "M4","M5"]</t>
   </si>
   <si>
     <t>3600*24*2</t>
   </si>
   <si>
-    <t>M2</t>
-  </si>
-  <si>
     <t>M3</t>
   </si>
   <si>
-    <t>M9</t>
+    <t>M6</t>
   </si>
   <si>
     <t>M4</t>
@@ -150,37 +147,13 @@
     <t>M5</t>
   </si>
   <si>
-    <t>M6</t>
-  </si>
-  <si>
     <t>M7</t>
   </si>
   <si>
     <t>M8</t>
   </si>
   <si>
-    <t>["M10", "M11","M12","M13","M14","M15"]</t>
-  </si>
-  <si>
-    <t>M10</t>
-  </si>
-  <si>
     <t>END</t>
-  </si>
-  <si>
-    <t>M11</t>
-  </si>
-  <si>
-    <t>M12</t>
-  </si>
-  <si>
-    <t>M13</t>
-  </si>
-  <si>
-    <t>M14</t>
-  </si>
-  <si>
-    <t>M15</t>
   </si>
 </sst>
 </file>
@@ -400,8 +373,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L4" displayName="Table2" name="Table2" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:L4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L3" displayName="Table2" name="Table2" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:L3"/>
   <tableColumns count="12">
     <tableColumn name="Machine" id="1"/>
     <tableColumn name="CT" id="2"/>
@@ -708,9 +681,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ485"/>
+  <dimension ref="A1:AJ484"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -819,7 +792,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="17">
-        <v>2052</v>
+        <v>50</v>
       </c>
       <c r="C2" s="17">
         <v>1</v>
@@ -881,7 +854,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="17">
-        <v>2052</v>
+        <v>1260</v>
       </c>
       <c r="C3" s="17">
         <v>1</v>
@@ -890,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F3" s="17">
         <v>1</v>
@@ -905,7 +878,7 @@
         <v>3600</v>
       </c>
       <c r="J3" s="17">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K3" s="17">
         <v>0</v>
@@ -940,7 +913,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="17">
         <v>1260</v>
@@ -952,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="17">
         <v>1</v>
@@ -972,7 +945,7 @@
       <c r="K4" s="17">
         <v>0</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="8">
         <v>3</v>
       </c>
       <c r="M4" s="1"/>
@@ -1014,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="17">
         <v>1</v>
@@ -1029,7 +1002,7 @@
         <v>3600</v>
       </c>
       <c r="J5" s="17">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="K5" s="17">
         <v>0</v>
@@ -1064,10 +1037,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="17">
-        <v>1260</v>
+        <v>25</v>
       </c>
       <c r="C6" s="17">
         <v>1</v>
@@ -1076,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" s="17">
         <v>1</v>
@@ -1126,10 +1099,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="17">
-        <v>1260</v>
+        <v>100</v>
       </c>
       <c r="C7" s="17">
         <v>1</v>
@@ -1138,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F7" s="17">
         <v>1</v>
@@ -1153,7 +1126,7 @@
         <v>3600</v>
       </c>
       <c r="J7" s="17">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="K7" s="17">
         <v>0</v>
@@ -1188,10 +1161,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="17">
-        <v>1260</v>
+        <v>10</v>
       </c>
       <c r="C8" s="17">
         <v>1</v>
@@ -1200,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F8" s="17">
         <v>1</v>
@@ -1249,42 +1222,18 @@
       <c r="AJ8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="17">
-        <v>1260</v>
-      </c>
-      <c r="C9" s="17">
-        <v>1</v>
-      </c>
-      <c r="D9" s="17">
-        <v>1</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="17">
-        <v>1</v>
-      </c>
-      <c r="G9" s="17">
-        <v>0</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="17">
-        <v>3600</v>
-      </c>
-      <c r="J9" s="17">
-        <v>340</v>
-      </c>
-      <c r="K9" s="17">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8">
-        <v>8</v>
-      </c>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="8"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1311,42 +1260,18 @@
       <c r="AJ9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="17">
-        <v>54</v>
-      </c>
-      <c r="C10" s="17">
-        <v>1</v>
-      </c>
-      <c r="D10" s="17">
-        <v>1</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="17">
-        <v>1</v>
-      </c>
-      <c r="G10" s="17">
-        <v>0</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="17">
-        <v>3600</v>
-      </c>
-      <c r="J10" s="17">
-        <v>-210</v>
-      </c>
-      <c r="K10" s="17">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8">
-        <v>9</v>
-      </c>
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="8"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1373,42 +1298,18 @@
       <c r="AJ10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="17">
-        <v>3420</v>
-      </c>
-      <c r="C11" s="17">
-        <v>1</v>
-      </c>
-      <c r="D11" s="17">
-        <v>1</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="17">
-        <v>1</v>
-      </c>
-      <c r="G11" s="17">
-        <v>0</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="17">
-        <v>3600</v>
-      </c>
-      <c r="J11" s="17">
-        <v>180</v>
-      </c>
-      <c r="K11" s="17">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8">
-        <v>10</v>
-      </c>
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="8"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1435,42 +1336,18 @@
       <c r="AJ11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="17">
-        <v>3420</v>
-      </c>
-      <c r="C12" s="17">
-        <v>1</v>
-      </c>
-      <c r="D12" s="17">
-        <v>1</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="17">
-        <v>1</v>
-      </c>
-      <c r="G12" s="17">
-        <v>0</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="17">
-        <v>3600</v>
-      </c>
-      <c r="J12" s="17">
-        <v>180</v>
-      </c>
-      <c r="K12" s="17">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>11</v>
-      </c>
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="8"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1497,42 +1374,18 @@
       <c r="AJ12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="17">
-        <v>3420</v>
-      </c>
-      <c r="C13" s="17">
-        <v>1</v>
-      </c>
-      <c r="D13" s="17">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="17">
-        <v>1</v>
-      </c>
-      <c r="G13" s="17">
-        <v>0</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="17">
-        <v>3600</v>
-      </c>
-      <c r="J13" s="17">
-        <v>260</v>
-      </c>
-      <c r="K13" s="17">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8">
-        <v>12</v>
-      </c>
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="8"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1559,42 +1412,18 @@
       <c r="AJ13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="17">
-        <v>3420</v>
-      </c>
-      <c r="C14" s="17">
-        <v>1</v>
-      </c>
-      <c r="D14" s="17">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="17">
-        <v>1</v>
-      </c>
-      <c r="G14" s="17">
-        <v>0</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="17">
-        <v>3600</v>
-      </c>
-      <c r="J14" s="17">
-        <v>260</v>
-      </c>
-      <c r="K14" s="17">
-        <v>0</v>
-      </c>
-      <c r="L14" s="8">
-        <v>13</v>
-      </c>
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="8"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1621,42 +1450,18 @@
       <c r="AJ14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="17">
-        <v>3420</v>
-      </c>
-      <c r="C15" s="17">
-        <v>1</v>
-      </c>
-      <c r="D15" s="17">
-        <v>1</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="17">
-        <v>1</v>
-      </c>
-      <c r="G15" s="17">
-        <v>0</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="17">
-        <v>3600</v>
-      </c>
-      <c r="J15" s="17">
-        <v>340</v>
-      </c>
-      <c r="K15" s="17">
-        <v>0</v>
-      </c>
-      <c r="L15" s="8">
-        <v>14</v>
-      </c>
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="8"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1682,43 +1487,19 @@
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="17">
-        <v>3420</v>
-      </c>
-      <c r="C16" s="17">
-        <v>1</v>
-      </c>
-      <c r="D16" s="17">
-        <v>1</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="17">
-        <v>1</v>
-      </c>
-      <c r="G16" s="17">
-        <v>0</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="17">
-        <v>3600</v>
-      </c>
-      <c r="J16" s="17">
-        <v>340</v>
-      </c>
-      <c r="K16" s="17">
-        <v>0</v>
-      </c>
-      <c r="L16" s="8">
-        <v>15</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="8"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1744,19 +1525,19 @@
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="8"/>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="1"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -2580,7 +2361,7 @@
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -19528,44 +19309,6 @@
       <c r="AI484" s="1"/>
       <c r="AJ484" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="18.75">
-      <c r="A485" s="1"/>
-      <c r="B485" s="18"/>
-      <c r="C485" s="18"/>
-      <c r="D485" s="18"/>
-      <c r="E485" s="1"/>
-      <c r="F485" s="18"/>
-      <c r="G485" s="18"/>
-      <c r="H485" s="1"/>
-      <c r="I485" s="18"/>
-      <c r="J485" s="18"/>
-      <c r="K485" s="18"/>
-      <c r="L485" s="18"/>
-      <c r="M485" s="1"/>
-      <c r="N485" s="1"/>
-      <c r="O485" s="1"/>
-      <c r="P485" s="1"/>
-      <c r="Q485" s="1"/>
-      <c r="R485" s="1"/>
-      <c r="S485" s="1"/>
-      <c r="T485" s="1"/>
-      <c r="U485" s="1"/>
-      <c r="V485" s="1"/>
-      <c r="W485" s="1"/>
-      <c r="X485" s="1"/>
-      <c r="Y485" s="1"/>
-      <c r="Z485" s="1"/>
-      <c r="AA485" s="1"/>
-      <c r="AB485" s="1"/>
-      <c r="AC485" s="1"/>
-      <c r="AD485" s="1"/>
-      <c r="AE485" s="1"/>
-      <c r="AF485" s="1"/>
-      <c r="AG485" s="1"/>
-      <c r="AH485" s="1"/>
-      <c r="AI485" s="1"/>
-      <c r="AJ485" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -19581,7 +19324,7 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/LineData.xlsx
+++ b/LineData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t>Available Strategies</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>["M10", "M11","M12","M13","M14","M15"]</t>
+  </si>
+  <si>
+    <t>3600*24*6</t>
   </si>
   <si>
     <t>M10</t>
@@ -901,7 +904,7 @@
         <v>42</v>
       </c>
       <c r="J2" s="17">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="K2" s="17">
         <v>100</v>
@@ -965,7 +968,7 @@
         <v>42</v>
       </c>
       <c r="J3" s="17">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="K3" s="17">
         <v>100</v>
@@ -1029,7 +1032,7 @@
         <v>42</v>
       </c>
       <c r="J4" s="17">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="K4" s="17">
         <v>180</v>
@@ -1093,7 +1096,7 @@
         <v>42</v>
       </c>
       <c r="J5" s="17">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="K5" s="17">
         <v>180</v>
@@ -1157,7 +1160,7 @@
         <v>42</v>
       </c>
       <c r="J6" s="17">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="K6" s="17">
         <v>260</v>
@@ -1221,7 +1224,7 @@
         <v>42</v>
       </c>
       <c r="J7" s="17">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="K7" s="17">
         <v>260</v>
@@ -1285,7 +1288,7 @@
         <v>42</v>
       </c>
       <c r="J8" s="17">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="K8" s="17">
         <v>340</v>
@@ -1349,7 +1352,7 @@
         <v>42</v>
       </c>
       <c r="J9" s="17">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="K9" s="17">
         <v>340</v>
@@ -1410,10 +1413,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="J10" s="17">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="K10" s="17">
         <v>-210</v>
@@ -1450,10 +1453,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="17">
         <v>3420</v>
@@ -1465,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G11" s="17">
         <v>1</v>
@@ -1477,7 +1480,7 @@
         <v>42</v>
       </c>
       <c r="J11" s="17">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="K11" s="17">
         <v>180</v>
@@ -1514,10 +1517,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" s="17">
         <v>3420</v>
@@ -1529,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G12" s="17">
         <v>1</v>
@@ -1541,7 +1544,7 @@
         <v>42</v>
       </c>
       <c r="J12" s="17">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="K12" s="17">
         <v>180</v>
@@ -1578,10 +1581,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" s="17">
         <v>3420</v>
@@ -1593,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G13" s="17">
         <v>1</v>
@@ -1605,7 +1608,7 @@
         <v>42</v>
       </c>
       <c r="J13" s="17">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="K13" s="17">
         <v>260</v>
@@ -1642,10 +1645,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C14" s="17">
         <v>3420</v>
@@ -1657,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G14" s="17">
         <v>1</v>
@@ -1669,7 +1672,7 @@
         <v>42</v>
       </c>
       <c r="J14" s="17">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="K14" s="17">
         <v>260</v>
@@ -1706,10 +1709,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" s="17">
         <v>3420</v>
@@ -1721,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G15" s="17">
         <v>1</v>
@@ -1733,7 +1736,7 @@
         <v>42</v>
       </c>
       <c r="J15" s="17">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="K15" s="17">
         <v>340</v>
@@ -1770,10 +1773,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" s="17">
         <v>3420</v>
@@ -1785,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G16" s="17">
         <v>1</v>
@@ -1797,7 +1800,7 @@
         <v>42</v>
       </c>
       <c r="J16" s="17">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="K16" s="17">
         <v>340</v>

--- a/LineData.xlsx
+++ b/LineData.xlsx
@@ -809,7 +809,7 @@
     <col min="36" max="36" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
@@ -875,7 +875,7 @@
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="16" t="s">
         <v>39</v>
       </c>
@@ -904,7 +904,7 @@
         <v>42</v>
       </c>
       <c r="J2" s="17">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="K2" s="17">
         <v>100</v>
@@ -939,7 +939,7 @@
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="16" t="s">
         <v>43</v>
       </c>
@@ -968,7 +968,7 @@
         <v>42</v>
       </c>
       <c r="J3" s="17">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="K3" s="17">
         <v>100</v>
@@ -1003,7 +1003,7 @@
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="16" t="s">
         <v>45</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>42</v>
       </c>
       <c r="J4" s="17">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="K4" s="17">
         <v>180</v>
@@ -1067,7 +1067,7 @@
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="16" t="s">
         <v>48</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>42</v>
       </c>
       <c r="J5" s="17">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="K5" s="17">
         <v>180</v>
@@ -1131,7 +1131,7 @@
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="16" t="s">
         <v>50</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>42</v>
       </c>
       <c r="J6" s="17">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="K6" s="17">
         <v>260</v>
@@ -1195,7 +1195,7 @@
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="16" t="s">
         <v>52</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>42</v>
       </c>
       <c r="J7" s="17">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="K7" s="17">
         <v>260</v>
@@ -1259,7 +1259,7 @@
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="16" t="s">
         <v>54</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>42</v>
       </c>
       <c r="J8" s="17">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="K8" s="17">
         <v>340</v>
@@ -1323,7 +1323,7 @@
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="16" t="s">
         <v>56</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>42</v>
       </c>
       <c r="J9" s="17">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="K9" s="17">
         <v>340</v>
@@ -1387,7 +1387,7 @@
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="16" t="s">
         <v>47</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>60</v>
       </c>
       <c r="J10" s="17">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="K10" s="17">
         <v>-210</v>
@@ -1451,7 +1451,7 @@
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="16" t="s">
         <v>61</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>42</v>
       </c>
       <c r="J11" s="17">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="K11" s="17">
         <v>180</v>
@@ -1515,7 +1515,7 @@
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="16" t="s">
         <v>64</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>42</v>
       </c>
       <c r="J12" s="17">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="K12" s="17">
         <v>180</v>
@@ -1579,7 +1579,7 @@
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="16" t="s">
         <v>66</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>42</v>
       </c>
       <c r="J13" s="17">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="K13" s="17">
         <v>260</v>
@@ -1643,7 +1643,7 @@
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="16" t="s">
         <v>68</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>42</v>
       </c>
       <c r="J14" s="17">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="K14" s="17">
         <v>260</v>
@@ -1707,7 +1707,7 @@
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="16" t="s">
         <v>70</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>42</v>
       </c>
       <c r="J15" s="17">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="K15" s="17">
         <v>340</v>
@@ -1771,7 +1771,7 @@
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="16" t="s">
         <v>72</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>42</v>
       </c>
       <c r="J16" s="17">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="K16" s="17">
         <v>340</v>
@@ -1835,7 +1835,7 @@
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="18"/>
@@ -1873,7 +1873,7 @@
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="18"/>
@@ -1911,7 +1911,7 @@
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="18"/>
@@ -1949,7 +1949,7 @@
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="18"/>
@@ -1987,7 +1987,7 @@
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="18"/>
@@ -2025,7 +2025,7 @@
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="18"/>
@@ -2063,7 +2063,7 @@
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="18"/>
@@ -2101,7 +2101,7 @@
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="18"/>
@@ -2139,7 +2139,7 @@
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="18"/>
@@ -2177,7 +2177,7 @@
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="18"/>
@@ -2215,7 +2215,7 @@
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="18"/>

--- a/LineData.xlsx
+++ b/LineData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
   <si>
     <t>Available Strategies</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Input</t>
+  </si>
+  <si>
+    <t>600-1200</t>
   </si>
   <si>
     <t>M1</t>
@@ -468,6 +471,9 @@
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -515,9 +521,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -905,47 +908,47 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="H1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="K1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="L1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="M1" s="23" t="s">
         <v>56</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -972,45 +975,45 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="24">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="8">
         <v>2052</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="8">
         <v>1</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="8">
         <v>1</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="24">
+        <v>59</v>
+      </c>
+      <c r="G2" s="8">
         <v>1</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="8">
         <v>0</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="24">
+        <v>60</v>
+      </c>
+      <c r="J2" s="8">
         <v>3600</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="8">
         <v>100</v>
       </c>
-      <c r="L2" s="24">
+      <c r="L2" s="8">
         <v>1</v>
       </c>
-      <c r="M2" s="24">
+      <c r="M2" s="8">
         <v>1</v>
       </c>
-      <c r="N2" s="21"/>
+      <c r="N2" s="22"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1036,45 +1039,45 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2052</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="24">
-        <v>2052</v>
-      </c>
-      <c r="D3" s="24">
+      <c r="J3" s="8">
+        <v>3600</v>
+      </c>
+      <c r="K3" s="8">
+        <v>100</v>
+      </c>
+      <c r="L3" s="8">
+        <v>2</v>
+      </c>
+      <c r="M3" s="8">
         <v>1</v>
       </c>
-      <c r="E3" s="24">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="24">
-        <v>1</v>
-      </c>
-      <c r="H3" s="24">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="24">
-        <v>3600</v>
-      </c>
-      <c r="K3" s="24">
-        <v>100</v>
-      </c>
-      <c r="L3" s="24">
-        <v>2</v>
-      </c>
-      <c r="M3" s="24">
-        <v>1</v>
-      </c>
-      <c r="N3" s="21"/>
+      <c r="N3" s="22"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1100,45 +1103,45 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="24">
+        <v>10</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="8">
         <v>1260</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="8">
         <v>1</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="8">
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="24">
+        <v>16</v>
+      </c>
+      <c r="G4" s="8">
         <v>1</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="8">
         <v>0</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="24">
+        <v>60</v>
+      </c>
+      <c r="J4" s="8">
         <v>3600</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="8">
         <v>180</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="8">
         <v>3</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="8">
         <v>1</v>
       </c>
-      <c r="N4" s="21"/>
+      <c r="N4" s="22"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1164,45 +1167,45 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="24">
+        <v>11</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="8">
         <v>1260</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="8">
         <v>1</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="8">
         <v>1</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="24">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="8">
         <v>0</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="24">
+        <v>60</v>
+      </c>
+      <c r="J5" s="8">
         <v>3600</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="8">
         <v>180</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="8">
         <v>4</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="8">
         <v>1</v>
       </c>
-      <c r="N5" s="21"/>
+      <c r="N5" s="22"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1228,45 +1231,45 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="24">
+        <v>12</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="8">
         <v>1260</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="8">
         <v>1</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="8">
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="24">
+        <v>16</v>
+      </c>
+      <c r="G6" s="8">
         <v>1</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="8">
         <v>0</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="24">
+        <v>60</v>
+      </c>
+      <c r="J6" s="8">
         <v>3600</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="8">
         <v>260</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="8">
         <v>5</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="8">
         <v>1</v>
       </c>
-      <c r="N6" s="21"/>
+      <c r="N6" s="22"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1292,45 +1295,45 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="24">
+        <v>13</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="8">
         <v>1260</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="8">
         <v>1</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="8">
         <v>1</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="24">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8">
         <v>1</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="8">
         <v>0</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="24">
+        <v>60</v>
+      </c>
+      <c r="J7" s="8">
         <v>3600</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="8">
         <v>260</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="8">
         <v>6</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="8">
         <v>1</v>
       </c>
-      <c r="N7" s="21"/>
+      <c r="N7" s="22"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1356,45 +1359,45 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="24">
+        <v>14</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="8">
         <v>1260</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="8">
         <v>1</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="24">
+        <v>16</v>
+      </c>
+      <c r="G8" s="8">
         <v>1</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="8">
         <v>0</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="24">
+        <v>60</v>
+      </c>
+      <c r="J8" s="8">
         <v>3600</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="8">
         <v>340</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="8">
         <v>7</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="8">
         <v>1</v>
       </c>
-      <c r="N8" s="21"/>
+      <c r="N8" s="22"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1420,45 +1423,45 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="24">
+        <v>15</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="8">
         <v>1260</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="8">
         <v>1</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="8">
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="24">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8">
         <v>1</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="8">
         <v>0</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="24">
+        <v>60</v>
+      </c>
+      <c r="J9" s="8">
         <v>3600</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="8">
         <v>340</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="8">
         <v>8</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="8">
         <v>1</v>
       </c>
-      <c r="N9" s="21"/>
+      <c r="N9" s="22"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1484,45 +1487,45 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="24">
+        <v>16</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="8">
         <v>54</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="8">
         <v>1</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="8">
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="24">
+        <v>69</v>
+      </c>
+      <c r="G10" s="8">
         <v>1</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="8">
         <v>0</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="24">
+        <v>60</v>
+      </c>
+      <c r="J10" s="8">
         <v>3600</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="8">
         <v>-210</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="8">
         <v>9</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="8">
         <v>1</v>
       </c>
-      <c r="N10" s="21"/>
+      <c r="N10" s="22"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -1548,42 +1551,42 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="24">
+        <v>17</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="8">
         <v>3420</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="8">
         <v>1</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="8">
         <v>1</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="24">
+        <v>71</v>
+      </c>
+      <c r="G11" s="8">
         <v>1</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="8">
         <v>0</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" s="24">
+        <v>60</v>
+      </c>
+      <c r="J11" s="8">
         <v>3600</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="8">
         <v>180</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="8">
         <v>10</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="8">
         <v>1</v>
       </c>
       <c r="N11" s="7"/>
@@ -1612,42 +1615,42 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="8">
+        <v>3420</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="24">
-        <v>3420</v>
-      </c>
-      <c r="D12" s="24">
+      <c r="G12" s="8">
         <v>1</v>
       </c>
-      <c r="E12" s="24">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="24">
-        <v>1</v>
-      </c>
-      <c r="H12" s="24">
+      <c r="H12" s="8">
         <v>0</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="24">
+        <v>60</v>
+      </c>
+      <c r="J12" s="8">
         <v>3600</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="8">
         <v>180</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="8">
         <v>11</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="8">
         <v>1</v>
       </c>
       <c r="N12" s="7"/>
@@ -1676,42 +1679,42 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="24">
+        <v>19</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="8">
         <v>3420</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="8">
         <v>1</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="8">
         <v>1</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="24">
+        <v>71</v>
+      </c>
+      <c r="G13" s="8">
         <v>1</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="8">
         <v>0</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" s="24">
+        <v>60</v>
+      </c>
+      <c r="J13" s="8">
         <v>3600</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="8">
         <v>260</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="8">
         <v>12</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="8">
         <v>1</v>
       </c>
       <c r="N13" s="7"/>
@@ -1740,42 +1743,42 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="24">
+        <v>20</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="8">
         <v>3420</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="8">
         <v>1</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="24">
+        <v>71</v>
+      </c>
+      <c r="G14" s="8">
         <v>1</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="8">
         <v>0</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" s="24">
+        <v>60</v>
+      </c>
+      <c r="J14" s="8">
         <v>3600</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="8">
         <v>260</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="8">
         <v>13</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="8">
         <v>1</v>
       </c>
       <c r="N14" s="7"/>
@@ -1804,42 +1807,42 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="24">
+        <v>21</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="8">
         <v>3420</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="8">
         <v>1</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="24">
+        <v>71</v>
+      </c>
+      <c r="G15" s="8">
         <v>1</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="8">
         <v>0</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="24">
+        <v>60</v>
+      </c>
+      <c r="J15" s="8">
         <v>3600</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="8">
         <v>340</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="8">
         <v>14</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="8">
         <v>1</v>
       </c>
       <c r="N15" s="7"/>
@@ -1868,42 +1871,42 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="24">
+        <v>22</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="8">
         <v>3420</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="8">
         <v>1</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="8">
         <v>1</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="24">
+        <v>71</v>
+      </c>
+      <c r="G16" s="8">
         <v>1</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="8">
         <v>0</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J16" s="24">
+        <v>60</v>
+      </c>
+      <c r="J16" s="8">
         <v>3600</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="8">
         <v>340</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="8">
         <v>15</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="8">
         <v>1</v>
       </c>
       <c r="N16" s="7"/>
@@ -19733,147 +19736,147 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="20" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="21" width="16.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="C1" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="14" t="s">
         <v>27</v>
       </c>
+      <c r="C2" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="15"/>
-      <c r="B3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="A3" s="16"/>
+      <c r="B3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="15">
         <v>3600</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="14">
+      <c r="B4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="15">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="15"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="16"/>
+      <c r="B6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="16"/>
+      <c r="B7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="16"/>
+      <c r="B8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="15"/>
-      <c r="B6" s="13" t="s">
+      <c r="C9" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="16"/>
+      <c r="B10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="15"/>
-      <c r="B7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="C10" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="16"/>
+      <c r="B11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="18"/>
+      <c r="B13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="15">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="15"/>
-      <c r="B8" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="15"/>
-      <c r="B10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="15"/>
-      <c r="B11" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="17"/>
-      <c r="B13" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="14">
-        <v>1</v>
-      </c>
-    </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>1</v>
       </c>
     </row>
@@ -19900,9 +19903,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -19920,113 +19923,177 @@
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2052</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2052</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2052</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2052</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1260</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1260</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1260</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1260</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1260</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1260</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1260</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1260</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1260</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1260</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1260</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1260</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="B11" s="8">
+        <v>54</v>
+      </c>
+      <c r="C11" s="8">
+        <v>54</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="B12" s="8">
+        <v>3420</v>
+      </c>
+      <c r="C12" s="8">
+        <v>3420</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="B13" s="8">
+        <v>3420</v>
+      </c>
+      <c r="C13" s="8">
+        <v>3420</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="B14" s="8">
+        <v>3420</v>
+      </c>
+      <c r="C14" s="8">
+        <v>3420</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="B15" s="8">
+        <v>3420</v>
+      </c>
+      <c r="C15" s="8">
+        <v>3420</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="B16" s="8">
+        <v>3420</v>
+      </c>
+      <c r="C16" s="8">
+        <v>3420</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="B17" s="8">
+        <v>3420</v>
+      </c>
+      <c r="C17" s="8">
+        <v>3420</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LineData.xlsx
+++ b/LineData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Line Data"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
   <si>
     <t>Available Strategies</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Ref A</t>
-  </si>
-  <si>
-    <t>Ref B</t>
   </si>
   <si>
     <t>Input</t>
@@ -199,7 +196,7 @@
     <t>["M3", "M4","M5","M6", "M7", "M8"]</t>
   </si>
   <si>
-    <t>3600*8*1</t>
+    <t>3600*24*5</t>
   </si>
   <si>
     <t>Flushing 2</t>
@@ -459,13 +456,13 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
@@ -475,6 +472,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
@@ -510,10 +510,7 @@
     <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
@@ -543,12 +540,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C17" displayName="Tableau2" name="Tableau2" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:C17"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B17" displayName="Tableau2" name="Tableau2" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:B17"/>
+  <tableColumns count="2">
     <tableColumn name="Machine" id="1"/>
     <tableColumn name="Ref A" id="2"/>
-    <tableColumn name="Ref B" id="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
@@ -865,7 +861,7 @@
   </sheetPr>
   <dimension ref="A1:AJ484"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -908,47 +904,47 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="M1" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="N1" s="24" t="s">
         <v>56</v>
-      </c>
-      <c r="N1" s="24" t="s">
-        <v>57</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -975,10 +971,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="8">
         <v>2052</v>
@@ -990,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" s="8">
         <v>1</v>
@@ -999,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J2" s="8">
         <v>3600</v>
@@ -1039,10 +1035,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="8">
         <v>2052</v>
@@ -1054,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="8">
         <v>1</v>
@@ -1063,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J3" s="8">
         <v>3600</v>
@@ -1103,10 +1099,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="8">
         <v>1260</v>
@@ -1118,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="8">
         <v>1</v>
@@ -1127,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J4" s="8">
         <v>3600</v>
@@ -1167,10 +1163,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="8">
         <v>1260</v>
@@ -1182,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="8">
         <v>1</v>
@@ -1191,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J5" s="8">
         <v>3600</v>
@@ -1231,10 +1227,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="8">
         <v>1260</v>
@@ -1246,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="8">
         <v>1</v>
@@ -1255,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J6" s="8">
         <v>3600</v>
@@ -1295,10 +1291,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="8">
         <v>1260</v>
@@ -1310,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="8">
         <v>1</v>
@@ -1319,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J7" s="8">
         <v>3600</v>
@@ -1359,10 +1355,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="8">
         <v>1260</v>
@@ -1374,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="8">
         <v>1</v>
@@ -1383,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J8" s="8">
         <v>3600</v>
@@ -1423,10 +1419,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="8">
         <v>1260</v>
@@ -1438,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="8">
         <v>1</v>
@@ -1447,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="8">
         <v>3600</v>
@@ -1487,10 +1483,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="8">
         <v>54</v>
@@ -1502,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" s="8">
         <v>1</v>
@@ -1511,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="8">
         <v>3600</v>
@@ -1551,10 +1547,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="8">
         <v>3420</v>
@@ -1566,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" s="8">
         <v>1</v>
@@ -1575,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="8">
         <v>3600</v>
@@ -1615,10 +1611,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="8">
         <v>3420</v>
@@ -1630,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G12" s="8">
         <v>1</v>
@@ -1639,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="8">
         <v>3600</v>
@@ -1679,10 +1675,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="8">
         <v>3420</v>
@@ -1694,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" s="8">
         <v>1</v>
@@ -1703,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" s="8">
         <v>3600</v>
@@ -1743,10 +1739,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="8">
         <v>3420</v>
@@ -1758,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G14" s="8">
         <v>1</v>
@@ -1767,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J14" s="8">
         <v>3600</v>
@@ -1807,10 +1803,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="8">
         <v>3420</v>
@@ -1822,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" s="8">
         <v>1</v>
@@ -1831,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J15" s="8">
         <v>3600</v>
@@ -1871,10 +1867,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="8">
         <v>3420</v>
@@ -1886,7 +1882,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G16" s="8">
         <v>1</v>
@@ -1895,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J16" s="8">
         <v>3600</v>
@@ -19738,145 +19734,145 @@
   <cols>
     <col min="1" max="1" style="9" width="13.147857142857141" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="9" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="21" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="16.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="12" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="15" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="17"/>
+      <c r="B3" s="15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="16"/>
-      <c r="B3" s="14" t="s">
+      <c r="C3" s="16">
+        <v>3600</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="15">
-        <v>3600</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="17"/>
+      <c r="B5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="17"/>
+      <c r="B6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="17"/>
+      <c r="B7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="16">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="16"/>
-      <c r="B5" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="16"/>
-      <c r="B6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="16"/>
-      <c r="B7" s="14" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="17"/>
+      <c r="B8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C8" s="16">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="16"/>
-      <c r="B8" s="14" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="15">
+      <c r="B9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="16"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="17"/>
+      <c r="B10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="16"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="17"/>
+      <c r="B11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="16"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="16"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="19"/>
+      <c r="B13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="16">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="16"/>
-      <c r="B10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="16"/>
-      <c r="B11" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="18"/>
-      <c r="B13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="14" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>1</v>
       </c>
     </row>
@@ -19897,15 +19893,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="9" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="10.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -19915,183 +19910,132 @@
       <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="8">
         <v>2052</v>
       </c>
-      <c r="C3" s="8">
-        <v>2052</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="8">
         <v>2052</v>
       </c>
-      <c r="C4" s="8">
-        <v>2052</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="8">
         <v>1260</v>
       </c>
-      <c r="C5" s="8">
-        <v>1260</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="8">
         <v>1260</v>
       </c>
-      <c r="C6" s="8">
-        <v>1260</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="8">
         <v>1260</v>
       </c>
-      <c r="C7" s="8">
-        <v>1260</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="8">
         <v>1260</v>
       </c>
-      <c r="C8" s="8">
-        <v>1260</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="8">
         <v>1260</v>
       </c>
-      <c r="C9" s="8">
-        <v>1260</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="8">
         <v>1260</v>
       </c>
-      <c r="C10" s="8">
-        <v>1260</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="8">
         <v>54</v>
       </c>
-      <c r="C11" s="8">
-        <v>54</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="8">
         <v>3420</v>
       </c>
-      <c r="C12" s="8">
-        <v>3420</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="8">
         <v>3420</v>
       </c>
-      <c r="C13" s="8">
-        <v>3420</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="8">
         <v>3420</v>
       </c>
-      <c r="C14" s="8">
-        <v>3420</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="8">
         <v>3420</v>
       </c>
-      <c r="C15" s="8">
-        <v>3420</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="8">
         <v>3420</v>
       </c>
-      <c r="C16" s="8">
-        <v>3420</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="8">
-        <v>3420</v>
-      </c>
-      <c r="C17" s="8">
         <v>3420</v>
       </c>
     </row>

--- a/LineData.xlsx
+++ b/LineData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
   <si>
     <t>Available Strategies</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Ref A</t>
+  </si>
+  <si>
+    <t>Ref B</t>
   </si>
   <si>
     <t>Input</t>
@@ -252,7 +255,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,12 +266,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -462,11 +459,11 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -513,10 +510,10 @@
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -540,11 +537,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B17" displayName="Tableau2" name="Tableau2" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:B17"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C17" displayName="Tableau2" name="Tableau2" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:C17"/>
+  <tableColumns count="3">
     <tableColumn name="Machine" id="1"/>
-    <tableColumn name="Ref A" id="2"/>
+    <tableColumn name="Ref A1" id="2"/>
+    <tableColumn name="Ref B" id="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
@@ -908,43 +906,43 @@
         <v>3</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -970,11 +968,11 @@
       <c r="AJ1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
+      <c r="A2" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="8">
         <v>2052</v>
@@ -985,8 +983,8 @@
       <c r="E2" s="8">
         <v>1</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>58</v>
+      <c r="F2" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G2" s="8">
         <v>1</v>
@@ -994,8 +992,8 @@
       <c r="H2" s="8">
         <v>0</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>59</v>
+      <c r="I2" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="J2" s="8">
         <v>3600</v>
@@ -1034,11 +1032,11 @@
       <c r="AJ2" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
+      <c r="A3" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="8">
         <v>2052</v>
@@ -1049,8 +1047,8 @@
       <c r="E3" s="8">
         <v>1</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>58</v>
+      <c r="F3" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G3" s="8">
         <v>1</v>
@@ -1058,8 +1056,8 @@
       <c r="H3" s="8">
         <v>0</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>59</v>
+      <c r="I3" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="J3" s="8">
         <v>3600</v>
@@ -1098,11 +1096,11 @@
       <c r="AJ3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
+      <c r="A4" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="8">
         <v>1260</v>
@@ -1113,8 +1111,8 @@
       <c r="E4" s="8">
         <v>1</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>15</v>
+      <c r="F4" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="G4" s="8">
         <v>1</v>
@@ -1122,8 +1120,8 @@
       <c r="H4" s="8">
         <v>0</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>59</v>
+      <c r="I4" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="J4" s="8">
         <v>3600</v>
@@ -1162,11 +1160,11 @@
       <c r="AJ4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
+      <c r="A5" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="8">
         <v>1260</v>
@@ -1177,8 +1175,8 @@
       <c r="E5" s="8">
         <v>1</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>15</v>
+      <c r="F5" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="G5" s="8">
         <v>1</v>
@@ -1186,8 +1184,8 @@
       <c r="H5" s="8">
         <v>0</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>59</v>
+      <c r="I5" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="J5" s="8">
         <v>3600</v>
@@ -1226,11 +1224,11 @@
       <c r="AJ5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
+      <c r="A6" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" s="8">
         <v>1260</v>
@@ -1241,8 +1239,8 @@
       <c r="E6" s="8">
         <v>1</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>15</v>
+      <c r="F6" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="G6" s="8">
         <v>1</v>
@@ -1250,8 +1248,8 @@
       <c r="H6" s="8">
         <v>0</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>59</v>
+      <c r="I6" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="J6" s="8">
         <v>3600</v>
@@ -1290,11 +1288,11 @@
       <c r="AJ6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
+      <c r="A7" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" s="8">
         <v>1260</v>
@@ -1305,8 +1303,8 @@
       <c r="E7" s="8">
         <v>1</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>15</v>
+      <c r="F7" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="G7" s="8">
         <v>1</v>
@@ -1314,8 +1312,8 @@
       <c r="H7" s="8">
         <v>0</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>59</v>
+      <c r="I7" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="J7" s="8">
         <v>3600</v>
@@ -1354,11 +1352,11 @@
       <c r="AJ7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="7" t="s">
-        <v>13</v>
+      <c r="A8" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="8">
         <v>1260</v>
@@ -1369,8 +1367,8 @@
       <c r="E8" s="8">
         <v>1</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>15</v>
+      <c r="F8" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="G8" s="8">
         <v>1</v>
@@ -1378,8 +1376,8 @@
       <c r="H8" s="8">
         <v>0</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>59</v>
+      <c r="I8" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="J8" s="8">
         <v>3600</v>
@@ -1418,11 +1416,11 @@
       <c r="AJ8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="7" t="s">
-        <v>14</v>
+      <c r="A9" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" s="8">
         <v>1260</v>
@@ -1433,8 +1431,8 @@
       <c r="E9" s="8">
         <v>1</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>15</v>
+      <c r="F9" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="G9" s="8">
         <v>1</v>
@@ -1442,8 +1440,8 @@
       <c r="H9" s="8">
         <v>0</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>59</v>
+      <c r="I9" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="J9" s="8">
         <v>3600</v>
@@ -1482,11 +1480,11 @@
       <c r="AJ9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="7" t="s">
-        <v>15</v>
+      <c r="A10" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" s="8">
         <v>54</v>
@@ -1497,8 +1495,8 @@
       <c r="E10" s="8">
         <v>1</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>68</v>
+      <c r="F10" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="G10" s="8">
         <v>1</v>
@@ -1506,8 +1504,8 @@
       <c r="H10" s="8">
         <v>0</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>59</v>
+      <c r="I10" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="J10" s="8">
         <v>3600</v>
@@ -1546,11 +1544,11 @@
       <c r="AJ10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="7" t="s">
-        <v>16</v>
+      <c r="A11" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C11" s="8">
         <v>3420</v>
@@ -1561,8 +1559,8 @@
       <c r="E11" s="8">
         <v>1</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>70</v>
+      <c r="F11" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="G11" s="8">
         <v>1</v>
@@ -1570,8 +1568,8 @@
       <c r="H11" s="8">
         <v>0</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>59</v>
+      <c r="I11" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="J11" s="8">
         <v>3600</v>
@@ -1585,7 +1583,7 @@
       <c r="M11" s="8">
         <v>1</v>
       </c>
-      <c r="N11" s="7"/>
+      <c r="N11" s="6"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1610,11 +1608,11 @@
       <c r="AJ11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="7" t="s">
-        <v>17</v>
+      <c r="A12" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C12" s="8">
         <v>3420</v>
@@ -1625,8 +1623,8 @@
       <c r="E12" s="8">
         <v>1</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>70</v>
+      <c r="F12" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="G12" s="8">
         <v>1</v>
@@ -1634,8 +1632,8 @@
       <c r="H12" s="8">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>59</v>
+      <c r="I12" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="J12" s="8">
         <v>3600</v>
@@ -1649,7 +1647,7 @@
       <c r="M12" s="8">
         <v>1</v>
       </c>
-      <c r="N12" s="7"/>
+      <c r="N12" s="6"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1674,11 +1672,11 @@
       <c r="AJ12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="7" t="s">
-        <v>18</v>
+      <c r="A13" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" s="8">
         <v>3420</v>
@@ -1689,8 +1687,8 @@
       <c r="E13" s="8">
         <v>1</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
+      <c r="F13" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="G13" s="8">
         <v>1</v>
@@ -1698,8 +1696,8 @@
       <c r="H13" s="8">
         <v>0</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>59</v>
+      <c r="I13" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="J13" s="8">
         <v>3600</v>
@@ -1713,7 +1711,7 @@
       <c r="M13" s="8">
         <v>1</v>
       </c>
-      <c r="N13" s="7"/>
+      <c r="N13" s="6"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1738,11 +1736,11 @@
       <c r="AJ13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="7" t="s">
-        <v>19</v>
+      <c r="A14" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14" s="8">
         <v>3420</v>
@@ -1753,8 +1751,8 @@
       <c r="E14" s="8">
         <v>1</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>70</v>
+      <c r="F14" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="G14" s="8">
         <v>1</v>
@@ -1762,8 +1760,8 @@
       <c r="H14" s="8">
         <v>0</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>59</v>
+      <c r="I14" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="J14" s="8">
         <v>3600</v>
@@ -1777,7 +1775,7 @@
       <c r="M14" s="8">
         <v>1</v>
       </c>
-      <c r="N14" s="7"/>
+      <c r="N14" s="6"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1802,11 +1800,11 @@
       <c r="AJ14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="7" t="s">
-        <v>20</v>
+      <c r="A15" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C15" s="8">
         <v>3420</v>
@@ -1817,8 +1815,8 @@
       <c r="E15" s="8">
         <v>1</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>70</v>
+      <c r="F15" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="G15" s="8">
         <v>1</v>
@@ -1826,8 +1824,8 @@
       <c r="H15" s="8">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>59</v>
+      <c r="I15" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="J15" s="8">
         <v>3600</v>
@@ -1841,7 +1839,7 @@
       <c r="M15" s="8">
         <v>1</v>
       </c>
-      <c r="N15" s="7"/>
+      <c r="N15" s="6"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -1866,11 +1864,11 @@
       <c r="AJ15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
-      <c r="A16" s="7" t="s">
-        <v>21</v>
+      <c r="A16" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" s="8">
         <v>3420</v>
@@ -1881,8 +1879,8 @@
       <c r="E16" s="8">
         <v>1</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>70</v>
+      <c r="F16" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="G16" s="8">
         <v>1</v>
@@ -1890,8 +1888,8 @@
       <c r="H16" s="8">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>59</v>
+      <c r="I16" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="J16" s="8">
         <v>3600</v>
@@ -1905,7 +1903,7 @@
       <c r="M16" s="8">
         <v>1</v>
       </c>
-      <c r="N16" s="7"/>
+      <c r="N16" s="6"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -19739,30 +19737,30 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="17"/>
       <c r="B3" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="16">
         <v>3600</v>
@@ -19770,10 +19768,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="16">
         <v>1</v>
@@ -19782,7 +19780,7 @@
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="17"/>
       <c r="B5" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="16">
         <v>0</v>
@@ -19791,16 +19789,16 @@
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="17"/>
       <c r="B6" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="17"/>
       <c r="B7" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="16">
         <v>1</v>
@@ -19809,7 +19807,7 @@
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="17"/>
       <c r="B8" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="16">
         <v>1</v>
@@ -19817,40 +19815,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="17"/>
       <c r="B10" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="17"/>
       <c r="B11" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="19"/>
       <c r="B13" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="16">
         <v>3</v>
@@ -19858,10 +19856,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="16">
         <v>1</v>
@@ -19870,7 +19868,7 @@
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="21"/>
       <c r="B15" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>1</v>
@@ -19893,149 +19891,201 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="9" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="10.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7">
         <v>2052</v>
       </c>
+      <c r="C3" s="8">
+        <v>2052</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="8">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7">
         <v>2052</v>
       </c>
+      <c r="C4" s="8">
+        <v>2052</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8">
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7">
         <v>1260</v>
       </c>
+      <c r="C5" s="8">
+        <v>1260</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7">
         <v>1260</v>
       </c>
+      <c r="C6" s="8">
+        <v>1260</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="8">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="7">
         <v>1260</v>
       </c>
+      <c r="C7" s="8">
+        <v>1260</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7">
         <v>1260</v>
       </c>
+      <c r="C8" s="8">
+        <v>1260</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="8">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7">
         <v>1260</v>
       </c>
+      <c r="C9" s="8">
+        <v>1260</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="8">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7">
         <v>1260</v>
       </c>
+      <c r="C10" s="8">
+        <v>1260</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8">
+      <c r="A11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="7">
         <v>54</v>
       </c>
+      <c r="C11" s="8">
+        <v>54</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="8">
+      <c r="A12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="7">
         <v>3420</v>
       </c>
+      <c r="C12" s="8">
+        <v>3420</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="8">
+      <c r="A13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="7">
         <v>3420</v>
       </c>
+      <c r="C13" s="8">
+        <v>3420</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="8">
+      <c r="A14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="7">
         <v>3420</v>
       </c>
+      <c r="C14" s="8">
+        <v>3420</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="A15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="7">
         <v>3420</v>
       </c>
+      <c r="C15" s="8">
+        <v>3420</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="8">
+      <c r="A16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="7">
         <v>3420</v>
       </c>
+      <c r="C16" s="8">
+        <v>3420</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
-      <c r="A17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="8">
+      <c r="A17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3420</v>
+      </c>
+      <c r="C17" s="8">
         <v>3420</v>
       </c>
     </row>

--- a/LineData.xlsx
+++ b/LineData.xlsx
@@ -1,25 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://faurecia-my.sharepoint.com/personal/ludovic_danis_forvia_com/Documents/Documents/Code/PRODynamics/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{182EB87D-456E-4844-9391-868012CCD671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Line Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Config" sheetId="2" r:id="rId2"/>
-    <sheet name="Multi-Ref" sheetId="3" r:id="rId3"/>
-    <sheet name="Assets" sheetId="4" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="Line Data"/>
+    <sheet r:id="rId2" sheetId="2" name="Config"/>
+    <sheet r:id="rId3" sheetId="3" name="Multi-Ref"/>
+    <sheet r:id="rId4" sheetId="4" name="Assets"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -45,6 +38,9 @@
   </si>
   <si>
     <t>Input</t>
+  </si>
+  <si>
+    <t>100-200</t>
   </si>
   <si>
     <t>M1</t>
@@ -170,13 +166,13 @@
     <t>MTTR</t>
   </si>
   <si>
-    <t>Robot Transport Time IN</t>
+    <t>Transport Time</t>
   </si>
   <si>
     <t>Transport Order</t>
   </si>
   <si>
-    <t>Robot Assignment</t>
+    <t>Transporter Assignment</t>
   </si>
   <si>
     <t xml:space="preserve">Same station as </t>
@@ -232,15 +228,13 @@
   <si>
     <t>Defuelling 6</t>
   </si>
-  <si>
-    <t>100-200</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +248,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -264,11 +264,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4C7E7"/>
+        <fgColor rgb="FFb4c7e7"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -303,34 +303,34 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -339,7 +339,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -398,21 +398,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -428,442 +413,127 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="27">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:I3" totalsRowShown="0" dataDxfId="13">
-  <autoFilter ref="A1:I3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Machine" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Buffer Capacity" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Initial Buffer" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="MTTF" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MTTR" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Robot Transport Time IN" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Transport Order" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C15" displayName="Tableau2" name="Tableau2" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:C15"/>
+  <tableColumns count="3">
+    <tableColumn name="Machine" id="1"/>
+    <tableColumn name="Ref A1" id="2"/>
+    <tableColumn name="Ref B" id="3"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau2" displayName="Tableau2" ref="A1:C15" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A1:C15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Machine" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Ref A1" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Ref B" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I3" displayName="Table2" name="Table2" id="2" totalsRowShown="0">
+  <autoFilter ref="A1:I3"/>
+  <tableColumns count="9">
+    <tableColumn name="Machine" id="1"/>
+    <tableColumn name="Description" id="2"/>
+    <tableColumn name="Link" id="3"/>
+    <tableColumn name="Buffer Capacity" id="4"/>
+    <tableColumn name="Initial Buffer" id="5"/>
+    <tableColumn name="MTTF" id="6"/>
+    <tableColumn name="MTTR" id="7"/>
+    <tableColumn name="Transport Time" id="8"/>
+    <tableColumn name="Transport Order" id="9"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
 </file>
 
@@ -872,10 +542,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -913,71 +583,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1005,7 +675,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1028,11 +698,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1041,13 +711,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1057,7 +727,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1066,7 +736,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1075,7 +745,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1083,10 +753,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1151,585 +821,585 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:K481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="2" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="40.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="25" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="26" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="25" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="25" width="27.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="25" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="25" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="26" width="14.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="G1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="H1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="I1" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="J1" s="22" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="K1" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="23">
+        <v>1</v>
+      </c>
+      <c r="E2" s="23">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="23">
+        <v>3600</v>
+      </c>
+      <c r="H2" s="23">
+        <v>100</v>
+      </c>
+      <c r="I2" s="23">
+        <v>1</v>
+      </c>
+      <c r="J2" s="23">
+        <v>1</v>
+      </c>
+      <c r="K2" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="23">
+        <v>1</v>
+      </c>
+      <c r="E3" s="23">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="23">
+        <v>3600</v>
+      </c>
+      <c r="H3" s="23">
+        <v>100</v>
+      </c>
+      <c r="I3" s="23">
+        <v>2</v>
+      </c>
+      <c r="J3" s="23">
+        <v>1</v>
+      </c>
+      <c r="K3" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="23">
+        <v>1</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="23">
+        <v>3600</v>
+      </c>
+      <c r="H4" s="23">
+        <v>180</v>
+      </c>
+      <c r="I4" s="23">
+        <v>3</v>
+      </c>
+      <c r="J4" s="23">
+        <v>1</v>
+      </c>
+      <c r="K4" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1</v>
+      </c>
+      <c r="E5" s="23">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="23">
+        <v>3600</v>
+      </c>
+      <c r="H5" s="23">
+        <v>180</v>
+      </c>
+      <c r="I5" s="23">
+        <v>4</v>
+      </c>
+      <c r="J5" s="23">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="23">
+        <v>1</v>
+      </c>
+      <c r="E6" s="23">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="23">
+        <v>3600</v>
+      </c>
+      <c r="H6" s="23">
+        <v>220</v>
+      </c>
+      <c r="I6" s="23">
+        <v>5</v>
+      </c>
+      <c r="J6" s="23">
+        <v>1</v>
+      </c>
+      <c r="K6" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="23">
+        <v>1</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="23">
+        <v>3600</v>
+      </c>
+      <c r="H7" s="23">
+        <v>220</v>
+      </c>
+      <c r="I7" s="23">
+        <v>6</v>
+      </c>
+      <c r="J7" s="23">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="23">
+        <v>1</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="23">
+        <v>3600</v>
+      </c>
+      <c r="H8" s="23">
+        <v>-250</v>
+      </c>
+      <c r="I8" s="23">
         <v>7</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="18">
+      <c r="J8" s="23">
         <v>1</v>
       </c>
-      <c r="E2" s="18">
+      <c r="K8" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="23">
+        <v>1</v>
+      </c>
+      <c r="E9" s="23">
         <v>0</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="18">
+      <c r="F9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="23">
         <v>3600</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18">
+      <c r="H9" s="23">
+        <v>180</v>
+      </c>
+      <c r="I9" s="23">
+        <v>8</v>
+      </c>
+      <c r="J9" s="23">
         <v>1</v>
       </c>
-      <c r="J2" s="18">
+      <c r="K9" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="23">
         <v>1</v>
       </c>
-      <c r="K2" s="18"/>
-    </row>
-    <row r="3" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="E10" s="23">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="18">
+      <c r="G10" s="23">
+        <v>3600</v>
+      </c>
+      <c r="H10" s="23">
+        <v>180</v>
+      </c>
+      <c r="I10" s="23">
+        <v>9</v>
+      </c>
+      <c r="J10" s="23">
         <v>1</v>
       </c>
-      <c r="E3" s="18">
+      <c r="K10" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="23">
+        <v>1</v>
+      </c>
+      <c r="E11" s="23">
         <v>0</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="18">
+      <c r="F11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="23">
         <v>3600</v>
       </c>
-      <c r="H3" s="18">
-        <v>100</v>
-      </c>
-      <c r="I3" s="18">
-        <v>2</v>
-      </c>
-      <c r="J3" s="18">
+      <c r="H11" s="23">
+        <v>220</v>
+      </c>
+      <c r="I11" s="23">
+        <v>10</v>
+      </c>
+      <c r="J11" s="23">
         <v>1</v>
       </c>
-      <c r="K3" s="18"/>
-    </row>
-    <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="K11" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="23">
+        <v>1</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="23">
+        <v>3600</v>
+      </c>
+      <c r="H12" s="23">
+        <v>220</v>
+      </c>
+      <c r="I12" s="23">
+        <v>11</v>
+      </c>
+      <c r="J12" s="23">
+        <v>1</v>
+      </c>
+      <c r="K12" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="23">
+        <v>1</v>
+      </c>
+      <c r="E13" s="23">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="23">
+        <v>3600</v>
+      </c>
+      <c r="H13" s="23">
+        <v>220</v>
+      </c>
+      <c r="I13" s="23">
+        <v>12</v>
+      </c>
+      <c r="J13" s="23">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="23">
+        <v>1</v>
+      </c>
+      <c r="E14" s="23">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="23">
+        <v>3600</v>
+      </c>
+      <c r="H14" s="23">
+        <v>220</v>
+      </c>
+      <c r="I14" s="23">
         <v>13</v>
       </c>
-      <c r="D4" s="18">
+      <c r="J14" s="23">
         <v>1</v>
       </c>
-      <c r="E4" s="18">
-        <v>0</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="18">
-        <v>3600</v>
-      </c>
-      <c r="H4" s="18">
-        <v>180</v>
-      </c>
-      <c r="I4" s="18">
-        <v>3</v>
-      </c>
-      <c r="J4" s="18">
-        <v>1</v>
-      </c>
-      <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="18">
-        <v>1</v>
-      </c>
-      <c r="E5" s="18">
-        <v>0</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="18">
-        <v>3600</v>
-      </c>
-      <c r="H5" s="18">
-        <v>180</v>
-      </c>
-      <c r="I5" s="18">
-        <v>4</v>
-      </c>
-      <c r="J5" s="18">
-        <v>1</v>
-      </c>
-      <c r="K5" s="18"/>
-    </row>
-    <row r="6" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="18">
-        <v>1</v>
-      </c>
-      <c r="E6" s="18">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="18">
-        <v>3600</v>
-      </c>
-      <c r="H6" s="18">
-        <v>220</v>
-      </c>
-      <c r="I6" s="18">
-        <v>5</v>
-      </c>
-      <c r="J6" s="18">
-        <v>1</v>
-      </c>
-      <c r="K6" s="18"/>
-    </row>
-    <row r="7" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="18">
-        <v>1</v>
-      </c>
-      <c r="E7" s="18">
-        <v>0</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="18">
-        <v>3600</v>
-      </c>
-      <c r="H7" s="18">
-        <v>220</v>
-      </c>
-      <c r="I7" s="18">
-        <v>6</v>
-      </c>
-      <c r="J7" s="18">
-        <v>1</v>
-      </c>
-      <c r="K7" s="18"/>
-    </row>
-    <row r="8" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="18">
-        <v>1</v>
-      </c>
-      <c r="E8" s="18">
-        <v>0</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="18">
-        <v>3600</v>
-      </c>
-      <c r="H8" s="18">
-        <v>-250</v>
-      </c>
-      <c r="I8" s="18">
-        <v>7</v>
-      </c>
-      <c r="J8" s="18">
-        <v>1</v>
-      </c>
-      <c r="K8" s="18"/>
-    </row>
-    <row r="9" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="18">
-        <v>1</v>
-      </c>
-      <c r="E9" s="18">
-        <v>0</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="18">
-        <v>3600</v>
-      </c>
-      <c r="H9" s="18">
-        <v>180</v>
-      </c>
-      <c r="I9" s="18">
-        <v>8</v>
-      </c>
-      <c r="J9" s="18">
-        <v>1</v>
-      </c>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="18">
-        <v>1</v>
-      </c>
-      <c r="E10" s="18">
-        <v>0</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="18">
-        <v>3600</v>
-      </c>
-      <c r="H10" s="18">
-        <v>180</v>
-      </c>
-      <c r="I10" s="18">
-        <v>9</v>
-      </c>
-      <c r="J10" s="18">
-        <v>1</v>
-      </c>
-      <c r="K10" s="18"/>
-    </row>
-    <row r="11" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="18">
-        <v>1</v>
-      </c>
-      <c r="E11" s="18">
-        <v>0</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="18">
-        <v>3600</v>
-      </c>
-      <c r="H11" s="18">
-        <v>220</v>
-      </c>
-      <c r="I11" s="18">
-        <v>10</v>
-      </c>
-      <c r="J11" s="18">
-        <v>1</v>
-      </c>
-      <c r="K11" s="18"/>
-    </row>
-    <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="18">
-        <v>1</v>
-      </c>
-      <c r="E12" s="18">
-        <v>0</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="18">
-        <v>3600</v>
-      </c>
-      <c r="H12" s="18">
-        <v>220</v>
-      </c>
-      <c r="I12" s="18">
-        <v>11</v>
-      </c>
-      <c r="J12" s="18">
-        <v>1</v>
-      </c>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="18">
-        <v>1</v>
-      </c>
-      <c r="E13" s="18">
-        <v>0</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="18">
-        <v>3600</v>
-      </c>
-      <c r="H13" s="18">
-        <v>220</v>
-      </c>
-      <c r="I13" s="18">
-        <v>12</v>
-      </c>
-      <c r="J13" s="18">
-        <v>1</v>
-      </c>
-      <c r="K13" s="18"/>
-    </row>
-    <row r="14" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="18">
-        <v>1</v>
-      </c>
-      <c r="E14" s="18">
-        <v>0</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="18">
-        <v>3600</v>
-      </c>
-      <c r="H14" s="18">
-        <v>220</v>
-      </c>
-      <c r="I14" s="18">
-        <v>13</v>
-      </c>
-      <c r="J14" s="18">
-        <v>1</v>
-      </c>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="14"/>
+      <c r="F15" s="24"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="14"/>
+      <c r="F16" s="24"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="14"/>
+      <c r="F17" s="24"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="14"/>
+      <c r="F18" s="24"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="14"/>
+      <c r="F19" s="24"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="4"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="14"/>
+      <c r="F20" s="24"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K20" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="14"/>
+      <c r="F21" s="24"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K21" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="1"/>
@@ -1740,35 +1410,35 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="14"/>
+      <c r="F23" s="24"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="14"/>
+      <c r="F24" s="24"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1781,111 +1451,111 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="14"/>
+      <c r="F26" s="24"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="14"/>
+      <c r="F27" s="24"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="14"/>
-    </row>
-    <row r="28" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="14"/>
+      <c r="F28" s="24"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="14"/>
-    </row>
-    <row r="29" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="14"/>
+      <c r="F29" s="24"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="14"/>
-    </row>
-    <row r="30" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K29" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="14"/>
+      <c r="F30" s="24"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="14"/>
-    </row>
-    <row r="31" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K30" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="14"/>
+      <c r="F31" s="24"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="14"/>
-    </row>
-    <row r="32" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="4"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="14"/>
+      <c r="F32" s="24"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="14"/>
-    </row>
-    <row r="33" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K32" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="14"/>
+      <c r="F33" s="24"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="14"/>
-    </row>
-    <row r="34" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="1"/>
@@ -1896,35 +1566,35 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="14"/>
-    </row>
-    <row r="35" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K34" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="1"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="14"/>
+      <c r="F35" s="24"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="14"/>
-    </row>
-    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K35" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="14"/>
+      <c r="F36" s="24"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1937,111 +1607,111 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="14"/>
+      <c r="F38" s="24"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="14"/>
+      <c r="F39" s="24"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="14"/>
-    </row>
-    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K39" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="14"/>
+      <c r="F40" s="24"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="14"/>
-    </row>
-    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K40" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="14"/>
+      <c r="F41" s="24"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="14"/>
-    </row>
-    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K41" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="14"/>
+      <c r="F42" s="24"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="14"/>
-    </row>
-    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K42" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="14"/>
+      <c r="F43" s="24"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="14"/>
-    </row>
-    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K43" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="4"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="14"/>
+      <c r="F44" s="24"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="14"/>
-    </row>
-    <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K44" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="14"/>
+      <c r="F45" s="24"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="14"/>
-    </row>
-    <row r="46" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K45" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="1"/>
@@ -2052,35 +1722,35 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="14"/>
-    </row>
-    <row r="47" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K46" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="1"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="14"/>
+      <c r="F47" s="24"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="14"/>
-    </row>
-    <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K47" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="14"/>
+      <c r="F48" s="24"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2093,111 +1763,111 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="14"/>
+      <c r="F50" s="24"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="14"/>
+      <c r="F51" s="24"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="14"/>
-    </row>
-    <row r="52" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K51" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="14"/>
+      <c r="F52" s="24"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="14"/>
-    </row>
-    <row r="53" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K52" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="14"/>
+      <c r="F53" s="24"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="14"/>
-    </row>
-    <row r="54" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K53" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="14"/>
+      <c r="F54" s="24"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="14"/>
-    </row>
-    <row r="55" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K54" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="14"/>
+      <c r="F55" s="24"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="14"/>
-    </row>
-    <row r="56" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K55" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="4"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="14"/>
+      <c r="F56" s="24"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="14"/>
-    </row>
-    <row r="57" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K56" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="14"/>
+      <c r="F57" s="24"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="14"/>
-    </row>
-    <row r="58" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K57" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="1"/>
@@ -2208,35 +1878,35 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="14"/>
-    </row>
-    <row r="59" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K58" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="1"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="14"/>
+      <c r="F59" s="24"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="14"/>
-    </row>
-    <row r="60" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K59" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="14"/>
+      <c r="F60" s="24"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2249,111 +1919,111 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
     </row>
-    <row r="62" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="14"/>
+      <c r="F62" s="24"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="14"/>
+      <c r="F63" s="24"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="14"/>
-    </row>
-    <row r="64" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K63" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="14"/>
+      <c r="F64" s="24"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="14"/>
-    </row>
-    <row r="65" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K64" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="14"/>
+      <c r="F65" s="24"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="14"/>
-    </row>
-    <row r="66" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K65" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="14"/>
+      <c r="F66" s="24"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="14"/>
-    </row>
-    <row r="67" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K66" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="14"/>
+      <c r="F67" s="24"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="K67" s="14"/>
-    </row>
-    <row r="68" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K67" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="4"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="14"/>
+      <c r="F68" s="24"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="K68" s="14"/>
-    </row>
-    <row r="69" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K68" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="14"/>
+      <c r="F69" s="24"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="14"/>
-    </row>
-    <row r="70" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K69" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="1"/>
@@ -2364,35 +2034,35 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-      <c r="K70" s="14"/>
-    </row>
-    <row r="71" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K70" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="1"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="14"/>
+      <c r="F71" s="24"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
-      <c r="K71" s="14"/>
-    </row>
-    <row r="72" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K71" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
-      <c r="F72" s="14"/>
+      <c r="F72" s="24"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
     </row>
-    <row r="73" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2405,111 +2075,111 @@
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
     </row>
-    <row r="74" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
-      <c r="F74" s="14"/>
+      <c r="F74" s="24"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
-      <c r="F75" s="14"/>
+      <c r="F75" s="24"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
-      <c r="K75" s="14"/>
-    </row>
-    <row r="76" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K75" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
-      <c r="F76" s="14"/>
+      <c r="F76" s="24"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-      <c r="K76" s="14"/>
-    </row>
-    <row r="77" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K76" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
-      <c r="F77" s="14"/>
+      <c r="F77" s="24"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="14"/>
-    </row>
-    <row r="78" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K77" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
-      <c r="F78" s="14"/>
+      <c r="F78" s="24"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="14"/>
-    </row>
-    <row r="79" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K78" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
-      <c r="F79" s="14"/>
+      <c r="F79" s="24"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="K79" s="14"/>
-    </row>
-    <row r="80" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K79" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="4"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
-      <c r="F80" s="14"/>
+      <c r="F80" s="24"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="14"/>
-    </row>
-    <row r="81" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K80" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
-      <c r="F81" s="14"/>
+      <c r="F81" s="24"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="14"/>
-    </row>
-    <row r="82" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K81" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="1"/>
@@ -2520,35 +2190,35 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="14"/>
-    </row>
-    <row r="83" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K82" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="1"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
-      <c r="F83" s="14"/>
+      <c r="F83" s="24"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="K83" s="14"/>
-    </row>
-    <row r="84" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K83" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
-      <c r="F84" s="14"/>
+      <c r="F84" s="24"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
     </row>
-    <row r="85" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2561,111 +2231,111 @@
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
     </row>
-    <row r="86" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
-      <c r="F86" s="14"/>
+      <c r="F86" s="24"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
     </row>
-    <row r="87" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
-      <c r="F87" s="14"/>
+      <c r="F87" s="24"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="K87" s="14"/>
-    </row>
-    <row r="88" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K87" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
-      <c r="F88" s="14"/>
+      <c r="F88" s="24"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-      <c r="K88" s="14"/>
-    </row>
-    <row r="89" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K88" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
-      <c r="F89" s="14"/>
+      <c r="F89" s="24"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="K89" s="14"/>
-    </row>
-    <row r="90" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K89" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
-      <c r="F90" s="14"/>
+      <c r="F90" s="24"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="14"/>
-    </row>
-    <row r="91" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K90" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
-      <c r="F91" s="14"/>
+      <c r="F91" s="24"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
-      <c r="K91" s="14"/>
-    </row>
-    <row r="92" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K91" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="4"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
-      <c r="F92" s="14"/>
+      <c r="F92" s="24"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-      <c r="K92" s="14"/>
-    </row>
-    <row r="93" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K92" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
-      <c r="F93" s="14"/>
+      <c r="F93" s="24"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
-      <c r="K93" s="14"/>
-    </row>
-    <row r="94" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K93" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="1"/>
@@ -2676,35 +2346,35 @@
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
-      <c r="K94" s="14"/>
-    </row>
-    <row r="95" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K94" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="1"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="14"/>
+      <c r="F95" s="24"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
-      <c r="K95" s="14"/>
-    </row>
-    <row r="96" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K95" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
-      <c r="F96" s="14"/>
+      <c r="F96" s="24"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
     </row>
-    <row r="97" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2717,111 +2387,111 @@
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
     </row>
-    <row r="98" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
-      <c r="F98" s="14"/>
+      <c r="F98" s="24"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
     </row>
-    <row r="99" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
-      <c r="F99" s="14"/>
+      <c r="F99" s="24"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
-      <c r="K99" s="14"/>
-    </row>
-    <row r="100" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K99" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
-      <c r="F100" s="14"/>
+      <c r="F100" s="24"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
-      <c r="K100" s="14"/>
-    </row>
-    <row r="101" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K100" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
-      <c r="F101" s="14"/>
+      <c r="F101" s="24"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
-      <c r="K101" s="14"/>
-    </row>
-    <row r="102" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K101" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
-      <c r="F102" s="14"/>
+      <c r="F102" s="24"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
-      <c r="K102" s="14"/>
-    </row>
-    <row r="103" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K102" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
-      <c r="F103" s="14"/>
+      <c r="F103" s="24"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
-      <c r="K103" s="14"/>
-    </row>
-    <row r="104" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K103" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="4"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
-      <c r="F104" s="14"/>
+      <c r="F104" s="24"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
-      <c r="K104" s="14"/>
-    </row>
-    <row r="105" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K104" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
-      <c r="F105" s="14"/>
+      <c r="F105" s="24"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
-      <c r="K105" s="14"/>
-    </row>
-    <row r="106" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K105" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="1"/>
@@ -2832,35 +2502,35 @@
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
-      <c r="K106" s="14"/>
-    </row>
-    <row r="107" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K106" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="1"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
-      <c r="F107" s="14"/>
+      <c r="F107" s="24"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
-      <c r="K107" s="14"/>
-    </row>
-    <row r="108" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K107" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
-      <c r="F108" s="14"/>
+      <c r="F108" s="24"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
     </row>
-    <row r="109" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2873,111 +2543,111 @@
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
     </row>
-    <row r="110" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
-      <c r="F110" s="14"/>
+      <c r="F110" s="24"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
     </row>
-    <row r="111" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
-      <c r="F111" s="14"/>
+      <c r="F111" s="24"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
-      <c r="K111" s="14"/>
-    </row>
-    <row r="112" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K111" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
-      <c r="F112" s="14"/>
+      <c r="F112" s="24"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
-      <c r="K112" s="14"/>
-    </row>
-    <row r="113" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K112" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
-      <c r="F113" s="14"/>
+      <c r="F113" s="24"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
-      <c r="K113" s="14"/>
-    </row>
-    <row r="114" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K113" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
-      <c r="F114" s="14"/>
+      <c r="F114" s="24"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
-      <c r="K114" s="14"/>
-    </row>
-    <row r="115" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K114" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
-      <c r="F115" s="14"/>
+      <c r="F115" s="24"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
-      <c r="K115" s="14"/>
-    </row>
-    <row r="116" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K115" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="4"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
-      <c r="F116" s="14"/>
+      <c r="F116" s="24"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
-      <c r="K116" s="14"/>
-    </row>
-    <row r="117" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K116" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
-      <c r="F117" s="14"/>
+      <c r="F117" s="24"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
-      <c r="K117" s="14"/>
-    </row>
-    <row r="118" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K117" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="1"/>
@@ -2988,35 +2658,35 @@
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
-      <c r="K118" s="14"/>
-    </row>
-    <row r="119" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K118" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="1"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
-      <c r="F119" s="14"/>
+      <c r="F119" s="24"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
-      <c r="K119" s="14"/>
-    </row>
-    <row r="120" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K119" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
-      <c r="F120" s="14"/>
+      <c r="F120" s="24"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
     </row>
-    <row r="121" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3029,111 +2699,111 @@
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
     </row>
-    <row r="122" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
-      <c r="F122" s="14"/>
+      <c r="F122" s="24"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
     </row>
-    <row r="123" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
-      <c r="F123" s="14"/>
+      <c r="F123" s="24"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
-      <c r="K123" s="14"/>
-    </row>
-    <row r="124" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K123" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
-      <c r="F124" s="14"/>
+      <c r="F124" s="24"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
-      <c r="K124" s="14"/>
-    </row>
-    <row r="125" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K124" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
-      <c r="F125" s="14"/>
+      <c r="F125" s="24"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
-      <c r="K125" s="14"/>
-    </row>
-    <row r="126" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K125" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
-      <c r="F126" s="14"/>
+      <c r="F126" s="24"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
-      <c r="K126" s="14"/>
-    </row>
-    <row r="127" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K126" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
-      <c r="F127" s="14"/>
+      <c r="F127" s="24"/>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
-      <c r="K127" s="14"/>
-    </row>
-    <row r="128" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K127" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="4"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
-      <c r="F128" s="14"/>
+      <c r="F128" s="24"/>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
-      <c r="K128" s="14"/>
-    </row>
-    <row r="129" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K128" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
-      <c r="F129" s="14"/>
+      <c r="F129" s="24"/>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
-      <c r="K129" s="14"/>
-    </row>
-    <row r="130" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K129" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="1"/>
@@ -3144,35 +2814,35 @@
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
-      <c r="K130" s="14"/>
-    </row>
-    <row r="131" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K130" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="1"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
-      <c r="F131" s="14"/>
+      <c r="F131" s="24"/>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
-      <c r="K131" s="14"/>
-    </row>
-    <row r="132" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K131" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
-      <c r="F132" s="14"/>
+      <c r="F132" s="24"/>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
     </row>
-    <row r="133" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -3185,111 +2855,111 @@
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
     </row>
-    <row r="134" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
-      <c r="F134" s="14"/>
+      <c r="F134" s="24"/>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
     </row>
-    <row r="135" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
-      <c r="F135" s="14"/>
+      <c r="F135" s="24"/>
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
-      <c r="K135" s="14"/>
-    </row>
-    <row r="136" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K135" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
-      <c r="F136" s="14"/>
+      <c r="F136" s="24"/>
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
-      <c r="K136" s="14"/>
-    </row>
-    <row r="137" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K136" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
-      <c r="F137" s="14"/>
+      <c r="F137" s="24"/>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
-      <c r="K137" s="14"/>
-    </row>
-    <row r="138" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K137" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
-      <c r="F138" s="14"/>
+      <c r="F138" s="24"/>
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
-      <c r="K138" s="14"/>
-    </row>
-    <row r="139" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K138" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
-      <c r="F139" s="14"/>
+      <c r="F139" s="24"/>
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
-      <c r="K139" s="14"/>
-    </row>
-    <row r="140" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K139" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="4"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
-      <c r="F140" s="14"/>
+      <c r="F140" s="24"/>
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
-      <c r="K140" s="14"/>
-    </row>
-    <row r="141" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K140" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
-      <c r="F141" s="14"/>
+      <c r="F141" s="24"/>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
-      <c r="K141" s="14"/>
-    </row>
-    <row r="142" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K141" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="1"/>
@@ -3300,35 +2970,35 @@
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
-      <c r="K142" s="14"/>
-    </row>
-    <row r="143" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K142" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="1"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
-      <c r="F143" s="14"/>
+      <c r="F143" s="24"/>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
-      <c r="K143" s="14"/>
-    </row>
-    <row r="144" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K143" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
-      <c r="F144" s="14"/>
+      <c r="F144" s="24"/>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
     </row>
-    <row r="145" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -3341,111 +3011,111 @@
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
     </row>
-    <row r="146" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
-      <c r="F146" s="14"/>
+      <c r="F146" s="24"/>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
     </row>
-    <row r="147" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
-      <c r="F147" s="14"/>
+      <c r="F147" s="24"/>
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
-      <c r="K147" s="14"/>
-    </row>
-    <row r="148" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K147" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
-      <c r="F148" s="14"/>
+      <c r="F148" s="24"/>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
-      <c r="K148" s="14"/>
-    </row>
-    <row r="149" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K148" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
-      <c r="F149" s="14"/>
+      <c r="F149" s="24"/>
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
-      <c r="K149" s="14"/>
-    </row>
-    <row r="150" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K149" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
-      <c r="F150" s="14"/>
+      <c r="F150" s="24"/>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
-      <c r="K150" s="14"/>
-    </row>
-    <row r="151" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K150" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
-      <c r="F151" s="14"/>
+      <c r="F151" s="24"/>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
-      <c r="K151" s="14"/>
-    </row>
-    <row r="152" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K151" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="4"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
-      <c r="F152" s="14"/>
+      <c r="F152" s="24"/>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
-      <c r="K152" s="14"/>
-    </row>
-    <row r="153" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K152" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
-      <c r="F153" s="14"/>
+      <c r="F153" s="24"/>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
-      <c r="K153" s="14"/>
-    </row>
-    <row r="154" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K153" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="1"/>
@@ -3456,35 +3126,35 @@
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
-      <c r="K154" s="14"/>
-    </row>
-    <row r="155" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K154" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="1"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
-      <c r="F155" s="14"/>
+      <c r="F155" s="24"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
-      <c r="K155" s="14"/>
-    </row>
-    <row r="156" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K155" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
-      <c r="F156" s="14"/>
+      <c r="F156" s="24"/>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
       <c r="K156" s="4"/>
     </row>
-    <row r="157" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -3497,111 +3167,111 @@
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
     </row>
-    <row r="158" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
-      <c r="F158" s="14"/>
+      <c r="F158" s="24"/>
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
     </row>
-    <row r="159" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
-      <c r="F159" s="14"/>
+      <c r="F159" s="24"/>
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
-      <c r="K159" s="14"/>
-    </row>
-    <row r="160" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K159" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
-      <c r="F160" s="14"/>
+      <c r="F160" s="24"/>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
-      <c r="K160" s="14"/>
-    </row>
-    <row r="161" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K160" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
-      <c r="F161" s="14"/>
+      <c r="F161" s="24"/>
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
-      <c r="K161" s="14"/>
-    </row>
-    <row r="162" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K161" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
-      <c r="F162" s="14"/>
+      <c r="F162" s="24"/>
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
-      <c r="K162" s="14"/>
-    </row>
-    <row r="163" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K162" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
-      <c r="F163" s="14"/>
+      <c r="F163" s="24"/>
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
-      <c r="K163" s="14"/>
-    </row>
-    <row r="164" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K163" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="4"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
-      <c r="F164" s="14"/>
+      <c r="F164" s="24"/>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
-      <c r="K164" s="14"/>
-    </row>
-    <row r="165" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K164" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
-      <c r="F165" s="14"/>
+      <c r="F165" s="24"/>
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
-      <c r="K165" s="14"/>
-    </row>
-    <row r="166" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K165" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="1"/>
@@ -3612,35 +3282,35 @@
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
-      <c r="K166" s="14"/>
-    </row>
-    <row r="167" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K166" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="1"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
-      <c r="F167" s="14"/>
+      <c r="F167" s="24"/>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
-      <c r="K167" s="14"/>
-    </row>
-    <row r="168" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K167" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
-      <c r="F168" s="14"/>
+      <c r="F168" s="24"/>
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
     </row>
-    <row r="169" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -3653,111 +3323,111 @@
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
     </row>
-    <row r="170" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
-      <c r="F170" s="14"/>
+      <c r="F170" s="24"/>
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
       <c r="K170" s="4"/>
     </row>
-    <row r="171" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
-      <c r="F171" s="14"/>
+      <c r="F171" s="24"/>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
-      <c r="K171" s="14"/>
-    </row>
-    <row r="172" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K171" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
-      <c r="F172" s="14"/>
+      <c r="F172" s="24"/>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
-      <c r="K172" s="14"/>
-    </row>
-    <row r="173" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K172" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
-      <c r="F173" s="14"/>
+      <c r="F173" s="24"/>
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
-      <c r="K173" s="14"/>
-    </row>
-    <row r="174" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K173" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
-      <c r="F174" s="14"/>
+      <c r="F174" s="24"/>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
-      <c r="K174" s="14"/>
-    </row>
-    <row r="175" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K174" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
-      <c r="F175" s="14"/>
+      <c r="F175" s="24"/>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
-      <c r="K175" s="14"/>
-    </row>
-    <row r="176" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K175" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="4"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
-      <c r="F176" s="14"/>
+      <c r="F176" s="24"/>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
-      <c r="K176" s="14"/>
-    </row>
-    <row r="177" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K176" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
-      <c r="F177" s="14"/>
+      <c r="F177" s="24"/>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
-      <c r="K177" s="14"/>
-    </row>
-    <row r="178" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K177" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="1"/>
@@ -3768,35 +3438,35 @@
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
-      <c r="K178" s="14"/>
-    </row>
-    <row r="179" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K178" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="1"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
-      <c r="F179" s="14"/>
+      <c r="F179" s="24"/>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
-      <c r="K179" s="14"/>
-    </row>
-    <row r="180" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K179" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
-      <c r="F180" s="14"/>
+      <c r="F180" s="24"/>
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
       <c r="K180" s="4"/>
     </row>
-    <row r="181" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -3809,111 +3479,111 @@
       <c r="J181" s="4"/>
       <c r="K181" s="4"/>
     </row>
-    <row r="182" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
-      <c r="F182" s="14"/>
+      <c r="F182" s="24"/>
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
       <c r="K182" s="4"/>
     </row>
-    <row r="183" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
-      <c r="F183" s="14"/>
+      <c r="F183" s="24"/>
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
-      <c r="K183" s="14"/>
-    </row>
-    <row r="184" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K183" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
-      <c r="F184" s="14"/>
+      <c r="F184" s="24"/>
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
-      <c r="K184" s="14"/>
-    </row>
-    <row r="185" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K184" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
-      <c r="F185" s="14"/>
+      <c r="F185" s="24"/>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
-      <c r="K185" s="14"/>
-    </row>
-    <row r="186" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K185" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
-      <c r="F186" s="14"/>
+      <c r="F186" s="24"/>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
-      <c r="K186" s="14"/>
-    </row>
-    <row r="187" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K186" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
-      <c r="F187" s="14"/>
+      <c r="F187" s="24"/>
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
-      <c r="K187" s="14"/>
-    </row>
-    <row r="188" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K187" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="4"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
-      <c r="F188" s="14"/>
+      <c r="F188" s="24"/>
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
-      <c r="K188" s="14"/>
-    </row>
-    <row r="189" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K188" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
-      <c r="F189" s="14"/>
+      <c r="F189" s="24"/>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
-      <c r="K189" s="14"/>
-    </row>
-    <row r="190" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K189" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="1"/>
@@ -3924,35 +3594,35 @@
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
       <c r="J190" s="4"/>
-      <c r="K190" s="14"/>
-    </row>
-    <row r="191" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K190" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="1"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
-      <c r="F191" s="14"/>
+      <c r="F191" s="24"/>
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
-      <c r="K191" s="14"/>
-    </row>
-    <row r="192" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K191" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
-      <c r="F192" s="14"/>
+      <c r="F192" s="24"/>
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
       <c r="K192" s="4"/>
     </row>
-    <row r="193" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -3965,111 +3635,111 @@
       <c r="J193" s="4"/>
       <c r="K193" s="4"/>
     </row>
-    <row r="194" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
-      <c r="F194" s="14"/>
+      <c r="F194" s="24"/>
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
       <c r="K194" s="4"/>
     </row>
-    <row r="195" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
-      <c r="F195" s="14"/>
+      <c r="F195" s="24"/>
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
-      <c r="K195" s="14"/>
-    </row>
-    <row r="196" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K195" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
-      <c r="F196" s="14"/>
+      <c r="F196" s="24"/>
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
-      <c r="K196" s="14"/>
-    </row>
-    <row r="197" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K196" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
-      <c r="F197" s="14"/>
+      <c r="F197" s="24"/>
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
       <c r="J197" s="4"/>
-      <c r="K197" s="14"/>
-    </row>
-    <row r="198" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K197" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
-      <c r="F198" s="14"/>
+      <c r="F198" s="24"/>
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
-      <c r="K198" s="14"/>
-    </row>
-    <row r="199" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K198" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
-      <c r="F199" s="14"/>
+      <c r="F199" s="24"/>
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
-      <c r="K199" s="14"/>
-    </row>
-    <row r="200" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K199" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="4"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
-      <c r="F200" s="14"/>
+      <c r="F200" s="24"/>
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
-      <c r="K200" s="14"/>
-    </row>
-    <row r="201" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K200" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
-      <c r="F201" s="14"/>
+      <c r="F201" s="24"/>
       <c r="G201" s="4"/>
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
-      <c r="K201" s="14"/>
-    </row>
-    <row r="202" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K201" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="1"/>
@@ -4080,35 +3750,35 @@
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
-      <c r="K202" s="14"/>
-    </row>
-    <row r="203" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K202" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="1"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
-      <c r="F203" s="14"/>
+      <c r="F203" s="24"/>
       <c r="G203" s="4"/>
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
-      <c r="K203" s="14"/>
-    </row>
-    <row r="204" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K203" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
-      <c r="F204" s="14"/>
+      <c r="F204" s="24"/>
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
       <c r="K204" s="4"/>
     </row>
-    <row r="205" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -4121,111 +3791,111 @@
       <c r="J205" s="4"/>
       <c r="K205" s="4"/>
     </row>
-    <row r="206" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
-      <c r="F206" s="14"/>
+      <c r="F206" s="24"/>
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
       <c r="K206" s="4"/>
     </row>
-    <row r="207" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
-      <c r="F207" s="14"/>
+      <c r="F207" s="24"/>
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
-      <c r="K207" s="14"/>
-    </row>
-    <row r="208" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K207" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
-      <c r="F208" s="14"/>
+      <c r="F208" s="24"/>
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
-      <c r="K208" s="14"/>
-    </row>
-    <row r="209" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K208" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
-      <c r="F209" s="14"/>
+      <c r="F209" s="24"/>
       <c r="G209" s="4"/>
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
-      <c r="K209" s="14"/>
-    </row>
-    <row r="210" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K209" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
-      <c r="F210" s="14"/>
+      <c r="F210" s="24"/>
       <c r="G210" s="4"/>
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
-      <c r="K210" s="14"/>
-    </row>
-    <row r="211" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K210" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
-      <c r="F211" s="14"/>
+      <c r="F211" s="24"/>
       <c r="G211" s="4"/>
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
       <c r="J211" s="4"/>
-      <c r="K211" s="14"/>
-    </row>
-    <row r="212" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K211" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="4"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
-      <c r="F212" s="14"/>
+      <c r="F212" s="24"/>
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
-      <c r="K212" s="14"/>
-    </row>
-    <row r="213" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K212" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
-      <c r="F213" s="14"/>
+      <c r="F213" s="24"/>
       <c r="G213" s="4"/>
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
       <c r="J213" s="4"/>
-      <c r="K213" s="14"/>
-    </row>
-    <row r="214" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K213" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="1"/>
@@ -4236,35 +3906,35 @@
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
       <c r="J214" s="4"/>
-      <c r="K214" s="14"/>
-    </row>
-    <row r="215" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K214" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="1"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
-      <c r="F215" s="14"/>
+      <c r="F215" s="24"/>
       <c r="G215" s="4"/>
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
       <c r="J215" s="4"/>
-      <c r="K215" s="14"/>
-    </row>
-    <row r="216" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K215" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
-      <c r="F216" s="14"/>
+      <c r="F216" s="24"/>
       <c r="G216" s="4"/>
       <c r="H216" s="4"/>
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
       <c r="K216" s="4"/>
     </row>
-    <row r="217" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -4277,111 +3947,111 @@
       <c r="J217" s="4"/>
       <c r="K217" s="4"/>
     </row>
-    <row r="218" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
-      <c r="F218" s="14"/>
+      <c r="F218" s="24"/>
       <c r="G218" s="4"/>
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
       <c r="K218" s="4"/>
     </row>
-    <row r="219" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
-      <c r="F219" s="14"/>
+      <c r="F219" s="24"/>
       <c r="G219" s="4"/>
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
-      <c r="K219" s="14"/>
-    </row>
-    <row r="220" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K219" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
-      <c r="F220" s="14"/>
+      <c r="F220" s="24"/>
       <c r="G220" s="4"/>
       <c r="H220" s="4"/>
       <c r="I220" s="4"/>
       <c r="J220" s="4"/>
-      <c r="K220" s="14"/>
-    </row>
-    <row r="221" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K220" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
-      <c r="F221" s="14"/>
+      <c r="F221" s="24"/>
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
-      <c r="K221" s="14"/>
-    </row>
-    <row r="222" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K221" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
-      <c r="F222" s="14"/>
+      <c r="F222" s="24"/>
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
-      <c r="K222" s="14"/>
-    </row>
-    <row r="223" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K222" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
-      <c r="F223" s="14"/>
+      <c r="F223" s="24"/>
       <c r="G223" s="4"/>
       <c r="H223" s="4"/>
       <c r="I223" s="4"/>
       <c r="J223" s="4"/>
-      <c r="K223" s="14"/>
-    </row>
-    <row r="224" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K223" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="4"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
-      <c r="F224" s="14"/>
+      <c r="F224" s="24"/>
       <c r="G224" s="4"/>
       <c r="H224" s="4"/>
       <c r="I224" s="4"/>
       <c r="J224" s="4"/>
-      <c r="K224" s="14"/>
-    </row>
-    <row r="225" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K224" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
-      <c r="F225" s="14"/>
+      <c r="F225" s="24"/>
       <c r="G225" s="4"/>
       <c r="H225" s="4"/>
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
-      <c r="K225" s="14"/>
-    </row>
-    <row r="226" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K225" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="1"/>
@@ -4392,35 +4062,35 @@
       <c r="H226" s="4"/>
       <c r="I226" s="4"/>
       <c r="J226" s="4"/>
-      <c r="K226" s="14"/>
-    </row>
-    <row r="227" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K226" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="1"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
-      <c r="F227" s="14"/>
+      <c r="F227" s="24"/>
       <c r="G227" s="4"/>
       <c r="H227" s="4"/>
       <c r="I227" s="4"/>
       <c r="J227" s="4"/>
-      <c r="K227" s="14"/>
-    </row>
-    <row r="228" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K227" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
-      <c r="F228" s="14"/>
+      <c r="F228" s="24"/>
       <c r="G228" s="4"/>
       <c r="H228" s="4"/>
       <c r="I228" s="4"/>
       <c r="J228" s="4"/>
       <c r="K228" s="4"/>
     </row>
-    <row r="229" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -4433,111 +4103,111 @@
       <c r="J229" s="4"/>
       <c r="K229" s="4"/>
     </row>
-    <row r="230" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
-      <c r="F230" s="14"/>
+      <c r="F230" s="24"/>
       <c r="G230" s="4"/>
       <c r="H230" s="4"/>
       <c r="I230" s="4"/>
       <c r="J230" s="4"/>
       <c r="K230" s="4"/>
     </row>
-    <row r="231" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
-      <c r="F231" s="14"/>
+      <c r="F231" s="24"/>
       <c r="G231" s="4"/>
       <c r="H231" s="4"/>
       <c r="I231" s="4"/>
       <c r="J231" s="4"/>
-      <c r="K231" s="14"/>
-    </row>
-    <row r="232" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K231" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
-      <c r="F232" s="14"/>
+      <c r="F232" s="24"/>
       <c r="G232" s="4"/>
       <c r="H232" s="4"/>
       <c r="I232" s="4"/>
       <c r="J232" s="4"/>
-      <c r="K232" s="14"/>
-    </row>
-    <row r="233" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K232" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
-      <c r="F233" s="14"/>
+      <c r="F233" s="24"/>
       <c r="G233" s="4"/>
       <c r="H233" s="4"/>
       <c r="I233" s="4"/>
       <c r="J233" s="4"/>
-      <c r="K233" s="14"/>
-    </row>
-    <row r="234" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K233" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
-      <c r="F234" s="14"/>
+      <c r="F234" s="24"/>
       <c r="G234" s="4"/>
       <c r="H234" s="4"/>
       <c r="I234" s="4"/>
       <c r="J234" s="4"/>
-      <c r="K234" s="14"/>
-    </row>
-    <row r="235" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K234" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
-      <c r="F235" s="14"/>
+      <c r="F235" s="24"/>
       <c r="G235" s="4"/>
       <c r="H235" s="4"/>
       <c r="I235" s="4"/>
       <c r="J235" s="4"/>
-      <c r="K235" s="14"/>
-    </row>
-    <row r="236" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K235" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="4"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
-      <c r="F236" s="14"/>
+      <c r="F236" s="24"/>
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
       <c r="I236" s="4"/>
       <c r="J236" s="4"/>
-      <c r="K236" s="14"/>
-    </row>
-    <row r="237" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K236" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
-      <c r="F237" s="14"/>
+      <c r="F237" s="24"/>
       <c r="G237" s="4"/>
       <c r="H237" s="4"/>
       <c r="I237" s="4"/>
       <c r="J237" s="4"/>
-      <c r="K237" s="14"/>
-    </row>
-    <row r="238" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K237" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="1"/>
@@ -4548,35 +4218,35 @@
       <c r="H238" s="4"/>
       <c r="I238" s="4"/>
       <c r="J238" s="4"/>
-      <c r="K238" s="14"/>
-    </row>
-    <row r="239" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K238" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="1"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
-      <c r="F239" s="14"/>
+      <c r="F239" s="24"/>
       <c r="G239" s="4"/>
       <c r="H239" s="4"/>
       <c r="I239" s="4"/>
       <c r="J239" s="4"/>
-      <c r="K239" s="14"/>
-    </row>
-    <row r="240" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K239" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
-      <c r="F240" s="14"/>
+      <c r="F240" s="24"/>
       <c r="G240" s="4"/>
       <c r="H240" s="4"/>
       <c r="I240" s="4"/>
       <c r="J240" s="4"/>
       <c r="K240" s="4"/>
     </row>
-    <row r="241" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -4589,111 +4259,111 @@
       <c r="J241" s="4"/>
       <c r="K241" s="4"/>
     </row>
-    <row r="242" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
-      <c r="F242" s="14"/>
+      <c r="F242" s="24"/>
       <c r="G242" s="4"/>
       <c r="H242" s="4"/>
       <c r="I242" s="4"/>
       <c r="J242" s="4"/>
       <c r="K242" s="4"/>
     </row>
-    <row r="243" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
-      <c r="F243" s="14"/>
+      <c r="F243" s="24"/>
       <c r="G243" s="4"/>
       <c r="H243" s="4"/>
       <c r="I243" s="4"/>
       <c r="J243" s="4"/>
-      <c r="K243" s="14"/>
-    </row>
-    <row r="244" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K243" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
-      <c r="F244" s="14"/>
+      <c r="F244" s="24"/>
       <c r="G244" s="4"/>
       <c r="H244" s="4"/>
       <c r="I244" s="4"/>
       <c r="J244" s="4"/>
-      <c r="K244" s="14"/>
-    </row>
-    <row r="245" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K244" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
-      <c r="F245" s="14"/>
+      <c r="F245" s="24"/>
       <c r="G245" s="4"/>
       <c r="H245" s="4"/>
       <c r="I245" s="4"/>
       <c r="J245" s="4"/>
-      <c r="K245" s="14"/>
-    </row>
-    <row r="246" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K245" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
-      <c r="F246" s="14"/>
+      <c r="F246" s="24"/>
       <c r="G246" s="4"/>
       <c r="H246" s="4"/>
       <c r="I246" s="4"/>
       <c r="J246" s="4"/>
-      <c r="K246" s="14"/>
-    </row>
-    <row r="247" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K246" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
-      <c r="F247" s="14"/>
+      <c r="F247" s="24"/>
       <c r="G247" s="4"/>
       <c r="H247" s="4"/>
       <c r="I247" s="4"/>
       <c r="J247" s="4"/>
-      <c r="K247" s="14"/>
-    </row>
-    <row r="248" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K247" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
       <c r="A248" s="4"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
-      <c r="F248" s="14"/>
+      <c r="F248" s="24"/>
       <c r="G248" s="4"/>
       <c r="H248" s="4"/>
       <c r="I248" s="4"/>
       <c r="J248" s="4"/>
-      <c r="K248" s="14"/>
-    </row>
-    <row r="249" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K248" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
-      <c r="F249" s="14"/>
+      <c r="F249" s="24"/>
       <c r="G249" s="4"/>
       <c r="H249" s="4"/>
       <c r="I249" s="4"/>
       <c r="J249" s="4"/>
-      <c r="K249" s="14"/>
-    </row>
-    <row r="250" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K249" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="1"/>
@@ -4704,35 +4374,35 @@
       <c r="H250" s="4"/>
       <c r="I250" s="4"/>
       <c r="J250" s="4"/>
-      <c r="K250" s="14"/>
-    </row>
-    <row r="251" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K250" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="1"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
-      <c r="F251" s="14"/>
+      <c r="F251" s="24"/>
       <c r="G251" s="4"/>
       <c r="H251" s="4"/>
       <c r="I251" s="4"/>
       <c r="J251" s="4"/>
-      <c r="K251" s="14"/>
-    </row>
-    <row r="252" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K251" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
-      <c r="F252" s="14"/>
+      <c r="F252" s="24"/>
       <c r="G252" s="4"/>
       <c r="H252" s="4"/>
       <c r="I252" s="4"/>
       <c r="J252" s="4"/>
       <c r="K252" s="4"/>
     </row>
-    <row r="253" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -4745,111 +4415,111 @@
       <c r="J253" s="4"/>
       <c r="K253" s="4"/>
     </row>
-    <row r="254" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
-      <c r="F254" s="14"/>
+      <c r="F254" s="24"/>
       <c r="G254" s="4"/>
       <c r="H254" s="4"/>
       <c r="I254" s="4"/>
       <c r="J254" s="4"/>
       <c r="K254" s="4"/>
     </row>
-    <row r="255" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
-      <c r="F255" s="14"/>
+      <c r="F255" s="24"/>
       <c r="G255" s="4"/>
       <c r="H255" s="4"/>
       <c r="I255" s="4"/>
       <c r="J255" s="4"/>
-      <c r="K255" s="14"/>
-    </row>
-    <row r="256" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K255" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
-      <c r="F256" s="14"/>
+      <c r="F256" s="24"/>
       <c r="G256" s="4"/>
       <c r="H256" s="4"/>
       <c r="I256" s="4"/>
       <c r="J256" s="4"/>
-      <c r="K256" s="14"/>
-    </row>
-    <row r="257" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K256" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
-      <c r="F257" s="14"/>
+      <c r="F257" s="24"/>
       <c r="G257" s="4"/>
       <c r="H257" s="4"/>
       <c r="I257" s="4"/>
       <c r="J257" s="4"/>
-      <c r="K257" s="14"/>
-    </row>
-    <row r="258" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K257" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
-      <c r="F258" s="14"/>
+      <c r="F258" s="24"/>
       <c r="G258" s="4"/>
       <c r="H258" s="4"/>
       <c r="I258" s="4"/>
       <c r="J258" s="4"/>
-      <c r="K258" s="14"/>
-    </row>
-    <row r="259" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K258" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
-      <c r="F259" s="14"/>
+      <c r="F259" s="24"/>
       <c r="G259" s="4"/>
       <c r="H259" s="4"/>
       <c r="I259" s="4"/>
       <c r="J259" s="4"/>
-      <c r="K259" s="14"/>
-    </row>
-    <row r="260" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K259" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
       <c r="A260" s="4"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
-      <c r="F260" s="14"/>
+      <c r="F260" s="24"/>
       <c r="G260" s="4"/>
       <c r="H260" s="4"/>
       <c r="I260" s="4"/>
       <c r="J260" s="4"/>
-      <c r="K260" s="14"/>
-    </row>
-    <row r="261" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K260" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
-      <c r="F261" s="14"/>
+      <c r="F261" s="24"/>
       <c r="G261" s="4"/>
       <c r="H261" s="4"/>
       <c r="I261" s="4"/>
       <c r="J261" s="4"/>
-      <c r="K261" s="14"/>
-    </row>
-    <row r="262" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K261" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="1"/>
@@ -4860,35 +4530,35 @@
       <c r="H262" s="4"/>
       <c r="I262" s="4"/>
       <c r="J262" s="4"/>
-      <c r="K262" s="14"/>
-    </row>
-    <row r="263" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K262" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="1"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
-      <c r="F263" s="14"/>
+      <c r="F263" s="24"/>
       <c r="G263" s="4"/>
       <c r="H263" s="4"/>
       <c r="I263" s="4"/>
       <c r="J263" s="4"/>
-      <c r="K263" s="14"/>
-    </row>
-    <row r="264" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K263" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
-      <c r="F264" s="14"/>
+      <c r="F264" s="24"/>
       <c r="G264" s="4"/>
       <c r="H264" s="4"/>
       <c r="I264" s="4"/>
       <c r="J264" s="4"/>
       <c r="K264" s="4"/>
     </row>
-    <row r="265" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -4901,111 +4571,111 @@
       <c r="J265" s="4"/>
       <c r="K265" s="4"/>
     </row>
-    <row r="266" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
-      <c r="F266" s="14"/>
+      <c r="F266" s="24"/>
       <c r="G266" s="4"/>
       <c r="H266" s="4"/>
       <c r="I266" s="4"/>
       <c r="J266" s="4"/>
       <c r="K266" s="4"/>
     </row>
-    <row r="267" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
-      <c r="F267" s="14"/>
+      <c r="F267" s="24"/>
       <c r="G267" s="4"/>
       <c r="H267" s="4"/>
       <c r="I267" s="4"/>
       <c r="J267" s="4"/>
-      <c r="K267" s="14"/>
-    </row>
-    <row r="268" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K267" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
-      <c r="F268" s="14"/>
+      <c r="F268" s="24"/>
       <c r="G268" s="4"/>
       <c r="H268" s="4"/>
       <c r="I268" s="4"/>
       <c r="J268" s="4"/>
-      <c r="K268" s="14"/>
-    </row>
-    <row r="269" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K268" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
-      <c r="F269" s="14"/>
+      <c r="F269" s="24"/>
       <c r="G269" s="4"/>
       <c r="H269" s="4"/>
       <c r="I269" s="4"/>
       <c r="J269" s="4"/>
-      <c r="K269" s="14"/>
-    </row>
-    <row r="270" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K269" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
-      <c r="F270" s="14"/>
+      <c r="F270" s="24"/>
       <c r="G270" s="4"/>
       <c r="H270" s="4"/>
       <c r="I270" s="4"/>
       <c r="J270" s="4"/>
-      <c r="K270" s="14"/>
-    </row>
-    <row r="271" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K270" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
-      <c r="F271" s="14"/>
+      <c r="F271" s="24"/>
       <c r="G271" s="4"/>
       <c r="H271" s="4"/>
       <c r="I271" s="4"/>
       <c r="J271" s="4"/>
-      <c r="K271" s="14"/>
-    </row>
-    <row r="272" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K271" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
       <c r="A272" s="4"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
-      <c r="F272" s="14"/>
+      <c r="F272" s="24"/>
       <c r="G272" s="4"/>
       <c r="H272" s="4"/>
       <c r="I272" s="4"/>
       <c r="J272" s="4"/>
-      <c r="K272" s="14"/>
-    </row>
-    <row r="273" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K272" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
-      <c r="F273" s="14"/>
+      <c r="F273" s="24"/>
       <c r="G273" s="4"/>
       <c r="H273" s="4"/>
       <c r="I273" s="4"/>
       <c r="J273" s="4"/>
-      <c r="K273" s="14"/>
-    </row>
-    <row r="274" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K273" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="1"/>
@@ -5016,35 +4686,35 @@
       <c r="H274" s="4"/>
       <c r="I274" s="4"/>
       <c r="J274" s="4"/>
-      <c r="K274" s="14"/>
-    </row>
-    <row r="275" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K274" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="1"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
-      <c r="F275" s="14"/>
+      <c r="F275" s="24"/>
       <c r="G275" s="4"/>
       <c r="H275" s="4"/>
       <c r="I275" s="4"/>
       <c r="J275" s="4"/>
-      <c r="K275" s="14"/>
-    </row>
-    <row r="276" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K275" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
-      <c r="F276" s="14"/>
+      <c r="F276" s="24"/>
       <c r="G276" s="4"/>
       <c r="H276" s="4"/>
       <c r="I276" s="4"/>
       <c r="J276" s="4"/>
       <c r="K276" s="4"/>
     </row>
-    <row r="277" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -5057,111 +4727,111 @@
       <c r="J277" s="4"/>
       <c r="K277" s="4"/>
     </row>
-    <row r="278" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
-      <c r="F278" s="14"/>
+      <c r="F278" s="24"/>
       <c r="G278" s="4"/>
       <c r="H278" s="4"/>
       <c r="I278" s="4"/>
       <c r="J278" s="4"/>
       <c r="K278" s="4"/>
     </row>
-    <row r="279" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
-      <c r="F279" s="14"/>
+      <c r="F279" s="24"/>
       <c r="G279" s="4"/>
       <c r="H279" s="4"/>
       <c r="I279" s="4"/>
       <c r="J279" s="4"/>
-      <c r="K279" s="14"/>
-    </row>
-    <row r="280" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K279" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
-      <c r="F280" s="14"/>
+      <c r="F280" s="24"/>
       <c r="G280" s="4"/>
       <c r="H280" s="4"/>
       <c r="I280" s="4"/>
       <c r="J280" s="4"/>
-      <c r="K280" s="14"/>
-    </row>
-    <row r="281" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K280" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
-      <c r="F281" s="14"/>
+      <c r="F281" s="24"/>
       <c r="G281" s="4"/>
       <c r="H281" s="4"/>
       <c r="I281" s="4"/>
       <c r="J281" s="4"/>
-      <c r="K281" s="14"/>
-    </row>
-    <row r="282" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K281" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
-      <c r="F282" s="14"/>
+      <c r="F282" s="24"/>
       <c r="G282" s="4"/>
       <c r="H282" s="4"/>
       <c r="I282" s="4"/>
       <c r="J282" s="4"/>
-      <c r="K282" s="14"/>
-    </row>
-    <row r="283" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K282" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
-      <c r="F283" s="14"/>
+      <c r="F283" s="24"/>
       <c r="G283" s="4"/>
       <c r="H283" s="4"/>
       <c r="I283" s="4"/>
       <c r="J283" s="4"/>
-      <c r="K283" s="14"/>
-    </row>
-    <row r="284" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K283" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75">
       <c r="A284" s="4"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
-      <c r="F284" s="14"/>
+      <c r="F284" s="24"/>
       <c r="G284" s="4"/>
       <c r="H284" s="4"/>
       <c r="I284" s="4"/>
       <c r="J284" s="4"/>
-      <c r="K284" s="14"/>
-    </row>
-    <row r="285" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K284" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
-      <c r="F285" s="14"/>
+      <c r="F285" s="24"/>
       <c r="G285" s="4"/>
       <c r="H285" s="4"/>
       <c r="I285" s="4"/>
       <c r="J285" s="4"/>
-      <c r="K285" s="14"/>
-    </row>
-    <row r="286" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K285" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="1"/>
@@ -5172,35 +4842,35 @@
       <c r="H286" s="4"/>
       <c r="I286" s="4"/>
       <c r="J286" s="4"/>
-      <c r="K286" s="14"/>
-    </row>
-    <row r="287" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K286" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="1"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
-      <c r="F287" s="14"/>
+      <c r="F287" s="24"/>
       <c r="G287" s="4"/>
       <c r="H287" s="4"/>
       <c r="I287" s="4"/>
       <c r="J287" s="4"/>
-      <c r="K287" s="14"/>
-    </row>
-    <row r="288" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K287" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
-      <c r="F288" s="14"/>
+      <c r="F288" s="24"/>
       <c r="G288" s="4"/>
       <c r="H288" s="4"/>
       <c r="I288" s="4"/>
       <c r="J288" s="4"/>
       <c r="K288" s="4"/>
     </row>
-    <row r="289" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -5213,111 +4883,111 @@
       <c r="J289" s="4"/>
       <c r="K289" s="4"/>
     </row>
-    <row r="290" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
-      <c r="F290" s="14"/>
+      <c r="F290" s="24"/>
       <c r="G290" s="4"/>
       <c r="H290" s="4"/>
       <c r="I290" s="4"/>
       <c r="J290" s="4"/>
       <c r="K290" s="4"/>
     </row>
-    <row r="291" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
-      <c r="F291" s="14"/>
+      <c r="F291" s="24"/>
       <c r="G291" s="4"/>
       <c r="H291" s="4"/>
       <c r="I291" s="4"/>
       <c r="J291" s="4"/>
-      <c r="K291" s="14"/>
-    </row>
-    <row r="292" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K291" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
-      <c r="F292" s="14"/>
+      <c r="F292" s="24"/>
       <c r="G292" s="4"/>
       <c r="H292" s="4"/>
       <c r="I292" s="4"/>
       <c r="J292" s="4"/>
-      <c r="K292" s="14"/>
-    </row>
-    <row r="293" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K292" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
-      <c r="F293" s="14"/>
+      <c r="F293" s="24"/>
       <c r="G293" s="4"/>
       <c r="H293" s="4"/>
       <c r="I293" s="4"/>
       <c r="J293" s="4"/>
-      <c r="K293" s="14"/>
-    </row>
-    <row r="294" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K293" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
-      <c r="F294" s="14"/>
+      <c r="F294" s="24"/>
       <c r="G294" s="4"/>
       <c r="H294" s="4"/>
       <c r="I294" s="4"/>
       <c r="J294" s="4"/>
-      <c r="K294" s="14"/>
-    </row>
-    <row r="295" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K294" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
-      <c r="F295" s="14"/>
+      <c r="F295" s="24"/>
       <c r="G295" s="4"/>
       <c r="H295" s="4"/>
       <c r="I295" s="4"/>
       <c r="J295" s="4"/>
-      <c r="K295" s="14"/>
-    </row>
-    <row r="296" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K295" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75">
       <c r="A296" s="4"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
-      <c r="F296" s="14"/>
+      <c r="F296" s="24"/>
       <c r="G296" s="4"/>
       <c r="H296" s="4"/>
       <c r="I296" s="4"/>
       <c r="J296" s="4"/>
-      <c r="K296" s="14"/>
-    </row>
-    <row r="297" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K296" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
-      <c r="F297" s="14"/>
+      <c r="F297" s="24"/>
       <c r="G297" s="4"/>
       <c r="H297" s="4"/>
       <c r="I297" s="4"/>
       <c r="J297" s="4"/>
-      <c r="K297" s="14"/>
-    </row>
-    <row r="298" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K297" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="1"/>
@@ -5328,35 +4998,35 @@
       <c r="H298" s="4"/>
       <c r="I298" s="4"/>
       <c r="J298" s="4"/>
-      <c r="K298" s="14"/>
-    </row>
-    <row r="299" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K298" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="1"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
-      <c r="F299" s="14"/>
+      <c r="F299" s="24"/>
       <c r="G299" s="4"/>
       <c r="H299" s="4"/>
       <c r="I299" s="4"/>
       <c r="J299" s="4"/>
-      <c r="K299" s="14"/>
-    </row>
-    <row r="300" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K299" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
-      <c r="F300" s="14"/>
+      <c r="F300" s="24"/>
       <c r="G300" s="4"/>
       <c r="H300" s="4"/>
       <c r="I300" s="4"/>
       <c r="J300" s="4"/>
       <c r="K300" s="4"/>
     </row>
-    <row r="301" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -5369,111 +5039,111 @@
       <c r="J301" s="4"/>
       <c r="K301" s="4"/>
     </row>
-    <row r="302" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
-      <c r="F302" s="14"/>
+      <c r="F302" s="24"/>
       <c r="G302" s="4"/>
       <c r="H302" s="4"/>
       <c r="I302" s="4"/>
       <c r="J302" s="4"/>
       <c r="K302" s="4"/>
     </row>
-    <row r="303" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
-      <c r="F303" s="14"/>
+      <c r="F303" s="24"/>
       <c r="G303" s="4"/>
       <c r="H303" s="4"/>
       <c r="I303" s="4"/>
       <c r="J303" s="4"/>
-      <c r="K303" s="14"/>
-    </row>
-    <row r="304" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K303" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
-      <c r="F304" s="14"/>
+      <c r="F304" s="24"/>
       <c r="G304" s="4"/>
       <c r="H304" s="4"/>
       <c r="I304" s="4"/>
       <c r="J304" s="4"/>
-      <c r="K304" s="14"/>
-    </row>
-    <row r="305" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K304" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
-      <c r="F305" s="14"/>
+      <c r="F305" s="24"/>
       <c r="G305" s="4"/>
       <c r="H305" s="4"/>
       <c r="I305" s="4"/>
       <c r="J305" s="4"/>
-      <c r="K305" s="14"/>
-    </row>
-    <row r="306" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K305" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
-      <c r="F306" s="14"/>
+      <c r="F306" s="24"/>
       <c r="G306" s="4"/>
       <c r="H306" s="4"/>
       <c r="I306" s="4"/>
       <c r="J306" s="4"/>
-      <c r="K306" s="14"/>
-    </row>
-    <row r="307" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K306" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
-      <c r="F307" s="14"/>
+      <c r="F307" s="24"/>
       <c r="G307" s="4"/>
       <c r="H307" s="4"/>
       <c r="I307" s="4"/>
       <c r="J307" s="4"/>
-      <c r="K307" s="14"/>
-    </row>
-    <row r="308" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K307" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75">
       <c r="A308" s="4"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
-      <c r="F308" s="14"/>
+      <c r="F308" s="24"/>
       <c r="G308" s="4"/>
       <c r="H308" s="4"/>
       <c r="I308" s="4"/>
       <c r="J308" s="4"/>
-      <c r="K308" s="14"/>
-    </row>
-    <row r="309" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K308" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
-      <c r="F309" s="14"/>
+      <c r="F309" s="24"/>
       <c r="G309" s="4"/>
       <c r="H309" s="4"/>
       <c r="I309" s="4"/>
       <c r="J309" s="4"/>
-      <c r="K309" s="14"/>
-    </row>
-    <row r="310" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K309" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="1"/>
@@ -5484,35 +5154,35 @@
       <c r="H310" s="4"/>
       <c r="I310" s="4"/>
       <c r="J310" s="4"/>
-      <c r="K310" s="14"/>
-    </row>
-    <row r="311" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K310" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="1"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
-      <c r="F311" s="14"/>
+      <c r="F311" s="24"/>
       <c r="G311" s="4"/>
       <c r="H311" s="4"/>
       <c r="I311" s="4"/>
       <c r="J311" s="4"/>
-      <c r="K311" s="14"/>
-    </row>
-    <row r="312" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K311" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
-      <c r="F312" s="14"/>
+      <c r="F312" s="24"/>
       <c r="G312" s="4"/>
       <c r="H312" s="4"/>
       <c r="I312" s="4"/>
       <c r="J312" s="4"/>
       <c r="K312" s="4"/>
     </row>
-    <row r="313" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -5525,111 +5195,111 @@
       <c r="J313" s="4"/>
       <c r="K313" s="4"/>
     </row>
-    <row r="314" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
-      <c r="F314" s="14"/>
+      <c r="F314" s="24"/>
       <c r="G314" s="4"/>
       <c r="H314" s="4"/>
       <c r="I314" s="4"/>
       <c r="J314" s="4"/>
       <c r="K314" s="4"/>
     </row>
-    <row r="315" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
-      <c r="F315" s="14"/>
+      <c r="F315" s="24"/>
       <c r="G315" s="4"/>
       <c r="H315" s="4"/>
       <c r="I315" s="4"/>
       <c r="J315" s="4"/>
-      <c r="K315" s="14"/>
-    </row>
-    <row r="316" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K315" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
-      <c r="F316" s="14"/>
+      <c r="F316" s="24"/>
       <c r="G316" s="4"/>
       <c r="H316" s="4"/>
       <c r="I316" s="4"/>
       <c r="J316" s="4"/>
-      <c r="K316" s="14"/>
-    </row>
-    <row r="317" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K316" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
-      <c r="F317" s="14"/>
+      <c r="F317" s="24"/>
       <c r="G317" s="4"/>
       <c r="H317" s="4"/>
       <c r="I317" s="4"/>
       <c r="J317" s="4"/>
-      <c r="K317" s="14"/>
-    </row>
-    <row r="318" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K317" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
-      <c r="F318" s="14"/>
+      <c r="F318" s="24"/>
       <c r="G318" s="4"/>
       <c r="H318" s="4"/>
       <c r="I318" s="4"/>
       <c r="J318" s="4"/>
-      <c r="K318" s="14"/>
-    </row>
-    <row r="319" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K318" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
-      <c r="F319" s="14"/>
+      <c r="F319" s="24"/>
       <c r="G319" s="4"/>
       <c r="H319" s="4"/>
       <c r="I319" s="4"/>
       <c r="J319" s="4"/>
-      <c r="K319" s="14"/>
-    </row>
-    <row r="320" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K319" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75">
       <c r="A320" s="4"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
-      <c r="F320" s="14"/>
+      <c r="F320" s="24"/>
       <c r="G320" s="4"/>
       <c r="H320" s="4"/>
       <c r="I320" s="4"/>
       <c r="J320" s="4"/>
-      <c r="K320" s="14"/>
-    </row>
-    <row r="321" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K320" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
-      <c r="F321" s="14"/>
+      <c r="F321" s="24"/>
       <c r="G321" s="4"/>
       <c r="H321" s="4"/>
       <c r="I321" s="4"/>
       <c r="J321" s="4"/>
-      <c r="K321" s="14"/>
-    </row>
-    <row r="322" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K321" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="1"/>
@@ -5640,35 +5310,35 @@
       <c r="H322" s="4"/>
       <c r="I322" s="4"/>
       <c r="J322" s="4"/>
-      <c r="K322" s="14"/>
-    </row>
-    <row r="323" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K322" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="1"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
-      <c r="F323" s="14"/>
+      <c r="F323" s="24"/>
       <c r="G323" s="4"/>
       <c r="H323" s="4"/>
       <c r="I323" s="4"/>
       <c r="J323" s="4"/>
-      <c r="K323" s="14"/>
-    </row>
-    <row r="324" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K323" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
-      <c r="F324" s="14"/>
+      <c r="F324" s="24"/>
       <c r="G324" s="4"/>
       <c r="H324" s="4"/>
       <c r="I324" s="4"/>
       <c r="J324" s="4"/>
       <c r="K324" s="4"/>
     </row>
-    <row r="325" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -5681,111 +5351,111 @@
       <c r="J325" s="4"/>
       <c r="K325" s="4"/>
     </row>
-    <row r="326" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
-      <c r="F326" s="14"/>
+      <c r="F326" s="24"/>
       <c r="G326" s="4"/>
       <c r="H326" s="4"/>
       <c r="I326" s="4"/>
       <c r="J326" s="4"/>
       <c r="K326" s="4"/>
     </row>
-    <row r="327" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
-      <c r="F327" s="14"/>
+      <c r="F327" s="24"/>
       <c r="G327" s="4"/>
       <c r="H327" s="4"/>
       <c r="I327" s="4"/>
       <c r="J327" s="4"/>
-      <c r="K327" s="14"/>
-    </row>
-    <row r="328" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K327" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
-      <c r="F328" s="14"/>
+      <c r="F328" s="24"/>
       <c r="G328" s="4"/>
       <c r="H328" s="4"/>
       <c r="I328" s="4"/>
       <c r="J328" s="4"/>
-      <c r="K328" s="14"/>
-    </row>
-    <row r="329" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K328" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
-      <c r="F329" s="14"/>
+      <c r="F329" s="24"/>
       <c r="G329" s="4"/>
       <c r="H329" s="4"/>
       <c r="I329" s="4"/>
       <c r="J329" s="4"/>
-      <c r="K329" s="14"/>
-    </row>
-    <row r="330" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K329" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
-      <c r="F330" s="14"/>
+      <c r="F330" s="24"/>
       <c r="G330" s="4"/>
       <c r="H330" s="4"/>
       <c r="I330" s="4"/>
       <c r="J330" s="4"/>
-      <c r="K330" s="14"/>
-    </row>
-    <row r="331" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K330" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
-      <c r="F331" s="14"/>
+      <c r="F331" s="24"/>
       <c r="G331" s="4"/>
       <c r="H331" s="4"/>
       <c r="I331" s="4"/>
       <c r="J331" s="4"/>
-      <c r="K331" s="14"/>
-    </row>
-    <row r="332" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K331" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75">
       <c r="A332" s="4"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
-      <c r="F332" s="14"/>
+      <c r="F332" s="24"/>
       <c r="G332" s="4"/>
       <c r="H332" s="4"/>
       <c r="I332" s="4"/>
       <c r="J332" s="4"/>
-      <c r="K332" s="14"/>
-    </row>
-    <row r="333" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K332" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18.75">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
-      <c r="F333" s="14"/>
+      <c r="F333" s="24"/>
       <c r="G333" s="4"/>
       <c r="H333" s="4"/>
       <c r="I333" s="4"/>
       <c r="J333" s="4"/>
-      <c r="K333" s="14"/>
-    </row>
-    <row r="334" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K333" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18.75">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="1"/>
@@ -5796,35 +5466,35 @@
       <c r="H334" s="4"/>
       <c r="I334" s="4"/>
       <c r="J334" s="4"/>
-      <c r="K334" s="14"/>
-    </row>
-    <row r="335" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K334" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18.75">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="1"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
-      <c r="F335" s="14"/>
+      <c r="F335" s="24"/>
       <c r="G335" s="4"/>
       <c r="H335" s="4"/>
       <c r="I335" s="4"/>
       <c r="J335" s="4"/>
-      <c r="K335" s="14"/>
-    </row>
-    <row r="336" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K335" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
-      <c r="F336" s="14"/>
+      <c r="F336" s="24"/>
       <c r="G336" s="4"/>
       <c r="H336" s="4"/>
       <c r="I336" s="4"/>
       <c r="J336" s="4"/>
       <c r="K336" s="4"/>
     </row>
-    <row r="337" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -5837,111 +5507,111 @@
       <c r="J337" s="4"/>
       <c r="K337" s="4"/>
     </row>
-    <row r="338" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18.75">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
-      <c r="F338" s="14"/>
+      <c r="F338" s="24"/>
       <c r="G338" s="4"/>
       <c r="H338" s="4"/>
       <c r="I338" s="4"/>
       <c r="J338" s="4"/>
       <c r="K338" s="4"/>
     </row>
-    <row r="339" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
-      <c r="F339" s="14"/>
+      <c r="F339" s="24"/>
       <c r="G339" s="4"/>
       <c r="H339" s="4"/>
       <c r="I339" s="4"/>
       <c r="J339" s="4"/>
-      <c r="K339" s="14"/>
-    </row>
-    <row r="340" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K339" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
-      <c r="F340" s="14"/>
+      <c r="F340" s="24"/>
       <c r="G340" s="4"/>
       <c r="H340" s="4"/>
       <c r="I340" s="4"/>
       <c r="J340" s="4"/>
-      <c r="K340" s="14"/>
-    </row>
-    <row r="341" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K340" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18.75">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
-      <c r="F341" s="14"/>
+      <c r="F341" s="24"/>
       <c r="G341" s="4"/>
       <c r="H341" s="4"/>
       <c r="I341" s="4"/>
       <c r="J341" s="4"/>
-      <c r="K341" s="14"/>
-    </row>
-    <row r="342" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K341" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18.75">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
-      <c r="F342" s="14"/>
+      <c r="F342" s="24"/>
       <c r="G342" s="4"/>
       <c r="H342" s="4"/>
       <c r="I342" s="4"/>
       <c r="J342" s="4"/>
-      <c r="K342" s="14"/>
-    </row>
-    <row r="343" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K342" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18.75">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
-      <c r="F343" s="14"/>
+      <c r="F343" s="24"/>
       <c r="G343" s="4"/>
       <c r="H343" s="4"/>
       <c r="I343" s="4"/>
       <c r="J343" s="4"/>
-      <c r="K343" s="14"/>
-    </row>
-    <row r="344" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K343" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18.75">
       <c r="A344" s="4"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
-      <c r="F344" s="14"/>
+      <c r="F344" s="24"/>
       <c r="G344" s="4"/>
       <c r="H344" s="4"/>
       <c r="I344" s="4"/>
       <c r="J344" s="4"/>
-      <c r="K344" s="14"/>
-    </row>
-    <row r="345" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K344" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18.75">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
-      <c r="F345" s="14"/>
+      <c r="F345" s="24"/>
       <c r="G345" s="4"/>
       <c r="H345" s="4"/>
       <c r="I345" s="4"/>
       <c r="J345" s="4"/>
-      <c r="K345" s="14"/>
-    </row>
-    <row r="346" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K345" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18.75">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="1"/>
@@ -5952,35 +5622,35 @@
       <c r="H346" s="4"/>
       <c r="I346" s="4"/>
       <c r="J346" s="4"/>
-      <c r="K346" s="14"/>
-    </row>
-    <row r="347" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K346" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18.75">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="1"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
-      <c r="F347" s="14"/>
+      <c r="F347" s="24"/>
       <c r="G347" s="4"/>
       <c r="H347" s="4"/>
       <c r="I347" s="4"/>
       <c r="J347" s="4"/>
-      <c r="K347" s="14"/>
-    </row>
-    <row r="348" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K347" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18.75">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
-      <c r="F348" s="14"/>
+      <c r="F348" s="24"/>
       <c r="G348" s="4"/>
       <c r="H348" s="4"/>
       <c r="I348" s="4"/>
       <c r="J348" s="4"/>
       <c r="K348" s="4"/>
     </row>
-    <row r="349" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18.75">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -5993,111 +5663,111 @@
       <c r="J349" s="4"/>
       <c r="K349" s="4"/>
     </row>
-    <row r="350" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18.75">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
-      <c r="F350" s="14"/>
+      <c r="F350" s="24"/>
       <c r="G350" s="4"/>
       <c r="H350" s="4"/>
       <c r="I350" s="4"/>
       <c r="J350" s="4"/>
       <c r="K350" s="4"/>
     </row>
-    <row r="351" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18.75">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
-      <c r="F351" s="14"/>
+      <c r="F351" s="24"/>
       <c r="G351" s="4"/>
       <c r="H351" s="4"/>
       <c r="I351" s="4"/>
       <c r="J351" s="4"/>
-      <c r="K351" s="14"/>
-    </row>
-    <row r="352" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K351" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18.75">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
-      <c r="F352" s="14"/>
+      <c r="F352" s="24"/>
       <c r="G352" s="4"/>
       <c r="H352" s="4"/>
       <c r="I352" s="4"/>
       <c r="J352" s="4"/>
-      <c r="K352" s="14"/>
-    </row>
-    <row r="353" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K352" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18.75">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
-      <c r="F353" s="14"/>
+      <c r="F353" s="24"/>
       <c r="G353" s="4"/>
       <c r="H353" s="4"/>
       <c r="I353" s="4"/>
       <c r="J353" s="4"/>
-      <c r="K353" s="14"/>
-    </row>
-    <row r="354" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K353" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18.75">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
-      <c r="F354" s="14"/>
+      <c r="F354" s="24"/>
       <c r="G354" s="4"/>
       <c r="H354" s="4"/>
       <c r="I354" s="4"/>
       <c r="J354" s="4"/>
-      <c r="K354" s="14"/>
-    </row>
-    <row r="355" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K354" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18.75">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
-      <c r="F355" s="14"/>
+      <c r="F355" s="24"/>
       <c r="G355" s="4"/>
       <c r="H355" s="4"/>
       <c r="I355" s="4"/>
       <c r="J355" s="4"/>
-      <c r="K355" s="14"/>
-    </row>
-    <row r="356" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K355" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18.75">
       <c r="A356" s="4"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
-      <c r="F356" s="14"/>
+      <c r="F356" s="24"/>
       <c r="G356" s="4"/>
       <c r="H356" s="4"/>
       <c r="I356" s="4"/>
       <c r="J356" s="4"/>
-      <c r="K356" s="14"/>
-    </row>
-    <row r="357" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K356" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18.75">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
-      <c r="F357" s="14"/>
+      <c r="F357" s="24"/>
       <c r="G357" s="4"/>
       <c r="H357" s="4"/>
       <c r="I357" s="4"/>
       <c r="J357" s="4"/>
-      <c r="K357" s="14"/>
-    </row>
-    <row r="358" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K357" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18.75">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="1"/>
@@ -6108,35 +5778,35 @@
       <c r="H358" s="4"/>
       <c r="I358" s="4"/>
       <c r="J358" s="4"/>
-      <c r="K358" s="14"/>
-    </row>
-    <row r="359" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K358" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18.75">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="1"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
-      <c r="F359" s="14"/>
+      <c r="F359" s="24"/>
       <c r="G359" s="4"/>
       <c r="H359" s="4"/>
       <c r="I359" s="4"/>
       <c r="J359" s="4"/>
-      <c r="K359" s="14"/>
-    </row>
-    <row r="360" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K359" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18.75">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
-      <c r="F360" s="14"/>
+      <c r="F360" s="24"/>
       <c r="G360" s="4"/>
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
       <c r="J360" s="4"/>
       <c r="K360" s="4"/>
     </row>
-    <row r="361" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18.75">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -6149,111 +5819,111 @@
       <c r="J361" s="4"/>
       <c r="K361" s="4"/>
     </row>
-    <row r="362" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18.75">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
-      <c r="F362" s="14"/>
+      <c r="F362" s="24"/>
       <c r="G362" s="4"/>
       <c r="H362" s="4"/>
       <c r="I362" s="4"/>
       <c r="J362" s="4"/>
       <c r="K362" s="4"/>
     </row>
-    <row r="363" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18.75">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
-      <c r="F363" s="14"/>
+      <c r="F363" s="24"/>
       <c r="G363" s="4"/>
       <c r="H363" s="4"/>
       <c r="I363" s="4"/>
       <c r="J363" s="4"/>
-      <c r="K363" s="14"/>
-    </row>
-    <row r="364" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K363" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18.75">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
-      <c r="F364" s="14"/>
+      <c r="F364" s="24"/>
       <c r="G364" s="4"/>
       <c r="H364" s="4"/>
       <c r="I364" s="4"/>
       <c r="J364" s="4"/>
-      <c r="K364" s="14"/>
-    </row>
-    <row r="365" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K364" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18.75">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
-      <c r="F365" s="14"/>
+      <c r="F365" s="24"/>
       <c r="G365" s="4"/>
       <c r="H365" s="4"/>
       <c r="I365" s="4"/>
       <c r="J365" s="4"/>
-      <c r="K365" s="14"/>
-    </row>
-    <row r="366" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K365" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18.75">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
-      <c r="F366" s="14"/>
+      <c r="F366" s="24"/>
       <c r="G366" s="4"/>
       <c r="H366" s="4"/>
       <c r="I366" s="4"/>
       <c r="J366" s="4"/>
-      <c r="K366" s="14"/>
-    </row>
-    <row r="367" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K366" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18.75">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
-      <c r="F367" s="14"/>
+      <c r="F367" s="24"/>
       <c r="G367" s="4"/>
       <c r="H367" s="4"/>
       <c r="I367" s="4"/>
       <c r="J367" s="4"/>
-      <c r="K367" s="14"/>
-    </row>
-    <row r="368" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K367" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18.75">
       <c r="A368" s="4"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
-      <c r="F368" s="14"/>
+      <c r="F368" s="24"/>
       <c r="G368" s="4"/>
       <c r="H368" s="4"/>
       <c r="I368" s="4"/>
       <c r="J368" s="4"/>
-      <c r="K368" s="14"/>
-    </row>
-    <row r="369" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K368" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18.75">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
-      <c r="F369" s="14"/>
+      <c r="F369" s="24"/>
       <c r="G369" s="4"/>
       <c r="H369" s="4"/>
       <c r="I369" s="4"/>
       <c r="J369" s="4"/>
-      <c r="K369" s="14"/>
-    </row>
-    <row r="370" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K369" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="18.75">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="1"/>
@@ -6264,35 +5934,35 @@
       <c r="H370" s="4"/>
       <c r="I370" s="4"/>
       <c r="J370" s="4"/>
-      <c r="K370" s="14"/>
-    </row>
-    <row r="371" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K370" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18.75">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="1"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
-      <c r="F371" s="14"/>
+      <c r="F371" s="24"/>
       <c r="G371" s="4"/>
       <c r="H371" s="4"/>
       <c r="I371" s="4"/>
       <c r="J371" s="4"/>
-      <c r="K371" s="14"/>
-    </row>
-    <row r="372" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K371" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18.75">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
-      <c r="F372" s="14"/>
+      <c r="F372" s="24"/>
       <c r="G372" s="4"/>
       <c r="H372" s="4"/>
       <c r="I372" s="4"/>
       <c r="J372" s="4"/>
       <c r="K372" s="4"/>
     </row>
-    <row r="373" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18.75">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -6305,111 +5975,111 @@
       <c r="J373" s="4"/>
       <c r="K373" s="4"/>
     </row>
-    <row r="374" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18.75">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
-      <c r="F374" s="14"/>
+      <c r="F374" s="24"/>
       <c r="G374" s="4"/>
       <c r="H374" s="4"/>
       <c r="I374" s="4"/>
       <c r="J374" s="4"/>
       <c r="K374" s="4"/>
     </row>
-    <row r="375" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18.75">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
-      <c r="F375" s="14"/>
+      <c r="F375" s="24"/>
       <c r="G375" s="4"/>
       <c r="H375" s="4"/>
       <c r="I375" s="4"/>
       <c r="J375" s="4"/>
-      <c r="K375" s="14"/>
-    </row>
-    <row r="376" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K375" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18.75">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
-      <c r="F376" s="14"/>
+      <c r="F376" s="24"/>
       <c r="G376" s="4"/>
       <c r="H376" s="4"/>
       <c r="I376" s="4"/>
       <c r="J376" s="4"/>
-      <c r="K376" s="14"/>
-    </row>
-    <row r="377" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K376" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18.75">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
-      <c r="F377" s="14"/>
+      <c r="F377" s="24"/>
       <c r="G377" s="4"/>
       <c r="H377" s="4"/>
       <c r="I377" s="4"/>
       <c r="J377" s="4"/>
-      <c r="K377" s="14"/>
-    </row>
-    <row r="378" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K377" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18.75">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
-      <c r="F378" s="14"/>
+      <c r="F378" s="24"/>
       <c r="G378" s="4"/>
       <c r="H378" s="4"/>
       <c r="I378" s="4"/>
       <c r="J378" s="4"/>
-      <c r="K378" s="14"/>
-    </row>
-    <row r="379" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K378" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18.75">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
-      <c r="F379" s="14"/>
+      <c r="F379" s="24"/>
       <c r="G379" s="4"/>
       <c r="H379" s="4"/>
       <c r="I379" s="4"/>
       <c r="J379" s="4"/>
-      <c r="K379" s="14"/>
-    </row>
-    <row r="380" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K379" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18.75">
       <c r="A380" s="4"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
-      <c r="F380" s="14"/>
+      <c r="F380" s="24"/>
       <c r="G380" s="4"/>
       <c r="H380" s="4"/>
       <c r="I380" s="4"/>
       <c r="J380" s="4"/>
-      <c r="K380" s="14"/>
-    </row>
-    <row r="381" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K380" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18.75">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
-      <c r="F381" s="14"/>
+      <c r="F381" s="24"/>
       <c r="G381" s="4"/>
       <c r="H381" s="4"/>
       <c r="I381" s="4"/>
       <c r="J381" s="4"/>
-      <c r="K381" s="14"/>
-    </row>
-    <row r="382" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K381" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18.75">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="1"/>
@@ -6420,35 +6090,35 @@
       <c r="H382" s="4"/>
       <c r="I382" s="4"/>
       <c r="J382" s="4"/>
-      <c r="K382" s="14"/>
-    </row>
-    <row r="383" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K382" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18.75">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="1"/>
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
-      <c r="F383" s="14"/>
+      <c r="F383" s="24"/>
       <c r="G383" s="4"/>
       <c r="H383" s="4"/>
       <c r="I383" s="4"/>
       <c r="J383" s="4"/>
-      <c r="K383" s="14"/>
-    </row>
-    <row r="384" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K383" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18.75">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
-      <c r="F384" s="14"/>
+      <c r="F384" s="24"/>
       <c r="G384" s="4"/>
       <c r="H384" s="4"/>
       <c r="I384" s="4"/>
       <c r="J384" s="4"/>
       <c r="K384" s="4"/>
     </row>
-    <row r="385" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18.75">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -6461,111 +6131,111 @@
       <c r="J385" s="4"/>
       <c r="K385" s="4"/>
     </row>
-    <row r="386" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18.75">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
-      <c r="F386" s="14"/>
+      <c r="F386" s="24"/>
       <c r="G386" s="4"/>
       <c r="H386" s="4"/>
       <c r="I386" s="4"/>
       <c r="J386" s="4"/>
       <c r="K386" s="4"/>
     </row>
-    <row r="387" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18.75">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
-      <c r="F387" s="14"/>
+      <c r="F387" s="24"/>
       <c r="G387" s="4"/>
       <c r="H387" s="4"/>
       <c r="I387" s="4"/>
       <c r="J387" s="4"/>
-      <c r="K387" s="14"/>
-    </row>
-    <row r="388" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K387" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18.75">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
-      <c r="F388" s="14"/>
+      <c r="F388" s="24"/>
       <c r="G388" s="4"/>
       <c r="H388" s="4"/>
       <c r="I388" s="4"/>
       <c r="J388" s="4"/>
-      <c r="K388" s="14"/>
-    </row>
-    <row r="389" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K388" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18.75">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
-      <c r="F389" s="14"/>
+      <c r="F389" s="24"/>
       <c r="G389" s="4"/>
       <c r="H389" s="4"/>
       <c r="I389" s="4"/>
       <c r="J389" s="4"/>
-      <c r="K389" s="14"/>
-    </row>
-    <row r="390" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K389" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18.75">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
-      <c r="F390" s="14"/>
+      <c r="F390" s="24"/>
       <c r="G390" s="4"/>
       <c r="H390" s="4"/>
       <c r="I390" s="4"/>
       <c r="J390" s="4"/>
-      <c r="K390" s="14"/>
-    </row>
-    <row r="391" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K390" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18.75">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
-      <c r="F391" s="14"/>
+      <c r="F391" s="24"/>
       <c r="G391" s="4"/>
       <c r="H391" s="4"/>
       <c r="I391" s="4"/>
       <c r="J391" s="4"/>
-      <c r="K391" s="14"/>
-    </row>
-    <row r="392" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K391" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18.75">
       <c r="A392" s="4"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
-      <c r="F392" s="14"/>
+      <c r="F392" s="24"/>
       <c r="G392" s="4"/>
       <c r="H392" s="4"/>
       <c r="I392" s="4"/>
       <c r="J392" s="4"/>
-      <c r="K392" s="14"/>
-    </row>
-    <row r="393" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K392" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18.75">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
-      <c r="F393" s="14"/>
+      <c r="F393" s="24"/>
       <c r="G393" s="4"/>
       <c r="H393" s="4"/>
       <c r="I393" s="4"/>
       <c r="J393" s="4"/>
-      <c r="K393" s="14"/>
-    </row>
-    <row r="394" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K393" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18.75">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="1"/>
@@ -6576,35 +6246,35 @@
       <c r="H394" s="4"/>
       <c r="I394" s="4"/>
       <c r="J394" s="4"/>
-      <c r="K394" s="14"/>
-    </row>
-    <row r="395" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K394" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18.75">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="1"/>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
-      <c r="F395" s="14"/>
+      <c r="F395" s="24"/>
       <c r="G395" s="4"/>
       <c r="H395" s="4"/>
       <c r="I395" s="4"/>
       <c r="J395" s="4"/>
-      <c r="K395" s="14"/>
-    </row>
-    <row r="396" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K395" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18.75">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
-      <c r="F396" s="14"/>
+      <c r="F396" s="24"/>
       <c r="G396" s="4"/>
       <c r="H396" s="4"/>
       <c r="I396" s="4"/>
       <c r="J396" s="4"/>
       <c r="K396" s="4"/>
     </row>
-    <row r="397" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18.75">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -6617,111 +6287,111 @@
       <c r="J397" s="4"/>
       <c r="K397" s="4"/>
     </row>
-    <row r="398" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18.75">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
-      <c r="F398" s="14"/>
+      <c r="F398" s="24"/>
       <c r="G398" s="4"/>
       <c r="H398" s="4"/>
       <c r="I398" s="4"/>
       <c r="J398" s="4"/>
       <c r="K398" s="4"/>
     </row>
-    <row r="399" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18.75">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
-      <c r="F399" s="14"/>
+      <c r="F399" s="24"/>
       <c r="G399" s="4"/>
       <c r="H399" s="4"/>
       <c r="I399" s="4"/>
       <c r="J399" s="4"/>
-      <c r="K399" s="14"/>
-    </row>
-    <row r="400" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K399" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="18.75">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
-      <c r="F400" s="14"/>
+      <c r="F400" s="24"/>
       <c r="G400" s="4"/>
       <c r="H400" s="4"/>
       <c r="I400" s="4"/>
       <c r="J400" s="4"/>
-      <c r="K400" s="14"/>
-    </row>
-    <row r="401" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K400" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="18.75">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
-      <c r="F401" s="14"/>
+      <c r="F401" s="24"/>
       <c r="G401" s="4"/>
       <c r="H401" s="4"/>
       <c r="I401" s="4"/>
       <c r="J401" s="4"/>
-      <c r="K401" s="14"/>
-    </row>
-    <row r="402" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K401" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18.75">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
-      <c r="F402" s="14"/>
+      <c r="F402" s="24"/>
       <c r="G402" s="4"/>
       <c r="H402" s="4"/>
       <c r="I402" s="4"/>
       <c r="J402" s="4"/>
-      <c r="K402" s="14"/>
-    </row>
-    <row r="403" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K402" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="18.75">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
-      <c r="F403" s="14"/>
+      <c r="F403" s="24"/>
       <c r="G403" s="4"/>
       <c r="H403" s="4"/>
       <c r="I403" s="4"/>
       <c r="J403" s="4"/>
-      <c r="K403" s="14"/>
-    </row>
-    <row r="404" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K403" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18.75">
       <c r="A404" s="4"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
-      <c r="F404" s="14"/>
+      <c r="F404" s="24"/>
       <c r="G404" s="4"/>
       <c r="H404" s="4"/>
       <c r="I404" s="4"/>
       <c r="J404" s="4"/>
-      <c r="K404" s="14"/>
-    </row>
-    <row r="405" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K404" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18.75">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
-      <c r="F405" s="14"/>
+      <c r="F405" s="24"/>
       <c r="G405" s="4"/>
       <c r="H405" s="4"/>
       <c r="I405" s="4"/>
       <c r="J405" s="4"/>
-      <c r="K405" s="14"/>
-    </row>
-    <row r="406" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K405" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="18.75">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="1"/>
@@ -6732,35 +6402,35 @@
       <c r="H406" s="4"/>
       <c r="I406" s="4"/>
       <c r="J406" s="4"/>
-      <c r="K406" s="14"/>
-    </row>
-    <row r="407" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K406" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="18.75">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="1"/>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
-      <c r="F407" s="14"/>
+      <c r="F407" s="24"/>
       <c r="G407" s="4"/>
       <c r="H407" s="4"/>
       <c r="I407" s="4"/>
       <c r="J407" s="4"/>
-      <c r="K407" s="14"/>
-    </row>
-    <row r="408" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K407" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="18.75">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
-      <c r="F408" s="14"/>
+      <c r="F408" s="24"/>
       <c r="G408" s="4"/>
       <c r="H408" s="4"/>
       <c r="I408" s="4"/>
       <c r="J408" s="4"/>
       <c r="K408" s="4"/>
     </row>
-    <row r="409" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="18.75">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -6773,111 +6443,111 @@
       <c r="J409" s="4"/>
       <c r="K409" s="4"/>
     </row>
-    <row r="410" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="18.75">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
-      <c r="F410" s="14"/>
+      <c r="F410" s="24"/>
       <c r="G410" s="4"/>
       <c r="H410" s="4"/>
       <c r="I410" s="4"/>
       <c r="J410" s="4"/>
       <c r="K410" s="4"/>
     </row>
-    <row r="411" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18.75">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
-      <c r="F411" s="14"/>
+      <c r="F411" s="24"/>
       <c r="G411" s="4"/>
       <c r="H411" s="4"/>
       <c r="I411" s="4"/>
       <c r="J411" s="4"/>
-      <c r="K411" s="14"/>
-    </row>
-    <row r="412" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K411" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="18.75">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
-      <c r="F412" s="14"/>
+      <c r="F412" s="24"/>
       <c r="G412" s="4"/>
       <c r="H412" s="4"/>
       <c r="I412" s="4"/>
       <c r="J412" s="4"/>
-      <c r="K412" s="14"/>
-    </row>
-    <row r="413" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K412" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="18.75">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
-      <c r="F413" s="14"/>
+      <c r="F413" s="24"/>
       <c r="G413" s="4"/>
       <c r="H413" s="4"/>
       <c r="I413" s="4"/>
       <c r="J413" s="4"/>
-      <c r="K413" s="14"/>
-    </row>
-    <row r="414" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K413" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="18.75">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
-      <c r="F414" s="14"/>
+      <c r="F414" s="24"/>
       <c r="G414" s="4"/>
       <c r="H414" s="4"/>
       <c r="I414" s="4"/>
       <c r="J414" s="4"/>
-      <c r="K414" s="14"/>
-    </row>
-    <row r="415" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K414" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="18.75">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
-      <c r="F415" s="14"/>
+      <c r="F415" s="24"/>
       <c r="G415" s="4"/>
       <c r="H415" s="4"/>
       <c r="I415" s="4"/>
       <c r="J415" s="4"/>
-      <c r="K415" s="14"/>
-    </row>
-    <row r="416" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K415" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="18.75">
       <c r="A416" s="4"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
-      <c r="F416" s="14"/>
+      <c r="F416" s="24"/>
       <c r="G416" s="4"/>
       <c r="H416" s="4"/>
       <c r="I416" s="4"/>
       <c r="J416" s="4"/>
-      <c r="K416" s="14"/>
-    </row>
-    <row r="417" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K416" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18.75">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
-      <c r="F417" s="14"/>
+      <c r="F417" s="24"/>
       <c r="G417" s="4"/>
       <c r="H417" s="4"/>
       <c r="I417" s="4"/>
       <c r="J417" s="4"/>
-      <c r="K417" s="14"/>
-    </row>
-    <row r="418" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K417" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18.75">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="1"/>
@@ -6888,35 +6558,35 @@
       <c r="H418" s="4"/>
       <c r="I418" s="4"/>
       <c r="J418" s="4"/>
-      <c r="K418" s="14"/>
-    </row>
-    <row r="419" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K418" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="18.75">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="1"/>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
-      <c r="F419" s="14"/>
+      <c r="F419" s="24"/>
       <c r="G419" s="4"/>
       <c r="H419" s="4"/>
       <c r="I419" s="4"/>
       <c r="J419" s="4"/>
-      <c r="K419" s="14"/>
-    </row>
-    <row r="420" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K419" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="18.75">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
-      <c r="F420" s="14"/>
+      <c r="F420" s="24"/>
       <c r="G420" s="4"/>
       <c r="H420" s="4"/>
       <c r="I420" s="4"/>
       <c r="J420" s="4"/>
       <c r="K420" s="4"/>
     </row>
-    <row r="421" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18.75">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -6929,111 +6599,111 @@
       <c r="J421" s="4"/>
       <c r="K421" s="4"/>
     </row>
-    <row r="422" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18.75">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
-      <c r="F422" s="14"/>
+      <c r="F422" s="24"/>
       <c r="G422" s="4"/>
       <c r="H422" s="4"/>
       <c r="I422" s="4"/>
       <c r="J422" s="4"/>
       <c r="K422" s="4"/>
     </row>
-    <row r="423" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="18.75">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
-      <c r="F423" s="14"/>
+      <c r="F423" s="24"/>
       <c r="G423" s="4"/>
       <c r="H423" s="4"/>
       <c r="I423" s="4"/>
       <c r="J423" s="4"/>
-      <c r="K423" s="14"/>
-    </row>
-    <row r="424" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K423" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18.75">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
-      <c r="F424" s="14"/>
+      <c r="F424" s="24"/>
       <c r="G424" s="4"/>
       <c r="H424" s="4"/>
       <c r="I424" s="4"/>
       <c r="J424" s="4"/>
-      <c r="K424" s="14"/>
-    </row>
-    <row r="425" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K424" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="18.75">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
-      <c r="F425" s="14"/>
+      <c r="F425" s="24"/>
       <c r="G425" s="4"/>
       <c r="H425" s="4"/>
       <c r="I425" s="4"/>
       <c r="J425" s="4"/>
-      <c r="K425" s="14"/>
-    </row>
-    <row r="426" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K425" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18.75">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
-      <c r="F426" s="14"/>
+      <c r="F426" s="24"/>
       <c r="G426" s="4"/>
       <c r="H426" s="4"/>
       <c r="I426" s="4"/>
       <c r="J426" s="4"/>
-      <c r="K426" s="14"/>
-    </row>
-    <row r="427" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K426" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="18.75">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
-      <c r="F427" s="14"/>
+      <c r="F427" s="24"/>
       <c r="G427" s="4"/>
       <c r="H427" s="4"/>
       <c r="I427" s="4"/>
       <c r="J427" s="4"/>
-      <c r="K427" s="14"/>
-    </row>
-    <row r="428" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K427" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18.75">
       <c r="A428" s="4"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
-      <c r="F428" s="14"/>
+      <c r="F428" s="24"/>
       <c r="G428" s="4"/>
       <c r="H428" s="4"/>
       <c r="I428" s="4"/>
       <c r="J428" s="4"/>
-      <c r="K428" s="14"/>
-    </row>
-    <row r="429" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K428" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18.75">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
-      <c r="F429" s="14"/>
+      <c r="F429" s="24"/>
       <c r="G429" s="4"/>
       <c r="H429" s="4"/>
       <c r="I429" s="4"/>
       <c r="J429" s="4"/>
-      <c r="K429" s="14"/>
-    </row>
-    <row r="430" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K429" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18.75">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="1"/>
@@ -7044,35 +6714,35 @@
       <c r="H430" s="4"/>
       <c r="I430" s="4"/>
       <c r="J430" s="4"/>
-      <c r="K430" s="14"/>
-    </row>
-    <row r="431" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K430" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="18.75">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="1"/>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
-      <c r="F431" s="14"/>
+      <c r="F431" s="24"/>
       <c r="G431" s="4"/>
       <c r="H431" s="4"/>
       <c r="I431" s="4"/>
       <c r="J431" s="4"/>
-      <c r="K431" s="14"/>
-    </row>
-    <row r="432" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K431" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="18.75">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
-      <c r="F432" s="14"/>
+      <c r="F432" s="24"/>
       <c r="G432" s="4"/>
       <c r="H432" s="4"/>
       <c r="I432" s="4"/>
       <c r="J432" s="4"/>
       <c r="K432" s="4"/>
     </row>
-    <row r="433" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="18.75">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -7085,111 +6755,111 @@
       <c r="J433" s="4"/>
       <c r="K433" s="4"/>
     </row>
-    <row r="434" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="18.75">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
-      <c r="F434" s="14"/>
+      <c r="F434" s="24"/>
       <c r="G434" s="4"/>
       <c r="H434" s="4"/>
       <c r="I434" s="4"/>
       <c r="J434" s="4"/>
       <c r="K434" s="4"/>
     </row>
-    <row r="435" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="18.75">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
-      <c r="F435" s="14"/>
+      <c r="F435" s="24"/>
       <c r="G435" s="4"/>
       <c r="H435" s="4"/>
       <c r="I435" s="4"/>
       <c r="J435" s="4"/>
-      <c r="K435" s="14"/>
-    </row>
-    <row r="436" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K435" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="18.75">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
-      <c r="F436" s="14"/>
+      <c r="F436" s="24"/>
       <c r="G436" s="4"/>
       <c r="H436" s="4"/>
       <c r="I436" s="4"/>
       <c r="J436" s="4"/>
-      <c r="K436" s="14"/>
-    </row>
-    <row r="437" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K436" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="18.75">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
-      <c r="F437" s="14"/>
+      <c r="F437" s="24"/>
       <c r="G437" s="4"/>
       <c r="H437" s="4"/>
       <c r="I437" s="4"/>
       <c r="J437" s="4"/>
-      <c r="K437" s="14"/>
-    </row>
-    <row r="438" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K437" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="18.75">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
-      <c r="F438" s="14"/>
+      <c r="F438" s="24"/>
       <c r="G438" s="4"/>
       <c r="H438" s="4"/>
       <c r="I438" s="4"/>
       <c r="J438" s="4"/>
-      <c r="K438" s="14"/>
-    </row>
-    <row r="439" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K438" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="18.75">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
-      <c r="F439" s="14"/>
+      <c r="F439" s="24"/>
       <c r="G439" s="4"/>
       <c r="H439" s="4"/>
       <c r="I439" s="4"/>
       <c r="J439" s="4"/>
-      <c r="K439" s="14"/>
-    </row>
-    <row r="440" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K439" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="18.75">
       <c r="A440" s="4"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
-      <c r="F440" s="14"/>
+      <c r="F440" s="24"/>
       <c r="G440" s="4"/>
       <c r="H440" s="4"/>
       <c r="I440" s="4"/>
       <c r="J440" s="4"/>
-      <c r="K440" s="14"/>
-    </row>
-    <row r="441" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K440" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="18.75">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
-      <c r="F441" s="14"/>
+      <c r="F441" s="24"/>
       <c r="G441" s="4"/>
       <c r="H441" s="4"/>
       <c r="I441" s="4"/>
       <c r="J441" s="4"/>
-      <c r="K441" s="14"/>
-    </row>
-    <row r="442" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K441" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="18.75">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="1"/>
@@ -7200,35 +6870,35 @@
       <c r="H442" s="4"/>
       <c r="I442" s="4"/>
       <c r="J442" s="4"/>
-      <c r="K442" s="14"/>
-    </row>
-    <row r="443" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K442" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="18.75">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="1"/>
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
-      <c r="F443" s="14"/>
+      <c r="F443" s="24"/>
       <c r="G443" s="4"/>
       <c r="H443" s="4"/>
       <c r="I443" s="4"/>
       <c r="J443" s="4"/>
-      <c r="K443" s="14"/>
-    </row>
-    <row r="444" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K443" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="18.75">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
       <c r="E444" s="4"/>
-      <c r="F444" s="14"/>
+      <c r="F444" s="24"/>
       <c r="G444" s="4"/>
       <c r="H444" s="4"/>
       <c r="I444" s="4"/>
       <c r="J444" s="4"/>
       <c r="K444" s="4"/>
     </row>
-    <row r="445" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="18.75">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -7241,111 +6911,111 @@
       <c r="J445" s="4"/>
       <c r="K445" s="4"/>
     </row>
-    <row r="446" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="18.75">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
-      <c r="F446" s="14"/>
+      <c r="F446" s="24"/>
       <c r="G446" s="4"/>
       <c r="H446" s="4"/>
       <c r="I446" s="4"/>
       <c r="J446" s="4"/>
       <c r="K446" s="4"/>
     </row>
-    <row r="447" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="18.75">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
-      <c r="F447" s="14"/>
+      <c r="F447" s="24"/>
       <c r="G447" s="4"/>
       <c r="H447" s="4"/>
       <c r="I447" s="4"/>
       <c r="J447" s="4"/>
-      <c r="K447" s="14"/>
-    </row>
-    <row r="448" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K447" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="18.75">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
-      <c r="F448" s="14"/>
+      <c r="F448" s="24"/>
       <c r="G448" s="4"/>
       <c r="H448" s="4"/>
       <c r="I448" s="4"/>
       <c r="J448" s="4"/>
-      <c r="K448" s="14"/>
-    </row>
-    <row r="449" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K448" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="18.75">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
-      <c r="F449" s="14"/>
+      <c r="F449" s="24"/>
       <c r="G449" s="4"/>
       <c r="H449" s="4"/>
       <c r="I449" s="4"/>
       <c r="J449" s="4"/>
-      <c r="K449" s="14"/>
-    </row>
-    <row r="450" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K449" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="18.75">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
-      <c r="F450" s="14"/>
+      <c r="F450" s="24"/>
       <c r="G450" s="4"/>
       <c r="H450" s="4"/>
       <c r="I450" s="4"/>
       <c r="J450" s="4"/>
-      <c r="K450" s="14"/>
-    </row>
-    <row r="451" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K450" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="18.75">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
-      <c r="F451" s="14"/>
+      <c r="F451" s="24"/>
       <c r="G451" s="4"/>
       <c r="H451" s="4"/>
       <c r="I451" s="4"/>
       <c r="J451" s="4"/>
-      <c r="K451" s="14"/>
-    </row>
-    <row r="452" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K451" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="18.75">
       <c r="A452" s="4"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
-      <c r="F452" s="14"/>
+      <c r="F452" s="24"/>
       <c r="G452" s="4"/>
       <c r="H452" s="4"/>
       <c r="I452" s="4"/>
       <c r="J452" s="4"/>
-      <c r="K452" s="14"/>
-    </row>
-    <row r="453" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K452" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="18.75">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
-      <c r="F453" s="14"/>
+      <c r="F453" s="24"/>
       <c r="G453" s="4"/>
       <c r="H453" s="4"/>
       <c r="I453" s="4"/>
       <c r="J453" s="4"/>
-      <c r="K453" s="14"/>
-    </row>
-    <row r="454" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K453" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="18.75">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="1"/>
@@ -7356,35 +7026,35 @@
       <c r="H454" s="4"/>
       <c r="I454" s="4"/>
       <c r="J454" s="4"/>
-      <c r="K454" s="14"/>
-    </row>
-    <row r="455" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K454" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="18.75">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="1"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
-      <c r="F455" s="14"/>
+      <c r="F455" s="24"/>
       <c r="G455" s="4"/>
       <c r="H455" s="4"/>
       <c r="I455" s="4"/>
       <c r="J455" s="4"/>
-      <c r="K455" s="14"/>
-    </row>
-    <row r="456" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K455" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="18.75">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
-      <c r="F456" s="14"/>
+      <c r="F456" s="24"/>
       <c r="G456" s="4"/>
       <c r="H456" s="4"/>
       <c r="I456" s="4"/>
       <c r="J456" s="4"/>
       <c r="K456" s="4"/>
     </row>
-    <row r="457" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="18.75">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -7397,111 +7067,111 @@
       <c r="J457" s="4"/>
       <c r="K457" s="4"/>
     </row>
-    <row r="458" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="18.75">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
-      <c r="F458" s="14"/>
+      <c r="F458" s="24"/>
       <c r="G458" s="4"/>
       <c r="H458" s="4"/>
       <c r="I458" s="4"/>
       <c r="J458" s="4"/>
       <c r="K458" s="4"/>
     </row>
-    <row r="459" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="18.75">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
-      <c r="F459" s="14"/>
+      <c r="F459" s="24"/>
       <c r="G459" s="4"/>
       <c r="H459" s="4"/>
       <c r="I459" s="4"/>
       <c r="J459" s="4"/>
-      <c r="K459" s="14"/>
-    </row>
-    <row r="460" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K459" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="18.75">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
-      <c r="F460" s="14"/>
+      <c r="F460" s="24"/>
       <c r="G460" s="4"/>
       <c r="H460" s="4"/>
       <c r="I460" s="4"/>
       <c r="J460" s="4"/>
-      <c r="K460" s="14"/>
-    </row>
-    <row r="461" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K460" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="18.75">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
-      <c r="F461" s="14"/>
+      <c r="F461" s="24"/>
       <c r="G461" s="4"/>
       <c r="H461" s="4"/>
       <c r="I461" s="4"/>
       <c r="J461" s="4"/>
-      <c r="K461" s="14"/>
-    </row>
-    <row r="462" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K461" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="18.75">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
-      <c r="F462" s="14"/>
+      <c r="F462" s="24"/>
       <c r="G462" s="4"/>
       <c r="H462" s="4"/>
       <c r="I462" s="4"/>
       <c r="J462" s="4"/>
-      <c r="K462" s="14"/>
-    </row>
-    <row r="463" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K462" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="18.75">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
-      <c r="F463" s="14"/>
+      <c r="F463" s="24"/>
       <c r="G463" s="4"/>
       <c r="H463" s="4"/>
       <c r="I463" s="4"/>
       <c r="J463" s="4"/>
-      <c r="K463" s="14"/>
-    </row>
-    <row r="464" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K463" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="18.75">
       <c r="A464" s="4"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
-      <c r="F464" s="14"/>
+      <c r="F464" s="24"/>
       <c r="G464" s="4"/>
       <c r="H464" s="4"/>
       <c r="I464" s="4"/>
       <c r="J464" s="4"/>
-      <c r="K464" s="14"/>
-    </row>
-    <row r="465" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K464" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="18.75">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
       <c r="E465" s="4"/>
-      <c r="F465" s="14"/>
+      <c r="F465" s="24"/>
       <c r="G465" s="4"/>
       <c r="H465" s="4"/>
       <c r="I465" s="4"/>
       <c r="J465" s="4"/>
-      <c r="K465" s="14"/>
-    </row>
-    <row r="466" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K465" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="18.75">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="1"/>
@@ -7512,35 +7182,35 @@
       <c r="H466" s="4"/>
       <c r="I466" s="4"/>
       <c r="J466" s="4"/>
-      <c r="K466" s="14"/>
-    </row>
-    <row r="467" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K466" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="18.75">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="1"/>
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
-      <c r="F467" s="14"/>
+      <c r="F467" s="24"/>
       <c r="G467" s="4"/>
       <c r="H467" s="4"/>
       <c r="I467" s="4"/>
       <c r="J467" s="4"/>
-      <c r="K467" s="14"/>
-    </row>
-    <row r="468" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K467" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="18.75">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
-      <c r="F468" s="14"/>
+      <c r="F468" s="24"/>
       <c r="G468" s="4"/>
       <c r="H468" s="4"/>
       <c r="I468" s="4"/>
       <c r="J468" s="4"/>
       <c r="K468" s="4"/>
     </row>
-    <row r="469" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="18.75">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -7553,111 +7223,111 @@
       <c r="J469" s="4"/>
       <c r="K469" s="4"/>
     </row>
-    <row r="470" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="18.75">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
-      <c r="F470" s="14"/>
+      <c r="F470" s="24"/>
       <c r="G470" s="4"/>
       <c r="H470" s="4"/>
       <c r="I470" s="4"/>
       <c r="J470" s="4"/>
       <c r="K470" s="4"/>
     </row>
-    <row r="471" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="18.75">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
-      <c r="F471" s="14"/>
+      <c r="F471" s="24"/>
       <c r="G471" s="4"/>
       <c r="H471" s="4"/>
       <c r="I471" s="4"/>
       <c r="J471" s="4"/>
-      <c r="K471" s="14"/>
-    </row>
-    <row r="472" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K471" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="18.75">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
       <c r="D472" s="4"/>
       <c r="E472" s="4"/>
-      <c r="F472" s="14"/>
+      <c r="F472" s="24"/>
       <c r="G472" s="4"/>
       <c r="H472" s="4"/>
       <c r="I472" s="4"/>
       <c r="J472" s="4"/>
-      <c r="K472" s="14"/>
-    </row>
-    <row r="473" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K472" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="18.75">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
-      <c r="F473" s="14"/>
+      <c r="F473" s="24"/>
       <c r="G473" s="4"/>
       <c r="H473" s="4"/>
       <c r="I473" s="4"/>
       <c r="J473" s="4"/>
-      <c r="K473" s="14"/>
-    </row>
-    <row r="474" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K473" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="18.75">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
       <c r="D474" s="4"/>
       <c r="E474" s="4"/>
-      <c r="F474" s="14"/>
+      <c r="F474" s="24"/>
       <c r="G474" s="4"/>
       <c r="H474" s="4"/>
       <c r="I474" s="4"/>
       <c r="J474" s="4"/>
-      <c r="K474" s="14"/>
-    </row>
-    <row r="475" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K474" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="18.75">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
-      <c r="F475" s="14"/>
+      <c r="F475" s="24"/>
       <c r="G475" s="4"/>
       <c r="H475" s="4"/>
       <c r="I475" s="4"/>
       <c r="J475" s="4"/>
-      <c r="K475" s="14"/>
-    </row>
-    <row r="476" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K475" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="18.75">
       <c r="A476" s="4"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
-      <c r="F476" s="14"/>
+      <c r="F476" s="24"/>
       <c r="G476" s="4"/>
       <c r="H476" s="4"/>
       <c r="I476" s="4"/>
       <c r="J476" s="4"/>
-      <c r="K476" s="14"/>
-    </row>
-    <row r="477" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K476" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="18.75">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
-      <c r="F477" s="14"/>
+      <c r="F477" s="24"/>
       <c r="G477" s="4"/>
       <c r="H477" s="4"/>
       <c r="I477" s="4"/>
       <c r="J477" s="4"/>
-      <c r="K477" s="14"/>
-    </row>
-    <row r="478" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K477" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="18.75">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="1"/>
@@ -7668,35 +7338,35 @@
       <c r="H478" s="4"/>
       <c r="I478" s="4"/>
       <c r="J478" s="4"/>
-      <c r="K478" s="14"/>
-    </row>
-    <row r="479" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K478" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="18.75">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="1"/>
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
-      <c r="F479" s="14"/>
+      <c r="F479" s="24"/>
       <c r="G479" s="4"/>
       <c r="H479" s="4"/>
       <c r="I479" s="4"/>
       <c r="J479" s="4"/>
-      <c r="K479" s="14"/>
-    </row>
-    <row r="480" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K479" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="18.75">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
       <c r="E480" s="4"/>
-      <c r="F480" s="14"/>
+      <c r="F480" s="24"/>
       <c r="G480" s="4"/>
       <c r="H480" s="4"/>
       <c r="I480" s="4"/>
       <c r="J480" s="4"/>
       <c r="K480" s="4"/>
     </row>
-    <row r="481" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="18.75">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -7711,10 +7381,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Calibri"&amp;8&amp;K808080 INTERNAL &amp; PARTNERS&amp;1#_x000D_</oddHeader>
-    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;2&amp;KFFFFFF 5acXjzUk</oddFooter>
-  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -7722,7 +7388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -7730,151 +7396,151 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="9" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="16.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="C1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="11" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="12">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="15"/>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="7">
         <v>3600</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="11" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="12">
+      <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="11" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="15"/>
+      <c r="B5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="15"/>
+      <c r="B6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="15"/>
+      <c r="B7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="15"/>
+      <c r="B8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="11" t="s">
+      <c r="C9" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="15"/>
+      <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="C10" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="15"/>
+      <c r="B11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="17"/>
+      <c r="B13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="12" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7887,32 +7553,26 @@
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Calibri"&amp;8&amp;K808080 INTERNAL &amp; PARTNERS&amp;1#_x000D_</oddHeader>
-    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;2&amp;KFFFFFF 5acXjzUk</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="9" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="10.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -7923,166 +7583,162 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="17">
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7">
         <v>2052</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="7">
         <v>2052</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="17">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7">
         <v>2052</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="7">
         <v>2052</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="17">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7">
         <v>1260</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="7">
         <v>1260</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="17">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7">
         <v>1260</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="7">
         <v>1260</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="17">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="7">
         <v>1260</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="7">
         <v>1260</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="17">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7">
         <v>1260</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="7">
         <v>1260</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="17">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+      <c r="A9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7">
         <v>54</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="7">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="17">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7">
         <v>3420</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="7">
         <v>3420</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="17">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="7">
         <v>3420</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="7">
         <v>3420</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="17">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="7">
         <v>3420</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="7">
         <v>3420</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="17">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="7">
         <v>3420</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="7">
         <v>3420</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="17">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="7">
         <v>3420</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="7">
         <v>3420</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="17">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+      <c r="A15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="7">
         <v>3420</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="7">
         <v>3420</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Calibri"&amp;8&amp;K808080 INTERNAL &amp; PARTNERS&amp;1#_x000D_</oddHeader>
-    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;2&amp;KFFFFFF 5acXjzUk</oddFooter>
-  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -8090,7 +7746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -8098,37 +7754,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="2" width="18.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Calibri"&amp;8&amp;K808080 INTERNAL &amp; PARTNERS&amp;1#_x000D_</oddHeader>
-    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;2&amp;KFFFFFF 5acXjzUk</oddFooter>
-  </headerFooter>
 </worksheet>
-</file>
-
-<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
-<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{eafdac3b-4115-4c64-bf62-f9099ec36d84}" enabled="1" method="Standard" siteId="{5047bca2-da88-442e-a09a-d9b8af692adc}" removed="0"/>
-</clbl:labelList>
 </file>
--- a/LineData.xlsx
+++ b/LineData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
   <si>
     <t>Available Strategies</t>
   </si>
@@ -175,7 +175,10 @@
     <t>Transporter Assignment</t>
   </si>
   <si>
-    <t xml:space="preserve">Same station as </t>
+    <t>Manual Operator</t>
+  </si>
+  <si>
+    <t>Identical Station</t>
   </si>
   <si>
     <t>Flushing 1</t>
@@ -825,7 +828,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K481"/>
+  <dimension ref="A1:L481"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -841,7 +844,8 @@
     <col min="8" max="8" style="25" width="27.290714285714284" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="25" width="19.576428571428572" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="25" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="26" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="2" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="26" width="14.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -875,8 +879,11 @@
       <c r="J1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
@@ -884,10 +891,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="23">
         <v>1</v>
@@ -896,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G2" s="23">
         <v>3600</v>
@@ -910,17 +917,18 @@
       <c r="J2" s="23">
         <v>1</v>
       </c>
-      <c r="K2" s="8"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" s="23">
         <v>1</v>
@@ -929,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3" s="23">
         <v>3600</v>
@@ -943,14 +951,15 @@
       <c r="J3" s="23">
         <v>1</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>14</v>
@@ -962,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G4" s="23">
         <v>3600</v>
@@ -976,14 +985,15 @@
       <c r="J4" s="23">
         <v>1</v>
       </c>
-      <c r="K4" s="8"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>14</v>
@@ -995,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G5" s="23">
         <v>3600</v>
@@ -1009,14 +1019,15 @@
       <c r="J5" s="23">
         <v>1</v>
       </c>
-      <c r="K5" s="8"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>14</v>
@@ -1028,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G6" s="23">
         <v>3600</v>
@@ -1042,14 +1053,15 @@
       <c r="J6" s="23">
         <v>1</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>14</v>
@@ -1061,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G7" s="23">
         <v>3600</v>
@@ -1075,17 +1087,18 @@
       <c r="J7" s="23">
         <v>1</v>
       </c>
-      <c r="K7" s="8"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" s="23">
         <v>1</v>
@@ -1094,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G8" s="23">
         <v>3600</v>
@@ -1108,17 +1121,18 @@
       <c r="J8" s="23">
         <v>1</v>
       </c>
-      <c r="K8" s="8"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" s="23">
         <v>1</v>
@@ -1127,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" s="23">
         <v>3600</v>
@@ -1141,17 +1155,18 @@
       <c r="J9" s="23">
         <v>1</v>
       </c>
-      <c r="K9" s="8"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="D10" s="23">
         <v>1</v>
@@ -1160,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" s="23">
         <v>3600</v>
@@ -1174,17 +1189,18 @@
       <c r="J10" s="23">
         <v>1</v>
       </c>
-      <c r="K10" s="8"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" s="23">
         <v>1</v>
@@ -1193,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" s="23">
         <v>3600</v>
@@ -1207,17 +1223,18 @@
       <c r="J11" s="23">
         <v>1</v>
       </c>
-      <c r="K11" s="8"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D12" s="23">
         <v>1</v>
@@ -1226,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G12" s="23">
         <v>3600</v>
@@ -1240,17 +1257,18 @@
       <c r="J12" s="23">
         <v>1</v>
       </c>
-      <c r="K12" s="8"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" s="23">
         <v>1</v>
@@ -1259,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G13" s="23">
         <v>3600</v>
@@ -1273,17 +1291,18 @@
       <c r="J13" s="23">
         <v>1</v>
       </c>
-      <c r="K13" s="8"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D14" s="23">
         <v>1</v>
@@ -1292,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G14" s="23">
         <v>3600</v>
@@ -1306,7 +1325,8 @@
       <c r="J14" s="23">
         <v>1</v>
       </c>
-      <c r="K14" s="8"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
@@ -1319,7 +1339,8 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="24"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
@@ -1332,7 +1353,8 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="24"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
@@ -1345,7 +1367,8 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="24"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
@@ -1358,7 +1381,8 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="24"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
@@ -1371,7 +1395,8 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="24"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="4"/>
@@ -1384,7 +1409,8 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="24"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="4"/>
@@ -1397,7 +1423,8 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="24"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="4"/>
@@ -1410,7 +1437,8 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="24"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="4"/>
@@ -1423,7 +1451,8 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="24"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
@@ -1436,7 +1465,8 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1"/>
@@ -1449,7 +1479,8 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1"/>
@@ -1462,7 +1493,8 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1"/>
@@ -1475,7 +1507,8 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="24"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1"/>
@@ -1488,7 +1521,8 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="24"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1"/>
@@ -1501,7 +1535,8 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="24"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1"/>
@@ -1514,7 +1549,8 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="24"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1"/>
@@ -1527,7 +1563,8 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="24"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="4"/>
@@ -1540,7 +1577,8 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="24"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="4"/>
@@ -1553,7 +1591,8 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="24"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="4"/>
@@ -1566,7 +1605,8 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="24"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="4"/>
@@ -1579,7 +1619,8 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="24"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1"/>
@@ -1592,7 +1633,8 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1"/>
@@ -1605,7 +1647,8 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1"/>
@@ -1618,7 +1661,8 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1"/>
@@ -1631,7 +1675,8 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="24"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1"/>
@@ -1644,7 +1689,8 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="24"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1"/>
@@ -1657,7 +1703,8 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="24"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1"/>
@@ -1670,7 +1717,8 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="24"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1"/>
@@ -1683,7 +1731,8 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="24"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="4"/>
@@ -1696,7 +1745,8 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="24"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="4"/>
@@ -1709,7 +1759,8 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="24"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="4"/>
@@ -1722,7 +1773,8 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="24"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="4"/>
@@ -1735,7 +1787,8 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="24"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1"/>
@@ -1748,7 +1801,8 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="1"/>
@@ -1761,7 +1815,8 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="1"/>
@@ -1774,7 +1829,8 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="1"/>
@@ -1787,7 +1843,8 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="24"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1"/>
@@ -1800,7 +1857,8 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="24"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="1"/>
@@ -1813,7 +1871,8 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="24"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="1"/>
@@ -1826,7 +1885,8 @@
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="24"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="1"/>
@@ -1839,7 +1899,8 @@
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="24"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="4"/>
@@ -1852,7 +1913,8 @@
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="24"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="4"/>
@@ -1865,7 +1927,8 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="24"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="4"/>
@@ -1878,7 +1941,8 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="24"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="4"/>
@@ -1891,7 +1955,8 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="24"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="1"/>
@@ -1904,7 +1969,8 @@
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="1"/>
@@ -1917,7 +1983,8 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="1"/>
@@ -1930,7 +1997,8 @@
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="1"/>
@@ -1943,7 +2011,8 @@
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="24"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="1"/>
@@ -1956,7 +2025,8 @@
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="24"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="1"/>
@@ -1969,7 +2039,8 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="24"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="1"/>
@@ -1982,7 +2053,8 @@
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="24"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="1"/>
@@ -1995,7 +2067,8 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="K67" s="24"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="4"/>
@@ -2008,7 +2081,8 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="K68" s="24"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="4"/>
@@ -2021,7 +2095,8 @@
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="24"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="4"/>
@@ -2034,7 +2109,8 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-      <c r="K70" s="24"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="4"/>
@@ -2047,7 +2123,8 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
-      <c r="K71" s="24"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="1"/>
@@ -2060,7 +2137,8 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="1"/>
@@ -2073,7 +2151,8 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="1"/>
@@ -2086,7 +2165,8 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="1"/>
@@ -2099,7 +2179,8 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
-      <c r="K75" s="24"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="1"/>
@@ -2112,7 +2193,8 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-      <c r="K76" s="24"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="1"/>
@@ -2125,7 +2207,8 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="24"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="1"/>
@@ -2138,7 +2221,8 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="24"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="1"/>
@@ -2151,7 +2235,8 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="K79" s="24"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="4"/>
@@ -2164,7 +2249,8 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="24"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="4"/>
@@ -2177,7 +2263,8 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="24"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="4"/>
@@ -2190,7 +2277,8 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="24"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="4"/>
@@ -2203,7 +2291,8 @@
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="K83" s="24"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="1"/>
@@ -2216,7 +2305,8 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="1"/>
@@ -2229,7 +2319,8 @@
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="1"/>
@@ -2242,7 +2333,8 @@
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="1"/>
@@ -2255,7 +2347,8 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="K87" s="24"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="1"/>
@@ -2268,7 +2361,8 @@
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-      <c r="K88" s="24"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="1"/>
@@ -2281,7 +2375,8 @@
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="K89" s="24"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="1"/>
@@ -2294,7 +2389,8 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="24"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="1"/>
@@ -2307,7 +2403,8 @@
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
-      <c r="K91" s="24"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="4"/>
@@ -2320,7 +2417,8 @@
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-      <c r="K92" s="24"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="4"/>
@@ -2333,7 +2431,8 @@
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
-      <c r="K93" s="24"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="4"/>
@@ -2346,7 +2445,8 @@
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
-      <c r="K94" s="24"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="4"/>
@@ -2359,7 +2459,8 @@
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
-      <c r="K95" s="24"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="1"/>
@@ -2372,7 +2473,8 @@
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="1"/>
@@ -2385,7 +2487,8 @@
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="1"/>
@@ -2398,7 +2501,8 @@
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="1"/>
@@ -2411,7 +2515,8 @@
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
-      <c r="K99" s="24"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="1"/>
@@ -2424,7 +2529,8 @@
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
-      <c r="K100" s="24"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="1"/>
@@ -2437,7 +2543,8 @@
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
-      <c r="K101" s="24"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="1"/>
@@ -2450,7 +2557,8 @@
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
-      <c r="K102" s="24"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="1"/>
@@ -2463,7 +2571,8 @@
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
-      <c r="K103" s="24"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="4"/>
@@ -2476,7 +2585,8 @@
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
-      <c r="K104" s="24"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="4"/>
@@ -2489,7 +2599,8 @@
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
-      <c r="K105" s="24"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="4"/>
@@ -2502,7 +2613,8 @@
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
-      <c r="K106" s="24"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="4"/>
@@ -2515,7 +2627,8 @@
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
-      <c r="K107" s="24"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="1"/>
@@ -2528,7 +2641,8 @@
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
-      <c r="K108" s="4"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="1"/>
@@ -2541,7 +2655,8 @@
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
-      <c r="K109" s="4"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="1"/>
@@ -2554,7 +2669,8 @@
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
-      <c r="K110" s="4"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="1"/>
@@ -2567,7 +2683,8 @@
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
-      <c r="K111" s="24"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="1"/>
@@ -2580,7 +2697,8 @@
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
-      <c r="K112" s="24"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="1"/>
@@ -2593,7 +2711,8 @@
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
-      <c r="K113" s="24"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="1"/>
@@ -2606,7 +2725,8 @@
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
-      <c r="K114" s="24"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="1"/>
@@ -2619,7 +2739,8 @@
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
-      <c r="K115" s="24"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="4"/>
@@ -2632,7 +2753,8 @@
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
-      <c r="K116" s="24"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="4"/>
@@ -2645,7 +2767,8 @@
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
-      <c r="K117" s="24"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="4"/>
@@ -2658,7 +2781,8 @@
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
-      <c r="K118" s="24"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="4"/>
@@ -2671,7 +2795,8 @@
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
-      <c r="K119" s="24"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="1"/>
@@ -2684,7 +2809,8 @@
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="1"/>
@@ -2697,7 +2823,8 @@
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="1"/>
@@ -2710,7 +2837,8 @@
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="1"/>
@@ -2723,7 +2851,8 @@
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
-      <c r="K123" s="24"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="1"/>
@@ -2736,7 +2865,8 @@
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
-      <c r="K124" s="24"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="1"/>
@@ -2749,7 +2879,8 @@
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
-      <c r="K125" s="24"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="1"/>
@@ -2762,7 +2893,8 @@
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
-      <c r="K126" s="24"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="1"/>
@@ -2775,7 +2907,8 @@
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
-      <c r="K127" s="24"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="4"/>
@@ -2788,7 +2921,8 @@
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
-      <c r="K128" s="24"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="4"/>
@@ -2801,7 +2935,8 @@
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
-      <c r="K129" s="24"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="4"/>
@@ -2814,7 +2949,8 @@
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
-      <c r="K130" s="24"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="4"/>
@@ -2827,7 +2963,8 @@
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
-      <c r="K131" s="24"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="1"/>
@@ -2840,7 +2977,8 @@
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="1"/>
@@ -2853,7 +2991,8 @@
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="1"/>
@@ -2866,7 +3005,8 @@
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
-      <c r="K134" s="4"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="1"/>
@@ -2879,7 +3019,8 @@
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
-      <c r="K135" s="24"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="1"/>
@@ -2892,7 +3033,8 @@
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
-      <c r="K136" s="24"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="1"/>
@@ -2905,7 +3047,8 @@
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
-      <c r="K137" s="24"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="1"/>
@@ -2918,7 +3061,8 @@
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
-      <c r="K138" s="24"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="1"/>
@@ -2931,7 +3075,8 @@
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
-      <c r="K139" s="24"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="4"/>
@@ -2944,7 +3089,8 @@
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
-      <c r="K140" s="24"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="4"/>
@@ -2957,7 +3103,8 @@
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
-      <c r="K141" s="24"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="4"/>
@@ -2970,7 +3117,8 @@
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
-      <c r="K142" s="24"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="4"/>
@@ -2983,7 +3131,8 @@
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
-      <c r="K143" s="24"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="1"/>
@@ -2996,7 +3145,8 @@
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
-      <c r="K144" s="4"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="1"/>
@@ -3009,7 +3159,8 @@
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
-      <c r="K145" s="4"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="1"/>
@@ -3022,7 +3173,8 @@
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
-      <c r="K146" s="4"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="1"/>
@@ -3035,7 +3187,8 @@
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
-      <c r="K147" s="24"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="1"/>
@@ -3048,7 +3201,8 @@
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
-      <c r="K148" s="24"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="1"/>
@@ -3061,7 +3215,8 @@
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
-      <c r="K149" s="24"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="1"/>
@@ -3074,7 +3229,8 @@
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
-      <c r="K150" s="24"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="1"/>
@@ -3087,7 +3243,8 @@
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
-      <c r="K151" s="24"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="4"/>
@@ -3100,7 +3257,8 @@
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
-      <c r="K152" s="24"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="4"/>
@@ -3113,7 +3271,8 @@
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
-      <c r="K153" s="24"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="4"/>
@@ -3126,7 +3285,8 @@
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
-      <c r="K154" s="24"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="4"/>
@@ -3139,7 +3299,8 @@
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
-      <c r="K155" s="24"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="1"/>
@@ -3152,7 +3313,8 @@
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
-      <c r="K156" s="4"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="1"/>
@@ -3165,7 +3327,8 @@
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
-      <c r="K157" s="4"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="1"/>
@@ -3178,7 +3341,8 @@
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
-      <c r="K158" s="4"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="1"/>
@@ -3191,7 +3355,8 @@
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
-      <c r="K159" s="24"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="1"/>
@@ -3204,7 +3369,8 @@
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
-      <c r="K160" s="24"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="1"/>
@@ -3217,7 +3383,8 @@
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
-      <c r="K161" s="24"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="1"/>
@@ -3230,7 +3397,8 @@
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
-      <c r="K162" s="24"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="1"/>
@@ -3243,7 +3411,8 @@
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
-      <c r="K163" s="24"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="4"/>
@@ -3256,7 +3425,8 @@
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
-      <c r="K164" s="24"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="4"/>
@@ -3269,7 +3439,8 @@
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
-      <c r="K165" s="24"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="4"/>
@@ -3282,7 +3453,8 @@
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
-      <c r="K166" s="24"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="4"/>
@@ -3295,7 +3467,8 @@
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
-      <c r="K167" s="24"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="1"/>
@@ -3308,7 +3481,8 @@
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
-      <c r="K168" s="4"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="1"/>
@@ -3321,7 +3495,8 @@
       <c r="H169" s="4"/>
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
-      <c r="K169" s="4"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="1"/>
@@ -3334,7 +3509,8 @@
       <c r="H170" s="4"/>
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
-      <c r="K170" s="4"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="1"/>
@@ -3347,7 +3523,8 @@
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
-      <c r="K171" s="24"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="1"/>
@@ -3360,7 +3537,8 @@
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
-      <c r="K172" s="24"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="1"/>
@@ -3373,7 +3551,8 @@
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
-      <c r="K173" s="24"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="1"/>
@@ -3386,7 +3565,8 @@
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
-      <c r="K174" s="24"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="1"/>
@@ -3399,7 +3579,8 @@
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
-      <c r="K175" s="24"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="4"/>
@@ -3412,7 +3593,8 @@
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
-      <c r="K176" s="24"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="4"/>
@@ -3425,7 +3607,8 @@
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
-      <c r="K177" s="24"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="4"/>
@@ -3438,7 +3621,8 @@
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
-      <c r="K178" s="24"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="4"/>
@@ -3451,7 +3635,8 @@
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
-      <c r="K179" s="24"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="1"/>
@@ -3464,7 +3649,8 @@
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
-      <c r="K180" s="4"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="1"/>
@@ -3477,7 +3663,8 @@
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
-      <c r="K181" s="4"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="1"/>
@@ -3490,7 +3677,8 @@
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
-      <c r="K182" s="4"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="1"/>
@@ -3503,7 +3691,8 @@
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
-      <c r="K183" s="24"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="1"/>
@@ -3516,7 +3705,8 @@
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
-      <c r="K184" s="24"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="1"/>
@@ -3529,7 +3719,8 @@
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
-      <c r="K185" s="24"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="1"/>
@@ -3542,7 +3733,8 @@
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
-      <c r="K186" s="24"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="1"/>
@@ -3555,7 +3747,8 @@
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
-      <c r="K187" s="24"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="4"/>
@@ -3568,7 +3761,8 @@
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
-      <c r="K188" s="24"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="4"/>
@@ -3581,7 +3775,8 @@
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
-      <c r="K189" s="24"/>
+      <c r="K189" s="1"/>
+      <c r="L189" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="4"/>
@@ -3594,7 +3789,8 @@
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
       <c r="J190" s="4"/>
-      <c r="K190" s="24"/>
+      <c r="K190" s="1"/>
+      <c r="L190" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="4"/>
@@ -3607,7 +3803,8 @@
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
-      <c r="K191" s="24"/>
+      <c r="K191" s="1"/>
+      <c r="L191" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="1"/>
@@ -3620,7 +3817,8 @@
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
-      <c r="K192" s="4"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="1"/>
@@ -3633,7 +3831,8 @@
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
-      <c r="K193" s="4"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="1"/>
@@ -3646,7 +3845,8 @@
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
-      <c r="K194" s="4"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="1"/>
@@ -3659,7 +3859,8 @@
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
-      <c r="K195" s="24"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="1"/>
@@ -3672,7 +3873,8 @@
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
-      <c r="K196" s="24"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="1"/>
@@ -3685,7 +3887,8 @@
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
       <c r="J197" s="4"/>
-      <c r="K197" s="24"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="1"/>
@@ -3698,7 +3901,8 @@
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
-      <c r="K198" s="24"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="1"/>
@@ -3711,7 +3915,8 @@
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
-      <c r="K199" s="24"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="4"/>
@@ -3724,7 +3929,8 @@
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
-      <c r="K200" s="24"/>
+      <c r="K200" s="1"/>
+      <c r="L200" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="4"/>
@@ -3737,7 +3943,8 @@
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
-      <c r="K201" s="24"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="4"/>
@@ -3750,7 +3957,8 @@
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
-      <c r="K202" s="24"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="4"/>
@@ -3763,7 +3971,8 @@
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
-      <c r="K203" s="24"/>
+      <c r="K203" s="1"/>
+      <c r="L203" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="1"/>
@@ -3776,7 +3985,8 @@
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
-      <c r="K204" s="4"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="1"/>
@@ -3789,7 +3999,8 @@
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
       <c r="J205" s="4"/>
-      <c r="K205" s="4"/>
+      <c r="K205" s="1"/>
+      <c r="L205" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="1"/>
@@ -3802,7 +4013,8 @@
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
-      <c r="K206" s="4"/>
+      <c r="K206" s="1"/>
+      <c r="L206" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="1"/>
@@ -3815,7 +4027,8 @@
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
-      <c r="K207" s="24"/>
+      <c r="K207" s="1"/>
+      <c r="L207" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="1"/>
@@ -3828,7 +4041,8 @@
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
-      <c r="K208" s="24"/>
+      <c r="K208" s="1"/>
+      <c r="L208" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="1"/>
@@ -3841,7 +4055,8 @@
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
-      <c r="K209" s="24"/>
+      <c r="K209" s="1"/>
+      <c r="L209" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
       <c r="A210" s="1"/>
@@ -3854,7 +4069,8 @@
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
-      <c r="K210" s="24"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="1"/>
@@ -3867,7 +4083,8 @@
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
       <c r="J211" s="4"/>
-      <c r="K211" s="24"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="4"/>
@@ -3880,7 +4097,8 @@
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
-      <c r="K212" s="24"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
       <c r="A213" s="4"/>
@@ -3893,7 +4111,8 @@
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
       <c r="J213" s="4"/>
-      <c r="K213" s="24"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="4"/>
@@ -3906,7 +4125,8 @@
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
       <c r="J214" s="4"/>
-      <c r="K214" s="24"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="4"/>
@@ -3919,7 +4139,8 @@
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
       <c r="J215" s="4"/>
-      <c r="K215" s="24"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
       <c r="A216" s="1"/>
@@ -3932,7 +4153,8 @@
       <c r="H216" s="4"/>
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
-      <c r="K216" s="4"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="1"/>
@@ -3945,7 +4167,8 @@
       <c r="H217" s="4"/>
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
-      <c r="K217" s="4"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="1"/>
@@ -3958,7 +4181,8 @@
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
-      <c r="K218" s="4"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="1"/>
@@ -3971,7 +4195,8 @@
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
-      <c r="K219" s="24"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="1"/>
@@ -3984,7 +4209,8 @@
       <c r="H220" s="4"/>
       <c r="I220" s="4"/>
       <c r="J220" s="4"/>
-      <c r="K220" s="24"/>
+      <c r="K220" s="1"/>
+      <c r="L220" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="1"/>
@@ -3997,7 +4223,8 @@
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
-      <c r="K221" s="24"/>
+      <c r="K221" s="1"/>
+      <c r="L221" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="1"/>
@@ -4010,7 +4237,8 @@
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
-      <c r="K222" s="24"/>
+      <c r="K222" s="1"/>
+      <c r="L222" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="1"/>
@@ -4023,7 +4251,8 @@
       <c r="H223" s="4"/>
       <c r="I223" s="4"/>
       <c r="J223" s="4"/>
-      <c r="K223" s="24"/>
+      <c r="K223" s="1"/>
+      <c r="L223" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="4"/>
@@ -4036,7 +4265,8 @@
       <c r="H224" s="4"/>
       <c r="I224" s="4"/>
       <c r="J224" s="4"/>
-      <c r="K224" s="24"/>
+      <c r="K224" s="1"/>
+      <c r="L224" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="4"/>
@@ -4049,7 +4279,8 @@
       <c r="H225" s="4"/>
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
-      <c r="K225" s="24"/>
+      <c r="K225" s="1"/>
+      <c r="L225" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="4"/>
@@ -4062,7 +4293,8 @@
       <c r="H226" s="4"/>
       <c r="I226" s="4"/>
       <c r="J226" s="4"/>
-      <c r="K226" s="24"/>
+      <c r="K226" s="1"/>
+      <c r="L226" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="4"/>
@@ -4075,7 +4307,8 @@
       <c r="H227" s="4"/>
       <c r="I227" s="4"/>
       <c r="J227" s="4"/>
-      <c r="K227" s="24"/>
+      <c r="K227" s="1"/>
+      <c r="L227" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="1"/>
@@ -4088,7 +4321,8 @@
       <c r="H228" s="4"/>
       <c r="I228" s="4"/>
       <c r="J228" s="4"/>
-      <c r="K228" s="4"/>
+      <c r="K228" s="1"/>
+      <c r="L228" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="1"/>
@@ -4101,7 +4335,8 @@
       <c r="H229" s="4"/>
       <c r="I229" s="4"/>
       <c r="J229" s="4"/>
-      <c r="K229" s="4"/>
+      <c r="K229" s="1"/>
+      <c r="L229" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="1"/>
@@ -4114,7 +4349,8 @@
       <c r="H230" s="4"/>
       <c r="I230" s="4"/>
       <c r="J230" s="4"/>
-      <c r="K230" s="4"/>
+      <c r="K230" s="1"/>
+      <c r="L230" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="1"/>
@@ -4127,7 +4363,8 @@
       <c r="H231" s="4"/>
       <c r="I231" s="4"/>
       <c r="J231" s="4"/>
-      <c r="K231" s="24"/>
+      <c r="K231" s="1"/>
+      <c r="L231" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="1"/>
@@ -4140,7 +4377,8 @@
       <c r="H232" s="4"/>
       <c r="I232" s="4"/>
       <c r="J232" s="4"/>
-      <c r="K232" s="24"/>
+      <c r="K232" s="1"/>
+      <c r="L232" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="1"/>
@@ -4153,7 +4391,8 @@
       <c r="H233" s="4"/>
       <c r="I233" s="4"/>
       <c r="J233" s="4"/>
-      <c r="K233" s="24"/>
+      <c r="K233" s="1"/>
+      <c r="L233" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="1"/>
@@ -4166,7 +4405,8 @@
       <c r="H234" s="4"/>
       <c r="I234" s="4"/>
       <c r="J234" s="4"/>
-      <c r="K234" s="24"/>
+      <c r="K234" s="1"/>
+      <c r="L234" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="1"/>
@@ -4179,7 +4419,8 @@
       <c r="H235" s="4"/>
       <c r="I235" s="4"/>
       <c r="J235" s="4"/>
-      <c r="K235" s="24"/>
+      <c r="K235" s="1"/>
+      <c r="L235" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="4"/>
@@ -4192,7 +4433,8 @@
       <c r="H236" s="4"/>
       <c r="I236" s="4"/>
       <c r="J236" s="4"/>
-      <c r="K236" s="24"/>
+      <c r="K236" s="1"/>
+      <c r="L236" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="4"/>
@@ -4205,7 +4447,8 @@
       <c r="H237" s="4"/>
       <c r="I237" s="4"/>
       <c r="J237" s="4"/>
-      <c r="K237" s="24"/>
+      <c r="K237" s="1"/>
+      <c r="L237" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
       <c r="A238" s="4"/>
@@ -4218,7 +4461,8 @@
       <c r="H238" s="4"/>
       <c r="I238" s="4"/>
       <c r="J238" s="4"/>
-      <c r="K238" s="24"/>
+      <c r="K238" s="1"/>
+      <c r="L238" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
       <c r="A239" s="4"/>
@@ -4231,7 +4475,8 @@
       <c r="H239" s="4"/>
       <c r="I239" s="4"/>
       <c r="J239" s="4"/>
-      <c r="K239" s="24"/>
+      <c r="K239" s="1"/>
+      <c r="L239" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
       <c r="A240" s="1"/>
@@ -4244,7 +4489,8 @@
       <c r="H240" s="4"/>
       <c r="I240" s="4"/>
       <c r="J240" s="4"/>
-      <c r="K240" s="4"/>
+      <c r="K240" s="1"/>
+      <c r="L240" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
       <c r="A241" s="1"/>
@@ -4257,7 +4503,8 @@
       <c r="H241" s="4"/>
       <c r="I241" s="4"/>
       <c r="J241" s="4"/>
-      <c r="K241" s="4"/>
+      <c r="K241" s="1"/>
+      <c r="L241" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
       <c r="A242" s="1"/>
@@ -4270,7 +4517,8 @@
       <c r="H242" s="4"/>
       <c r="I242" s="4"/>
       <c r="J242" s="4"/>
-      <c r="K242" s="4"/>
+      <c r="K242" s="1"/>
+      <c r="L242" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
       <c r="A243" s="1"/>
@@ -4283,7 +4531,8 @@
       <c r="H243" s="4"/>
       <c r="I243" s="4"/>
       <c r="J243" s="4"/>
-      <c r="K243" s="24"/>
+      <c r="K243" s="1"/>
+      <c r="L243" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
       <c r="A244" s="1"/>
@@ -4296,7 +4545,8 @@
       <c r="H244" s="4"/>
       <c r="I244" s="4"/>
       <c r="J244" s="4"/>
-      <c r="K244" s="24"/>
+      <c r="K244" s="1"/>
+      <c r="L244" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
       <c r="A245" s="1"/>
@@ -4309,7 +4559,8 @@
       <c r="H245" s="4"/>
       <c r="I245" s="4"/>
       <c r="J245" s="4"/>
-      <c r="K245" s="24"/>
+      <c r="K245" s="1"/>
+      <c r="L245" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
       <c r="A246" s="1"/>
@@ -4322,7 +4573,8 @@
       <c r="H246" s="4"/>
       <c r="I246" s="4"/>
       <c r="J246" s="4"/>
-      <c r="K246" s="24"/>
+      <c r="K246" s="1"/>
+      <c r="L246" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
       <c r="A247" s="1"/>
@@ -4335,7 +4587,8 @@
       <c r="H247" s="4"/>
       <c r="I247" s="4"/>
       <c r="J247" s="4"/>
-      <c r="K247" s="24"/>
+      <c r="K247" s="1"/>
+      <c r="L247" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
       <c r="A248" s="4"/>
@@ -4348,7 +4601,8 @@
       <c r="H248" s="4"/>
       <c r="I248" s="4"/>
       <c r="J248" s="4"/>
-      <c r="K248" s="24"/>
+      <c r="K248" s="1"/>
+      <c r="L248" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
       <c r="A249" s="4"/>
@@ -4361,7 +4615,8 @@
       <c r="H249" s="4"/>
       <c r="I249" s="4"/>
       <c r="J249" s="4"/>
-      <c r="K249" s="24"/>
+      <c r="K249" s="1"/>
+      <c r="L249" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
       <c r="A250" s="4"/>
@@ -4374,7 +4629,8 @@
       <c r="H250" s="4"/>
       <c r="I250" s="4"/>
       <c r="J250" s="4"/>
-      <c r="K250" s="24"/>
+      <c r="K250" s="1"/>
+      <c r="L250" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
       <c r="A251" s="4"/>
@@ -4387,7 +4643,8 @@
       <c r="H251" s="4"/>
       <c r="I251" s="4"/>
       <c r="J251" s="4"/>
-      <c r="K251" s="24"/>
+      <c r="K251" s="1"/>
+      <c r="L251" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
       <c r="A252" s="1"/>
@@ -4400,7 +4657,8 @@
       <c r="H252" s="4"/>
       <c r="I252" s="4"/>
       <c r="J252" s="4"/>
-      <c r="K252" s="4"/>
+      <c r="K252" s="1"/>
+      <c r="L252" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
       <c r="A253" s="1"/>
@@ -4413,7 +4671,8 @@
       <c r="H253" s="4"/>
       <c r="I253" s="4"/>
       <c r="J253" s="4"/>
-      <c r="K253" s="4"/>
+      <c r="K253" s="1"/>
+      <c r="L253" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
       <c r="A254" s="1"/>
@@ -4426,7 +4685,8 @@
       <c r="H254" s="4"/>
       <c r="I254" s="4"/>
       <c r="J254" s="4"/>
-      <c r="K254" s="4"/>
+      <c r="K254" s="1"/>
+      <c r="L254" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
       <c r="A255" s="1"/>
@@ -4439,7 +4699,8 @@
       <c r="H255" s="4"/>
       <c r="I255" s="4"/>
       <c r="J255" s="4"/>
-      <c r="K255" s="24"/>
+      <c r="K255" s="1"/>
+      <c r="L255" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
       <c r="A256" s="1"/>
@@ -4452,7 +4713,8 @@
       <c r="H256" s="4"/>
       <c r="I256" s="4"/>
       <c r="J256" s="4"/>
-      <c r="K256" s="24"/>
+      <c r="K256" s="1"/>
+      <c r="L256" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
       <c r="A257" s="1"/>
@@ -4465,7 +4727,8 @@
       <c r="H257" s="4"/>
       <c r="I257" s="4"/>
       <c r="J257" s="4"/>
-      <c r="K257" s="24"/>
+      <c r="K257" s="1"/>
+      <c r="L257" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
       <c r="A258" s="1"/>
@@ -4478,7 +4741,8 @@
       <c r="H258" s="4"/>
       <c r="I258" s="4"/>
       <c r="J258" s="4"/>
-      <c r="K258" s="24"/>
+      <c r="K258" s="1"/>
+      <c r="L258" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
       <c r="A259" s="1"/>
@@ -4491,7 +4755,8 @@
       <c r="H259" s="4"/>
       <c r="I259" s="4"/>
       <c r="J259" s="4"/>
-      <c r="K259" s="24"/>
+      <c r="K259" s="1"/>
+      <c r="L259" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
       <c r="A260" s="4"/>
@@ -4504,7 +4769,8 @@
       <c r="H260" s="4"/>
       <c r="I260" s="4"/>
       <c r="J260" s="4"/>
-      <c r="K260" s="24"/>
+      <c r="K260" s="1"/>
+      <c r="L260" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
       <c r="A261" s="4"/>
@@ -4517,7 +4783,8 @@
       <c r="H261" s="4"/>
       <c r="I261" s="4"/>
       <c r="J261" s="4"/>
-      <c r="K261" s="24"/>
+      <c r="K261" s="1"/>
+      <c r="L261" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
       <c r="A262" s="4"/>
@@ -4530,7 +4797,8 @@
       <c r="H262" s="4"/>
       <c r="I262" s="4"/>
       <c r="J262" s="4"/>
-      <c r="K262" s="24"/>
+      <c r="K262" s="1"/>
+      <c r="L262" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
       <c r="A263" s="4"/>
@@ -4543,7 +4811,8 @@
       <c r="H263" s="4"/>
       <c r="I263" s="4"/>
       <c r="J263" s="4"/>
-      <c r="K263" s="24"/>
+      <c r="K263" s="1"/>
+      <c r="L263" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
       <c r="A264" s="1"/>
@@ -4556,7 +4825,8 @@
       <c r="H264" s="4"/>
       <c r="I264" s="4"/>
       <c r="J264" s="4"/>
-      <c r="K264" s="4"/>
+      <c r="K264" s="1"/>
+      <c r="L264" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
       <c r="A265" s="1"/>
@@ -4569,7 +4839,8 @@
       <c r="H265" s="4"/>
       <c r="I265" s="4"/>
       <c r="J265" s="4"/>
-      <c r="K265" s="4"/>
+      <c r="K265" s="1"/>
+      <c r="L265" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
       <c r="A266" s="1"/>
@@ -4582,7 +4853,8 @@
       <c r="H266" s="4"/>
       <c r="I266" s="4"/>
       <c r="J266" s="4"/>
-      <c r="K266" s="4"/>
+      <c r="K266" s="1"/>
+      <c r="L266" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
       <c r="A267" s="1"/>
@@ -4595,7 +4867,8 @@
       <c r="H267" s="4"/>
       <c r="I267" s="4"/>
       <c r="J267" s="4"/>
-      <c r="K267" s="24"/>
+      <c r="K267" s="1"/>
+      <c r="L267" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
       <c r="A268" s="1"/>
@@ -4608,7 +4881,8 @@
       <c r="H268" s="4"/>
       <c r="I268" s="4"/>
       <c r="J268" s="4"/>
-      <c r="K268" s="24"/>
+      <c r="K268" s="1"/>
+      <c r="L268" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
       <c r="A269" s="1"/>
@@ -4621,7 +4895,8 @@
       <c r="H269" s="4"/>
       <c r="I269" s="4"/>
       <c r="J269" s="4"/>
-      <c r="K269" s="24"/>
+      <c r="K269" s="1"/>
+      <c r="L269" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
       <c r="A270" s="1"/>
@@ -4634,7 +4909,8 @@
       <c r="H270" s="4"/>
       <c r="I270" s="4"/>
       <c r="J270" s="4"/>
-      <c r="K270" s="24"/>
+      <c r="K270" s="1"/>
+      <c r="L270" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
       <c r="A271" s="1"/>
@@ -4647,7 +4923,8 @@
       <c r="H271" s="4"/>
       <c r="I271" s="4"/>
       <c r="J271" s="4"/>
-      <c r="K271" s="24"/>
+      <c r="K271" s="1"/>
+      <c r="L271" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
       <c r="A272" s="4"/>
@@ -4660,7 +4937,8 @@
       <c r="H272" s="4"/>
       <c r="I272" s="4"/>
       <c r="J272" s="4"/>
-      <c r="K272" s="24"/>
+      <c r="K272" s="1"/>
+      <c r="L272" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75">
       <c r="A273" s="4"/>
@@ -4673,7 +4951,8 @@
       <c r="H273" s="4"/>
       <c r="I273" s="4"/>
       <c r="J273" s="4"/>
-      <c r="K273" s="24"/>
+      <c r="K273" s="1"/>
+      <c r="L273" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
       <c r="A274" s="4"/>
@@ -4686,7 +4965,8 @@
       <c r="H274" s="4"/>
       <c r="I274" s="4"/>
       <c r="J274" s="4"/>
-      <c r="K274" s="24"/>
+      <c r="K274" s="1"/>
+      <c r="L274" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
       <c r="A275" s="4"/>
@@ -4699,7 +4979,8 @@
       <c r="H275" s="4"/>
       <c r="I275" s="4"/>
       <c r="J275" s="4"/>
-      <c r="K275" s="24"/>
+      <c r="K275" s="1"/>
+      <c r="L275" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
       <c r="A276" s="1"/>
@@ -4712,7 +4993,8 @@
       <c r="H276" s="4"/>
       <c r="I276" s="4"/>
       <c r="J276" s="4"/>
-      <c r="K276" s="4"/>
+      <c r="K276" s="1"/>
+      <c r="L276" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
       <c r="A277" s="1"/>
@@ -4725,7 +5007,8 @@
       <c r="H277" s="4"/>
       <c r="I277" s="4"/>
       <c r="J277" s="4"/>
-      <c r="K277" s="4"/>
+      <c r="K277" s="1"/>
+      <c r="L277" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
       <c r="A278" s="1"/>
@@ -4738,7 +5021,8 @@
       <c r="H278" s="4"/>
       <c r="I278" s="4"/>
       <c r="J278" s="4"/>
-      <c r="K278" s="4"/>
+      <c r="K278" s="1"/>
+      <c r="L278" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75">
       <c r="A279" s="1"/>
@@ -4751,7 +5035,8 @@
       <c r="H279" s="4"/>
       <c r="I279" s="4"/>
       <c r="J279" s="4"/>
-      <c r="K279" s="24"/>
+      <c r="K279" s="1"/>
+      <c r="L279" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75">
       <c r="A280" s="1"/>
@@ -4764,7 +5049,8 @@
       <c r="H280" s="4"/>
       <c r="I280" s="4"/>
       <c r="J280" s="4"/>
-      <c r="K280" s="24"/>
+      <c r="K280" s="1"/>
+      <c r="L280" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75">
       <c r="A281" s="1"/>
@@ -4777,7 +5063,8 @@
       <c r="H281" s="4"/>
       <c r="I281" s="4"/>
       <c r="J281" s="4"/>
-      <c r="K281" s="24"/>
+      <c r="K281" s="1"/>
+      <c r="L281" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75">
       <c r="A282" s="1"/>
@@ -4790,7 +5077,8 @@
       <c r="H282" s="4"/>
       <c r="I282" s="4"/>
       <c r="J282" s="4"/>
-      <c r="K282" s="24"/>
+      <c r="K282" s="1"/>
+      <c r="L282" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75">
       <c r="A283" s="1"/>
@@ -4803,7 +5091,8 @@
       <c r="H283" s="4"/>
       <c r="I283" s="4"/>
       <c r="J283" s="4"/>
-      <c r="K283" s="24"/>
+      <c r="K283" s="1"/>
+      <c r="L283" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75">
       <c r="A284" s="4"/>
@@ -4816,7 +5105,8 @@
       <c r="H284" s="4"/>
       <c r="I284" s="4"/>
       <c r="J284" s="4"/>
-      <c r="K284" s="24"/>
+      <c r="K284" s="1"/>
+      <c r="L284" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75">
       <c r="A285" s="4"/>
@@ -4829,7 +5119,8 @@
       <c r="H285" s="4"/>
       <c r="I285" s="4"/>
       <c r="J285" s="4"/>
-      <c r="K285" s="24"/>
+      <c r="K285" s="1"/>
+      <c r="L285" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75">
       <c r="A286" s="4"/>
@@ -4842,7 +5133,8 @@
       <c r="H286" s="4"/>
       <c r="I286" s="4"/>
       <c r="J286" s="4"/>
-      <c r="K286" s="24"/>
+      <c r="K286" s="1"/>
+      <c r="L286" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75">
       <c r="A287" s="4"/>
@@ -4855,7 +5147,8 @@
       <c r="H287" s="4"/>
       <c r="I287" s="4"/>
       <c r="J287" s="4"/>
-      <c r="K287" s="24"/>
+      <c r="K287" s="1"/>
+      <c r="L287" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75">
       <c r="A288" s="1"/>
@@ -4868,7 +5161,8 @@
       <c r="H288" s="4"/>
       <c r="I288" s="4"/>
       <c r="J288" s="4"/>
-      <c r="K288" s="4"/>
+      <c r="K288" s="1"/>
+      <c r="L288" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75">
       <c r="A289" s="1"/>
@@ -4881,7 +5175,8 @@
       <c r="H289" s="4"/>
       <c r="I289" s="4"/>
       <c r="J289" s="4"/>
-      <c r="K289" s="4"/>
+      <c r="K289" s="1"/>
+      <c r="L289" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75">
       <c r="A290" s="1"/>
@@ -4894,7 +5189,8 @@
       <c r="H290" s="4"/>
       <c r="I290" s="4"/>
       <c r="J290" s="4"/>
-      <c r="K290" s="4"/>
+      <c r="K290" s="1"/>
+      <c r="L290" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75">
       <c r="A291" s="1"/>
@@ -4907,7 +5203,8 @@
       <c r="H291" s="4"/>
       <c r="I291" s="4"/>
       <c r="J291" s="4"/>
-      <c r="K291" s="24"/>
+      <c r="K291" s="1"/>
+      <c r="L291" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75">
       <c r="A292" s="1"/>
@@ -4920,7 +5217,8 @@
       <c r="H292" s="4"/>
       <c r="I292" s="4"/>
       <c r="J292" s="4"/>
-      <c r="K292" s="24"/>
+      <c r="K292" s="1"/>
+      <c r="L292" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75">
       <c r="A293" s="1"/>
@@ -4933,7 +5231,8 @@
       <c r="H293" s="4"/>
       <c r="I293" s="4"/>
       <c r="J293" s="4"/>
-      <c r="K293" s="24"/>
+      <c r="K293" s="1"/>
+      <c r="L293" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75">
       <c r="A294" s="1"/>
@@ -4946,7 +5245,8 @@
       <c r="H294" s="4"/>
       <c r="I294" s="4"/>
       <c r="J294" s="4"/>
-      <c r="K294" s="24"/>
+      <c r="K294" s="1"/>
+      <c r="L294" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75">
       <c r="A295" s="1"/>
@@ -4959,7 +5259,8 @@
       <c r="H295" s="4"/>
       <c r="I295" s="4"/>
       <c r="J295" s="4"/>
-      <c r="K295" s="24"/>
+      <c r="K295" s="1"/>
+      <c r="L295" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75">
       <c r="A296" s="4"/>
@@ -4972,7 +5273,8 @@
       <c r="H296" s="4"/>
       <c r="I296" s="4"/>
       <c r="J296" s="4"/>
-      <c r="K296" s="24"/>
+      <c r="K296" s="1"/>
+      <c r="L296" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75">
       <c r="A297" s="4"/>
@@ -4985,7 +5287,8 @@
       <c r="H297" s="4"/>
       <c r="I297" s="4"/>
       <c r="J297" s="4"/>
-      <c r="K297" s="24"/>
+      <c r="K297" s="1"/>
+      <c r="L297" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75">
       <c r="A298" s="4"/>
@@ -4998,7 +5301,8 @@
       <c r="H298" s="4"/>
       <c r="I298" s="4"/>
       <c r="J298" s="4"/>
-      <c r="K298" s="24"/>
+      <c r="K298" s="1"/>
+      <c r="L298" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75">
       <c r="A299" s="4"/>
@@ -5011,7 +5315,8 @@
       <c r="H299" s="4"/>
       <c r="I299" s="4"/>
       <c r="J299" s="4"/>
-      <c r="K299" s="24"/>
+      <c r="K299" s="1"/>
+      <c r="L299" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75">
       <c r="A300" s="1"/>
@@ -5024,7 +5329,8 @@
       <c r="H300" s="4"/>
       <c r="I300" s="4"/>
       <c r="J300" s="4"/>
-      <c r="K300" s="4"/>
+      <c r="K300" s="1"/>
+      <c r="L300" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75">
       <c r="A301" s="1"/>
@@ -5037,7 +5343,8 @@
       <c r="H301" s="4"/>
       <c r="I301" s="4"/>
       <c r="J301" s="4"/>
-      <c r="K301" s="4"/>
+      <c r="K301" s="1"/>
+      <c r="L301" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75">
       <c r="A302" s="1"/>
@@ -5050,7 +5357,8 @@
       <c r="H302" s="4"/>
       <c r="I302" s="4"/>
       <c r="J302" s="4"/>
-      <c r="K302" s="4"/>
+      <c r="K302" s="1"/>
+      <c r="L302" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75">
       <c r="A303" s="1"/>
@@ -5063,7 +5371,8 @@
       <c r="H303" s="4"/>
       <c r="I303" s="4"/>
       <c r="J303" s="4"/>
-      <c r="K303" s="24"/>
+      <c r="K303" s="1"/>
+      <c r="L303" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75">
       <c r="A304" s="1"/>
@@ -5076,7 +5385,8 @@
       <c r="H304" s="4"/>
       <c r="I304" s="4"/>
       <c r="J304" s="4"/>
-      <c r="K304" s="24"/>
+      <c r="K304" s="1"/>
+      <c r="L304" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75">
       <c r="A305" s="1"/>
@@ -5089,7 +5399,8 @@
       <c r="H305" s="4"/>
       <c r="I305" s="4"/>
       <c r="J305" s="4"/>
-      <c r="K305" s="24"/>
+      <c r="K305" s="1"/>
+      <c r="L305" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75">
       <c r="A306" s="1"/>
@@ -5102,7 +5413,8 @@
       <c r="H306" s="4"/>
       <c r="I306" s="4"/>
       <c r="J306" s="4"/>
-      <c r="K306" s="24"/>
+      <c r="K306" s="1"/>
+      <c r="L306" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75">
       <c r="A307" s="1"/>
@@ -5115,7 +5427,8 @@
       <c r="H307" s="4"/>
       <c r="I307" s="4"/>
       <c r="J307" s="4"/>
-      <c r="K307" s="24"/>
+      <c r="K307" s="1"/>
+      <c r="L307" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75">
       <c r="A308" s="4"/>
@@ -5128,7 +5441,8 @@
       <c r="H308" s="4"/>
       <c r="I308" s="4"/>
       <c r="J308" s="4"/>
-      <c r="K308" s="24"/>
+      <c r="K308" s="1"/>
+      <c r="L308" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75">
       <c r="A309" s="4"/>
@@ -5141,7 +5455,8 @@
       <c r="H309" s="4"/>
       <c r="I309" s="4"/>
       <c r="J309" s="4"/>
-      <c r="K309" s="24"/>
+      <c r="K309" s="1"/>
+      <c r="L309" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75">
       <c r="A310" s="4"/>
@@ -5154,7 +5469,8 @@
       <c r="H310" s="4"/>
       <c r="I310" s="4"/>
       <c r="J310" s="4"/>
-      <c r="K310" s="24"/>
+      <c r="K310" s="1"/>
+      <c r="L310" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75">
       <c r="A311" s="4"/>
@@ -5167,7 +5483,8 @@
       <c r="H311" s="4"/>
       <c r="I311" s="4"/>
       <c r="J311" s="4"/>
-      <c r="K311" s="24"/>
+      <c r="K311" s="1"/>
+      <c r="L311" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75">
       <c r="A312" s="1"/>
@@ -5180,7 +5497,8 @@
       <c r="H312" s="4"/>
       <c r="I312" s="4"/>
       <c r="J312" s="4"/>
-      <c r="K312" s="4"/>
+      <c r="K312" s="1"/>
+      <c r="L312" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75">
       <c r="A313" s="1"/>
@@ -5193,7 +5511,8 @@
       <c r="H313" s="4"/>
       <c r="I313" s="4"/>
       <c r="J313" s="4"/>
-      <c r="K313" s="4"/>
+      <c r="K313" s="1"/>
+      <c r="L313" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75">
       <c r="A314" s="1"/>
@@ -5206,7 +5525,8 @@
       <c r="H314" s="4"/>
       <c r="I314" s="4"/>
       <c r="J314" s="4"/>
-      <c r="K314" s="4"/>
+      <c r="K314" s="1"/>
+      <c r="L314" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75">
       <c r="A315" s="1"/>
@@ -5219,7 +5539,8 @@
       <c r="H315" s="4"/>
       <c r="I315" s="4"/>
       <c r="J315" s="4"/>
-      <c r="K315" s="24"/>
+      <c r="K315" s="1"/>
+      <c r="L315" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75">
       <c r="A316" s="1"/>
@@ -5232,7 +5553,8 @@
       <c r="H316" s="4"/>
       <c r="I316" s="4"/>
       <c r="J316" s="4"/>
-      <c r="K316" s="24"/>
+      <c r="K316" s="1"/>
+      <c r="L316" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75">
       <c r="A317" s="1"/>
@@ -5245,7 +5567,8 @@
       <c r="H317" s="4"/>
       <c r="I317" s="4"/>
       <c r="J317" s="4"/>
-      <c r="K317" s="24"/>
+      <c r="K317" s="1"/>
+      <c r="L317" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75">
       <c r="A318" s="1"/>
@@ -5258,7 +5581,8 @@
       <c r="H318" s="4"/>
       <c r="I318" s="4"/>
       <c r="J318" s="4"/>
-      <c r="K318" s="24"/>
+      <c r="K318" s="1"/>
+      <c r="L318" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75">
       <c r="A319" s="1"/>
@@ -5271,7 +5595,8 @@
       <c r="H319" s="4"/>
       <c r="I319" s="4"/>
       <c r="J319" s="4"/>
-      <c r="K319" s="24"/>
+      <c r="K319" s="1"/>
+      <c r="L319" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75">
       <c r="A320" s="4"/>
@@ -5284,7 +5609,8 @@
       <c r="H320" s="4"/>
       <c r="I320" s="4"/>
       <c r="J320" s="4"/>
-      <c r="K320" s="24"/>
+      <c r="K320" s="1"/>
+      <c r="L320" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75">
       <c r="A321" s="4"/>
@@ -5297,7 +5623,8 @@
       <c r="H321" s="4"/>
       <c r="I321" s="4"/>
       <c r="J321" s="4"/>
-      <c r="K321" s="24"/>
+      <c r="K321" s="1"/>
+      <c r="L321" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75">
       <c r="A322" s="4"/>
@@ -5310,7 +5637,8 @@
       <c r="H322" s="4"/>
       <c r="I322" s="4"/>
       <c r="J322" s="4"/>
-      <c r="K322" s="24"/>
+      <c r="K322" s="1"/>
+      <c r="L322" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75">
       <c r="A323" s="4"/>
@@ -5323,7 +5651,8 @@
       <c r="H323" s="4"/>
       <c r="I323" s="4"/>
       <c r="J323" s="4"/>
-      <c r="K323" s="24"/>
+      <c r="K323" s="1"/>
+      <c r="L323" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75">
       <c r="A324" s="1"/>
@@ -5336,7 +5665,8 @@
       <c r="H324" s="4"/>
       <c r="I324" s="4"/>
       <c r="J324" s="4"/>
-      <c r="K324" s="4"/>
+      <c r="K324" s="1"/>
+      <c r="L324" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75">
       <c r="A325" s="1"/>
@@ -5349,7 +5679,8 @@
       <c r="H325" s="4"/>
       <c r="I325" s="4"/>
       <c r="J325" s="4"/>
-      <c r="K325" s="4"/>
+      <c r="K325" s="1"/>
+      <c r="L325" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75">
       <c r="A326" s="1"/>
@@ -5362,7 +5693,8 @@
       <c r="H326" s="4"/>
       <c r="I326" s="4"/>
       <c r="J326" s="4"/>
-      <c r="K326" s="4"/>
+      <c r="K326" s="1"/>
+      <c r="L326" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75">
       <c r="A327" s="1"/>
@@ -5375,7 +5707,8 @@
       <c r="H327" s="4"/>
       <c r="I327" s="4"/>
       <c r="J327" s="4"/>
-      <c r="K327" s="24"/>
+      <c r="K327" s="1"/>
+      <c r="L327" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75">
       <c r="A328" s="1"/>
@@ -5388,7 +5721,8 @@
       <c r="H328" s="4"/>
       <c r="I328" s="4"/>
       <c r="J328" s="4"/>
-      <c r="K328" s="24"/>
+      <c r="K328" s="1"/>
+      <c r="L328" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75">
       <c r="A329" s="1"/>
@@ -5401,7 +5735,8 @@
       <c r="H329" s="4"/>
       <c r="I329" s="4"/>
       <c r="J329" s="4"/>
-      <c r="K329" s="24"/>
+      <c r="K329" s="1"/>
+      <c r="L329" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75">
       <c r="A330" s="1"/>
@@ -5414,7 +5749,8 @@
       <c r="H330" s="4"/>
       <c r="I330" s="4"/>
       <c r="J330" s="4"/>
-      <c r="K330" s="24"/>
+      <c r="K330" s="1"/>
+      <c r="L330" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75">
       <c r="A331" s="1"/>
@@ -5427,7 +5763,8 @@
       <c r="H331" s="4"/>
       <c r="I331" s="4"/>
       <c r="J331" s="4"/>
-      <c r="K331" s="24"/>
+      <c r="K331" s="1"/>
+      <c r="L331" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75">
       <c r="A332" s="4"/>
@@ -5440,7 +5777,8 @@
       <c r="H332" s="4"/>
       <c r="I332" s="4"/>
       <c r="J332" s="4"/>
-      <c r="K332" s="24"/>
+      <c r="K332" s="1"/>
+      <c r="L332" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18.75">
       <c r="A333" s="4"/>
@@ -5453,7 +5791,8 @@
       <c r="H333" s="4"/>
       <c r="I333" s="4"/>
       <c r="J333" s="4"/>
-      <c r="K333" s="24"/>
+      <c r="K333" s="1"/>
+      <c r="L333" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18.75">
       <c r="A334" s="4"/>
@@ -5466,7 +5805,8 @@
       <c r="H334" s="4"/>
       <c r="I334" s="4"/>
       <c r="J334" s="4"/>
-      <c r="K334" s="24"/>
+      <c r="K334" s="1"/>
+      <c r="L334" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18.75">
       <c r="A335" s="4"/>
@@ -5479,7 +5819,8 @@
       <c r="H335" s="4"/>
       <c r="I335" s="4"/>
       <c r="J335" s="4"/>
-      <c r="K335" s="24"/>
+      <c r="K335" s="1"/>
+      <c r="L335" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75">
       <c r="A336" s="1"/>
@@ -5492,7 +5833,8 @@
       <c r="H336" s="4"/>
       <c r="I336" s="4"/>
       <c r="J336" s="4"/>
-      <c r="K336" s="4"/>
+      <c r="K336" s="1"/>
+      <c r="L336" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75">
       <c r="A337" s="1"/>
@@ -5505,7 +5847,8 @@
       <c r="H337" s="4"/>
       <c r="I337" s="4"/>
       <c r="J337" s="4"/>
-      <c r="K337" s="4"/>
+      <c r="K337" s="1"/>
+      <c r="L337" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18.75">
       <c r="A338" s="1"/>
@@ -5518,7 +5861,8 @@
       <c r="H338" s="4"/>
       <c r="I338" s="4"/>
       <c r="J338" s="4"/>
-      <c r="K338" s="4"/>
+      <c r="K338" s="1"/>
+      <c r="L338" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75">
       <c r="A339" s="1"/>
@@ -5531,7 +5875,8 @@
       <c r="H339" s="4"/>
       <c r="I339" s="4"/>
       <c r="J339" s="4"/>
-      <c r="K339" s="24"/>
+      <c r="K339" s="1"/>
+      <c r="L339" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75">
       <c r="A340" s="1"/>
@@ -5544,7 +5889,8 @@
       <c r="H340" s="4"/>
       <c r="I340" s="4"/>
       <c r="J340" s="4"/>
-      <c r="K340" s="24"/>
+      <c r="K340" s="1"/>
+      <c r="L340" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18.75">
       <c r="A341" s="1"/>
@@ -5557,7 +5903,8 @@
       <c r="H341" s="4"/>
       <c r="I341" s="4"/>
       <c r="J341" s="4"/>
-      <c r="K341" s="24"/>
+      <c r="K341" s="1"/>
+      <c r="L341" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18.75">
       <c r="A342" s="1"/>
@@ -5570,7 +5917,8 @@
       <c r="H342" s="4"/>
       <c r="I342" s="4"/>
       <c r="J342" s="4"/>
-      <c r="K342" s="24"/>
+      <c r="K342" s="1"/>
+      <c r="L342" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18.75">
       <c r="A343" s="1"/>
@@ -5583,7 +5931,8 @@
       <c r="H343" s="4"/>
       <c r="I343" s="4"/>
       <c r="J343" s="4"/>
-      <c r="K343" s="24"/>
+      <c r="K343" s="1"/>
+      <c r="L343" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18.75">
       <c r="A344" s="4"/>
@@ -5596,7 +5945,8 @@
       <c r="H344" s="4"/>
       <c r="I344" s="4"/>
       <c r="J344" s="4"/>
-      <c r="K344" s="24"/>
+      <c r="K344" s="1"/>
+      <c r="L344" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18.75">
       <c r="A345" s="4"/>
@@ -5609,7 +5959,8 @@
       <c r="H345" s="4"/>
       <c r="I345" s="4"/>
       <c r="J345" s="4"/>
-      <c r="K345" s="24"/>
+      <c r="K345" s="1"/>
+      <c r="L345" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18.75">
       <c r="A346" s="4"/>
@@ -5622,7 +5973,8 @@
       <c r="H346" s="4"/>
       <c r="I346" s="4"/>
       <c r="J346" s="4"/>
-      <c r="K346" s="24"/>
+      <c r="K346" s="1"/>
+      <c r="L346" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18.75">
       <c r="A347" s="4"/>
@@ -5635,7 +5987,8 @@
       <c r="H347" s="4"/>
       <c r="I347" s="4"/>
       <c r="J347" s="4"/>
-      <c r="K347" s="24"/>
+      <c r="K347" s="1"/>
+      <c r="L347" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18.75">
       <c r="A348" s="1"/>
@@ -5648,7 +6001,8 @@
       <c r="H348" s="4"/>
       <c r="I348" s="4"/>
       <c r="J348" s="4"/>
-      <c r="K348" s="4"/>
+      <c r="K348" s="1"/>
+      <c r="L348" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18.75">
       <c r="A349" s="1"/>
@@ -5661,7 +6015,8 @@
       <c r="H349" s="4"/>
       <c r="I349" s="4"/>
       <c r="J349" s="4"/>
-      <c r="K349" s="4"/>
+      <c r="K349" s="1"/>
+      <c r="L349" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18.75">
       <c r="A350" s="1"/>
@@ -5674,7 +6029,8 @@
       <c r="H350" s="4"/>
       <c r="I350" s="4"/>
       <c r="J350" s="4"/>
-      <c r="K350" s="4"/>
+      <c r="K350" s="1"/>
+      <c r="L350" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18.75">
       <c r="A351" s="1"/>
@@ -5687,7 +6043,8 @@
       <c r="H351" s="4"/>
       <c r="I351" s="4"/>
       <c r="J351" s="4"/>
-      <c r="K351" s="24"/>
+      <c r="K351" s="1"/>
+      <c r="L351" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18.75">
       <c r="A352" s="1"/>
@@ -5700,7 +6057,8 @@
       <c r="H352" s="4"/>
       <c r="I352" s="4"/>
       <c r="J352" s="4"/>
-      <c r="K352" s="24"/>
+      <c r="K352" s="1"/>
+      <c r="L352" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18.75">
       <c r="A353" s="1"/>
@@ -5713,7 +6071,8 @@
       <c r="H353" s="4"/>
       <c r="I353" s="4"/>
       <c r="J353" s="4"/>
-      <c r="K353" s="24"/>
+      <c r="K353" s="1"/>
+      <c r="L353" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18.75">
       <c r="A354" s="1"/>
@@ -5726,7 +6085,8 @@
       <c r="H354" s="4"/>
       <c r="I354" s="4"/>
       <c r="J354" s="4"/>
-      <c r="K354" s="24"/>
+      <c r="K354" s="1"/>
+      <c r="L354" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18.75">
       <c r="A355" s="1"/>
@@ -5739,7 +6099,8 @@
       <c r="H355" s="4"/>
       <c r="I355" s="4"/>
       <c r="J355" s="4"/>
-      <c r="K355" s="24"/>
+      <c r="K355" s="1"/>
+      <c r="L355" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18.75">
       <c r="A356" s="4"/>
@@ -5752,7 +6113,8 @@
       <c r="H356" s="4"/>
       <c r="I356" s="4"/>
       <c r="J356" s="4"/>
-      <c r="K356" s="24"/>
+      <c r="K356" s="1"/>
+      <c r="L356" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18.75">
       <c r="A357" s="4"/>
@@ -5765,7 +6127,8 @@
       <c r="H357" s="4"/>
       <c r="I357" s="4"/>
       <c r="J357" s="4"/>
-      <c r="K357" s="24"/>
+      <c r="K357" s="1"/>
+      <c r="L357" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18.75">
       <c r="A358" s="4"/>
@@ -5778,7 +6141,8 @@
       <c r="H358" s="4"/>
       <c r="I358" s="4"/>
       <c r="J358" s="4"/>
-      <c r="K358" s="24"/>
+      <c r="K358" s="1"/>
+      <c r="L358" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18.75">
       <c r="A359" s="4"/>
@@ -5791,7 +6155,8 @@
       <c r="H359" s="4"/>
       <c r="I359" s="4"/>
       <c r="J359" s="4"/>
-      <c r="K359" s="24"/>
+      <c r="K359" s="1"/>
+      <c r="L359" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18.75">
       <c r="A360" s="1"/>
@@ -5804,7 +6169,8 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
       <c r="J360" s="4"/>
-      <c r="K360" s="4"/>
+      <c r="K360" s="1"/>
+      <c r="L360" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18.75">
       <c r="A361" s="1"/>
@@ -5817,7 +6183,8 @@
       <c r="H361" s="4"/>
       <c r="I361" s="4"/>
       <c r="J361" s="4"/>
-      <c r="K361" s="4"/>
+      <c r="K361" s="1"/>
+      <c r="L361" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18.75">
       <c r="A362" s="1"/>
@@ -5830,7 +6197,8 @@
       <c r="H362" s="4"/>
       <c r="I362" s="4"/>
       <c r="J362" s="4"/>
-      <c r="K362" s="4"/>
+      <c r="K362" s="1"/>
+      <c r="L362" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18.75">
       <c r="A363" s="1"/>
@@ -5843,7 +6211,8 @@
       <c r="H363" s="4"/>
       <c r="I363" s="4"/>
       <c r="J363" s="4"/>
-      <c r="K363" s="24"/>
+      <c r="K363" s="1"/>
+      <c r="L363" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18.75">
       <c r="A364" s="1"/>
@@ -5856,7 +6225,8 @@
       <c r="H364" s="4"/>
       <c r="I364" s="4"/>
       <c r="J364" s="4"/>
-      <c r="K364" s="24"/>
+      <c r="K364" s="1"/>
+      <c r="L364" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18.75">
       <c r="A365" s="1"/>
@@ -5869,7 +6239,8 @@
       <c r="H365" s="4"/>
       <c r="I365" s="4"/>
       <c r="J365" s="4"/>
-      <c r="K365" s="24"/>
+      <c r="K365" s="1"/>
+      <c r="L365" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18.75">
       <c r="A366" s="1"/>
@@ -5882,7 +6253,8 @@
       <c r="H366" s="4"/>
       <c r="I366" s="4"/>
       <c r="J366" s="4"/>
-      <c r="K366" s="24"/>
+      <c r="K366" s="1"/>
+      <c r="L366" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18.75">
       <c r="A367" s="1"/>
@@ -5895,7 +6267,8 @@
       <c r="H367" s="4"/>
       <c r="I367" s="4"/>
       <c r="J367" s="4"/>
-      <c r="K367" s="24"/>
+      <c r="K367" s="1"/>
+      <c r="L367" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18.75">
       <c r="A368" s="4"/>
@@ -5908,7 +6281,8 @@
       <c r="H368" s="4"/>
       <c r="I368" s="4"/>
       <c r="J368" s="4"/>
-      <c r="K368" s="24"/>
+      <c r="K368" s="1"/>
+      <c r="L368" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18.75">
       <c r="A369" s="4"/>
@@ -5921,7 +6295,8 @@
       <c r="H369" s="4"/>
       <c r="I369" s="4"/>
       <c r="J369" s="4"/>
-      <c r="K369" s="24"/>
+      <c r="K369" s="1"/>
+      <c r="L369" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="18.75">
       <c r="A370" s="4"/>
@@ -5934,7 +6309,8 @@
       <c r="H370" s="4"/>
       <c r="I370" s="4"/>
       <c r="J370" s="4"/>
-      <c r="K370" s="24"/>
+      <c r="K370" s="1"/>
+      <c r="L370" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18.75">
       <c r="A371" s="4"/>
@@ -5947,7 +6323,8 @@
       <c r="H371" s="4"/>
       <c r="I371" s="4"/>
       <c r="J371" s="4"/>
-      <c r="K371" s="24"/>
+      <c r="K371" s="1"/>
+      <c r="L371" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18.75">
       <c r="A372" s="1"/>
@@ -5960,7 +6337,8 @@
       <c r="H372" s="4"/>
       <c r="I372" s="4"/>
       <c r="J372" s="4"/>
-      <c r="K372" s="4"/>
+      <c r="K372" s="1"/>
+      <c r="L372" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18.75">
       <c r="A373" s="1"/>
@@ -5973,7 +6351,8 @@
       <c r="H373" s="4"/>
       <c r="I373" s="4"/>
       <c r="J373" s="4"/>
-      <c r="K373" s="4"/>
+      <c r="K373" s="1"/>
+      <c r="L373" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18.75">
       <c r="A374" s="1"/>
@@ -5986,7 +6365,8 @@
       <c r="H374" s="4"/>
       <c r="I374" s="4"/>
       <c r="J374" s="4"/>
-      <c r="K374" s="4"/>
+      <c r="K374" s="1"/>
+      <c r="L374" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18.75">
       <c r="A375" s="1"/>
@@ -5999,7 +6379,8 @@
       <c r="H375" s="4"/>
       <c r="I375" s="4"/>
       <c r="J375" s="4"/>
-      <c r="K375" s="24"/>
+      <c r="K375" s="1"/>
+      <c r="L375" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18.75">
       <c r="A376" s="1"/>
@@ -6012,7 +6393,8 @@
       <c r="H376" s="4"/>
       <c r="I376" s="4"/>
       <c r="J376" s="4"/>
-      <c r="K376" s="24"/>
+      <c r="K376" s="1"/>
+      <c r="L376" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18.75">
       <c r="A377" s="1"/>
@@ -6025,7 +6407,8 @@
       <c r="H377" s="4"/>
       <c r="I377" s="4"/>
       <c r="J377" s="4"/>
-      <c r="K377" s="24"/>
+      <c r="K377" s="1"/>
+      <c r="L377" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18.75">
       <c r="A378" s="1"/>
@@ -6038,7 +6421,8 @@
       <c r="H378" s="4"/>
       <c r="I378" s="4"/>
       <c r="J378" s="4"/>
-      <c r="K378" s="24"/>
+      <c r="K378" s="1"/>
+      <c r="L378" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18.75">
       <c r="A379" s="1"/>
@@ -6051,7 +6435,8 @@
       <c r="H379" s="4"/>
       <c r="I379" s="4"/>
       <c r="J379" s="4"/>
-      <c r="K379" s="24"/>
+      <c r="K379" s="1"/>
+      <c r="L379" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18.75">
       <c r="A380" s="4"/>
@@ -6064,7 +6449,8 @@
       <c r="H380" s="4"/>
       <c r="I380" s="4"/>
       <c r="J380" s="4"/>
-      <c r="K380" s="24"/>
+      <c r="K380" s="1"/>
+      <c r="L380" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18.75">
       <c r="A381" s="4"/>
@@ -6077,7 +6463,8 @@
       <c r="H381" s="4"/>
       <c r="I381" s="4"/>
       <c r="J381" s="4"/>
-      <c r="K381" s="24"/>
+      <c r="K381" s="1"/>
+      <c r="L381" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18.75">
       <c r="A382" s="4"/>
@@ -6090,7 +6477,8 @@
       <c r="H382" s="4"/>
       <c r="I382" s="4"/>
       <c r="J382" s="4"/>
-      <c r="K382" s="24"/>
+      <c r="K382" s="1"/>
+      <c r="L382" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18.75">
       <c r="A383" s="4"/>
@@ -6103,7 +6491,8 @@
       <c r="H383" s="4"/>
       <c r="I383" s="4"/>
       <c r="J383" s="4"/>
-      <c r="K383" s="24"/>
+      <c r="K383" s="1"/>
+      <c r="L383" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18.75">
       <c r="A384" s="1"/>
@@ -6116,7 +6505,8 @@
       <c r="H384" s="4"/>
       <c r="I384" s="4"/>
       <c r="J384" s="4"/>
-      <c r="K384" s="4"/>
+      <c r="K384" s="1"/>
+      <c r="L384" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18.75">
       <c r="A385" s="1"/>
@@ -6129,7 +6519,8 @@
       <c r="H385" s="4"/>
       <c r="I385" s="4"/>
       <c r="J385" s="4"/>
-      <c r="K385" s="4"/>
+      <c r="K385" s="1"/>
+      <c r="L385" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18.75">
       <c r="A386" s="1"/>
@@ -6142,7 +6533,8 @@
       <c r="H386" s="4"/>
       <c r="I386" s="4"/>
       <c r="J386" s="4"/>
-      <c r="K386" s="4"/>
+      <c r="K386" s="1"/>
+      <c r="L386" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18.75">
       <c r="A387" s="1"/>
@@ -6155,7 +6547,8 @@
       <c r="H387" s="4"/>
       <c r="I387" s="4"/>
       <c r="J387" s="4"/>
-      <c r="K387" s="24"/>
+      <c r="K387" s="1"/>
+      <c r="L387" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18.75">
       <c r="A388" s="1"/>
@@ -6168,7 +6561,8 @@
       <c r="H388" s="4"/>
       <c r="I388" s="4"/>
       <c r="J388" s="4"/>
-      <c r="K388" s="24"/>
+      <c r="K388" s="1"/>
+      <c r="L388" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18.75">
       <c r="A389" s="1"/>
@@ -6181,7 +6575,8 @@
       <c r="H389" s="4"/>
       <c r="I389" s="4"/>
       <c r="J389" s="4"/>
-      <c r="K389" s="24"/>
+      <c r="K389" s="1"/>
+      <c r="L389" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18.75">
       <c r="A390" s="1"/>
@@ -6194,7 +6589,8 @@
       <c r="H390" s="4"/>
       <c r="I390" s="4"/>
       <c r="J390" s="4"/>
-      <c r="K390" s="24"/>
+      <c r="K390" s="1"/>
+      <c r="L390" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18.75">
       <c r="A391" s="1"/>
@@ -6207,7 +6603,8 @@
       <c r="H391" s="4"/>
       <c r="I391" s="4"/>
       <c r="J391" s="4"/>
-      <c r="K391" s="24"/>
+      <c r="K391" s="1"/>
+      <c r="L391" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18.75">
       <c r="A392" s="4"/>
@@ -6220,7 +6617,8 @@
       <c r="H392" s="4"/>
       <c r="I392" s="4"/>
       <c r="J392" s="4"/>
-      <c r="K392" s="24"/>
+      <c r="K392" s="1"/>
+      <c r="L392" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18.75">
       <c r="A393" s="4"/>
@@ -6233,7 +6631,8 @@
       <c r="H393" s="4"/>
       <c r="I393" s="4"/>
       <c r="J393" s="4"/>
-      <c r="K393" s="24"/>
+      <c r="K393" s="1"/>
+      <c r="L393" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18.75">
       <c r="A394" s="4"/>
@@ -6246,7 +6645,8 @@
       <c r="H394" s="4"/>
       <c r="I394" s="4"/>
       <c r="J394" s="4"/>
-      <c r="K394" s="24"/>
+      <c r="K394" s="1"/>
+      <c r="L394" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18.75">
       <c r="A395" s="4"/>
@@ -6259,7 +6659,8 @@
       <c r="H395" s="4"/>
       <c r="I395" s="4"/>
       <c r="J395" s="4"/>
-      <c r="K395" s="24"/>
+      <c r="K395" s="1"/>
+      <c r="L395" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18.75">
       <c r="A396" s="1"/>
@@ -6272,7 +6673,8 @@
       <c r="H396" s="4"/>
       <c r="I396" s="4"/>
       <c r="J396" s="4"/>
-      <c r="K396" s="4"/>
+      <c r="K396" s="1"/>
+      <c r="L396" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18.75">
       <c r="A397" s="1"/>
@@ -6285,7 +6687,8 @@
       <c r="H397" s="4"/>
       <c r="I397" s="4"/>
       <c r="J397" s="4"/>
-      <c r="K397" s="4"/>
+      <c r="K397" s="1"/>
+      <c r="L397" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18.75">
       <c r="A398" s="1"/>
@@ -6298,7 +6701,8 @@
       <c r="H398" s="4"/>
       <c r="I398" s="4"/>
       <c r="J398" s="4"/>
-      <c r="K398" s="4"/>
+      <c r="K398" s="1"/>
+      <c r="L398" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18.75">
       <c r="A399" s="1"/>
@@ -6311,7 +6715,8 @@
       <c r="H399" s="4"/>
       <c r="I399" s="4"/>
       <c r="J399" s="4"/>
-      <c r="K399" s="24"/>
+      <c r="K399" s="1"/>
+      <c r="L399" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="18.75">
       <c r="A400" s="1"/>
@@ -6324,7 +6729,8 @@
       <c r="H400" s="4"/>
       <c r="I400" s="4"/>
       <c r="J400" s="4"/>
-      <c r="K400" s="24"/>
+      <c r="K400" s="1"/>
+      <c r="L400" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="18.75">
       <c r="A401" s="1"/>
@@ -6337,7 +6743,8 @@
       <c r="H401" s="4"/>
       <c r="I401" s="4"/>
       <c r="J401" s="4"/>
-      <c r="K401" s="24"/>
+      <c r="K401" s="1"/>
+      <c r="L401" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18.75">
       <c r="A402" s="1"/>
@@ -6350,7 +6757,8 @@
       <c r="H402" s="4"/>
       <c r="I402" s="4"/>
       <c r="J402" s="4"/>
-      <c r="K402" s="24"/>
+      <c r="K402" s="1"/>
+      <c r="L402" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="18.75">
       <c r="A403" s="1"/>
@@ -6363,7 +6771,8 @@
       <c r="H403" s="4"/>
       <c r="I403" s="4"/>
       <c r="J403" s="4"/>
-      <c r="K403" s="24"/>
+      <c r="K403" s="1"/>
+      <c r="L403" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18.75">
       <c r="A404" s="4"/>
@@ -6376,7 +6785,8 @@
       <c r="H404" s="4"/>
       <c r="I404" s="4"/>
       <c r="J404" s="4"/>
-      <c r="K404" s="24"/>
+      <c r="K404" s="1"/>
+      <c r="L404" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18.75">
       <c r="A405" s="4"/>
@@ -6389,7 +6799,8 @@
       <c r="H405" s="4"/>
       <c r="I405" s="4"/>
       <c r="J405" s="4"/>
-      <c r="K405" s="24"/>
+      <c r="K405" s="1"/>
+      <c r="L405" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="18.75">
       <c r="A406" s="4"/>
@@ -6402,7 +6813,8 @@
       <c r="H406" s="4"/>
       <c r="I406" s="4"/>
       <c r="J406" s="4"/>
-      <c r="K406" s="24"/>
+      <c r="K406" s="1"/>
+      <c r="L406" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="18.75">
       <c r="A407" s="4"/>
@@ -6415,7 +6827,8 @@
       <c r="H407" s="4"/>
       <c r="I407" s="4"/>
       <c r="J407" s="4"/>
-      <c r="K407" s="24"/>
+      <c r="K407" s="1"/>
+      <c r="L407" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="18.75">
       <c r="A408" s="1"/>
@@ -6428,7 +6841,8 @@
       <c r="H408" s="4"/>
       <c r="I408" s="4"/>
       <c r="J408" s="4"/>
-      <c r="K408" s="4"/>
+      <c r="K408" s="1"/>
+      <c r="L408" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="18.75">
       <c r="A409" s="1"/>
@@ -6441,7 +6855,8 @@
       <c r="H409" s="4"/>
       <c r="I409" s="4"/>
       <c r="J409" s="4"/>
-      <c r="K409" s="4"/>
+      <c r="K409" s="1"/>
+      <c r="L409" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="18.75">
       <c r="A410" s="1"/>
@@ -6454,7 +6869,8 @@
       <c r="H410" s="4"/>
       <c r="I410" s="4"/>
       <c r="J410" s="4"/>
-      <c r="K410" s="4"/>
+      <c r="K410" s="1"/>
+      <c r="L410" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18.75">
       <c r="A411" s="1"/>
@@ -6467,7 +6883,8 @@
       <c r="H411" s="4"/>
       <c r="I411" s="4"/>
       <c r="J411" s="4"/>
-      <c r="K411" s="24"/>
+      <c r="K411" s="1"/>
+      <c r="L411" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="18.75">
       <c r="A412" s="1"/>
@@ -6480,7 +6897,8 @@
       <c r="H412" s="4"/>
       <c r="I412" s="4"/>
       <c r="J412" s="4"/>
-      <c r="K412" s="24"/>
+      <c r="K412" s="1"/>
+      <c r="L412" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="18.75">
       <c r="A413" s="1"/>
@@ -6493,7 +6911,8 @@
       <c r="H413" s="4"/>
       <c r="I413" s="4"/>
       <c r="J413" s="4"/>
-      <c r="K413" s="24"/>
+      <c r="K413" s="1"/>
+      <c r="L413" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="18.75">
       <c r="A414" s="1"/>
@@ -6506,7 +6925,8 @@
       <c r="H414" s="4"/>
       <c r="I414" s="4"/>
       <c r="J414" s="4"/>
-      <c r="K414" s="24"/>
+      <c r="K414" s="1"/>
+      <c r="L414" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="18.75">
       <c r="A415" s="1"/>
@@ -6519,7 +6939,8 @@
       <c r="H415" s="4"/>
       <c r="I415" s="4"/>
       <c r="J415" s="4"/>
-      <c r="K415" s="24"/>
+      <c r="K415" s="1"/>
+      <c r="L415" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="18.75">
       <c r="A416" s="4"/>
@@ -6532,7 +6953,8 @@
       <c r="H416" s="4"/>
       <c r="I416" s="4"/>
       <c r="J416" s="4"/>
-      <c r="K416" s="24"/>
+      <c r="K416" s="1"/>
+      <c r="L416" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18.75">
       <c r="A417" s="4"/>
@@ -6545,7 +6967,8 @@
       <c r="H417" s="4"/>
       <c r="I417" s="4"/>
       <c r="J417" s="4"/>
-      <c r="K417" s="24"/>
+      <c r="K417" s="1"/>
+      <c r="L417" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18.75">
       <c r="A418" s="4"/>
@@ -6558,7 +6981,8 @@
       <c r="H418" s="4"/>
       <c r="I418" s="4"/>
       <c r="J418" s="4"/>
-      <c r="K418" s="24"/>
+      <c r="K418" s="1"/>
+      <c r="L418" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="18.75">
       <c r="A419" s="4"/>
@@ -6571,7 +6995,8 @@
       <c r="H419" s="4"/>
       <c r="I419" s="4"/>
       <c r="J419" s="4"/>
-      <c r="K419" s="24"/>
+      <c r="K419" s="1"/>
+      <c r="L419" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="18.75">
       <c r="A420" s="1"/>
@@ -6584,7 +7009,8 @@
       <c r="H420" s="4"/>
       <c r="I420" s="4"/>
       <c r="J420" s="4"/>
-      <c r="K420" s="4"/>
+      <c r="K420" s="1"/>
+      <c r="L420" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18.75">
       <c r="A421" s="1"/>
@@ -6597,7 +7023,8 @@
       <c r="H421" s="4"/>
       <c r="I421" s="4"/>
       <c r="J421" s="4"/>
-      <c r="K421" s="4"/>
+      <c r="K421" s="1"/>
+      <c r="L421" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18.75">
       <c r="A422" s="1"/>
@@ -6610,7 +7037,8 @@
       <c r="H422" s="4"/>
       <c r="I422" s="4"/>
       <c r="J422" s="4"/>
-      <c r="K422" s="4"/>
+      <c r="K422" s="1"/>
+      <c r="L422" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="18.75">
       <c r="A423" s="1"/>
@@ -6623,7 +7051,8 @@
       <c r="H423" s="4"/>
       <c r="I423" s="4"/>
       <c r="J423" s="4"/>
-      <c r="K423" s="24"/>
+      <c r="K423" s="1"/>
+      <c r="L423" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18.75">
       <c r="A424" s="1"/>
@@ -6636,7 +7065,8 @@
       <c r="H424" s="4"/>
       <c r="I424" s="4"/>
       <c r="J424" s="4"/>
-      <c r="K424" s="24"/>
+      <c r="K424" s="1"/>
+      <c r="L424" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="18.75">
       <c r="A425" s="1"/>
@@ -6649,7 +7079,8 @@
       <c r="H425" s="4"/>
       <c r="I425" s="4"/>
       <c r="J425" s="4"/>
-      <c r="K425" s="24"/>
+      <c r="K425" s="1"/>
+      <c r="L425" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18.75">
       <c r="A426" s="1"/>
@@ -6662,7 +7093,8 @@
       <c r="H426" s="4"/>
       <c r="I426" s="4"/>
       <c r="J426" s="4"/>
-      <c r="K426" s="24"/>
+      <c r="K426" s="1"/>
+      <c r="L426" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="18.75">
       <c r="A427" s="1"/>
@@ -6675,7 +7107,8 @@
       <c r="H427" s="4"/>
       <c r="I427" s="4"/>
       <c r="J427" s="4"/>
-      <c r="K427" s="24"/>
+      <c r="K427" s="1"/>
+      <c r="L427" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18.75">
       <c r="A428" s="4"/>
@@ -6688,7 +7121,8 @@
       <c r="H428" s="4"/>
       <c r="I428" s="4"/>
       <c r="J428" s="4"/>
-      <c r="K428" s="24"/>
+      <c r="K428" s="1"/>
+      <c r="L428" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18.75">
       <c r="A429" s="4"/>
@@ -6701,7 +7135,8 @@
       <c r="H429" s="4"/>
       <c r="I429" s="4"/>
       <c r="J429" s="4"/>
-      <c r="K429" s="24"/>
+      <c r="K429" s="1"/>
+      <c r="L429" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18.75">
       <c r="A430" s="4"/>
@@ -6714,7 +7149,8 @@
       <c r="H430" s="4"/>
       <c r="I430" s="4"/>
       <c r="J430" s="4"/>
-      <c r="K430" s="24"/>
+      <c r="K430" s="1"/>
+      <c r="L430" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="18.75">
       <c r="A431" s="4"/>
@@ -6727,7 +7163,8 @@
       <c r="H431" s="4"/>
       <c r="I431" s="4"/>
       <c r="J431" s="4"/>
-      <c r="K431" s="24"/>
+      <c r="K431" s="1"/>
+      <c r="L431" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="18.75">
       <c r="A432" s="1"/>
@@ -6740,7 +7177,8 @@
       <c r="H432" s="4"/>
       <c r="I432" s="4"/>
       <c r="J432" s="4"/>
-      <c r="K432" s="4"/>
+      <c r="K432" s="1"/>
+      <c r="L432" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="18.75">
       <c r="A433" s="1"/>
@@ -6753,7 +7191,8 @@
       <c r="H433" s="4"/>
       <c r="I433" s="4"/>
       <c r="J433" s="4"/>
-      <c r="K433" s="4"/>
+      <c r="K433" s="1"/>
+      <c r="L433" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="18.75">
       <c r="A434" s="1"/>
@@ -6766,7 +7205,8 @@
       <c r="H434" s="4"/>
       <c r="I434" s="4"/>
       <c r="J434" s="4"/>
-      <c r="K434" s="4"/>
+      <c r="K434" s="1"/>
+      <c r="L434" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="18.75">
       <c r="A435" s="1"/>
@@ -6779,7 +7219,8 @@
       <c r="H435" s="4"/>
       <c r="I435" s="4"/>
       <c r="J435" s="4"/>
-      <c r="K435" s="24"/>
+      <c r="K435" s="1"/>
+      <c r="L435" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="18.75">
       <c r="A436" s="1"/>
@@ -6792,7 +7233,8 @@
       <c r="H436" s="4"/>
       <c r="I436" s="4"/>
       <c r="J436" s="4"/>
-      <c r="K436" s="24"/>
+      <c r="K436" s="1"/>
+      <c r="L436" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="18.75">
       <c r="A437" s="1"/>
@@ -6805,7 +7247,8 @@
       <c r="H437" s="4"/>
       <c r="I437" s="4"/>
       <c r="J437" s="4"/>
-      <c r="K437" s="24"/>
+      <c r="K437" s="1"/>
+      <c r="L437" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="18.75">
       <c r="A438" s="1"/>
@@ -6818,7 +7261,8 @@
       <c r="H438" s="4"/>
       <c r="I438" s="4"/>
       <c r="J438" s="4"/>
-      <c r="K438" s="24"/>
+      <c r="K438" s="1"/>
+      <c r="L438" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="18.75">
       <c r="A439" s="1"/>
@@ -6831,7 +7275,8 @@
       <c r="H439" s="4"/>
       <c r="I439" s="4"/>
       <c r="J439" s="4"/>
-      <c r="K439" s="24"/>
+      <c r="K439" s="1"/>
+      <c r="L439" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="18.75">
       <c r="A440" s="4"/>
@@ -6844,7 +7289,8 @@
       <c r="H440" s="4"/>
       <c r="I440" s="4"/>
       <c r="J440" s="4"/>
-      <c r="K440" s="24"/>
+      <c r="K440" s="1"/>
+      <c r="L440" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="18.75">
       <c r="A441" s="4"/>
@@ -6857,7 +7303,8 @@
       <c r="H441" s="4"/>
       <c r="I441" s="4"/>
       <c r="J441" s="4"/>
-      <c r="K441" s="24"/>
+      <c r="K441" s="1"/>
+      <c r="L441" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="18.75">
       <c r="A442" s="4"/>
@@ -6870,7 +7317,8 @@
       <c r="H442" s="4"/>
       <c r="I442" s="4"/>
       <c r="J442" s="4"/>
-      <c r="K442" s="24"/>
+      <c r="K442" s="1"/>
+      <c r="L442" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="18.75">
       <c r="A443" s="4"/>
@@ -6883,7 +7331,8 @@
       <c r="H443" s="4"/>
       <c r="I443" s="4"/>
       <c r="J443" s="4"/>
-      <c r="K443" s="24"/>
+      <c r="K443" s="1"/>
+      <c r="L443" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="18.75">
       <c r="A444" s="1"/>
@@ -6896,7 +7345,8 @@
       <c r="H444" s="4"/>
       <c r="I444" s="4"/>
       <c r="J444" s="4"/>
-      <c r="K444" s="4"/>
+      <c r="K444" s="1"/>
+      <c r="L444" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="18.75">
       <c r="A445" s="1"/>
@@ -6909,7 +7359,8 @@
       <c r="H445" s="4"/>
       <c r="I445" s="4"/>
       <c r="J445" s="4"/>
-      <c r="K445" s="4"/>
+      <c r="K445" s="1"/>
+      <c r="L445" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="18.75">
       <c r="A446" s="1"/>
@@ -6922,7 +7373,8 @@
       <c r="H446" s="4"/>
       <c r="I446" s="4"/>
       <c r="J446" s="4"/>
-      <c r="K446" s="4"/>
+      <c r="K446" s="1"/>
+      <c r="L446" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="18.75">
       <c r="A447" s="1"/>
@@ -6935,7 +7387,8 @@
       <c r="H447" s="4"/>
       <c r="I447" s="4"/>
       <c r="J447" s="4"/>
-      <c r="K447" s="24"/>
+      <c r="K447" s="1"/>
+      <c r="L447" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="18.75">
       <c r="A448" s="1"/>
@@ -6948,7 +7401,8 @@
       <c r="H448" s="4"/>
       <c r="I448" s="4"/>
       <c r="J448" s="4"/>
-      <c r="K448" s="24"/>
+      <c r="K448" s="1"/>
+      <c r="L448" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="18.75">
       <c r="A449" s="1"/>
@@ -6961,7 +7415,8 @@
       <c r="H449" s="4"/>
       <c r="I449" s="4"/>
       <c r="J449" s="4"/>
-      <c r="K449" s="24"/>
+      <c r="K449" s="1"/>
+      <c r="L449" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="18.75">
       <c r="A450" s="1"/>
@@ -6974,7 +7429,8 @@
       <c r="H450" s="4"/>
       <c r="I450" s="4"/>
       <c r="J450" s="4"/>
-      <c r="K450" s="24"/>
+      <c r="K450" s="1"/>
+      <c r="L450" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="18.75">
       <c r="A451" s="1"/>
@@ -6987,7 +7443,8 @@
       <c r="H451" s="4"/>
       <c r="I451" s="4"/>
       <c r="J451" s="4"/>
-      <c r="K451" s="24"/>
+      <c r="K451" s="1"/>
+      <c r="L451" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="18.75">
       <c r="A452" s="4"/>
@@ -7000,7 +7457,8 @@
       <c r="H452" s="4"/>
       <c r="I452" s="4"/>
       <c r="J452" s="4"/>
-      <c r="K452" s="24"/>
+      <c r="K452" s="1"/>
+      <c r="L452" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="18.75">
       <c r="A453" s="4"/>
@@ -7013,7 +7471,8 @@
       <c r="H453" s="4"/>
       <c r="I453" s="4"/>
       <c r="J453" s="4"/>
-      <c r="K453" s="24"/>
+      <c r="K453" s="1"/>
+      <c r="L453" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="18.75">
       <c r="A454" s="4"/>
@@ -7026,7 +7485,8 @@
       <c r="H454" s="4"/>
       <c r="I454" s="4"/>
       <c r="J454" s="4"/>
-      <c r="K454" s="24"/>
+      <c r="K454" s="1"/>
+      <c r="L454" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="18.75">
       <c r="A455" s="4"/>
@@ -7039,7 +7499,8 @@
       <c r="H455" s="4"/>
       <c r="I455" s="4"/>
       <c r="J455" s="4"/>
-      <c r="K455" s="24"/>
+      <c r="K455" s="1"/>
+      <c r="L455" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="18.75">
       <c r="A456" s="1"/>
@@ -7052,7 +7513,8 @@
       <c r="H456" s="4"/>
       <c r="I456" s="4"/>
       <c r="J456" s="4"/>
-      <c r="K456" s="4"/>
+      <c r="K456" s="1"/>
+      <c r="L456" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="18.75">
       <c r="A457" s="1"/>
@@ -7065,7 +7527,8 @@
       <c r="H457" s="4"/>
       <c r="I457" s="4"/>
       <c r="J457" s="4"/>
-      <c r="K457" s="4"/>
+      <c r="K457" s="1"/>
+      <c r="L457" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="18.75">
       <c r="A458" s="1"/>
@@ -7078,7 +7541,8 @@
       <c r="H458" s="4"/>
       <c r="I458" s="4"/>
       <c r="J458" s="4"/>
-      <c r="K458" s="4"/>
+      <c r="K458" s="1"/>
+      <c r="L458" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="18.75">
       <c r="A459" s="1"/>
@@ -7091,7 +7555,8 @@
       <c r="H459" s="4"/>
       <c r="I459" s="4"/>
       <c r="J459" s="4"/>
-      <c r="K459" s="24"/>
+      <c r="K459" s="1"/>
+      <c r="L459" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="18.75">
       <c r="A460" s="1"/>
@@ -7104,7 +7569,8 @@
       <c r="H460" s="4"/>
       <c r="I460" s="4"/>
       <c r="J460" s="4"/>
-      <c r="K460" s="24"/>
+      <c r="K460" s="1"/>
+      <c r="L460" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="18.75">
       <c r="A461" s="1"/>
@@ -7117,7 +7583,8 @@
       <c r="H461" s="4"/>
       <c r="I461" s="4"/>
       <c r="J461" s="4"/>
-      <c r="K461" s="24"/>
+      <c r="K461" s="1"/>
+      <c r="L461" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="18.75">
       <c r="A462" s="1"/>
@@ -7130,7 +7597,8 @@
       <c r="H462" s="4"/>
       <c r="I462" s="4"/>
       <c r="J462" s="4"/>
-      <c r="K462" s="24"/>
+      <c r="K462" s="1"/>
+      <c r="L462" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="18.75">
       <c r="A463" s="1"/>
@@ -7143,7 +7611,8 @@
       <c r="H463" s="4"/>
       <c r="I463" s="4"/>
       <c r="J463" s="4"/>
-      <c r="K463" s="24"/>
+      <c r="K463" s="1"/>
+      <c r="L463" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="18.75">
       <c r="A464" s="4"/>
@@ -7156,7 +7625,8 @@
       <c r="H464" s="4"/>
       <c r="I464" s="4"/>
       <c r="J464" s="4"/>
-      <c r="K464" s="24"/>
+      <c r="K464" s="1"/>
+      <c r="L464" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="18.75">
       <c r="A465" s="4"/>
@@ -7169,7 +7639,8 @@
       <c r="H465" s="4"/>
       <c r="I465" s="4"/>
       <c r="J465" s="4"/>
-      <c r="K465" s="24"/>
+      <c r="K465" s="1"/>
+      <c r="L465" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="18.75">
       <c r="A466" s="4"/>
@@ -7182,7 +7653,8 @@
       <c r="H466" s="4"/>
       <c r="I466" s="4"/>
       <c r="J466" s="4"/>
-      <c r="K466" s="24"/>
+      <c r="K466" s="1"/>
+      <c r="L466" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="18.75">
       <c r="A467" s="4"/>
@@ -7195,7 +7667,8 @@
       <c r="H467" s="4"/>
       <c r="I467" s="4"/>
       <c r="J467" s="4"/>
-      <c r="K467" s="24"/>
+      <c r="K467" s="1"/>
+      <c r="L467" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="18.75">
       <c r="A468" s="1"/>
@@ -7208,7 +7681,8 @@
       <c r="H468" s="4"/>
       <c r="I468" s="4"/>
       <c r="J468" s="4"/>
-      <c r="K468" s="4"/>
+      <c r="K468" s="1"/>
+      <c r="L468" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="18.75">
       <c r="A469" s="1"/>
@@ -7221,7 +7695,8 @@
       <c r="H469" s="4"/>
       <c r="I469" s="4"/>
       <c r="J469" s="4"/>
-      <c r="K469" s="4"/>
+      <c r="K469" s="1"/>
+      <c r="L469" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="18.75">
       <c r="A470" s="1"/>
@@ -7234,7 +7709,8 @@
       <c r="H470" s="4"/>
       <c r="I470" s="4"/>
       <c r="J470" s="4"/>
-      <c r="K470" s="4"/>
+      <c r="K470" s="1"/>
+      <c r="L470" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="18.75">
       <c r="A471" s="1"/>
@@ -7247,7 +7723,8 @@
       <c r="H471" s="4"/>
       <c r="I471" s="4"/>
       <c r="J471" s="4"/>
-      <c r="K471" s="24"/>
+      <c r="K471" s="1"/>
+      <c r="L471" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="18.75">
       <c r="A472" s="1"/>
@@ -7260,7 +7737,8 @@
       <c r="H472" s="4"/>
       <c r="I472" s="4"/>
       <c r="J472" s="4"/>
-      <c r="K472" s="24"/>
+      <c r="K472" s="1"/>
+      <c r="L472" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="18.75">
       <c r="A473" s="1"/>
@@ -7273,7 +7751,8 @@
       <c r="H473" s="4"/>
       <c r="I473" s="4"/>
       <c r="J473" s="4"/>
-      <c r="K473" s="24"/>
+      <c r="K473" s="1"/>
+      <c r="L473" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="18.75">
       <c r="A474" s="1"/>
@@ -7286,7 +7765,8 @@
       <c r="H474" s="4"/>
       <c r="I474" s="4"/>
       <c r="J474" s="4"/>
-      <c r="K474" s="24"/>
+      <c r="K474" s="1"/>
+      <c r="L474" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="18.75">
       <c r="A475" s="1"/>
@@ -7299,7 +7779,8 @@
       <c r="H475" s="4"/>
       <c r="I475" s="4"/>
       <c r="J475" s="4"/>
-      <c r="K475" s="24"/>
+      <c r="K475" s="1"/>
+      <c r="L475" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="18.75">
       <c r="A476" s="4"/>
@@ -7312,7 +7793,8 @@
       <c r="H476" s="4"/>
       <c r="I476" s="4"/>
       <c r="J476" s="4"/>
-      <c r="K476" s="24"/>
+      <c r="K476" s="1"/>
+      <c r="L476" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="18.75">
       <c r="A477" s="4"/>
@@ -7325,7 +7807,8 @@
       <c r="H477" s="4"/>
       <c r="I477" s="4"/>
       <c r="J477" s="4"/>
-      <c r="K477" s="24"/>
+      <c r="K477" s="1"/>
+      <c r="L477" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="18.75">
       <c r="A478" s="4"/>
@@ -7338,7 +7821,8 @@
       <c r="H478" s="4"/>
       <c r="I478" s="4"/>
       <c r="J478" s="4"/>
-      <c r="K478" s="24"/>
+      <c r="K478" s="1"/>
+      <c r="L478" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="18.75">
       <c r="A479" s="4"/>
@@ -7351,7 +7835,8 @@
       <c r="H479" s="4"/>
       <c r="I479" s="4"/>
       <c r="J479" s="4"/>
-      <c r="K479" s="24"/>
+      <c r="K479" s="1"/>
+      <c r="L479" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="18.75">
       <c r="A480" s="1"/>
@@ -7364,7 +7849,8 @@
       <c r="H480" s="4"/>
       <c r="I480" s="4"/>
       <c r="J480" s="4"/>
-      <c r="K480" s="4"/>
+      <c r="K480" s="1"/>
+      <c r="L480" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="18.75">
       <c r="A481" s="1"/>
@@ -7377,7 +7863,8 @@
       <c r="H481" s="4"/>
       <c r="I481" s="4"/>
       <c r="J481" s="4"/>
-      <c r="K481" s="4"/>
+      <c r="K481" s="1"/>
+      <c r="L481" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LineData.xlsx
+++ b/LineData.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://faurecia-my.sharepoint.com/personal/anass_elhoud_forvia_com/Documents/PhD Codes/PRODynamics/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{6225442F-B07D-4DC7-A1A2-9421B33F6D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="24240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Line Data"/>
-    <sheet r:id="rId2" sheetId="2" name="Config"/>
-    <sheet r:id="rId3" sheetId="3" name="Multi-Ref"/>
-    <sheet r:id="rId4" sheetId="4" name="Assets"/>
+    <sheet name="Line Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Config" sheetId="2" r:id="rId2"/>
+    <sheet name="Multi-Ref" sheetId="3" r:id="rId3"/>
+    <sheet name="Assets" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
   <si>
     <t>Available Strategies</t>
   </si>
@@ -172,12 +179,6 @@
     <t>Transport Order</t>
   </si>
   <si>
-    <t>Transporter Assignment</t>
-  </si>
-  <si>
-    <t>Manual Operator</t>
-  </si>
-  <si>
     <t>Identical Station</t>
   </si>
   <si>
@@ -231,12 +232,17 @@
   <si>
     <t>Defuelling 6</t>
   </si>
+  <si>
+    <t>Transporter ID</t>
+  </si>
+  <si>
+    <t>Operator ID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -267,11 +273,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFb4c7e7"/>
+        <fgColor rgb="FFB4C7E7"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -306,34 +312,34 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -342,7 +348,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -412,131 +418,173 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="37">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C15" displayName="Tableau2" name="Tableau2" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:C15"/>
-  <tableColumns count="3">
-    <tableColumn name="Machine" id="1"/>
-    <tableColumn name="Ref A1" id="2"/>
-    <tableColumn name="Ref B" id="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:I3" totalsRowShown="0">
+  <autoFilter ref="A1:I3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Machine"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Buffer Capacity"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Initial Buffer"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="MTTF"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MTTR"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Transport Time"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Transport Order"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I3" displayName="Table2" name="Table2" id="2" totalsRowShown="0">
-  <autoFilter ref="A1:I3"/>
-  <tableColumns count="9">
-    <tableColumn name="Machine" id="1"/>
-    <tableColumn name="Description" id="2"/>
-    <tableColumn name="Link" id="3"/>
-    <tableColumn name="Buffer Capacity" id="4"/>
-    <tableColumn name="Initial Buffer" id="5"/>
-    <tableColumn name="MTTF" id="6"/>
-    <tableColumn name="MTTR" id="7"/>
-    <tableColumn name="Transport Time" id="8"/>
-    <tableColumn name="Transport Order" id="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau2" displayName="Tableau2" ref="A1:C15" totalsRowShown="0">
+  <autoFilter ref="A1:C15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Machine"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Ref A1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Ref B"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -545,10 +593,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -586,71 +634,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -678,7 +726,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -701,11 +749,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -714,13 +762,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -730,7 +778,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -739,7 +787,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -748,7 +796,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -756,10 +804,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -824,609 +872,634 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:L481"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="40.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="25" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="26" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="25" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="25" width="27.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="25" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="25" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="2" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="26" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    </row>
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="17">
+        <v>1</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="23">
+      <c r="G2" s="17">
+        <v>3600</v>
+      </c>
+      <c r="H2" s="17">
+        <v>100</v>
+      </c>
+      <c r="I2" s="22">
         <v>1</v>
       </c>
-      <c r="E2" s="23">
+      <c r="J2" s="24">
+        <v>1</v>
+      </c>
+      <c r="K2" s="30">
         <v>0</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="23">
-        <v>3600</v>
-      </c>
-      <c r="H2" s="23">
-        <v>100</v>
-      </c>
-      <c r="I2" s="23">
-        <v>1</v>
-      </c>
-      <c r="J2" s="23">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="L2" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="23">
+        <v>53</v>
+      </c>
+      <c r="D3" s="17">
         <v>1</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="17">
         <v>0</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="23">
+        <v>54</v>
+      </c>
+      <c r="G3" s="17">
         <v>3600</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="17">
         <v>100</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="22">
         <v>2</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="24">
         <v>1</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="K3" s="30">
+        <v>0</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="17">
         <v>1</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="17">
         <v>0</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="23">
+        <v>54</v>
+      </c>
+      <c r="G4" s="17">
         <v>3600</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="17">
         <v>180</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="22">
         <v>3</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="24">
         <v>1</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="K4" s="30">
+        <v>0</v>
+      </c>
+      <c r="L4" s="26"/>
+    </row>
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="17">
         <v>1</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="17">
         <v>0</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="23">
+        <v>54</v>
+      </c>
+      <c r="G5" s="17">
         <v>3600</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="17">
         <v>180</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="22">
         <v>4</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="24">
         <v>1</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="K5" s="30">
+        <v>0</v>
+      </c>
+      <c r="L5" s="26"/>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="17">
         <v>1</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="17">
         <v>0</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="23">
+        <v>54</v>
+      </c>
+      <c r="G6" s="17">
         <v>3600</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="17">
         <v>220</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="22">
         <v>5</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="24">
         <v>1</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="K6" s="30">
+        <v>0</v>
+      </c>
+      <c r="L6" s="26"/>
+    </row>
+    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="17">
         <v>1</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="17">
         <v>0</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="23">
+        <v>54</v>
+      </c>
+      <c r="G7" s="17">
         <v>3600</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="17">
         <v>220</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="22">
         <v>6</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="24">
         <v>1</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="K7" s="30">
+        <v>0</v>
+      </c>
+      <c r="L7" s="26"/>
+    </row>
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="23">
+        <v>61</v>
+      </c>
+      <c r="D8" s="17">
         <v>1</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="17">
         <v>0</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="23">
+        <v>54</v>
+      </c>
+      <c r="G8" s="17">
         <v>3600</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="17">
         <v>-250</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <v>7</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="24">
         <v>1</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="K8" s="30">
+        <v>0</v>
+      </c>
+      <c r="L8" s="26"/>
+    </row>
+    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="23">
+        <v>63</v>
+      </c>
+      <c r="D9" s="17">
         <v>1</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="17">
         <v>0</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="23">
+        <v>54</v>
+      </c>
+      <c r="G9" s="17">
         <v>3600</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="17">
         <v>180</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="22">
         <v>8</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="24">
         <v>1</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="K9" s="30">
+        <v>0</v>
+      </c>
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="23">
+        <v>63</v>
+      </c>
+      <c r="D10" s="17">
         <v>1</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="17">
         <v>0</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="23">
+        <v>54</v>
+      </c>
+      <c r="G10" s="17">
         <v>3600</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="17">
         <v>180</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <v>9</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="24">
         <v>1</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="K10" s="30">
+        <v>0</v>
+      </c>
+      <c r="L10" s="26"/>
+    </row>
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="23">
+        <v>63</v>
+      </c>
+      <c r="D11" s="17">
         <v>1</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="17">
         <v>0</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="23">
+        <v>54</v>
+      </c>
+      <c r="G11" s="17">
         <v>3600</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="17">
         <v>220</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <v>10</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="24">
         <v>1</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="K11" s="30">
+        <v>0</v>
+      </c>
+      <c r="L11" s="26"/>
+    </row>
+    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="23">
+        <v>63</v>
+      </c>
+      <c r="D12" s="17">
         <v>1</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="17">
         <v>0</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="23">
+        <v>54</v>
+      </c>
+      <c r="G12" s="17">
         <v>3600</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="17">
         <v>220</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <v>11</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="24">
         <v>1</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="K12" s="30">
+        <v>0</v>
+      </c>
+      <c r="L12" s="26"/>
+    </row>
+    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="23">
+        <v>63</v>
+      </c>
+      <c r="D13" s="17">
         <v>1</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="17">
         <v>0</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="23">
+        <v>54</v>
+      </c>
+      <c r="G13" s="17">
         <v>3600</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="17">
         <v>220</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="22">
         <v>12</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="24">
         <v>1</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="K13" s="30">
+        <v>0</v>
+      </c>
+      <c r="L13" s="26"/>
+    </row>
+    <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="23">
+        <v>63</v>
+      </c>
+      <c r="D14" s="17">
         <v>1</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="17">
         <v>0</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="23">
+        <v>54</v>
+      </c>
+      <c r="G14" s="17">
         <v>3600</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="17">
         <v>220</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="22">
         <v>13</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="24">
         <v>1</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="K14" s="30">
+        <v>0</v>
+      </c>
+      <c r="L14" s="26"/>
+    </row>
+    <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="24"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="L15" s="27"/>
+    </row>
+    <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="24"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="L16" s="27"/>
+    </row>
+    <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="24"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="L17" s="27"/>
+    </row>
+    <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="24"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="L18" s="27"/>
+    </row>
+    <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="24"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="L19" s="27"/>
+    </row>
+    <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="24"/>
+      <c r="F20" s="18"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="L20" s="27"/>
+    </row>
+    <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="24"/>
+      <c r="F21" s="18"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="L21" s="27"/>
+    </row>
+    <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="1"/>
@@ -1437,38 +1510,35 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="L22" s="27"/>
+    </row>
+    <row r="23" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="24"/>
+      <c r="F23" s="18"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="L23" s="27"/>
+    </row>
+    <row r="24" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="24"/>
+      <c r="F24" s="18"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="L24" s="27"/>
+    </row>
+    <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1479,122 +1549,113 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="L25" s="27"/>
+    </row>
+    <row r="26" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="24"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="L26" s="27"/>
+    </row>
+    <row r="27" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="24"/>
+      <c r="F27" s="18"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="L27" s="27"/>
+    </row>
+    <row r="28" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="24"/>
+      <c r="F28" s="18"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="L28" s="27"/>
+    </row>
+    <row r="29" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="24"/>
+      <c r="F29" s="18"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="L29" s="27"/>
+    </row>
+    <row r="30" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="24"/>
+      <c r="F30" s="18"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="L30" s="27"/>
+    </row>
+    <row r="31" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="24"/>
+      <c r="F31" s="18"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="L31" s="27"/>
+    </row>
+    <row r="32" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="24"/>
+      <c r="F32" s="18"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="L32" s="27"/>
+    </row>
+    <row r="33" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="24"/>
+      <c r="F33" s="18"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="L33" s="27"/>
+    </row>
+    <row r="34" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="1"/>
@@ -1605,38 +1666,35 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="L34" s="27"/>
+    </row>
+    <row r="35" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="1"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="24"/>
+      <c r="F35" s="18"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="L35" s="27"/>
+    </row>
+    <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="24"/>
+      <c r="F36" s="18"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="L36" s="27"/>
+    </row>
+    <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1647,122 +1705,113 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="L37" s="27"/>
+    </row>
+    <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="24"/>
+      <c r="F38" s="18"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="L38" s="27"/>
+    </row>
+    <row r="39" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="24"/>
+      <c r="F39" s="18"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="L39" s="27"/>
+    </row>
+    <row r="40" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="24"/>
+      <c r="F40" s="18"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="L40" s="27"/>
+    </row>
+    <row r="41" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="24"/>
+      <c r="F41" s="18"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="L41" s="27"/>
+    </row>
+    <row r="42" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="24"/>
+      <c r="F42" s="18"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="L42" s="27"/>
+    </row>
+    <row r="43" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="24"/>
+      <c r="F43" s="18"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="L43" s="27"/>
+    </row>
+    <row r="44" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="24"/>
+      <c r="F44" s="18"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="L44" s="27"/>
+    </row>
+    <row r="45" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="24"/>
+      <c r="F45" s="18"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="L45" s="27"/>
+    </row>
+    <row r="46" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="1"/>
@@ -1773,38 +1822,35 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="L46" s="27"/>
+    </row>
+    <row r="47" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="1"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="24"/>
+      <c r="F47" s="18"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="L47" s="27"/>
+    </row>
+    <row r="48" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="24"/>
+      <c r="F48" s="18"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="L48" s="27"/>
+    </row>
+    <row r="49" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1815,122 +1861,113 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="L49" s="27"/>
+    </row>
+    <row r="50" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="24"/>
+      <c r="F50" s="18"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="L50" s="27"/>
+    </row>
+    <row r="51" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="24"/>
+      <c r="F51" s="18"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="L51" s="27"/>
+    </row>
+    <row r="52" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="24"/>
+      <c r="F52" s="18"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="L52" s="27"/>
+    </row>
+    <row r="53" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="24"/>
+      <c r="F53" s="18"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="L53" s="27"/>
+    </row>
+    <row r="54" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="24"/>
+      <c r="F54" s="18"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="L54" s="27"/>
+    </row>
+    <row r="55" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="24"/>
+      <c r="F55" s="18"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="L55" s="27"/>
+    </row>
+    <row r="56" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="24"/>
+      <c r="F56" s="18"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="L56" s="27"/>
+    </row>
+    <row r="57" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="24"/>
+      <c r="F57" s="18"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="L57" s="27"/>
+    </row>
+    <row r="58" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="1"/>
@@ -1941,38 +1978,35 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="L58" s="27"/>
+    </row>
+    <row r="59" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="1"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="24"/>
+      <c r="F59" s="18"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="L59" s="27"/>
+    </row>
+    <row r="60" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="24"/>
+      <c r="F60" s="18"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+      <c r="L60" s="27"/>
+    </row>
+    <row r="61" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1983,122 +2017,113 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+      <c r="L61" s="27"/>
+    </row>
+    <row r="62" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="24"/>
+      <c r="F62" s="18"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+      <c r="L62" s="27"/>
+    </row>
+    <row r="63" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="24"/>
+      <c r="F63" s="18"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+      <c r="L63" s="27"/>
+    </row>
+    <row r="64" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="24"/>
+      <c r="F64" s="18"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+      <c r="L64" s="27"/>
+    </row>
+    <row r="65" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="24"/>
+      <c r="F65" s="18"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+      <c r="L65" s="27"/>
+    </row>
+    <row r="66" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="24"/>
+      <c r="F66" s="18"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+      <c r="L66" s="27"/>
+    </row>
+    <row r="67" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="24"/>
+      <c r="F67" s="18"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+      <c r="L67" s="27"/>
+    </row>
+    <row r="68" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="24"/>
+      <c r="F68" s="18"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+      <c r="L68" s="27"/>
+    </row>
+    <row r="69" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="24"/>
+      <c r="F69" s="18"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+      <c r="L69" s="27"/>
+    </row>
+    <row r="70" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="1"/>
@@ -2109,38 +2134,35 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+      <c r="L70" s="27"/>
+    </row>
+    <row r="71" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="1"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="24"/>
+      <c r="F71" s="18"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+      <c r="L71" s="27"/>
+    </row>
+    <row r="72" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
-      <c r="F72" s="24"/>
+      <c r="F72" s="18"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+      <c r="L72" s="27"/>
+    </row>
+    <row r="73" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2151,122 +2173,113 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+      <c r="L73" s="27"/>
+    </row>
+    <row r="74" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
-      <c r="F74" s="24"/>
+      <c r="F74" s="18"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+      <c r="L74" s="27"/>
+    </row>
+    <row r="75" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
-      <c r="F75" s="24"/>
+      <c r="F75" s="18"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+      <c r="L75" s="27"/>
+    </row>
+    <row r="76" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
-      <c r="F76" s="24"/>
+      <c r="F76" s="18"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+      <c r="L76" s="27"/>
+    </row>
+    <row r="77" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
-      <c r="F77" s="24"/>
+      <c r="F77" s="18"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+      <c r="L77" s="27"/>
+    </row>
+    <row r="78" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
-      <c r="F78" s="24"/>
+      <c r="F78" s="18"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+      <c r="L78" s="27"/>
+    </row>
+    <row r="79" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
-      <c r="F79" s="24"/>
+      <c r="F79" s="18"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+      <c r="L79" s="27"/>
+    </row>
+    <row r="80" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
-      <c r="F80" s="24"/>
+      <c r="F80" s="18"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+      <c r="L80" s="27"/>
+    </row>
+    <row r="81" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
-      <c r="F81" s="24"/>
+      <c r="F81" s="18"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+      <c r="L81" s="27"/>
+    </row>
+    <row r="82" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="1"/>
@@ -2277,38 +2290,35 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+      <c r="L82" s="27"/>
+    </row>
+    <row r="83" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="1"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
-      <c r="F83" s="24"/>
+      <c r="F83" s="18"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+      <c r="L83" s="27"/>
+    </row>
+    <row r="84" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
-      <c r="F84" s="24"/>
+      <c r="F84" s="18"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+      <c r="L84" s="27"/>
+    </row>
+    <row r="85" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2319,122 +2329,113 @@
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+      <c r="L85" s="27"/>
+    </row>
+    <row r="86" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
-      <c r="F86" s="24"/>
+      <c r="F86" s="18"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+      <c r="L86" s="27"/>
+    </row>
+    <row r="87" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
-      <c r="F87" s="24"/>
+      <c r="F87" s="18"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+      <c r="L87" s="27"/>
+    </row>
+    <row r="88" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
-      <c r="F88" s="24"/>
+      <c r="F88" s="18"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+      <c r="L88" s="27"/>
+    </row>
+    <row r="89" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
-      <c r="F89" s="24"/>
+      <c r="F89" s="18"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+      <c r="L89" s="27"/>
+    </row>
+    <row r="90" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
-      <c r="F90" s="24"/>
+      <c r="F90" s="18"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+      <c r="L90" s="27"/>
+    </row>
+    <row r="91" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
-      <c r="F91" s="24"/>
+      <c r="F91" s="18"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+      <c r="L91" s="27"/>
+    </row>
+    <row r="92" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
-      <c r="F92" s="24"/>
+      <c r="F92" s="18"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+      <c r="L92" s="27"/>
+    </row>
+    <row r="93" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
-      <c r="F93" s="24"/>
+      <c r="F93" s="18"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+      <c r="L93" s="27"/>
+    </row>
+    <row r="94" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="1"/>
@@ -2445,38 +2446,35 @@
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+      <c r="L94" s="27"/>
+    </row>
+    <row r="95" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="1"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="24"/>
+      <c r="F95" s="18"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+      <c r="L95" s="27"/>
+    </row>
+    <row r="96" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
-      <c r="F96" s="24"/>
+      <c r="F96" s="18"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+      <c r="L96" s="27"/>
+    </row>
+    <row r="97" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2487,122 +2485,113 @@
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+      <c r="L97" s="27"/>
+    </row>
+    <row r="98" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
-      <c r="F98" s="24"/>
+      <c r="F98" s="18"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+      <c r="L98" s="27"/>
+    </row>
+    <row r="99" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
-      <c r="F99" s="24"/>
+      <c r="F99" s="18"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+      <c r="L99" s="27"/>
+    </row>
+    <row r="100" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
-      <c r="F100" s="24"/>
+      <c r="F100" s="18"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+      <c r="L100" s="27"/>
+    </row>
+    <row r="101" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
-      <c r="F101" s="24"/>
+      <c r="F101" s="18"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+      <c r="L101" s="27"/>
+    </row>
+    <row r="102" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
-      <c r="F102" s="24"/>
+      <c r="F102" s="18"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+      <c r="L102" s="27"/>
+    </row>
+    <row r="103" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
-      <c r="F103" s="24"/>
+      <c r="F103" s="18"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+      <c r="L103" s="27"/>
+    </row>
+    <row r="104" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
-      <c r="F104" s="24"/>
+      <c r="F104" s="18"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+      <c r="L104" s="27"/>
+    </row>
+    <row r="105" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
-      <c r="F105" s="24"/>
+      <c r="F105" s="18"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+      <c r="L105" s="27"/>
+    </row>
+    <row r="106" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="1"/>
@@ -2613,38 +2602,35 @@
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+      <c r="L106" s="27"/>
+    </row>
+    <row r="107" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="1"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
-      <c r="F107" s="24"/>
+      <c r="F107" s="18"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+      <c r="L107" s="27"/>
+    </row>
+    <row r="108" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
-      <c r="F108" s="24"/>
+      <c r="F108" s="18"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+      <c r="L108" s="27"/>
+    </row>
+    <row r="109" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2655,122 +2641,113 @@
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+      <c r="L109" s="27"/>
+    </row>
+    <row r="110" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
-      <c r="F110" s="24"/>
+      <c r="F110" s="18"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+      <c r="L110" s="27"/>
+    </row>
+    <row r="111" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
-      <c r="F111" s="24"/>
+      <c r="F111" s="18"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
-      <c r="K111" s="1"/>
-      <c r="L111" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+      <c r="L111" s="27"/>
+    </row>
+    <row r="112" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
-      <c r="F112" s="24"/>
+      <c r="F112" s="18"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
-      <c r="K112" s="1"/>
-      <c r="L112" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+      <c r="L112" s="27"/>
+    </row>
+    <row r="113" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
-      <c r="F113" s="24"/>
+      <c r="F113" s="18"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+      <c r="L113" s="27"/>
+    </row>
+    <row r="114" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
-      <c r="F114" s="24"/>
+      <c r="F114" s="18"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
-      <c r="K114" s="1"/>
-      <c r="L114" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+      <c r="L114" s="27"/>
+    </row>
+    <row r="115" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
-      <c r="F115" s="24"/>
+      <c r="F115" s="18"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
-      <c r="K115" s="1"/>
-      <c r="L115" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+      <c r="L115" s="27"/>
+    </row>
+    <row r="116" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
-      <c r="F116" s="24"/>
+      <c r="F116" s="18"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
-      <c r="K116" s="1"/>
-      <c r="L116" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+      <c r="L116" s="27"/>
+    </row>
+    <row r="117" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
-      <c r="F117" s="24"/>
+      <c r="F117" s="18"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+      <c r="L117" s="27"/>
+    </row>
+    <row r="118" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="1"/>
@@ -2781,38 +2758,35 @@
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
-      <c r="K118" s="1"/>
-      <c r="L118" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+      <c r="L118" s="27"/>
+    </row>
+    <row r="119" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="1"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
-      <c r="F119" s="24"/>
+      <c r="F119" s="18"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+      <c r="L119" s="27"/>
+    </row>
+    <row r="120" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
-      <c r="F120" s="24"/>
+      <c r="F120" s="18"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+      <c r="L120" s="27"/>
+    </row>
+    <row r="121" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -2823,122 +2797,113 @@
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
-      <c r="K121" s="1"/>
-      <c r="L121" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+      <c r="L121" s="27"/>
+    </row>
+    <row r="122" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
-      <c r="F122" s="24"/>
+      <c r="F122" s="18"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
-      <c r="K122" s="1"/>
-      <c r="L122" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+      <c r="L122" s="27"/>
+    </row>
+    <row r="123" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
-      <c r="F123" s="24"/>
+      <c r="F123" s="18"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
-      <c r="K123" s="1"/>
-      <c r="L123" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+      <c r="L123" s="27"/>
+    </row>
+    <row r="124" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
-      <c r="F124" s="24"/>
+      <c r="F124" s="18"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
-      <c r="K124" s="1"/>
-      <c r="L124" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+      <c r="L124" s="27"/>
+    </row>
+    <row r="125" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
-      <c r="F125" s="24"/>
+      <c r="F125" s="18"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
-      <c r="K125" s="1"/>
-      <c r="L125" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+      <c r="L125" s="27"/>
+    </row>
+    <row r="126" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
-      <c r="F126" s="24"/>
+      <c r="F126" s="18"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
-      <c r="K126" s="1"/>
-      <c r="L126" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+      <c r="L126" s="27"/>
+    </row>
+    <row r="127" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
-      <c r="F127" s="24"/>
+      <c r="F127" s="18"/>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
-      <c r="K127" s="1"/>
-      <c r="L127" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+      <c r="L127" s="27"/>
+    </row>
+    <row r="128" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
-      <c r="F128" s="24"/>
+      <c r="F128" s="18"/>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
-      <c r="K128" s="1"/>
-      <c r="L128" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+      <c r="L128" s="27"/>
+    </row>
+    <row r="129" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
-      <c r="F129" s="24"/>
+      <c r="F129" s="18"/>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
-      <c r="K129" s="1"/>
-      <c r="L129" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+      <c r="L129" s="27"/>
+    </row>
+    <row r="130" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="1"/>
@@ -2949,38 +2914,35 @@
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
-      <c r="K130" s="1"/>
-      <c r="L130" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+      <c r="L130" s="27"/>
+    </row>
+    <row r="131" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="1"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
-      <c r="F131" s="24"/>
+      <c r="F131" s="18"/>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
-      <c r="K131" s="1"/>
-      <c r="L131" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+      <c r="L131" s="27"/>
+    </row>
+    <row r="132" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
-      <c r="F132" s="24"/>
+      <c r="F132" s="18"/>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
-      <c r="K132" s="1"/>
-      <c r="L132" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+      <c r="L132" s="27"/>
+    </row>
+    <row r="133" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -2991,122 +2953,113 @@
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
-      <c r="K133" s="1"/>
-      <c r="L133" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+      <c r="L133" s="27"/>
+    </row>
+    <row r="134" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
-      <c r="F134" s="24"/>
+      <c r="F134" s="18"/>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
-      <c r="K134" s="1"/>
-      <c r="L134" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+      <c r="L134" s="27"/>
+    </row>
+    <row r="135" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
-      <c r="F135" s="24"/>
+      <c r="F135" s="18"/>
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
-      <c r="K135" s="1"/>
-      <c r="L135" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+      <c r="L135" s="27"/>
+    </row>
+    <row r="136" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
-      <c r="F136" s="24"/>
+      <c r="F136" s="18"/>
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
-      <c r="K136" s="1"/>
-      <c r="L136" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+      <c r="L136" s="27"/>
+    </row>
+    <row r="137" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
-      <c r="F137" s="24"/>
+      <c r="F137" s="18"/>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
-      <c r="K137" s="1"/>
-      <c r="L137" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+      <c r="L137" s="27"/>
+    </row>
+    <row r="138" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
-      <c r="F138" s="24"/>
+      <c r="F138" s="18"/>
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
-      <c r="K138" s="1"/>
-      <c r="L138" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+      <c r="L138" s="27"/>
+    </row>
+    <row r="139" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
-      <c r="F139" s="24"/>
+      <c r="F139" s="18"/>
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
-      <c r="K139" s="1"/>
-      <c r="L139" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+      <c r="L139" s="27"/>
+    </row>
+    <row r="140" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
-      <c r="F140" s="24"/>
+      <c r="F140" s="18"/>
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
-      <c r="K140" s="1"/>
-      <c r="L140" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+      <c r="L140" s="27"/>
+    </row>
+    <row r="141" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
-      <c r="F141" s="24"/>
+      <c r="F141" s="18"/>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
-      <c r="K141" s="1"/>
-      <c r="L141" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+      <c r="L141" s="27"/>
+    </row>
+    <row r="142" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="1"/>
@@ -3117,38 +3070,35 @@
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
-      <c r="K142" s="1"/>
-      <c r="L142" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+      <c r="L142" s="27"/>
+    </row>
+    <row r="143" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="1"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
-      <c r="F143" s="24"/>
+      <c r="F143" s="18"/>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
-      <c r="K143" s="1"/>
-      <c r="L143" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+      <c r="L143" s="27"/>
+    </row>
+    <row r="144" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
-      <c r="F144" s="24"/>
+      <c r="F144" s="18"/>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
-      <c r="K144" s="1"/>
-      <c r="L144" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+      <c r="L144" s="27"/>
+    </row>
+    <row r="145" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -3159,122 +3109,113 @@
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
-      <c r="K145" s="1"/>
-      <c r="L145" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
+      <c r="L145" s="27"/>
+    </row>
+    <row r="146" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
-      <c r="F146" s="24"/>
+      <c r="F146" s="18"/>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
-      <c r="K146" s="1"/>
-      <c r="L146" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+      <c r="L146" s="27"/>
+    </row>
+    <row r="147" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
-      <c r="F147" s="24"/>
+      <c r="F147" s="18"/>
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
-      <c r="K147" s="1"/>
-      <c r="L147" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+      <c r="L147" s="27"/>
+    </row>
+    <row r="148" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
-      <c r="F148" s="24"/>
+      <c r="F148" s="18"/>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
-      <c r="K148" s="1"/>
-      <c r="L148" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+      <c r="L148" s="27"/>
+    </row>
+    <row r="149" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
-      <c r="F149" s="24"/>
+      <c r="F149" s="18"/>
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
-      <c r="K149" s="1"/>
-      <c r="L149" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+      <c r="L149" s="27"/>
+    </row>
+    <row r="150" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
-      <c r="F150" s="24"/>
+      <c r="F150" s="18"/>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
-      <c r="K150" s="1"/>
-      <c r="L150" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+      <c r="L150" s="27"/>
+    </row>
+    <row r="151" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
-      <c r="F151" s="24"/>
+      <c r="F151" s="18"/>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
-      <c r="K151" s="1"/>
-      <c r="L151" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
+      <c r="L151" s="27"/>
+    </row>
+    <row r="152" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
-      <c r="F152" s="24"/>
+      <c r="F152" s="18"/>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
-      <c r="K152" s="1"/>
-      <c r="L152" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+      <c r="L152" s="27"/>
+    </row>
+    <row r="153" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
-      <c r="F153" s="24"/>
+      <c r="F153" s="18"/>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
-      <c r="K153" s="1"/>
-      <c r="L153" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
+      <c r="L153" s="27"/>
+    </row>
+    <row r="154" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="1"/>
@@ -3285,38 +3226,35 @@
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
-      <c r="K154" s="1"/>
-      <c r="L154" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
+      <c r="L154" s="27"/>
+    </row>
+    <row r="155" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="1"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
-      <c r="F155" s="24"/>
+      <c r="F155" s="18"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
-      <c r="K155" s="1"/>
-      <c r="L155" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
+      <c r="L155" s="27"/>
+    </row>
+    <row r="156" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
-      <c r="F156" s="24"/>
+      <c r="F156" s="18"/>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
-      <c r="K156" s="1"/>
-      <c r="L156" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
+      <c r="L156" s="27"/>
+    </row>
+    <row r="157" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -3327,122 +3265,113 @@
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
-      <c r="K157" s="1"/>
-      <c r="L157" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
+      <c r="L157" s="27"/>
+    </row>
+    <row r="158" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
-      <c r="F158" s="24"/>
+      <c r="F158" s="18"/>
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
-      <c r="K158" s="1"/>
-      <c r="L158" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
+      <c r="L158" s="27"/>
+    </row>
+    <row r="159" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
-      <c r="F159" s="24"/>
+      <c r="F159" s="18"/>
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
-      <c r="K159" s="1"/>
-      <c r="L159" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
+      <c r="L159" s="27"/>
+    </row>
+    <row r="160" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
-      <c r="F160" s="24"/>
+      <c r="F160" s="18"/>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
-      <c r="K160" s="1"/>
-      <c r="L160" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
+      <c r="L160" s="27"/>
+    </row>
+    <row r="161" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
-      <c r="F161" s="24"/>
+      <c r="F161" s="18"/>
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
-      <c r="K161" s="1"/>
-      <c r="L161" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
+      <c r="L161" s="27"/>
+    </row>
+    <row r="162" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
-      <c r="F162" s="24"/>
+      <c r="F162" s="18"/>
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
-      <c r="K162" s="1"/>
-      <c r="L162" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
+      <c r="L162" s="27"/>
+    </row>
+    <row r="163" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
-      <c r="F163" s="24"/>
+      <c r="F163" s="18"/>
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
-      <c r="K163" s="1"/>
-      <c r="L163" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
+      <c r="L163" s="27"/>
+    </row>
+    <row r="164" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
-      <c r="F164" s="24"/>
+      <c r="F164" s="18"/>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
-      <c r="K164" s="1"/>
-      <c r="L164" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
+      <c r="L164" s="27"/>
+    </row>
+    <row r="165" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
-      <c r="F165" s="24"/>
+      <c r="F165" s="18"/>
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
-      <c r="K165" s="1"/>
-      <c r="L165" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
+      <c r="L165" s="27"/>
+    </row>
+    <row r="166" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="1"/>
@@ -3453,38 +3382,35 @@
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
-      <c r="K166" s="1"/>
-      <c r="L166" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
+      <c r="L166" s="27"/>
+    </row>
+    <row r="167" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="1"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
-      <c r="F167" s="24"/>
+      <c r="F167" s="18"/>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
-      <c r="K167" s="1"/>
-      <c r="L167" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
+      <c r="L167" s="27"/>
+    </row>
+    <row r="168" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
-      <c r="F168" s="24"/>
+      <c r="F168" s="18"/>
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
-      <c r="K168" s="1"/>
-      <c r="L168" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
+      <c r="L168" s="27"/>
+    </row>
+    <row r="169" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -3495,122 +3421,113 @@
       <c r="H169" s="4"/>
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
-      <c r="K169" s="1"/>
-      <c r="L169" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
+      <c r="L169" s="27"/>
+    </row>
+    <row r="170" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
-      <c r="F170" s="24"/>
+      <c r="F170" s="18"/>
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
-      <c r="K170" s="1"/>
-      <c r="L170" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
+      <c r="L170" s="27"/>
+    </row>
+    <row r="171" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
-      <c r="F171" s="24"/>
+      <c r="F171" s="18"/>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
-      <c r="K171" s="1"/>
-      <c r="L171" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
+      <c r="L171" s="27"/>
+    </row>
+    <row r="172" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
-      <c r="F172" s="24"/>
+      <c r="F172" s="18"/>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
-      <c r="K172" s="1"/>
-      <c r="L172" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
+      <c r="L172" s="27"/>
+    </row>
+    <row r="173" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
-      <c r="F173" s="24"/>
+      <c r="F173" s="18"/>
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
-      <c r="K173" s="1"/>
-      <c r="L173" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
+      <c r="L173" s="27"/>
+    </row>
+    <row r="174" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
-      <c r="F174" s="24"/>
+      <c r="F174" s="18"/>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
-      <c r="K174" s="1"/>
-      <c r="L174" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
+      <c r="L174" s="27"/>
+    </row>
+    <row r="175" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
-      <c r="F175" s="24"/>
+      <c r="F175" s="18"/>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
-      <c r="K175" s="1"/>
-      <c r="L175" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
+      <c r="L175" s="27"/>
+    </row>
+    <row r="176" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
-      <c r="F176" s="24"/>
+      <c r="F176" s="18"/>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
-      <c r="K176" s="1"/>
-      <c r="L176" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
+      <c r="L176" s="27"/>
+    </row>
+    <row r="177" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
-      <c r="F177" s="24"/>
+      <c r="F177" s="18"/>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
-      <c r="K177" s="1"/>
-      <c r="L177" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
+      <c r="L177" s="27"/>
+    </row>
+    <row r="178" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="1"/>
@@ -3621,38 +3538,35 @@
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
-      <c r="K178" s="1"/>
-      <c r="L178" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
+      <c r="L178" s="27"/>
+    </row>
+    <row r="179" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="1"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
-      <c r="F179" s="24"/>
+      <c r="F179" s="18"/>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
-      <c r="K179" s="1"/>
-      <c r="L179" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
+      <c r="L179" s="27"/>
+    </row>
+    <row r="180" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
-      <c r="F180" s="24"/>
+      <c r="F180" s="18"/>
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
-      <c r="K180" s="1"/>
-      <c r="L180" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
+      <c r="L180" s="27"/>
+    </row>
+    <row r="181" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -3663,122 +3577,113 @@
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
-      <c r="K181" s="1"/>
-      <c r="L181" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
+      <c r="L181" s="27"/>
+    </row>
+    <row r="182" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
-      <c r="F182" s="24"/>
+      <c r="F182" s="18"/>
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
-      <c r="K182" s="1"/>
-      <c r="L182" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
+      <c r="L182" s="27"/>
+    </row>
+    <row r="183" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
-      <c r="F183" s="24"/>
+      <c r="F183" s="18"/>
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
-      <c r="K183" s="1"/>
-      <c r="L183" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
+      <c r="L183" s="27"/>
+    </row>
+    <row r="184" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
-      <c r="F184" s="24"/>
+      <c r="F184" s="18"/>
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
-      <c r="K184" s="1"/>
-      <c r="L184" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
+      <c r="L184" s="27"/>
+    </row>
+    <row r="185" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
-      <c r="F185" s="24"/>
+      <c r="F185" s="18"/>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
-      <c r="K185" s="1"/>
-      <c r="L185" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
+      <c r="L185" s="27"/>
+    </row>
+    <row r="186" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
-      <c r="F186" s="24"/>
+      <c r="F186" s="18"/>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
-      <c r="K186" s="1"/>
-      <c r="L186" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
+      <c r="L186" s="27"/>
+    </row>
+    <row r="187" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
-      <c r="F187" s="24"/>
+      <c r="F187" s="18"/>
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
-      <c r="K187" s="1"/>
-      <c r="L187" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
+      <c r="L187" s="27"/>
+    </row>
+    <row r="188" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
-      <c r="F188" s="24"/>
+      <c r="F188" s="18"/>
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
-      <c r="K188" s="1"/>
-      <c r="L188" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
+      <c r="L188" s="27"/>
+    </row>
+    <row r="189" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
-      <c r="F189" s="24"/>
+      <c r="F189" s="18"/>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
-      <c r="K189" s="1"/>
-      <c r="L189" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
+      <c r="L189" s="27"/>
+    </row>
+    <row r="190" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="1"/>
@@ -3789,38 +3694,35 @@
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
       <c r="J190" s="4"/>
-      <c r="K190" s="1"/>
-      <c r="L190" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
+      <c r="L190" s="27"/>
+    </row>
+    <row r="191" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="1"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
-      <c r="F191" s="24"/>
+      <c r="F191" s="18"/>
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
-      <c r="K191" s="1"/>
-      <c r="L191" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
+      <c r="L191" s="27"/>
+    </row>
+    <row r="192" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
-      <c r="F192" s="24"/>
+      <c r="F192" s="18"/>
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
-      <c r="K192" s="1"/>
-      <c r="L192" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
+      <c r="L192" s="27"/>
+    </row>
+    <row r="193" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -3831,122 +3733,113 @@
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
-      <c r="K193" s="1"/>
-      <c r="L193" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
+      <c r="L193" s="27"/>
+    </row>
+    <row r="194" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
-      <c r="F194" s="24"/>
+      <c r="F194" s="18"/>
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
-      <c r="K194" s="1"/>
-      <c r="L194" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
+      <c r="L194" s="27"/>
+    </row>
+    <row r="195" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
-      <c r="F195" s="24"/>
+      <c r="F195" s="18"/>
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
-      <c r="K195" s="1"/>
-      <c r="L195" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
+      <c r="L195" s="27"/>
+    </row>
+    <row r="196" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
-      <c r="F196" s="24"/>
+      <c r="F196" s="18"/>
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
-      <c r="K196" s="1"/>
-      <c r="L196" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
+      <c r="L196" s="27"/>
+    </row>
+    <row r="197" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
-      <c r="F197" s="24"/>
+      <c r="F197" s="18"/>
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
       <c r="J197" s="4"/>
-      <c r="K197" s="1"/>
-      <c r="L197" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
+      <c r="L197" s="27"/>
+    </row>
+    <row r="198" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
-      <c r="F198" s="24"/>
+      <c r="F198" s="18"/>
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
-      <c r="K198" s="1"/>
-      <c r="L198" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
+      <c r="L198" s="27"/>
+    </row>
+    <row r="199" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
-      <c r="F199" s="24"/>
+      <c r="F199" s="18"/>
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
-      <c r="K199" s="1"/>
-      <c r="L199" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
+      <c r="L199" s="27"/>
+    </row>
+    <row r="200" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
-      <c r="F200" s="24"/>
+      <c r="F200" s="18"/>
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
-      <c r="K200" s="1"/>
-      <c r="L200" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
+      <c r="L200" s="27"/>
+    </row>
+    <row r="201" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
-      <c r="F201" s="24"/>
+      <c r="F201" s="18"/>
       <c r="G201" s="4"/>
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
-      <c r="K201" s="1"/>
-      <c r="L201" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
+      <c r="L201" s="27"/>
+    </row>
+    <row r="202" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="1"/>
@@ -3957,38 +3850,35 @@
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
-      <c r="K202" s="1"/>
-      <c r="L202" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
+      <c r="L202" s="27"/>
+    </row>
+    <row r="203" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="1"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
-      <c r="F203" s="24"/>
+      <c r="F203" s="18"/>
       <c r="G203" s="4"/>
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
-      <c r="K203" s="1"/>
-      <c r="L203" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
+      <c r="L203" s="27"/>
+    </row>
+    <row r="204" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
-      <c r="F204" s="24"/>
+      <c r="F204" s="18"/>
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
-      <c r="K204" s="1"/>
-      <c r="L204" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
+      <c r="L204" s="27"/>
+    </row>
+    <row r="205" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -3999,122 +3889,113 @@
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
       <c r="J205" s="4"/>
-      <c r="K205" s="1"/>
-      <c r="L205" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
+      <c r="L205" s="27"/>
+    </row>
+    <row r="206" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
-      <c r="F206" s="24"/>
+      <c r="F206" s="18"/>
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
-      <c r="K206" s="1"/>
-      <c r="L206" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
+      <c r="L206" s="27"/>
+    </row>
+    <row r="207" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
-      <c r="F207" s="24"/>
+      <c r="F207" s="18"/>
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
-      <c r="K207" s="1"/>
-      <c r="L207" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
+      <c r="L207" s="27"/>
+    </row>
+    <row r="208" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
-      <c r="F208" s="24"/>
+      <c r="F208" s="18"/>
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
-      <c r="K208" s="1"/>
-      <c r="L208" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
+      <c r="L208" s="27"/>
+    </row>
+    <row r="209" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
-      <c r="F209" s="24"/>
+      <c r="F209" s="18"/>
       <c r="G209" s="4"/>
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
-      <c r="K209" s="1"/>
-      <c r="L209" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
+      <c r="L209" s="27"/>
+    </row>
+    <row r="210" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
-      <c r="F210" s="24"/>
+      <c r="F210" s="18"/>
       <c r="G210" s="4"/>
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
-      <c r="K210" s="1"/>
-      <c r="L210" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
+      <c r="L210" s="27"/>
+    </row>
+    <row r="211" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
-      <c r="F211" s="24"/>
+      <c r="F211" s="18"/>
       <c r="G211" s="4"/>
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
       <c r="J211" s="4"/>
-      <c r="K211" s="1"/>
-      <c r="L211" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
+      <c r="L211" s="27"/>
+    </row>
+    <row r="212" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
-      <c r="F212" s="24"/>
+      <c r="F212" s="18"/>
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
-      <c r="K212" s="1"/>
-      <c r="L212" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
+      <c r="L212" s="27"/>
+    </row>
+    <row r="213" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
-      <c r="F213" s="24"/>
+      <c r="F213" s="18"/>
       <c r="G213" s="4"/>
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
       <c r="J213" s="4"/>
-      <c r="K213" s="1"/>
-      <c r="L213" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
+      <c r="L213" s="27"/>
+    </row>
+    <row r="214" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="1"/>
@@ -4125,38 +4006,35 @@
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
       <c r="J214" s="4"/>
-      <c r="K214" s="1"/>
-      <c r="L214" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
+      <c r="L214" s="27"/>
+    </row>
+    <row r="215" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="1"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
-      <c r="F215" s="24"/>
+      <c r="F215" s="18"/>
       <c r="G215" s="4"/>
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
       <c r="J215" s="4"/>
-      <c r="K215" s="1"/>
-      <c r="L215" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
+      <c r="L215" s="27"/>
+    </row>
+    <row r="216" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
-      <c r="F216" s="24"/>
+      <c r="F216" s="18"/>
       <c r="G216" s="4"/>
       <c r="H216" s="4"/>
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
-      <c r="K216" s="1"/>
-      <c r="L216" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
+      <c r="L216" s="27"/>
+    </row>
+    <row r="217" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -4167,122 +4045,113 @@
       <c r="H217" s="4"/>
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
-      <c r="K217" s="1"/>
-      <c r="L217" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
+      <c r="L217" s="27"/>
+    </row>
+    <row r="218" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
-      <c r="F218" s="24"/>
+      <c r="F218" s="18"/>
       <c r="G218" s="4"/>
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
-      <c r="K218" s="1"/>
-      <c r="L218" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
+      <c r="L218" s="27"/>
+    </row>
+    <row r="219" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
-      <c r="F219" s="24"/>
+      <c r="F219" s="18"/>
       <c r="G219" s="4"/>
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
-      <c r="K219" s="1"/>
-      <c r="L219" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
+      <c r="L219" s="27"/>
+    </row>
+    <row r="220" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
-      <c r="F220" s="24"/>
+      <c r="F220" s="18"/>
       <c r="G220" s="4"/>
       <c r="H220" s="4"/>
       <c r="I220" s="4"/>
       <c r="J220" s="4"/>
-      <c r="K220" s="1"/>
-      <c r="L220" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
+      <c r="L220" s="27"/>
+    </row>
+    <row r="221" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
-      <c r="F221" s="24"/>
+      <c r="F221" s="18"/>
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
-      <c r="K221" s="1"/>
-      <c r="L221" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
+      <c r="L221" s="27"/>
+    </row>
+    <row r="222" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
-      <c r="F222" s="24"/>
+      <c r="F222" s="18"/>
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
-      <c r="K222" s="1"/>
-      <c r="L222" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
+      <c r="L222" s="27"/>
+    </row>
+    <row r="223" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
-      <c r="F223" s="24"/>
+      <c r="F223" s="18"/>
       <c r="G223" s="4"/>
       <c r="H223" s="4"/>
       <c r="I223" s="4"/>
       <c r="J223" s="4"/>
-      <c r="K223" s="1"/>
-      <c r="L223" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
+      <c r="L223" s="27"/>
+    </row>
+    <row r="224" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
-      <c r="F224" s="24"/>
+      <c r="F224" s="18"/>
       <c r="G224" s="4"/>
       <c r="H224" s="4"/>
       <c r="I224" s="4"/>
       <c r="J224" s="4"/>
-      <c r="K224" s="1"/>
-      <c r="L224" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
+      <c r="L224" s="27"/>
+    </row>
+    <row r="225" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
-      <c r="F225" s="24"/>
+      <c r="F225" s="18"/>
       <c r="G225" s="4"/>
       <c r="H225" s="4"/>
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
-      <c r="K225" s="1"/>
-      <c r="L225" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
+      <c r="L225" s="27"/>
+    </row>
+    <row r="226" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="1"/>
@@ -4293,38 +4162,35 @@
       <c r="H226" s="4"/>
       <c r="I226" s="4"/>
       <c r="J226" s="4"/>
-      <c r="K226" s="1"/>
-      <c r="L226" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
+      <c r="L226" s="27"/>
+    </row>
+    <row r="227" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="1"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
-      <c r="F227" s="24"/>
+      <c r="F227" s="18"/>
       <c r="G227" s="4"/>
       <c r="H227" s="4"/>
       <c r="I227" s="4"/>
       <c r="J227" s="4"/>
-      <c r="K227" s="1"/>
-      <c r="L227" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
+      <c r="L227" s="27"/>
+    </row>
+    <row r="228" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
-      <c r="F228" s="24"/>
+      <c r="F228" s="18"/>
       <c r="G228" s="4"/>
       <c r="H228" s="4"/>
       <c r="I228" s="4"/>
       <c r="J228" s="4"/>
-      <c r="K228" s="1"/>
-      <c r="L228" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
+      <c r="L228" s="27"/>
+    </row>
+    <row r="229" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -4335,122 +4201,113 @@
       <c r="H229" s="4"/>
       <c r="I229" s="4"/>
       <c r="J229" s="4"/>
-      <c r="K229" s="1"/>
-      <c r="L229" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
+      <c r="L229" s="27"/>
+    </row>
+    <row r="230" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
-      <c r="F230" s="24"/>
+      <c r="F230" s="18"/>
       <c r="G230" s="4"/>
       <c r="H230" s="4"/>
       <c r="I230" s="4"/>
       <c r="J230" s="4"/>
-      <c r="K230" s="1"/>
-      <c r="L230" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
+      <c r="L230" s="27"/>
+    </row>
+    <row r="231" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
-      <c r="F231" s="24"/>
+      <c r="F231" s="18"/>
       <c r="G231" s="4"/>
       <c r="H231" s="4"/>
       <c r="I231" s="4"/>
       <c r="J231" s="4"/>
-      <c r="K231" s="1"/>
-      <c r="L231" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
+      <c r="L231" s="27"/>
+    </row>
+    <row r="232" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
-      <c r="F232" s="24"/>
+      <c r="F232" s="18"/>
       <c r="G232" s="4"/>
       <c r="H232" s="4"/>
       <c r="I232" s="4"/>
       <c r="J232" s="4"/>
-      <c r="K232" s="1"/>
-      <c r="L232" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
+      <c r="L232" s="27"/>
+    </row>
+    <row r="233" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
-      <c r="F233" s="24"/>
+      <c r="F233" s="18"/>
       <c r="G233" s="4"/>
       <c r="H233" s="4"/>
       <c r="I233" s="4"/>
       <c r="J233" s="4"/>
-      <c r="K233" s="1"/>
-      <c r="L233" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
+      <c r="L233" s="27"/>
+    </row>
+    <row r="234" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
-      <c r="F234" s="24"/>
+      <c r="F234" s="18"/>
       <c r="G234" s="4"/>
       <c r="H234" s="4"/>
       <c r="I234" s="4"/>
       <c r="J234" s="4"/>
-      <c r="K234" s="1"/>
-      <c r="L234" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
+      <c r="L234" s="27"/>
+    </row>
+    <row r="235" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
-      <c r="F235" s="24"/>
+      <c r="F235" s="18"/>
       <c r="G235" s="4"/>
       <c r="H235" s="4"/>
       <c r="I235" s="4"/>
       <c r="J235" s="4"/>
-      <c r="K235" s="1"/>
-      <c r="L235" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
+      <c r="L235" s="27"/>
+    </row>
+    <row r="236" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
-      <c r="F236" s="24"/>
+      <c r="F236" s="18"/>
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
       <c r="I236" s="4"/>
       <c r="J236" s="4"/>
-      <c r="K236" s="1"/>
-      <c r="L236" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
+      <c r="L236" s="27"/>
+    </row>
+    <row r="237" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
-      <c r="F237" s="24"/>
+      <c r="F237" s="18"/>
       <c r="G237" s="4"/>
       <c r="H237" s="4"/>
       <c r="I237" s="4"/>
       <c r="J237" s="4"/>
-      <c r="K237" s="1"/>
-      <c r="L237" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
+      <c r="L237" s="27"/>
+    </row>
+    <row r="238" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="1"/>
@@ -4461,38 +4318,35 @@
       <c r="H238" s="4"/>
       <c r="I238" s="4"/>
       <c r="J238" s="4"/>
-      <c r="K238" s="1"/>
-      <c r="L238" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
+      <c r="L238" s="27"/>
+    </row>
+    <row r="239" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="1"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
-      <c r="F239" s="24"/>
+      <c r="F239" s="18"/>
       <c r="G239" s="4"/>
       <c r="H239" s="4"/>
       <c r="I239" s="4"/>
       <c r="J239" s="4"/>
-      <c r="K239" s="1"/>
-      <c r="L239" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
+      <c r="L239" s="27"/>
+    </row>
+    <row r="240" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
-      <c r="F240" s="24"/>
+      <c r="F240" s="18"/>
       <c r="G240" s="4"/>
       <c r="H240" s="4"/>
       <c r="I240" s="4"/>
       <c r="J240" s="4"/>
-      <c r="K240" s="1"/>
-      <c r="L240" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
+      <c r="L240" s="27"/>
+    </row>
+    <row r="241" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -4503,122 +4357,113 @@
       <c r="H241" s="4"/>
       <c r="I241" s="4"/>
       <c r="J241" s="4"/>
-      <c r="K241" s="1"/>
-      <c r="L241" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
+      <c r="L241" s="27"/>
+    </row>
+    <row r="242" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
-      <c r="F242" s="24"/>
+      <c r="F242" s="18"/>
       <c r="G242" s="4"/>
       <c r="H242" s="4"/>
       <c r="I242" s="4"/>
       <c r="J242" s="4"/>
-      <c r="K242" s="1"/>
-      <c r="L242" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
+      <c r="L242" s="27"/>
+    </row>
+    <row r="243" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
-      <c r="F243" s="24"/>
+      <c r="F243" s="18"/>
       <c r="G243" s="4"/>
       <c r="H243" s="4"/>
       <c r="I243" s="4"/>
       <c r="J243" s="4"/>
-      <c r="K243" s="1"/>
-      <c r="L243" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
+      <c r="L243" s="27"/>
+    </row>
+    <row r="244" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
-      <c r="F244" s="24"/>
+      <c r="F244" s="18"/>
       <c r="G244" s="4"/>
       <c r="H244" s="4"/>
       <c r="I244" s="4"/>
       <c r="J244" s="4"/>
-      <c r="K244" s="1"/>
-      <c r="L244" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
+      <c r="L244" s="27"/>
+    </row>
+    <row r="245" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
-      <c r="F245" s="24"/>
+      <c r="F245" s="18"/>
       <c r="G245" s="4"/>
       <c r="H245" s="4"/>
       <c r="I245" s="4"/>
       <c r="J245" s="4"/>
-      <c r="K245" s="1"/>
-      <c r="L245" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
+      <c r="L245" s="27"/>
+    </row>
+    <row r="246" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
-      <c r="F246" s="24"/>
+      <c r="F246" s="18"/>
       <c r="G246" s="4"/>
       <c r="H246" s="4"/>
       <c r="I246" s="4"/>
       <c r="J246" s="4"/>
-      <c r="K246" s="1"/>
-      <c r="L246" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
+      <c r="L246" s="27"/>
+    </row>
+    <row r="247" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
-      <c r="F247" s="24"/>
+      <c r="F247" s="18"/>
       <c r="G247" s="4"/>
       <c r="H247" s="4"/>
       <c r="I247" s="4"/>
       <c r="J247" s="4"/>
-      <c r="K247" s="1"/>
-      <c r="L247" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
+      <c r="L247" s="27"/>
+    </row>
+    <row r="248" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
-      <c r="F248" s="24"/>
+      <c r="F248" s="18"/>
       <c r="G248" s="4"/>
       <c r="H248" s="4"/>
       <c r="I248" s="4"/>
       <c r="J248" s="4"/>
-      <c r="K248" s="1"/>
-      <c r="L248" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
+      <c r="L248" s="27"/>
+    </row>
+    <row r="249" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
-      <c r="F249" s="24"/>
+      <c r="F249" s="18"/>
       <c r="G249" s="4"/>
       <c r="H249" s="4"/>
       <c r="I249" s="4"/>
       <c r="J249" s="4"/>
-      <c r="K249" s="1"/>
-      <c r="L249" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
+      <c r="L249" s="27"/>
+    </row>
+    <row r="250" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="1"/>
@@ -4629,38 +4474,35 @@
       <c r="H250" s="4"/>
       <c r="I250" s="4"/>
       <c r="J250" s="4"/>
-      <c r="K250" s="1"/>
-      <c r="L250" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
+      <c r="L250" s="27"/>
+    </row>
+    <row r="251" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="1"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
-      <c r="F251" s="24"/>
+      <c r="F251" s="18"/>
       <c r="G251" s="4"/>
       <c r="H251" s="4"/>
       <c r="I251" s="4"/>
       <c r="J251" s="4"/>
-      <c r="K251" s="1"/>
-      <c r="L251" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
+      <c r="L251" s="27"/>
+    </row>
+    <row r="252" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
-      <c r="F252" s="24"/>
+      <c r="F252" s="18"/>
       <c r="G252" s="4"/>
       <c r="H252" s="4"/>
       <c r="I252" s="4"/>
       <c r="J252" s="4"/>
-      <c r="K252" s="1"/>
-      <c r="L252" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
+      <c r="L252" s="27"/>
+    </row>
+    <row r="253" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -4671,122 +4513,113 @@
       <c r="H253" s="4"/>
       <c r="I253" s="4"/>
       <c r="J253" s="4"/>
-      <c r="K253" s="1"/>
-      <c r="L253" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
+      <c r="L253" s="27"/>
+    </row>
+    <row r="254" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
-      <c r="F254" s="24"/>
+      <c r="F254" s="18"/>
       <c r="G254" s="4"/>
       <c r="H254" s="4"/>
       <c r="I254" s="4"/>
       <c r="J254" s="4"/>
-      <c r="K254" s="1"/>
-      <c r="L254" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
+      <c r="L254" s="27"/>
+    </row>
+    <row r="255" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
-      <c r="F255" s="24"/>
+      <c r="F255" s="18"/>
       <c r="G255" s="4"/>
       <c r="H255" s="4"/>
       <c r="I255" s="4"/>
       <c r="J255" s="4"/>
-      <c r="K255" s="1"/>
-      <c r="L255" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
+      <c r="L255" s="27"/>
+    </row>
+    <row r="256" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
-      <c r="F256" s="24"/>
+      <c r="F256" s="18"/>
       <c r="G256" s="4"/>
       <c r="H256" s="4"/>
       <c r="I256" s="4"/>
       <c r="J256" s="4"/>
-      <c r="K256" s="1"/>
-      <c r="L256" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
+      <c r="L256" s="27"/>
+    </row>
+    <row r="257" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
-      <c r="F257" s="24"/>
+      <c r="F257" s="18"/>
       <c r="G257" s="4"/>
       <c r="H257" s="4"/>
       <c r="I257" s="4"/>
       <c r="J257" s="4"/>
-      <c r="K257" s="1"/>
-      <c r="L257" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
+      <c r="L257" s="27"/>
+    </row>
+    <row r="258" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
-      <c r="F258" s="24"/>
+      <c r="F258" s="18"/>
       <c r="G258" s="4"/>
       <c r="H258" s="4"/>
       <c r="I258" s="4"/>
       <c r="J258" s="4"/>
-      <c r="K258" s="1"/>
-      <c r="L258" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
+      <c r="L258" s="27"/>
+    </row>
+    <row r="259" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
-      <c r="F259" s="24"/>
+      <c r="F259" s="18"/>
       <c r="G259" s="4"/>
       <c r="H259" s="4"/>
       <c r="I259" s="4"/>
       <c r="J259" s="4"/>
-      <c r="K259" s="1"/>
-      <c r="L259" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
+      <c r="L259" s="27"/>
+    </row>
+    <row r="260" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
-      <c r="F260" s="24"/>
+      <c r="F260" s="18"/>
       <c r="G260" s="4"/>
       <c r="H260" s="4"/>
       <c r="I260" s="4"/>
       <c r="J260" s="4"/>
-      <c r="K260" s="1"/>
-      <c r="L260" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
+      <c r="L260" s="27"/>
+    </row>
+    <row r="261" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
-      <c r="F261" s="24"/>
+      <c r="F261" s="18"/>
       <c r="G261" s="4"/>
       <c r="H261" s="4"/>
       <c r="I261" s="4"/>
       <c r="J261" s="4"/>
-      <c r="K261" s="1"/>
-      <c r="L261" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
+      <c r="L261" s="27"/>
+    </row>
+    <row r="262" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="1"/>
@@ -4797,38 +4630,35 @@
       <c r="H262" s="4"/>
       <c r="I262" s="4"/>
       <c r="J262" s="4"/>
-      <c r="K262" s="1"/>
-      <c r="L262" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
+      <c r="L262" s="27"/>
+    </row>
+    <row r="263" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="1"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
-      <c r="F263" s="24"/>
+      <c r="F263" s="18"/>
       <c r="G263" s="4"/>
       <c r="H263" s="4"/>
       <c r="I263" s="4"/>
       <c r="J263" s="4"/>
-      <c r="K263" s="1"/>
-      <c r="L263" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
+      <c r="L263" s="27"/>
+    </row>
+    <row r="264" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
-      <c r="F264" s="24"/>
+      <c r="F264" s="18"/>
       <c r="G264" s="4"/>
       <c r="H264" s="4"/>
       <c r="I264" s="4"/>
       <c r="J264" s="4"/>
-      <c r="K264" s="1"/>
-      <c r="L264" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
+      <c r="L264" s="27"/>
+    </row>
+    <row r="265" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -4839,122 +4669,113 @@
       <c r="H265" s="4"/>
       <c r="I265" s="4"/>
       <c r="J265" s="4"/>
-      <c r="K265" s="1"/>
-      <c r="L265" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
+      <c r="L265" s="27"/>
+    </row>
+    <row r="266" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
-      <c r="F266" s="24"/>
+      <c r="F266" s="18"/>
       <c r="G266" s="4"/>
       <c r="H266" s="4"/>
       <c r="I266" s="4"/>
       <c r="J266" s="4"/>
-      <c r="K266" s="1"/>
-      <c r="L266" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
+      <c r="L266" s="27"/>
+    </row>
+    <row r="267" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
-      <c r="F267" s="24"/>
+      <c r="F267" s="18"/>
       <c r="G267" s="4"/>
       <c r="H267" s="4"/>
       <c r="I267" s="4"/>
       <c r="J267" s="4"/>
-      <c r="K267" s="1"/>
-      <c r="L267" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
+      <c r="L267" s="27"/>
+    </row>
+    <row r="268" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
-      <c r="F268" s="24"/>
+      <c r="F268" s="18"/>
       <c r="G268" s="4"/>
       <c r="H268" s="4"/>
       <c r="I268" s="4"/>
       <c r="J268" s="4"/>
-      <c r="K268" s="1"/>
-      <c r="L268" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
+      <c r="L268" s="27"/>
+    </row>
+    <row r="269" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
-      <c r="F269" s="24"/>
+      <c r="F269" s="18"/>
       <c r="G269" s="4"/>
       <c r="H269" s="4"/>
       <c r="I269" s="4"/>
       <c r="J269" s="4"/>
-      <c r="K269" s="1"/>
-      <c r="L269" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
+      <c r="L269" s="27"/>
+    </row>
+    <row r="270" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
-      <c r="F270" s="24"/>
+      <c r="F270" s="18"/>
       <c r="G270" s="4"/>
       <c r="H270" s="4"/>
       <c r="I270" s="4"/>
       <c r="J270" s="4"/>
-      <c r="K270" s="1"/>
-      <c r="L270" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
+      <c r="L270" s="27"/>
+    </row>
+    <row r="271" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
-      <c r="F271" s="24"/>
+      <c r="F271" s="18"/>
       <c r="G271" s="4"/>
       <c r="H271" s="4"/>
       <c r="I271" s="4"/>
       <c r="J271" s="4"/>
-      <c r="K271" s="1"/>
-      <c r="L271" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
+      <c r="L271" s="27"/>
+    </row>
+    <row r="272" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
-      <c r="F272" s="24"/>
+      <c r="F272" s="18"/>
       <c r="G272" s="4"/>
       <c r="H272" s="4"/>
       <c r="I272" s="4"/>
       <c r="J272" s="4"/>
-      <c r="K272" s="1"/>
-      <c r="L272" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75">
+      <c r="L272" s="27"/>
+    </row>
+    <row r="273" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
-      <c r="F273" s="24"/>
+      <c r="F273" s="18"/>
       <c r="G273" s="4"/>
       <c r="H273" s="4"/>
       <c r="I273" s="4"/>
       <c r="J273" s="4"/>
-      <c r="K273" s="1"/>
-      <c r="L273" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
+      <c r="L273" s="27"/>
+    </row>
+    <row r="274" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="1"/>
@@ -4965,38 +4786,35 @@
       <c r="H274" s="4"/>
       <c r="I274" s="4"/>
       <c r="J274" s="4"/>
-      <c r="K274" s="1"/>
-      <c r="L274" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
+      <c r="L274" s="27"/>
+    </row>
+    <row r="275" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="1"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
-      <c r="F275" s="24"/>
+      <c r="F275" s="18"/>
       <c r="G275" s="4"/>
       <c r="H275" s="4"/>
       <c r="I275" s="4"/>
       <c r="J275" s="4"/>
-      <c r="K275" s="1"/>
-      <c r="L275" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
+      <c r="L275" s="27"/>
+    </row>
+    <row r="276" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
-      <c r="F276" s="24"/>
+      <c r="F276" s="18"/>
       <c r="G276" s="4"/>
       <c r="H276" s="4"/>
       <c r="I276" s="4"/>
       <c r="J276" s="4"/>
-      <c r="K276" s="1"/>
-      <c r="L276" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
+      <c r="L276" s="27"/>
+    </row>
+    <row r="277" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -5007,122 +4825,113 @@
       <c r="H277" s="4"/>
       <c r="I277" s="4"/>
       <c r="J277" s="4"/>
-      <c r="K277" s="1"/>
-      <c r="L277" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
+      <c r="L277" s="27"/>
+    </row>
+    <row r="278" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
-      <c r="F278" s="24"/>
+      <c r="F278" s="18"/>
       <c r="G278" s="4"/>
       <c r="H278" s="4"/>
       <c r="I278" s="4"/>
       <c r="J278" s="4"/>
-      <c r="K278" s="1"/>
-      <c r="L278" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75">
+      <c r="L278" s="27"/>
+    </row>
+    <row r="279" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
-      <c r="F279" s="24"/>
+      <c r="F279" s="18"/>
       <c r="G279" s="4"/>
       <c r="H279" s="4"/>
       <c r="I279" s="4"/>
       <c r="J279" s="4"/>
-      <c r="K279" s="1"/>
-      <c r="L279" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75">
+      <c r="L279" s="27"/>
+    </row>
+    <row r="280" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
-      <c r="F280" s="24"/>
+      <c r="F280" s="18"/>
       <c r="G280" s="4"/>
       <c r="H280" s="4"/>
       <c r="I280" s="4"/>
       <c r="J280" s="4"/>
-      <c r="K280" s="1"/>
-      <c r="L280" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75">
+      <c r="L280" s="27"/>
+    </row>
+    <row r="281" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
-      <c r="F281" s="24"/>
+      <c r="F281" s="18"/>
       <c r="G281" s="4"/>
       <c r="H281" s="4"/>
       <c r="I281" s="4"/>
       <c r="J281" s="4"/>
-      <c r="K281" s="1"/>
-      <c r="L281" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75">
+      <c r="L281" s="27"/>
+    </row>
+    <row r="282" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
-      <c r="F282" s="24"/>
+      <c r="F282" s="18"/>
       <c r="G282" s="4"/>
       <c r="H282" s="4"/>
       <c r="I282" s="4"/>
       <c r="J282" s="4"/>
-      <c r="K282" s="1"/>
-      <c r="L282" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75">
+      <c r="L282" s="27"/>
+    </row>
+    <row r="283" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
-      <c r="F283" s="24"/>
+      <c r="F283" s="18"/>
       <c r="G283" s="4"/>
       <c r="H283" s="4"/>
       <c r="I283" s="4"/>
       <c r="J283" s="4"/>
-      <c r="K283" s="1"/>
-      <c r="L283" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75">
+      <c r="L283" s="27"/>
+    </row>
+    <row r="284" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
-      <c r="F284" s="24"/>
+      <c r="F284" s="18"/>
       <c r="G284" s="4"/>
       <c r="H284" s="4"/>
       <c r="I284" s="4"/>
       <c r="J284" s="4"/>
-      <c r="K284" s="1"/>
-      <c r="L284" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75">
+      <c r="L284" s="27"/>
+    </row>
+    <row r="285" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
-      <c r="F285" s="24"/>
+      <c r="F285" s="18"/>
       <c r="G285" s="4"/>
       <c r="H285" s="4"/>
       <c r="I285" s="4"/>
       <c r="J285" s="4"/>
-      <c r="K285" s="1"/>
-      <c r="L285" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75">
+      <c r="L285" s="27"/>
+    </row>
+    <row r="286" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="1"/>
@@ -5133,38 +4942,35 @@
       <c r="H286" s="4"/>
       <c r="I286" s="4"/>
       <c r="J286" s="4"/>
-      <c r="K286" s="1"/>
-      <c r="L286" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75">
+      <c r="L286" s="27"/>
+    </row>
+    <row r="287" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="1"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
-      <c r="F287" s="24"/>
+      <c r="F287" s="18"/>
       <c r="G287" s="4"/>
       <c r="H287" s="4"/>
       <c r="I287" s="4"/>
       <c r="J287" s="4"/>
-      <c r="K287" s="1"/>
-      <c r="L287" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75">
+      <c r="L287" s="27"/>
+    </row>
+    <row r="288" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
-      <c r="F288" s="24"/>
+      <c r="F288" s="18"/>
       <c r="G288" s="4"/>
       <c r="H288" s="4"/>
       <c r="I288" s="4"/>
       <c r="J288" s="4"/>
-      <c r="K288" s="1"/>
-      <c r="L288" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75">
+      <c r="L288" s="27"/>
+    </row>
+    <row r="289" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -5175,122 +4981,113 @@
       <c r="H289" s="4"/>
       <c r="I289" s="4"/>
       <c r="J289" s="4"/>
-      <c r="K289" s="1"/>
-      <c r="L289" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75">
+      <c r="L289" s="27"/>
+    </row>
+    <row r="290" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
-      <c r="F290" s="24"/>
+      <c r="F290" s="18"/>
       <c r="G290" s="4"/>
       <c r="H290" s="4"/>
       <c r="I290" s="4"/>
       <c r="J290" s="4"/>
-      <c r="K290" s="1"/>
-      <c r="L290" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75">
+      <c r="L290" s="27"/>
+    </row>
+    <row r="291" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
-      <c r="F291" s="24"/>
+      <c r="F291" s="18"/>
       <c r="G291" s="4"/>
       <c r="H291" s="4"/>
       <c r="I291" s="4"/>
       <c r="J291" s="4"/>
-      <c r="K291" s="1"/>
-      <c r="L291" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75">
+      <c r="L291" s="27"/>
+    </row>
+    <row r="292" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
-      <c r="F292" s="24"/>
+      <c r="F292" s="18"/>
       <c r="G292" s="4"/>
       <c r="H292" s="4"/>
       <c r="I292" s="4"/>
       <c r="J292" s="4"/>
-      <c r="K292" s="1"/>
-      <c r="L292" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75">
+      <c r="L292" s="27"/>
+    </row>
+    <row r="293" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
-      <c r="F293" s="24"/>
+      <c r="F293" s="18"/>
       <c r="G293" s="4"/>
       <c r="H293" s="4"/>
       <c r="I293" s="4"/>
       <c r="J293" s="4"/>
-      <c r="K293" s="1"/>
-      <c r="L293" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75">
+      <c r="L293" s="27"/>
+    </row>
+    <row r="294" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
-      <c r="F294" s="24"/>
+      <c r="F294" s="18"/>
       <c r="G294" s="4"/>
       <c r="H294" s="4"/>
       <c r="I294" s="4"/>
       <c r="J294" s="4"/>
-      <c r="K294" s="1"/>
-      <c r="L294" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75">
+      <c r="L294" s="27"/>
+    </row>
+    <row r="295" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
-      <c r="F295" s="24"/>
+      <c r="F295" s="18"/>
       <c r="G295" s="4"/>
       <c r="H295" s="4"/>
       <c r="I295" s="4"/>
       <c r="J295" s="4"/>
-      <c r="K295" s="1"/>
-      <c r="L295" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75">
+      <c r="L295" s="27"/>
+    </row>
+    <row r="296" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
-      <c r="F296" s="24"/>
+      <c r="F296" s="18"/>
       <c r="G296" s="4"/>
       <c r="H296" s="4"/>
       <c r="I296" s="4"/>
       <c r="J296" s="4"/>
-      <c r="K296" s="1"/>
-      <c r="L296" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75">
+      <c r="L296" s="27"/>
+    </row>
+    <row r="297" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
-      <c r="F297" s="24"/>
+      <c r="F297" s="18"/>
       <c r="G297" s="4"/>
       <c r="H297" s="4"/>
       <c r="I297" s="4"/>
       <c r="J297" s="4"/>
-      <c r="K297" s="1"/>
-      <c r="L297" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75">
+      <c r="L297" s="27"/>
+    </row>
+    <row r="298" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="1"/>
@@ -5301,38 +5098,35 @@
       <c r="H298" s="4"/>
       <c r="I298" s="4"/>
       <c r="J298" s="4"/>
-      <c r="K298" s="1"/>
-      <c r="L298" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75">
+      <c r="L298" s="27"/>
+    </row>
+    <row r="299" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="1"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
-      <c r="F299" s="24"/>
+      <c r="F299" s="18"/>
       <c r="G299" s="4"/>
       <c r="H299" s="4"/>
       <c r="I299" s="4"/>
       <c r="J299" s="4"/>
-      <c r="K299" s="1"/>
-      <c r="L299" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75">
+      <c r="L299" s="27"/>
+    </row>
+    <row r="300" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
-      <c r="F300" s="24"/>
+      <c r="F300" s="18"/>
       <c r="G300" s="4"/>
       <c r="H300" s="4"/>
       <c r="I300" s="4"/>
       <c r="J300" s="4"/>
-      <c r="K300" s="1"/>
-      <c r="L300" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75">
+      <c r="L300" s="27"/>
+    </row>
+    <row r="301" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -5343,122 +5137,113 @@
       <c r="H301" s="4"/>
       <c r="I301" s="4"/>
       <c r="J301" s="4"/>
-      <c r="K301" s="1"/>
-      <c r="L301" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75">
+      <c r="L301" s="27"/>
+    </row>
+    <row r="302" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
-      <c r="F302" s="24"/>
+      <c r="F302" s="18"/>
       <c r="G302" s="4"/>
       <c r="H302" s="4"/>
       <c r="I302" s="4"/>
       <c r="J302" s="4"/>
-      <c r="K302" s="1"/>
-      <c r="L302" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75">
+      <c r="L302" s="27"/>
+    </row>
+    <row r="303" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
-      <c r="F303" s="24"/>
+      <c r="F303" s="18"/>
       <c r="G303" s="4"/>
       <c r="H303" s="4"/>
       <c r="I303" s="4"/>
       <c r="J303" s="4"/>
-      <c r="K303" s="1"/>
-      <c r="L303" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75">
+      <c r="L303" s="27"/>
+    </row>
+    <row r="304" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
-      <c r="F304" s="24"/>
+      <c r="F304" s="18"/>
       <c r="G304" s="4"/>
       <c r="H304" s="4"/>
       <c r="I304" s="4"/>
       <c r="J304" s="4"/>
-      <c r="K304" s="1"/>
-      <c r="L304" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75">
+      <c r="L304" s="27"/>
+    </row>
+    <row r="305" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
-      <c r="F305" s="24"/>
+      <c r="F305" s="18"/>
       <c r="G305" s="4"/>
       <c r="H305" s="4"/>
       <c r="I305" s="4"/>
       <c r="J305" s="4"/>
-      <c r="K305" s="1"/>
-      <c r="L305" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75">
+      <c r="L305" s="27"/>
+    </row>
+    <row r="306" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
-      <c r="F306" s="24"/>
+      <c r="F306" s="18"/>
       <c r="G306" s="4"/>
       <c r="H306" s="4"/>
       <c r="I306" s="4"/>
       <c r="J306" s="4"/>
-      <c r="K306" s="1"/>
-      <c r="L306" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75">
+      <c r="L306" s="27"/>
+    </row>
+    <row r="307" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
-      <c r="F307" s="24"/>
+      <c r="F307" s="18"/>
       <c r="G307" s="4"/>
       <c r="H307" s="4"/>
       <c r="I307" s="4"/>
       <c r="J307" s="4"/>
-      <c r="K307" s="1"/>
-      <c r="L307" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75">
+      <c r="L307" s="27"/>
+    </row>
+    <row r="308" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
-      <c r="F308" s="24"/>
+      <c r="F308" s="18"/>
       <c r="G308" s="4"/>
       <c r="H308" s="4"/>
       <c r="I308" s="4"/>
       <c r="J308" s="4"/>
-      <c r="K308" s="1"/>
-      <c r="L308" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75">
+      <c r="L308" s="27"/>
+    </row>
+    <row r="309" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
-      <c r="F309" s="24"/>
+      <c r="F309" s="18"/>
       <c r="G309" s="4"/>
       <c r="H309" s="4"/>
       <c r="I309" s="4"/>
       <c r="J309" s="4"/>
-      <c r="K309" s="1"/>
-      <c r="L309" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75">
+      <c r="L309" s="27"/>
+    </row>
+    <row r="310" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="1"/>
@@ -5469,38 +5254,35 @@
       <c r="H310" s="4"/>
       <c r="I310" s="4"/>
       <c r="J310" s="4"/>
-      <c r="K310" s="1"/>
-      <c r="L310" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75">
+      <c r="L310" s="27"/>
+    </row>
+    <row r="311" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="1"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
-      <c r="F311" s="24"/>
+      <c r="F311" s="18"/>
       <c r="G311" s="4"/>
       <c r="H311" s="4"/>
       <c r="I311" s="4"/>
       <c r="J311" s="4"/>
-      <c r="K311" s="1"/>
-      <c r="L311" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75">
+      <c r="L311" s="27"/>
+    </row>
+    <row r="312" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
-      <c r="F312" s="24"/>
+      <c r="F312" s="18"/>
       <c r="G312" s="4"/>
       <c r="H312" s="4"/>
       <c r="I312" s="4"/>
       <c r="J312" s="4"/>
-      <c r="K312" s="1"/>
-      <c r="L312" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75">
+      <c r="L312" s="27"/>
+    </row>
+    <row r="313" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -5511,122 +5293,113 @@
       <c r="H313" s="4"/>
       <c r="I313" s="4"/>
       <c r="J313" s="4"/>
-      <c r="K313" s="1"/>
-      <c r="L313" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75">
+      <c r="L313" s="27"/>
+    </row>
+    <row r="314" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
-      <c r="F314" s="24"/>
+      <c r="F314" s="18"/>
       <c r="G314" s="4"/>
       <c r="H314" s="4"/>
       <c r="I314" s="4"/>
       <c r="J314" s="4"/>
-      <c r="K314" s="1"/>
-      <c r="L314" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75">
+      <c r="L314" s="27"/>
+    </row>
+    <row r="315" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
-      <c r="F315" s="24"/>
+      <c r="F315" s="18"/>
       <c r="G315" s="4"/>
       <c r="H315" s="4"/>
       <c r="I315" s="4"/>
       <c r="J315" s="4"/>
-      <c r="K315" s="1"/>
-      <c r="L315" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75">
+      <c r="L315" s="27"/>
+    </row>
+    <row r="316" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
-      <c r="F316" s="24"/>
+      <c r="F316" s="18"/>
       <c r="G316" s="4"/>
       <c r="H316" s="4"/>
       <c r="I316" s="4"/>
       <c r="J316" s="4"/>
-      <c r="K316" s="1"/>
-      <c r="L316" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75">
+      <c r="L316" s="27"/>
+    </row>
+    <row r="317" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
-      <c r="F317" s="24"/>
+      <c r="F317" s="18"/>
       <c r="G317" s="4"/>
       <c r="H317" s="4"/>
       <c r="I317" s="4"/>
       <c r="J317" s="4"/>
-      <c r="K317" s="1"/>
-      <c r="L317" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75">
+      <c r="L317" s="27"/>
+    </row>
+    <row r="318" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
-      <c r="F318" s="24"/>
+      <c r="F318" s="18"/>
       <c r="G318" s="4"/>
       <c r="H318" s="4"/>
       <c r="I318" s="4"/>
       <c r="J318" s="4"/>
-      <c r="K318" s="1"/>
-      <c r="L318" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75">
+      <c r="L318" s="27"/>
+    </row>
+    <row r="319" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
-      <c r="F319" s="24"/>
+      <c r="F319" s="18"/>
       <c r="G319" s="4"/>
       <c r="H319" s="4"/>
       <c r="I319" s="4"/>
       <c r="J319" s="4"/>
-      <c r="K319" s="1"/>
-      <c r="L319" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75">
+      <c r="L319" s="27"/>
+    </row>
+    <row r="320" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
-      <c r="F320" s="24"/>
+      <c r="F320" s="18"/>
       <c r="G320" s="4"/>
       <c r="H320" s="4"/>
       <c r="I320" s="4"/>
       <c r="J320" s="4"/>
-      <c r="K320" s="1"/>
-      <c r="L320" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75">
+      <c r="L320" s="27"/>
+    </row>
+    <row r="321" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
-      <c r="F321" s="24"/>
+      <c r="F321" s="18"/>
       <c r="G321" s="4"/>
       <c r="H321" s="4"/>
       <c r="I321" s="4"/>
       <c r="J321" s="4"/>
-      <c r="K321" s="1"/>
-      <c r="L321" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75">
+      <c r="L321" s="27"/>
+    </row>
+    <row r="322" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="1"/>
@@ -5637,38 +5410,35 @@
       <c r="H322" s="4"/>
       <c r="I322" s="4"/>
       <c r="J322" s="4"/>
-      <c r="K322" s="1"/>
-      <c r="L322" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75">
+      <c r="L322" s="27"/>
+    </row>
+    <row r="323" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="1"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
-      <c r="F323" s="24"/>
+      <c r="F323" s="18"/>
       <c r="G323" s="4"/>
       <c r="H323" s="4"/>
       <c r="I323" s="4"/>
       <c r="J323" s="4"/>
-      <c r="K323" s="1"/>
-      <c r="L323" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75">
+      <c r="L323" s="27"/>
+    </row>
+    <row r="324" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
-      <c r="F324" s="24"/>
+      <c r="F324" s="18"/>
       <c r="G324" s="4"/>
       <c r="H324" s="4"/>
       <c r="I324" s="4"/>
       <c r="J324" s="4"/>
-      <c r="K324" s="1"/>
-      <c r="L324" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75">
+      <c r="L324" s="27"/>
+    </row>
+    <row r="325" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -5679,122 +5449,113 @@
       <c r="H325" s="4"/>
       <c r="I325" s="4"/>
       <c r="J325" s="4"/>
-      <c r="K325" s="1"/>
-      <c r="L325" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75">
+      <c r="L325" s="27"/>
+    </row>
+    <row r="326" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
-      <c r="F326" s="24"/>
+      <c r="F326" s="18"/>
       <c r="G326" s="4"/>
       <c r="H326" s="4"/>
       <c r="I326" s="4"/>
       <c r="J326" s="4"/>
-      <c r="K326" s="1"/>
-      <c r="L326" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75">
+      <c r="L326" s="27"/>
+    </row>
+    <row r="327" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
-      <c r="F327" s="24"/>
+      <c r="F327" s="18"/>
       <c r="G327" s="4"/>
       <c r="H327" s="4"/>
       <c r="I327" s="4"/>
       <c r="J327" s="4"/>
-      <c r="K327" s="1"/>
-      <c r="L327" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75">
+      <c r="L327" s="27"/>
+    </row>
+    <row r="328" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
-      <c r="F328" s="24"/>
+      <c r="F328" s="18"/>
       <c r="G328" s="4"/>
       <c r="H328" s="4"/>
       <c r="I328" s="4"/>
       <c r="J328" s="4"/>
-      <c r="K328" s="1"/>
-      <c r="L328" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75">
+      <c r="L328" s="27"/>
+    </row>
+    <row r="329" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
-      <c r="F329" s="24"/>
+      <c r="F329" s="18"/>
       <c r="G329" s="4"/>
       <c r="H329" s="4"/>
       <c r="I329" s="4"/>
       <c r="J329" s="4"/>
-      <c r="K329" s="1"/>
-      <c r="L329" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75">
+      <c r="L329" s="27"/>
+    </row>
+    <row r="330" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
-      <c r="F330" s="24"/>
+      <c r="F330" s="18"/>
       <c r="G330" s="4"/>
       <c r="H330" s="4"/>
       <c r="I330" s="4"/>
       <c r="J330" s="4"/>
-      <c r="K330" s="1"/>
-      <c r="L330" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75">
+      <c r="L330" s="27"/>
+    </row>
+    <row r="331" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
-      <c r="F331" s="24"/>
+      <c r="F331" s="18"/>
       <c r="G331" s="4"/>
       <c r="H331" s="4"/>
       <c r="I331" s="4"/>
       <c r="J331" s="4"/>
-      <c r="K331" s="1"/>
-      <c r="L331" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75">
+      <c r="L331" s="27"/>
+    </row>
+    <row r="332" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
-      <c r="F332" s="24"/>
+      <c r="F332" s="18"/>
       <c r="G332" s="4"/>
       <c r="H332" s="4"/>
       <c r="I332" s="4"/>
       <c r="J332" s="4"/>
-      <c r="K332" s="1"/>
-      <c r="L332" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18.75">
+      <c r="L332" s="27"/>
+    </row>
+    <row r="333" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
-      <c r="F333" s="24"/>
+      <c r="F333" s="18"/>
       <c r="G333" s="4"/>
       <c r="H333" s="4"/>
       <c r="I333" s="4"/>
       <c r="J333" s="4"/>
-      <c r="K333" s="1"/>
-      <c r="L333" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18.75">
+      <c r="L333" s="27"/>
+    </row>
+    <row r="334" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="1"/>
@@ -5805,38 +5566,35 @@
       <c r="H334" s="4"/>
       <c r="I334" s="4"/>
       <c r="J334" s="4"/>
-      <c r="K334" s="1"/>
-      <c r="L334" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18.75">
+      <c r="L334" s="27"/>
+    </row>
+    <row r="335" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="1"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
-      <c r="F335" s="24"/>
+      <c r="F335" s="18"/>
       <c r="G335" s="4"/>
       <c r="H335" s="4"/>
       <c r="I335" s="4"/>
       <c r="J335" s="4"/>
-      <c r="K335" s="1"/>
-      <c r="L335" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75">
+      <c r="L335" s="27"/>
+    </row>
+    <row r="336" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
-      <c r="F336" s="24"/>
+      <c r="F336" s="18"/>
       <c r="G336" s="4"/>
       <c r="H336" s="4"/>
       <c r="I336" s="4"/>
       <c r="J336" s="4"/>
-      <c r="K336" s="1"/>
-      <c r="L336" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75">
+      <c r="L336" s="27"/>
+    </row>
+    <row r="337" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -5847,122 +5605,113 @@
       <c r="H337" s="4"/>
       <c r="I337" s="4"/>
       <c r="J337" s="4"/>
-      <c r="K337" s="1"/>
-      <c r="L337" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18.75">
+      <c r="L337" s="27"/>
+    </row>
+    <row r="338" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
-      <c r="F338" s="24"/>
+      <c r="F338" s="18"/>
       <c r="G338" s="4"/>
       <c r="H338" s="4"/>
       <c r="I338" s="4"/>
       <c r="J338" s="4"/>
-      <c r="K338" s="1"/>
-      <c r="L338" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75">
+      <c r="L338" s="27"/>
+    </row>
+    <row r="339" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
-      <c r="F339" s="24"/>
+      <c r="F339" s="18"/>
       <c r="G339" s="4"/>
       <c r="H339" s="4"/>
       <c r="I339" s="4"/>
       <c r="J339" s="4"/>
-      <c r="K339" s="1"/>
-      <c r="L339" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75">
+      <c r="L339" s="27"/>
+    </row>
+    <row r="340" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
-      <c r="F340" s="24"/>
+      <c r="F340" s="18"/>
       <c r="G340" s="4"/>
       <c r="H340" s="4"/>
       <c r="I340" s="4"/>
       <c r="J340" s="4"/>
-      <c r="K340" s="1"/>
-      <c r="L340" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18.75">
+      <c r="L340" s="27"/>
+    </row>
+    <row r="341" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
-      <c r="F341" s="24"/>
+      <c r="F341" s="18"/>
       <c r="G341" s="4"/>
       <c r="H341" s="4"/>
       <c r="I341" s="4"/>
       <c r="J341" s="4"/>
-      <c r="K341" s="1"/>
-      <c r="L341" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18.75">
+      <c r="L341" s="27"/>
+    </row>
+    <row r="342" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
-      <c r="F342" s="24"/>
+      <c r="F342" s="18"/>
       <c r="G342" s="4"/>
       <c r="H342" s="4"/>
       <c r="I342" s="4"/>
       <c r="J342" s="4"/>
-      <c r="K342" s="1"/>
-      <c r="L342" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18.75">
+      <c r="L342" s="27"/>
+    </row>
+    <row r="343" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
-      <c r="F343" s="24"/>
+      <c r="F343" s="18"/>
       <c r="G343" s="4"/>
       <c r="H343" s="4"/>
       <c r="I343" s="4"/>
       <c r="J343" s="4"/>
-      <c r="K343" s="1"/>
-      <c r="L343" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18.75">
+      <c r="L343" s="27"/>
+    </row>
+    <row r="344" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="4"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
-      <c r="F344" s="24"/>
+      <c r="F344" s="18"/>
       <c r="G344" s="4"/>
       <c r="H344" s="4"/>
       <c r="I344" s="4"/>
       <c r="J344" s="4"/>
-      <c r="K344" s="1"/>
-      <c r="L344" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18.75">
+      <c r="L344" s="27"/>
+    </row>
+    <row r="345" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
-      <c r="F345" s="24"/>
+      <c r="F345" s="18"/>
       <c r="G345" s="4"/>
       <c r="H345" s="4"/>
       <c r="I345" s="4"/>
       <c r="J345" s="4"/>
-      <c r="K345" s="1"/>
-      <c r="L345" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18.75">
+      <c r="L345" s="27"/>
+    </row>
+    <row r="346" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="1"/>
@@ -5973,38 +5722,35 @@
       <c r="H346" s="4"/>
       <c r="I346" s="4"/>
       <c r="J346" s="4"/>
-      <c r="K346" s="1"/>
-      <c r="L346" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18.75">
+      <c r="L346" s="27"/>
+    </row>
+    <row r="347" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="1"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
-      <c r="F347" s="24"/>
+      <c r="F347" s="18"/>
       <c r="G347" s="4"/>
       <c r="H347" s="4"/>
       <c r="I347" s="4"/>
       <c r="J347" s="4"/>
-      <c r="K347" s="1"/>
-      <c r="L347" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18.75">
+      <c r="L347" s="27"/>
+    </row>
+    <row r="348" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
-      <c r="F348" s="24"/>
+      <c r="F348" s="18"/>
       <c r="G348" s="4"/>
       <c r="H348" s="4"/>
       <c r="I348" s="4"/>
       <c r="J348" s="4"/>
-      <c r="K348" s="1"/>
-      <c r="L348" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18.75">
+      <c r="L348" s="27"/>
+    </row>
+    <row r="349" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -6015,122 +5761,113 @@
       <c r="H349" s="4"/>
       <c r="I349" s="4"/>
       <c r="J349" s="4"/>
-      <c r="K349" s="1"/>
-      <c r="L349" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18.75">
+      <c r="L349" s="27"/>
+    </row>
+    <row r="350" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
-      <c r="F350" s="24"/>
+      <c r="F350" s="18"/>
       <c r="G350" s="4"/>
       <c r="H350" s="4"/>
       <c r="I350" s="4"/>
       <c r="J350" s="4"/>
-      <c r="K350" s="1"/>
-      <c r="L350" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18.75">
+      <c r="L350" s="27"/>
+    </row>
+    <row r="351" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
-      <c r="F351" s="24"/>
+      <c r="F351" s="18"/>
       <c r="G351" s="4"/>
       <c r="H351" s="4"/>
       <c r="I351" s="4"/>
       <c r="J351" s="4"/>
-      <c r="K351" s="1"/>
-      <c r="L351" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18.75">
+      <c r="L351" s="27"/>
+    </row>
+    <row r="352" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
-      <c r="F352" s="24"/>
+      <c r="F352" s="18"/>
       <c r="G352" s="4"/>
       <c r="H352" s="4"/>
       <c r="I352" s="4"/>
       <c r="J352" s="4"/>
-      <c r="K352" s="1"/>
-      <c r="L352" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18.75">
+      <c r="L352" s="27"/>
+    </row>
+    <row r="353" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
-      <c r="F353" s="24"/>
+      <c r="F353" s="18"/>
       <c r="G353" s="4"/>
       <c r="H353" s="4"/>
       <c r="I353" s="4"/>
       <c r="J353" s="4"/>
-      <c r="K353" s="1"/>
-      <c r="L353" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18.75">
+      <c r="L353" s="27"/>
+    </row>
+    <row r="354" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
-      <c r="F354" s="24"/>
+      <c r="F354" s="18"/>
       <c r="G354" s="4"/>
       <c r="H354" s="4"/>
       <c r="I354" s="4"/>
       <c r="J354" s="4"/>
-      <c r="K354" s="1"/>
-      <c r="L354" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18.75">
+      <c r="L354" s="27"/>
+    </row>
+    <row r="355" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
-      <c r="F355" s="24"/>
+      <c r="F355" s="18"/>
       <c r="G355" s="4"/>
       <c r="H355" s="4"/>
       <c r="I355" s="4"/>
       <c r="J355" s="4"/>
-      <c r="K355" s="1"/>
-      <c r="L355" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18.75">
+      <c r="L355" s="27"/>
+    </row>
+    <row r="356" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="4"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
-      <c r="F356" s="24"/>
+      <c r="F356" s="18"/>
       <c r="G356" s="4"/>
       <c r="H356" s="4"/>
       <c r="I356" s="4"/>
       <c r="J356" s="4"/>
-      <c r="K356" s="1"/>
-      <c r="L356" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18.75">
+      <c r="L356" s="27"/>
+    </row>
+    <row r="357" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
-      <c r="F357" s="24"/>
+      <c r="F357" s="18"/>
       <c r="G357" s="4"/>
       <c r="H357" s="4"/>
       <c r="I357" s="4"/>
       <c r="J357" s="4"/>
-      <c r="K357" s="1"/>
-      <c r="L357" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18.75">
+      <c r="L357" s="27"/>
+    </row>
+    <row r="358" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="1"/>
@@ -6141,38 +5878,35 @@
       <c r="H358" s="4"/>
       <c r="I358" s="4"/>
       <c r="J358" s="4"/>
-      <c r="K358" s="1"/>
-      <c r="L358" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18.75">
+      <c r="L358" s="27"/>
+    </row>
+    <row r="359" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="1"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
-      <c r="F359" s="24"/>
+      <c r="F359" s="18"/>
       <c r="G359" s="4"/>
       <c r="H359" s="4"/>
       <c r="I359" s="4"/>
       <c r="J359" s="4"/>
-      <c r="K359" s="1"/>
-      <c r="L359" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18.75">
+      <c r="L359" s="27"/>
+    </row>
+    <row r="360" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
-      <c r="F360" s="24"/>
+      <c r="F360" s="18"/>
       <c r="G360" s="4"/>
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
       <c r="J360" s="4"/>
-      <c r="K360" s="1"/>
-      <c r="L360" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18.75">
+      <c r="L360" s="27"/>
+    </row>
+    <row r="361" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -6183,122 +5917,113 @@
       <c r="H361" s="4"/>
       <c r="I361" s="4"/>
       <c r="J361" s="4"/>
-      <c r="K361" s="1"/>
-      <c r="L361" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18.75">
+      <c r="L361" s="27"/>
+    </row>
+    <row r="362" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
-      <c r="F362" s="24"/>
+      <c r="F362" s="18"/>
       <c r="G362" s="4"/>
       <c r="H362" s="4"/>
       <c r="I362" s="4"/>
       <c r="J362" s="4"/>
-      <c r="K362" s="1"/>
-      <c r="L362" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18.75">
+      <c r="L362" s="27"/>
+    </row>
+    <row r="363" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
-      <c r="F363" s="24"/>
+      <c r="F363" s="18"/>
       <c r="G363" s="4"/>
       <c r="H363" s="4"/>
       <c r="I363" s="4"/>
       <c r="J363" s="4"/>
-      <c r="K363" s="1"/>
-      <c r="L363" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18.75">
+      <c r="L363" s="27"/>
+    </row>
+    <row r="364" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
-      <c r="F364" s="24"/>
+      <c r="F364" s="18"/>
       <c r="G364" s="4"/>
       <c r="H364" s="4"/>
       <c r="I364" s="4"/>
       <c r="J364" s="4"/>
-      <c r="K364" s="1"/>
-      <c r="L364" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18.75">
+      <c r="L364" s="27"/>
+    </row>
+    <row r="365" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
-      <c r="F365" s="24"/>
+      <c r="F365" s="18"/>
       <c r="G365" s="4"/>
       <c r="H365" s="4"/>
       <c r="I365" s="4"/>
       <c r="J365" s="4"/>
-      <c r="K365" s="1"/>
-      <c r="L365" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18.75">
+      <c r="L365" s="27"/>
+    </row>
+    <row r="366" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
-      <c r="F366" s="24"/>
+      <c r="F366" s="18"/>
       <c r="G366" s="4"/>
       <c r="H366" s="4"/>
       <c r="I366" s="4"/>
       <c r="J366" s="4"/>
-      <c r="K366" s="1"/>
-      <c r="L366" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18.75">
+      <c r="L366" s="27"/>
+    </row>
+    <row r="367" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
-      <c r="F367" s="24"/>
+      <c r="F367" s="18"/>
       <c r="G367" s="4"/>
       <c r="H367" s="4"/>
       <c r="I367" s="4"/>
       <c r="J367" s="4"/>
-      <c r="K367" s="1"/>
-      <c r="L367" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18.75">
+      <c r="L367" s="27"/>
+    </row>
+    <row r="368" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="4"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
-      <c r="F368" s="24"/>
+      <c r="F368" s="18"/>
       <c r="G368" s="4"/>
       <c r="H368" s="4"/>
       <c r="I368" s="4"/>
       <c r="J368" s="4"/>
-      <c r="K368" s="1"/>
-      <c r="L368" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18.75">
+      <c r="L368" s="27"/>
+    </row>
+    <row r="369" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
-      <c r="F369" s="24"/>
+      <c r="F369" s="18"/>
       <c r="G369" s="4"/>
       <c r="H369" s="4"/>
       <c r="I369" s="4"/>
       <c r="J369" s="4"/>
-      <c r="K369" s="1"/>
-      <c r="L369" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="18.75">
+      <c r="L369" s="27"/>
+    </row>
+    <row r="370" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="1"/>
@@ -6309,38 +6034,35 @@
       <c r="H370" s="4"/>
       <c r="I370" s="4"/>
       <c r="J370" s="4"/>
-      <c r="K370" s="1"/>
-      <c r="L370" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18.75">
+      <c r="L370" s="27"/>
+    </row>
+    <row r="371" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="1"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
-      <c r="F371" s="24"/>
+      <c r="F371" s="18"/>
       <c r="G371" s="4"/>
       <c r="H371" s="4"/>
       <c r="I371" s="4"/>
       <c r="J371" s="4"/>
-      <c r="K371" s="1"/>
-      <c r="L371" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18.75">
+      <c r="L371" s="27"/>
+    </row>
+    <row r="372" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
-      <c r="F372" s="24"/>
+      <c r="F372" s="18"/>
       <c r="G372" s="4"/>
       <c r="H372" s="4"/>
       <c r="I372" s="4"/>
       <c r="J372" s="4"/>
-      <c r="K372" s="1"/>
-      <c r="L372" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18.75">
+      <c r="L372" s="27"/>
+    </row>
+    <row r="373" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -6351,122 +6073,113 @@
       <c r="H373" s="4"/>
       <c r="I373" s="4"/>
       <c r="J373" s="4"/>
-      <c r="K373" s="1"/>
-      <c r="L373" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18.75">
+      <c r="L373" s="27"/>
+    </row>
+    <row r="374" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
-      <c r="F374" s="24"/>
+      <c r="F374" s="18"/>
       <c r="G374" s="4"/>
       <c r="H374" s="4"/>
       <c r="I374" s="4"/>
       <c r="J374" s="4"/>
-      <c r="K374" s="1"/>
-      <c r="L374" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18.75">
+      <c r="L374" s="27"/>
+    </row>
+    <row r="375" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
-      <c r="F375" s="24"/>
+      <c r="F375" s="18"/>
       <c r="G375" s="4"/>
       <c r="H375" s="4"/>
       <c r="I375" s="4"/>
       <c r="J375" s="4"/>
-      <c r="K375" s="1"/>
-      <c r="L375" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18.75">
+      <c r="L375" s="27"/>
+    </row>
+    <row r="376" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
-      <c r="F376" s="24"/>
+      <c r="F376" s="18"/>
       <c r="G376" s="4"/>
       <c r="H376" s="4"/>
       <c r="I376" s="4"/>
       <c r="J376" s="4"/>
-      <c r="K376" s="1"/>
-      <c r="L376" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18.75">
+      <c r="L376" s="27"/>
+    </row>
+    <row r="377" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
-      <c r="F377" s="24"/>
+      <c r="F377" s="18"/>
       <c r="G377" s="4"/>
       <c r="H377" s="4"/>
       <c r="I377" s="4"/>
       <c r="J377" s="4"/>
-      <c r="K377" s="1"/>
-      <c r="L377" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18.75">
+      <c r="L377" s="27"/>
+    </row>
+    <row r="378" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
-      <c r="F378" s="24"/>
+      <c r="F378" s="18"/>
       <c r="G378" s="4"/>
       <c r="H378" s="4"/>
       <c r="I378" s="4"/>
       <c r="J378" s="4"/>
-      <c r="K378" s="1"/>
-      <c r="L378" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18.75">
+      <c r="L378" s="27"/>
+    </row>
+    <row r="379" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
-      <c r="F379" s="24"/>
+      <c r="F379" s="18"/>
       <c r="G379" s="4"/>
       <c r="H379" s="4"/>
       <c r="I379" s="4"/>
       <c r="J379" s="4"/>
-      <c r="K379" s="1"/>
-      <c r="L379" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18.75">
+      <c r="L379" s="27"/>
+    </row>
+    <row r="380" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="4"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
-      <c r="F380" s="24"/>
+      <c r="F380" s="18"/>
       <c r="G380" s="4"/>
       <c r="H380" s="4"/>
       <c r="I380" s="4"/>
       <c r="J380" s="4"/>
-      <c r="K380" s="1"/>
-      <c r="L380" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18.75">
+      <c r="L380" s="27"/>
+    </row>
+    <row r="381" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
-      <c r="F381" s="24"/>
+      <c r="F381" s="18"/>
       <c r="G381" s="4"/>
       <c r="H381" s="4"/>
       <c r="I381" s="4"/>
       <c r="J381" s="4"/>
-      <c r="K381" s="1"/>
-      <c r="L381" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18.75">
+      <c r="L381" s="27"/>
+    </row>
+    <row r="382" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="1"/>
@@ -6477,38 +6190,35 @@
       <c r="H382" s="4"/>
       <c r="I382" s="4"/>
       <c r="J382" s="4"/>
-      <c r="K382" s="1"/>
-      <c r="L382" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18.75">
+      <c r="L382" s="27"/>
+    </row>
+    <row r="383" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="1"/>
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
-      <c r="F383" s="24"/>
+      <c r="F383" s="18"/>
       <c r="G383" s="4"/>
       <c r="H383" s="4"/>
       <c r="I383" s="4"/>
       <c r="J383" s="4"/>
-      <c r="K383" s="1"/>
-      <c r="L383" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18.75">
+      <c r="L383" s="27"/>
+    </row>
+    <row r="384" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
-      <c r="F384" s="24"/>
+      <c r="F384" s="18"/>
       <c r="G384" s="4"/>
       <c r="H384" s="4"/>
       <c r="I384" s="4"/>
       <c r="J384" s="4"/>
-      <c r="K384" s="1"/>
-      <c r="L384" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18.75">
+      <c r="L384" s="27"/>
+    </row>
+    <row r="385" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -6519,122 +6229,113 @@
       <c r="H385" s="4"/>
       <c r="I385" s="4"/>
       <c r="J385" s="4"/>
-      <c r="K385" s="1"/>
-      <c r="L385" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18.75">
+      <c r="L385" s="27"/>
+    </row>
+    <row r="386" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
-      <c r="F386" s="24"/>
+      <c r="F386" s="18"/>
       <c r="G386" s="4"/>
       <c r="H386" s="4"/>
       <c r="I386" s="4"/>
       <c r="J386" s="4"/>
-      <c r="K386" s="1"/>
-      <c r="L386" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18.75">
+      <c r="L386" s="27"/>
+    </row>
+    <row r="387" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
-      <c r="F387" s="24"/>
+      <c r="F387" s="18"/>
       <c r="G387" s="4"/>
       <c r="H387" s="4"/>
       <c r="I387" s="4"/>
       <c r="J387" s="4"/>
-      <c r="K387" s="1"/>
-      <c r="L387" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18.75">
+      <c r="L387" s="27"/>
+    </row>
+    <row r="388" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
-      <c r="F388" s="24"/>
+      <c r="F388" s="18"/>
       <c r="G388" s="4"/>
       <c r="H388" s="4"/>
       <c r="I388" s="4"/>
       <c r="J388" s="4"/>
-      <c r="K388" s="1"/>
-      <c r="L388" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18.75">
+      <c r="L388" s="27"/>
+    </row>
+    <row r="389" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
-      <c r="F389" s="24"/>
+      <c r="F389" s="18"/>
       <c r="G389" s="4"/>
       <c r="H389" s="4"/>
       <c r="I389" s="4"/>
       <c r="J389" s="4"/>
-      <c r="K389" s="1"/>
-      <c r="L389" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18.75">
+      <c r="L389" s="27"/>
+    </row>
+    <row r="390" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
-      <c r="F390" s="24"/>
+      <c r="F390" s="18"/>
       <c r="G390" s="4"/>
       <c r="H390" s="4"/>
       <c r="I390" s="4"/>
       <c r="J390" s="4"/>
-      <c r="K390" s="1"/>
-      <c r="L390" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18.75">
+      <c r="L390" s="27"/>
+    </row>
+    <row r="391" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
-      <c r="F391" s="24"/>
+      <c r="F391" s="18"/>
       <c r="G391" s="4"/>
       <c r="H391" s="4"/>
       <c r="I391" s="4"/>
       <c r="J391" s="4"/>
-      <c r="K391" s="1"/>
-      <c r="L391" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18.75">
+      <c r="L391" s="27"/>
+    </row>
+    <row r="392" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="4"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
-      <c r="F392" s="24"/>
+      <c r="F392" s="18"/>
       <c r="G392" s="4"/>
       <c r="H392" s="4"/>
       <c r="I392" s="4"/>
       <c r="J392" s="4"/>
-      <c r="K392" s="1"/>
-      <c r="L392" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18.75">
+      <c r="L392" s="27"/>
+    </row>
+    <row r="393" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
-      <c r="F393" s="24"/>
+      <c r="F393" s="18"/>
       <c r="G393" s="4"/>
       <c r="H393" s="4"/>
       <c r="I393" s="4"/>
       <c r="J393" s="4"/>
-      <c r="K393" s="1"/>
-      <c r="L393" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18.75">
+      <c r="L393" s="27"/>
+    </row>
+    <row r="394" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="1"/>
@@ -6645,38 +6346,35 @@
       <c r="H394" s="4"/>
       <c r="I394" s="4"/>
       <c r="J394" s="4"/>
-      <c r="K394" s="1"/>
-      <c r="L394" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18.75">
+      <c r="L394" s="27"/>
+    </row>
+    <row r="395" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="1"/>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
-      <c r="F395" s="24"/>
+      <c r="F395" s="18"/>
       <c r="G395" s="4"/>
       <c r="H395" s="4"/>
       <c r="I395" s="4"/>
       <c r="J395" s="4"/>
-      <c r="K395" s="1"/>
-      <c r="L395" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18.75">
+      <c r="L395" s="27"/>
+    </row>
+    <row r="396" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
-      <c r="F396" s="24"/>
+      <c r="F396" s="18"/>
       <c r="G396" s="4"/>
       <c r="H396" s="4"/>
       <c r="I396" s="4"/>
       <c r="J396" s="4"/>
-      <c r="K396" s="1"/>
-      <c r="L396" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18.75">
+      <c r="L396" s="27"/>
+    </row>
+    <row r="397" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -6687,122 +6385,113 @@
       <c r="H397" s="4"/>
       <c r="I397" s="4"/>
       <c r="J397" s="4"/>
-      <c r="K397" s="1"/>
-      <c r="L397" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18.75">
+      <c r="L397" s="27"/>
+    </row>
+    <row r="398" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
-      <c r="F398" s="24"/>
+      <c r="F398" s="18"/>
       <c r="G398" s="4"/>
       <c r="H398" s="4"/>
       <c r="I398" s="4"/>
       <c r="J398" s="4"/>
-      <c r="K398" s="1"/>
-      <c r="L398" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18.75">
+      <c r="L398" s="27"/>
+    </row>
+    <row r="399" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
-      <c r="F399" s="24"/>
+      <c r="F399" s="18"/>
       <c r="G399" s="4"/>
       <c r="H399" s="4"/>
       <c r="I399" s="4"/>
       <c r="J399" s="4"/>
-      <c r="K399" s="1"/>
-      <c r="L399" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="18.75">
+      <c r="L399" s="27"/>
+    </row>
+    <row r="400" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
-      <c r="F400" s="24"/>
+      <c r="F400" s="18"/>
       <c r="G400" s="4"/>
       <c r="H400" s="4"/>
       <c r="I400" s="4"/>
       <c r="J400" s="4"/>
-      <c r="K400" s="1"/>
-      <c r="L400" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="18.75">
+      <c r="L400" s="27"/>
+    </row>
+    <row r="401" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
-      <c r="F401" s="24"/>
+      <c r="F401" s="18"/>
       <c r="G401" s="4"/>
       <c r="H401" s="4"/>
       <c r="I401" s="4"/>
       <c r="J401" s="4"/>
-      <c r="K401" s="1"/>
-      <c r="L401" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18.75">
+      <c r="L401" s="27"/>
+    </row>
+    <row r="402" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
-      <c r="F402" s="24"/>
+      <c r="F402" s="18"/>
       <c r="G402" s="4"/>
       <c r="H402" s="4"/>
       <c r="I402" s="4"/>
       <c r="J402" s="4"/>
-      <c r="K402" s="1"/>
-      <c r="L402" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="18.75">
+      <c r="L402" s="27"/>
+    </row>
+    <row r="403" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
-      <c r="F403" s="24"/>
+      <c r="F403" s="18"/>
       <c r="G403" s="4"/>
       <c r="H403" s="4"/>
       <c r="I403" s="4"/>
       <c r="J403" s="4"/>
-      <c r="K403" s="1"/>
-      <c r="L403" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18.75">
+      <c r="L403" s="27"/>
+    </row>
+    <row r="404" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="4"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
-      <c r="F404" s="24"/>
+      <c r="F404" s="18"/>
       <c r="G404" s="4"/>
       <c r="H404" s="4"/>
       <c r="I404" s="4"/>
       <c r="J404" s="4"/>
-      <c r="K404" s="1"/>
-      <c r="L404" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18.75">
+      <c r="L404" s="27"/>
+    </row>
+    <row r="405" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
-      <c r="F405" s="24"/>
+      <c r="F405" s="18"/>
       <c r="G405" s="4"/>
       <c r="H405" s="4"/>
       <c r="I405" s="4"/>
       <c r="J405" s="4"/>
-      <c r="K405" s="1"/>
-      <c r="L405" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="18.75">
+      <c r="L405" s="27"/>
+    </row>
+    <row r="406" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="1"/>
@@ -6813,38 +6502,35 @@
       <c r="H406" s="4"/>
       <c r="I406" s="4"/>
       <c r="J406" s="4"/>
-      <c r="K406" s="1"/>
-      <c r="L406" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="18.75">
+      <c r="L406" s="27"/>
+    </row>
+    <row r="407" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="1"/>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
-      <c r="F407" s="24"/>
+      <c r="F407" s="18"/>
       <c r="G407" s="4"/>
       <c r="H407" s="4"/>
       <c r="I407" s="4"/>
       <c r="J407" s="4"/>
-      <c r="K407" s="1"/>
-      <c r="L407" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="18.75">
+      <c r="L407" s="27"/>
+    </row>
+    <row r="408" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
-      <c r="F408" s="24"/>
+      <c r="F408" s="18"/>
       <c r="G408" s="4"/>
       <c r="H408" s="4"/>
       <c r="I408" s="4"/>
       <c r="J408" s="4"/>
-      <c r="K408" s="1"/>
-      <c r="L408" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="18.75">
+      <c r="L408" s="27"/>
+    </row>
+    <row r="409" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -6855,122 +6541,113 @@
       <c r="H409" s="4"/>
       <c r="I409" s="4"/>
       <c r="J409" s="4"/>
-      <c r="K409" s="1"/>
-      <c r="L409" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="18.75">
+      <c r="L409" s="27"/>
+    </row>
+    <row r="410" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
-      <c r="F410" s="24"/>
+      <c r="F410" s="18"/>
       <c r="G410" s="4"/>
       <c r="H410" s="4"/>
       <c r="I410" s="4"/>
       <c r="J410" s="4"/>
-      <c r="K410" s="1"/>
-      <c r="L410" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18.75">
+      <c r="L410" s="27"/>
+    </row>
+    <row r="411" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
-      <c r="F411" s="24"/>
+      <c r="F411" s="18"/>
       <c r="G411" s="4"/>
       <c r="H411" s="4"/>
       <c r="I411" s="4"/>
       <c r="J411" s="4"/>
-      <c r="K411" s="1"/>
-      <c r="L411" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="18.75">
+      <c r="L411" s="27"/>
+    </row>
+    <row r="412" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
-      <c r="F412" s="24"/>
+      <c r="F412" s="18"/>
       <c r="G412" s="4"/>
       <c r="H412" s="4"/>
       <c r="I412" s="4"/>
       <c r="J412" s="4"/>
-      <c r="K412" s="1"/>
-      <c r="L412" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="18.75">
+      <c r="L412" s="27"/>
+    </row>
+    <row r="413" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
-      <c r="F413" s="24"/>
+      <c r="F413" s="18"/>
       <c r="G413" s="4"/>
       <c r="H413" s="4"/>
       <c r="I413" s="4"/>
       <c r="J413" s="4"/>
-      <c r="K413" s="1"/>
-      <c r="L413" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="18.75">
+      <c r="L413" s="27"/>
+    </row>
+    <row r="414" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
-      <c r="F414" s="24"/>
+      <c r="F414" s="18"/>
       <c r="G414" s="4"/>
       <c r="H414" s="4"/>
       <c r="I414" s="4"/>
       <c r="J414" s="4"/>
-      <c r="K414" s="1"/>
-      <c r="L414" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="18.75">
+      <c r="L414" s="27"/>
+    </row>
+    <row r="415" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
-      <c r="F415" s="24"/>
+      <c r="F415" s="18"/>
       <c r="G415" s="4"/>
       <c r="H415" s="4"/>
       <c r="I415" s="4"/>
       <c r="J415" s="4"/>
-      <c r="K415" s="1"/>
-      <c r="L415" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="18.75">
+      <c r="L415" s="27"/>
+    </row>
+    <row r="416" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="4"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
-      <c r="F416" s="24"/>
+      <c r="F416" s="18"/>
       <c r="G416" s="4"/>
       <c r="H416" s="4"/>
       <c r="I416" s="4"/>
       <c r="J416" s="4"/>
-      <c r="K416" s="1"/>
-      <c r="L416" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18.75">
+      <c r="L416" s="27"/>
+    </row>
+    <row r="417" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
-      <c r="F417" s="24"/>
+      <c r="F417" s="18"/>
       <c r="G417" s="4"/>
       <c r="H417" s="4"/>
       <c r="I417" s="4"/>
       <c r="J417" s="4"/>
-      <c r="K417" s="1"/>
-      <c r="L417" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18.75">
+      <c r="L417" s="27"/>
+    </row>
+    <row r="418" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="1"/>
@@ -6981,38 +6658,35 @@
       <c r="H418" s="4"/>
       <c r="I418" s="4"/>
       <c r="J418" s="4"/>
-      <c r="K418" s="1"/>
-      <c r="L418" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="18.75">
+      <c r="L418" s="27"/>
+    </row>
+    <row r="419" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="1"/>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
-      <c r="F419" s="24"/>
+      <c r="F419" s="18"/>
       <c r="G419" s="4"/>
       <c r="H419" s="4"/>
       <c r="I419" s="4"/>
       <c r="J419" s="4"/>
-      <c r="K419" s="1"/>
-      <c r="L419" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="18.75">
+      <c r="L419" s="27"/>
+    </row>
+    <row r="420" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
-      <c r="F420" s="24"/>
+      <c r="F420" s="18"/>
       <c r="G420" s="4"/>
       <c r="H420" s="4"/>
       <c r="I420" s="4"/>
       <c r="J420" s="4"/>
-      <c r="K420" s="1"/>
-      <c r="L420" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18.75">
+      <c r="L420" s="27"/>
+    </row>
+    <row r="421" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -7023,122 +6697,113 @@
       <c r="H421" s="4"/>
       <c r="I421" s="4"/>
       <c r="J421" s="4"/>
-      <c r="K421" s="1"/>
-      <c r="L421" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18.75">
+      <c r="L421" s="27"/>
+    </row>
+    <row r="422" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
-      <c r="F422" s="24"/>
+      <c r="F422" s="18"/>
       <c r="G422" s="4"/>
       <c r="H422" s="4"/>
       <c r="I422" s="4"/>
       <c r="J422" s="4"/>
-      <c r="K422" s="1"/>
-      <c r="L422" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="18.75">
+      <c r="L422" s="27"/>
+    </row>
+    <row r="423" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
-      <c r="F423" s="24"/>
+      <c r="F423" s="18"/>
       <c r="G423" s="4"/>
       <c r="H423" s="4"/>
       <c r="I423" s="4"/>
       <c r="J423" s="4"/>
-      <c r="K423" s="1"/>
-      <c r="L423" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18.75">
+      <c r="L423" s="27"/>
+    </row>
+    <row r="424" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
-      <c r="F424" s="24"/>
+      <c r="F424" s="18"/>
       <c r="G424" s="4"/>
       <c r="H424" s="4"/>
       <c r="I424" s="4"/>
       <c r="J424" s="4"/>
-      <c r="K424" s="1"/>
-      <c r="L424" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="18.75">
+      <c r="L424" s="27"/>
+    </row>
+    <row r="425" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
-      <c r="F425" s="24"/>
+      <c r="F425" s="18"/>
       <c r="G425" s="4"/>
       <c r="H425" s="4"/>
       <c r="I425" s="4"/>
       <c r="J425" s="4"/>
-      <c r="K425" s="1"/>
-      <c r="L425" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18.75">
+      <c r="L425" s="27"/>
+    </row>
+    <row r="426" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
-      <c r="F426" s="24"/>
+      <c r="F426" s="18"/>
       <c r="G426" s="4"/>
       <c r="H426" s="4"/>
       <c r="I426" s="4"/>
       <c r="J426" s="4"/>
-      <c r="K426" s="1"/>
-      <c r="L426" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="18.75">
+      <c r="L426" s="27"/>
+    </row>
+    <row r="427" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
-      <c r="F427" s="24"/>
+      <c r="F427" s="18"/>
       <c r="G427" s="4"/>
       <c r="H427" s="4"/>
       <c r="I427" s="4"/>
       <c r="J427" s="4"/>
-      <c r="K427" s="1"/>
-      <c r="L427" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18.75">
+      <c r="L427" s="27"/>
+    </row>
+    <row r="428" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="4"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
-      <c r="F428" s="24"/>
+      <c r="F428" s="18"/>
       <c r="G428" s="4"/>
       <c r="H428" s="4"/>
       <c r="I428" s="4"/>
       <c r="J428" s="4"/>
-      <c r="K428" s="1"/>
-      <c r="L428" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18.75">
+      <c r="L428" s="27"/>
+    </row>
+    <row r="429" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
-      <c r="F429" s="24"/>
+      <c r="F429" s="18"/>
       <c r="G429" s="4"/>
       <c r="H429" s="4"/>
       <c r="I429" s="4"/>
       <c r="J429" s="4"/>
-      <c r="K429" s="1"/>
-      <c r="L429" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18.75">
+      <c r="L429" s="27"/>
+    </row>
+    <row r="430" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="1"/>
@@ -7149,38 +6814,35 @@
       <c r="H430" s="4"/>
       <c r="I430" s="4"/>
       <c r="J430" s="4"/>
-      <c r="K430" s="1"/>
-      <c r="L430" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="18.75">
+      <c r="L430" s="27"/>
+    </row>
+    <row r="431" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="1"/>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
-      <c r="F431" s="24"/>
+      <c r="F431" s="18"/>
       <c r="G431" s="4"/>
       <c r="H431" s="4"/>
       <c r="I431" s="4"/>
       <c r="J431" s="4"/>
-      <c r="K431" s="1"/>
-      <c r="L431" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="18.75">
+      <c r="L431" s="27"/>
+    </row>
+    <row r="432" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
-      <c r="F432" s="24"/>
+      <c r="F432" s="18"/>
       <c r="G432" s="4"/>
       <c r="H432" s="4"/>
       <c r="I432" s="4"/>
       <c r="J432" s="4"/>
-      <c r="K432" s="1"/>
-      <c r="L432" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="18.75">
+      <c r="L432" s="27"/>
+    </row>
+    <row r="433" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -7191,122 +6853,113 @@
       <c r="H433" s="4"/>
       <c r="I433" s="4"/>
       <c r="J433" s="4"/>
-      <c r="K433" s="1"/>
-      <c r="L433" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="18.75">
+      <c r="L433" s="27"/>
+    </row>
+    <row r="434" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
-      <c r="F434" s="24"/>
+      <c r="F434" s="18"/>
       <c r="G434" s="4"/>
       <c r="H434" s="4"/>
       <c r="I434" s="4"/>
       <c r="J434" s="4"/>
-      <c r="K434" s="1"/>
-      <c r="L434" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="18.75">
+      <c r="L434" s="27"/>
+    </row>
+    <row r="435" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
-      <c r="F435" s="24"/>
+      <c r="F435" s="18"/>
       <c r="G435" s="4"/>
       <c r="H435" s="4"/>
       <c r="I435" s="4"/>
       <c r="J435" s="4"/>
-      <c r="K435" s="1"/>
-      <c r="L435" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="18.75">
+      <c r="L435" s="27"/>
+    </row>
+    <row r="436" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
-      <c r="F436" s="24"/>
+      <c r="F436" s="18"/>
       <c r="G436" s="4"/>
       <c r="H436" s="4"/>
       <c r="I436" s="4"/>
       <c r="J436" s="4"/>
-      <c r="K436" s="1"/>
-      <c r="L436" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="18.75">
+      <c r="L436" s="27"/>
+    </row>
+    <row r="437" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
-      <c r="F437" s="24"/>
+      <c r="F437" s="18"/>
       <c r="G437" s="4"/>
       <c r="H437" s="4"/>
       <c r="I437" s="4"/>
       <c r="J437" s="4"/>
-      <c r="K437" s="1"/>
-      <c r="L437" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="18.75">
+      <c r="L437" s="27"/>
+    </row>
+    <row r="438" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
-      <c r="F438" s="24"/>
+      <c r="F438" s="18"/>
       <c r="G438" s="4"/>
       <c r="H438" s="4"/>
       <c r="I438" s="4"/>
       <c r="J438" s="4"/>
-      <c r="K438" s="1"/>
-      <c r="L438" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="18.75">
+      <c r="L438" s="27"/>
+    </row>
+    <row r="439" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
-      <c r="F439" s="24"/>
+      <c r="F439" s="18"/>
       <c r="G439" s="4"/>
       <c r="H439" s="4"/>
       <c r="I439" s="4"/>
       <c r="J439" s="4"/>
-      <c r="K439" s="1"/>
-      <c r="L439" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="18.75">
+      <c r="L439" s="27"/>
+    </row>
+    <row r="440" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="4"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
-      <c r="F440" s="24"/>
+      <c r="F440" s="18"/>
       <c r="G440" s="4"/>
       <c r="H440" s="4"/>
       <c r="I440" s="4"/>
       <c r="J440" s="4"/>
-      <c r="K440" s="1"/>
-      <c r="L440" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="18.75">
+      <c r="L440" s="27"/>
+    </row>
+    <row r="441" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
-      <c r="F441" s="24"/>
+      <c r="F441" s="18"/>
       <c r="G441" s="4"/>
       <c r="H441" s="4"/>
       <c r="I441" s="4"/>
       <c r="J441" s="4"/>
-      <c r="K441" s="1"/>
-      <c r="L441" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="18.75">
+      <c r="L441" s="27"/>
+    </row>
+    <row r="442" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="1"/>
@@ -7317,38 +6970,35 @@
       <c r="H442" s="4"/>
       <c r="I442" s="4"/>
       <c r="J442" s="4"/>
-      <c r="K442" s="1"/>
-      <c r="L442" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="18.75">
+      <c r="L442" s="27"/>
+    </row>
+    <row r="443" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="1"/>
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
-      <c r="F443" s="24"/>
+      <c r="F443" s="18"/>
       <c r="G443" s="4"/>
       <c r="H443" s="4"/>
       <c r="I443" s="4"/>
       <c r="J443" s="4"/>
-      <c r="K443" s="1"/>
-      <c r="L443" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="18.75">
+      <c r="L443" s="27"/>
+    </row>
+    <row r="444" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
       <c r="E444" s="4"/>
-      <c r="F444" s="24"/>
+      <c r="F444" s="18"/>
       <c r="G444" s="4"/>
       <c r="H444" s="4"/>
       <c r="I444" s="4"/>
       <c r="J444" s="4"/>
-      <c r="K444" s="1"/>
-      <c r="L444" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="18.75">
+      <c r="L444" s="27"/>
+    </row>
+    <row r="445" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -7359,122 +7009,113 @@
       <c r="H445" s="4"/>
       <c r="I445" s="4"/>
       <c r="J445" s="4"/>
-      <c r="K445" s="1"/>
-      <c r="L445" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="18.75">
+      <c r="L445" s="27"/>
+    </row>
+    <row r="446" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
-      <c r="F446" s="24"/>
+      <c r="F446" s="18"/>
       <c r="G446" s="4"/>
       <c r="H446" s="4"/>
       <c r="I446" s="4"/>
       <c r="J446" s="4"/>
-      <c r="K446" s="1"/>
-      <c r="L446" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="18.75">
+      <c r="L446" s="27"/>
+    </row>
+    <row r="447" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
-      <c r="F447" s="24"/>
+      <c r="F447" s="18"/>
       <c r="G447" s="4"/>
       <c r="H447" s="4"/>
       <c r="I447" s="4"/>
       <c r="J447" s="4"/>
-      <c r="K447" s="1"/>
-      <c r="L447" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="18.75">
+      <c r="L447" s="27"/>
+    </row>
+    <row r="448" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
-      <c r="F448" s="24"/>
+      <c r="F448" s="18"/>
       <c r="G448" s="4"/>
       <c r="H448" s="4"/>
       <c r="I448" s="4"/>
       <c r="J448" s="4"/>
-      <c r="K448" s="1"/>
-      <c r="L448" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="18.75">
+      <c r="L448" s="27"/>
+    </row>
+    <row r="449" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
-      <c r="F449" s="24"/>
+      <c r="F449" s="18"/>
       <c r="G449" s="4"/>
       <c r="H449" s="4"/>
       <c r="I449" s="4"/>
       <c r="J449" s="4"/>
-      <c r="K449" s="1"/>
-      <c r="L449" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="18.75">
+      <c r="L449" s="27"/>
+    </row>
+    <row r="450" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
-      <c r="F450" s="24"/>
+      <c r="F450" s="18"/>
       <c r="G450" s="4"/>
       <c r="H450" s="4"/>
       <c r="I450" s="4"/>
       <c r="J450" s="4"/>
-      <c r="K450" s="1"/>
-      <c r="L450" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="18.75">
+      <c r="L450" s="27"/>
+    </row>
+    <row r="451" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
-      <c r="F451" s="24"/>
+      <c r="F451" s="18"/>
       <c r="G451" s="4"/>
       <c r="H451" s="4"/>
       <c r="I451" s="4"/>
       <c r="J451" s="4"/>
-      <c r="K451" s="1"/>
-      <c r="L451" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="18.75">
+      <c r="L451" s="27"/>
+    </row>
+    <row r="452" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="4"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
-      <c r="F452" s="24"/>
+      <c r="F452" s="18"/>
       <c r="G452" s="4"/>
       <c r="H452" s="4"/>
       <c r="I452" s="4"/>
       <c r="J452" s="4"/>
-      <c r="K452" s="1"/>
-      <c r="L452" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="18.75">
+      <c r="L452" s="27"/>
+    </row>
+    <row r="453" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
-      <c r="F453" s="24"/>
+      <c r="F453" s="18"/>
       <c r="G453" s="4"/>
       <c r="H453" s="4"/>
       <c r="I453" s="4"/>
       <c r="J453" s="4"/>
-      <c r="K453" s="1"/>
-      <c r="L453" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="18.75">
+      <c r="L453" s="27"/>
+    </row>
+    <row r="454" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="1"/>
@@ -7485,38 +7126,35 @@
       <c r="H454" s="4"/>
       <c r="I454" s="4"/>
       <c r="J454" s="4"/>
-      <c r="K454" s="1"/>
-      <c r="L454" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="18.75">
+      <c r="L454" s="27"/>
+    </row>
+    <row r="455" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="1"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
-      <c r="F455" s="24"/>
+      <c r="F455" s="18"/>
       <c r="G455" s="4"/>
       <c r="H455" s="4"/>
       <c r="I455" s="4"/>
       <c r="J455" s="4"/>
-      <c r="K455" s="1"/>
-      <c r="L455" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="18.75">
+      <c r="L455" s="27"/>
+    </row>
+    <row r="456" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
-      <c r="F456" s="24"/>
+      <c r="F456" s="18"/>
       <c r="G456" s="4"/>
       <c r="H456" s="4"/>
       <c r="I456" s="4"/>
       <c r="J456" s="4"/>
-      <c r="K456" s="1"/>
-      <c r="L456" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="18.75">
+      <c r="L456" s="27"/>
+    </row>
+    <row r="457" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -7527,122 +7165,113 @@
       <c r="H457" s="4"/>
       <c r="I457" s="4"/>
       <c r="J457" s="4"/>
-      <c r="K457" s="1"/>
-      <c r="L457" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="18.75">
+      <c r="L457" s="27"/>
+    </row>
+    <row r="458" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
-      <c r="F458" s="24"/>
+      <c r="F458" s="18"/>
       <c r="G458" s="4"/>
       <c r="H458" s="4"/>
       <c r="I458" s="4"/>
       <c r="J458" s="4"/>
-      <c r="K458" s="1"/>
-      <c r="L458" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="18.75">
+      <c r="L458" s="27"/>
+    </row>
+    <row r="459" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
-      <c r="F459" s="24"/>
+      <c r="F459" s="18"/>
       <c r="G459" s="4"/>
       <c r="H459" s="4"/>
       <c r="I459" s="4"/>
       <c r="J459" s="4"/>
-      <c r="K459" s="1"/>
-      <c r="L459" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="18.75">
+      <c r="L459" s="27"/>
+    </row>
+    <row r="460" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
-      <c r="F460" s="24"/>
+      <c r="F460" s="18"/>
       <c r="G460" s="4"/>
       <c r="H460" s="4"/>
       <c r="I460" s="4"/>
       <c r="J460" s="4"/>
-      <c r="K460" s="1"/>
-      <c r="L460" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="18.75">
+      <c r="L460" s="27"/>
+    </row>
+    <row r="461" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
-      <c r="F461" s="24"/>
+      <c r="F461" s="18"/>
       <c r="G461" s="4"/>
       <c r="H461" s="4"/>
       <c r="I461" s="4"/>
       <c r="J461" s="4"/>
-      <c r="K461" s="1"/>
-      <c r="L461" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="18.75">
+      <c r="L461" s="27"/>
+    </row>
+    <row r="462" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
-      <c r="F462" s="24"/>
+      <c r="F462" s="18"/>
       <c r="G462" s="4"/>
       <c r="H462" s="4"/>
       <c r="I462" s="4"/>
       <c r="J462" s="4"/>
-      <c r="K462" s="1"/>
-      <c r="L462" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="18.75">
+      <c r="L462" s="27"/>
+    </row>
+    <row r="463" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
-      <c r="F463" s="24"/>
+      <c r="F463" s="18"/>
       <c r="G463" s="4"/>
       <c r="H463" s="4"/>
       <c r="I463" s="4"/>
       <c r="J463" s="4"/>
-      <c r="K463" s="1"/>
-      <c r="L463" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="18.75">
+      <c r="L463" s="27"/>
+    </row>
+    <row r="464" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="4"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
-      <c r="F464" s="24"/>
+      <c r="F464" s="18"/>
       <c r="G464" s="4"/>
       <c r="H464" s="4"/>
       <c r="I464" s="4"/>
       <c r="J464" s="4"/>
-      <c r="K464" s="1"/>
-      <c r="L464" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="18.75">
+      <c r="L464" s="27"/>
+    </row>
+    <row r="465" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
       <c r="E465" s="4"/>
-      <c r="F465" s="24"/>
+      <c r="F465" s="18"/>
       <c r="G465" s="4"/>
       <c r="H465" s="4"/>
       <c r="I465" s="4"/>
       <c r="J465" s="4"/>
-      <c r="K465" s="1"/>
-      <c r="L465" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="18.75">
+      <c r="L465" s="27"/>
+    </row>
+    <row r="466" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="1"/>
@@ -7653,38 +7282,35 @@
       <c r="H466" s="4"/>
       <c r="I466" s="4"/>
       <c r="J466" s="4"/>
-      <c r="K466" s="1"/>
-      <c r="L466" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="18.75">
+      <c r="L466" s="27"/>
+    </row>
+    <row r="467" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="1"/>
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
-      <c r="F467" s="24"/>
+      <c r="F467" s="18"/>
       <c r="G467" s="4"/>
       <c r="H467" s="4"/>
       <c r="I467" s="4"/>
       <c r="J467" s="4"/>
-      <c r="K467" s="1"/>
-      <c r="L467" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="18.75">
+      <c r="L467" s="27"/>
+    </row>
+    <row r="468" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
-      <c r="F468" s="24"/>
+      <c r="F468" s="18"/>
       <c r="G468" s="4"/>
       <c r="H468" s="4"/>
       <c r="I468" s="4"/>
       <c r="J468" s="4"/>
-      <c r="K468" s="1"/>
-      <c r="L468" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="18.75">
+      <c r="L468" s="27"/>
+    </row>
+    <row r="469" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -7695,122 +7321,113 @@
       <c r="H469" s="4"/>
       <c r="I469" s="4"/>
       <c r="J469" s="4"/>
-      <c r="K469" s="1"/>
-      <c r="L469" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="18.75">
+      <c r="L469" s="27"/>
+    </row>
+    <row r="470" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
-      <c r="F470" s="24"/>
+      <c r="F470" s="18"/>
       <c r="G470" s="4"/>
       <c r="H470" s="4"/>
       <c r="I470" s="4"/>
       <c r="J470" s="4"/>
-      <c r="K470" s="1"/>
-      <c r="L470" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="18.75">
+      <c r="L470" s="27"/>
+    </row>
+    <row r="471" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
-      <c r="F471" s="24"/>
+      <c r="F471" s="18"/>
       <c r="G471" s="4"/>
       <c r="H471" s="4"/>
       <c r="I471" s="4"/>
       <c r="J471" s="4"/>
-      <c r="K471" s="1"/>
-      <c r="L471" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="18.75">
+      <c r="L471" s="27"/>
+    </row>
+    <row r="472" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
       <c r="D472" s="4"/>
       <c r="E472" s="4"/>
-      <c r="F472" s="24"/>
+      <c r="F472" s="18"/>
       <c r="G472" s="4"/>
       <c r="H472" s="4"/>
       <c r="I472" s="4"/>
       <c r="J472" s="4"/>
-      <c r="K472" s="1"/>
-      <c r="L472" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="18.75">
+      <c r="L472" s="27"/>
+    </row>
+    <row r="473" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
-      <c r="F473" s="24"/>
+      <c r="F473" s="18"/>
       <c r="G473" s="4"/>
       <c r="H473" s="4"/>
       <c r="I473" s="4"/>
       <c r="J473" s="4"/>
-      <c r="K473" s="1"/>
-      <c r="L473" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="18.75">
+      <c r="L473" s="27"/>
+    </row>
+    <row r="474" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
       <c r="D474" s="4"/>
       <c r="E474" s="4"/>
-      <c r="F474" s="24"/>
+      <c r="F474" s="18"/>
       <c r="G474" s="4"/>
       <c r="H474" s="4"/>
       <c r="I474" s="4"/>
       <c r="J474" s="4"/>
-      <c r="K474" s="1"/>
-      <c r="L474" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="18.75">
+      <c r="L474" s="27"/>
+    </row>
+    <row r="475" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
-      <c r="F475" s="24"/>
+      <c r="F475" s="18"/>
       <c r="G475" s="4"/>
       <c r="H475" s="4"/>
       <c r="I475" s="4"/>
       <c r="J475" s="4"/>
-      <c r="K475" s="1"/>
-      <c r="L475" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="18.75">
+      <c r="L475" s="27"/>
+    </row>
+    <row r="476" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="4"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
-      <c r="F476" s="24"/>
+      <c r="F476" s="18"/>
       <c r="G476" s="4"/>
       <c r="H476" s="4"/>
       <c r="I476" s="4"/>
       <c r="J476" s="4"/>
-      <c r="K476" s="1"/>
-      <c r="L476" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="18.75">
+      <c r="L476" s="27"/>
+    </row>
+    <row r="477" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
-      <c r="F477" s="24"/>
+      <c r="F477" s="18"/>
       <c r="G477" s="4"/>
       <c r="H477" s="4"/>
       <c r="I477" s="4"/>
       <c r="J477" s="4"/>
-      <c r="K477" s="1"/>
-      <c r="L477" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="18.75">
+      <c r="L477" s="27"/>
+    </row>
+    <row r="478" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="1"/>
@@ -7821,38 +7438,35 @@
       <c r="H478" s="4"/>
       <c r="I478" s="4"/>
       <c r="J478" s="4"/>
-      <c r="K478" s="1"/>
-      <c r="L478" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="18.75">
+      <c r="L478" s="27"/>
+    </row>
+    <row r="479" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="1"/>
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
-      <c r="F479" s="24"/>
+      <c r="F479" s="18"/>
       <c r="G479" s="4"/>
       <c r="H479" s="4"/>
       <c r="I479" s="4"/>
       <c r="J479" s="4"/>
-      <c r="K479" s="1"/>
-      <c r="L479" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="18.75">
+      <c r="L479" s="27"/>
+    </row>
+    <row r="480" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
       <c r="E480" s="4"/>
-      <c r="F480" s="24"/>
+      <c r="F480" s="18"/>
       <c r="G480" s="4"/>
       <c r="H480" s="4"/>
       <c r="I480" s="4"/>
       <c r="J480" s="4"/>
-      <c r="K480" s="1"/>
-      <c r="L480" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="18.75">
+      <c r="L480" s="27"/>
+    </row>
+    <row r="481" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -7863,19 +7477,23 @@
       <c r="H481" s="4"/>
       <c r="I481" s="4"/>
       <c r="J481" s="4"/>
-      <c r="K481" s="1"/>
-      <c r="L481" s="4"/>
+      <c r="L481" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;8&amp;K808080 INTERNAL &amp; PARTNERS&amp;1#_x000D_</oddHeader>
+    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;2&amp;KFFFFFF 5acXjzUk</oddFooter>
+  </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -7883,14 +7501,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>21</v>
       </c>
@@ -7901,8 +7519,8 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -7912,8 +7530,8 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="15"/>
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
       <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
@@ -7921,8 +7539,8 @@
         <v>3600</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -7932,8 +7550,8 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="15"/>
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
       <c r="B5" s="6" t="s">
         <v>30</v>
       </c>
@@ -7941,8 +7559,8 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="15"/>
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
       <c r="B6" s="6" t="s">
         <v>31</v>
       </c>
@@ -7950,8 +7568,8 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="15"/>
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
       <c r="B7" s="6" t="s">
         <v>32</v>
       </c>
@@ -7959,8 +7577,8 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="15"/>
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
       <c r="B8" s="6" t="s">
         <v>33</v>
       </c>
@@ -7968,8 +7586,8 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -7977,22 +7595,22 @@
       </c>
       <c r="C9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="15"/>
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
       <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="15"/>
+    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="32"/>
       <c r="B11" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -8002,8 +7620,8 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="17"/>
+    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
       <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
@@ -8011,8 +7629,8 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -8022,8 +7640,8 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
-      <c r="A15" s="19"/>
+    <row r="15" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
       <c r="B15" s="6" t="s">
         <v>42</v>
       </c>
@@ -8040,26 +7658,32 @@
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;8&amp;K808080 INTERNAL &amp; PARTNERS&amp;1#_x000D_</oddHeader>
+    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;2&amp;KFFFFFF 5acXjzUk</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -8070,7 +7694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -8081,7 +7705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -8092,7 +7716,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -8103,7 +7727,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -8114,7 +7738,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -8125,7 +7749,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -8136,7 +7760,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -8147,7 +7771,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+    <row r="9" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
@@ -8158,7 +7782,7 @@
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -8169,7 +7793,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
@@ -8180,7 +7804,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
@@ -8191,7 +7815,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
@@ -8202,7 +7826,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
@@ -8213,7 +7837,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+    <row r="15" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
@@ -8226,6 +7850,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;8&amp;K808080 INTERNAL &amp; PARTNERS&amp;1#_x000D_</oddHeader>
+    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;2&amp;KFFFFFF 5acXjzUk</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -8233,7 +7861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -8241,27 +7869,37 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;8&amp;K808080 INTERNAL &amp; PARTNERS&amp;1#_x000D_</oddHeader>
+    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;2&amp;KFFFFFF 5acXjzUk</oddFooter>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{eafdac3b-4115-4c64-bf62-f9099ec36d84}" enabled="1" method="Standard" siteId="{5047bca2-da88-442e-a09a-d9b8af692adc}" removed="0"/>
+</clbl:labelList>
 </file>
--- a/LineData.xlsx
+++ b/LineData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://faurecia-my.sharepoint.com/personal/anass_elhoud_forvia_com/Documents/PhD Codes/PRODynamics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{6225442F-B07D-4DC7-A1A2-9421B33F6D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{0E8AF885-8A49-4F33-B607-216B84C5E4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="24240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27105" yWindow="5850" windowWidth="27735" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Line Data" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
   <si>
     <t>Available Strategies</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>Operator ID</t>
+  </si>
+  <si>
+    <t>Manual Time</t>
   </si>
 </sst>
 </file>
@@ -876,10 +879,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L481"/>
+  <dimension ref="A1:M481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,10 +898,11 @@
     <col min="9" max="9" width="19.5703125" style="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.42578125" style="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="29" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -932,11 +936,14 @@
       <c r="K1" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
@@ -970,11 +977,14 @@
       <c r="K2" s="30">
         <v>0</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="30">
+        <v>0</v>
+      </c>
+      <c r="M2" s="26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -1008,11 +1018,14 @@
       <c r="K3" s="30">
         <v>0</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="30">
+        <v>0</v>
+      </c>
+      <c r="M3" s="26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
@@ -1046,9 +1059,12 @@
       <c r="K4" s="30">
         <v>0</v>
       </c>
-      <c r="L4" s="26"/>
-    </row>
-    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="30">
+        <v>0</v>
+      </c>
+      <c r="M4" s="26"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
@@ -1082,9 +1098,12 @@
       <c r="K5" s="30">
         <v>0</v>
       </c>
-      <c r="L5" s="26"/>
-    </row>
-    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="30">
+        <v>0</v>
+      </c>
+      <c r="M5" s="26"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
@@ -1118,9 +1137,12 @@
       <c r="K6" s="30">
         <v>0</v>
       </c>
-      <c r="L6" s="26"/>
-    </row>
-    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="30">
+        <v>0</v>
+      </c>
+      <c r="M6" s="26"/>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1154,9 +1176,12 @@
       <c r="K7" s="30">
         <v>0</v>
       </c>
-      <c r="L7" s="26"/>
-    </row>
-    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="30">
+        <v>0</v>
+      </c>
+      <c r="M7" s="26"/>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
@@ -1190,9 +1215,12 @@
       <c r="K8" s="30">
         <v>0</v>
       </c>
-      <c r="L8" s="26"/>
-    </row>
-    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="30">
+        <v>0</v>
+      </c>
+      <c r="M8" s="26"/>
+    </row>
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -1226,9 +1254,12 @@
       <c r="K9" s="30">
         <v>0</v>
       </c>
-      <c r="L9" s="26"/>
-    </row>
-    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="30">
+        <v>0</v>
+      </c>
+      <c r="M9" s="26"/>
+    </row>
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
@@ -1262,9 +1293,12 @@
       <c r="K10" s="30">
         <v>0</v>
       </c>
-      <c r="L10" s="26"/>
-    </row>
-    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="30">
+        <v>0</v>
+      </c>
+      <c r="M10" s="26"/>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
@@ -1298,9 +1332,12 @@
       <c r="K11" s="30">
         <v>0</v>
       </c>
-      <c r="L11" s="26"/>
-    </row>
-    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="30">
+        <v>0</v>
+      </c>
+      <c r="M11" s="26"/>
+    </row>
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
@@ -1334,9 +1371,12 @@
       <c r="K12" s="30">
         <v>0</v>
       </c>
-      <c r="L12" s="26"/>
-    </row>
-    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="30">
+        <v>0</v>
+      </c>
+      <c r="M12" s="26"/>
+    </row>
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
@@ -1370,9 +1410,12 @@
       <c r="K13" s="30">
         <v>0</v>
       </c>
-      <c r="L13" s="26"/>
-    </row>
-    <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="30">
+        <v>0</v>
+      </c>
+      <c r="M13" s="26"/>
+    </row>
+    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
@@ -1406,9 +1449,12 @@
       <c r="K14" s="30">
         <v>0</v>
       </c>
-      <c r="L14" s="26"/>
-    </row>
-    <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="30">
+        <v>0</v>
+      </c>
+      <c r="M14" s="26"/>
+    </row>
+    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1419,9 +1465,9 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="L15" s="27"/>
-    </row>
-    <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="27"/>
+    </row>
+    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1432,9 +1478,9 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="L16" s="27"/>
-    </row>
-    <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="27"/>
+    </row>
+    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1445,9 +1491,9 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="L17" s="27"/>
-    </row>
-    <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="27"/>
+    </row>
+    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1458,9 +1504,9 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="L18" s="27"/>
-    </row>
-    <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="27"/>
+    </row>
+    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1471,9 +1517,9 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="L19" s="27"/>
-    </row>
-    <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="27"/>
+    </row>
+    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1484,9 +1530,9 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="L20" s="27"/>
-    </row>
-    <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="27"/>
+    </row>
+    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1497,9 +1543,9 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="L21" s="27"/>
-    </row>
-    <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="27"/>
+    </row>
+    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="1"/>
@@ -1510,9 +1556,9 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="L22" s="27"/>
-    </row>
-    <row r="23" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="27"/>
+    </row>
+    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="1"/>
@@ -1523,9 +1569,9 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="L23" s="27"/>
-    </row>
-    <row r="24" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M23" s="27"/>
+    </row>
+    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="4"/>
@@ -1536,9 +1582,9 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="L24" s="27"/>
-    </row>
-    <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="27"/>
+    </row>
+    <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1549,9 +1595,9 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="L25" s="27"/>
-    </row>
-    <row r="26" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M25" s="27"/>
+    </row>
+    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1562,9 +1608,9 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="L26" s="27"/>
-    </row>
-    <row r="27" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="27"/>
+    </row>
+    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1575,9 +1621,9 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="L27" s="27"/>
-    </row>
-    <row r="28" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M27" s="27"/>
+    </row>
+    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1588,9 +1634,9 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="L28" s="27"/>
-    </row>
-    <row r="29" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M28" s="27"/>
+    </row>
+    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1601,9 +1647,9 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="L29" s="27"/>
-    </row>
-    <row r="30" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M29" s="27"/>
+    </row>
+    <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1614,9 +1660,9 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="L30" s="27"/>
-    </row>
-    <row r="31" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M30" s="27"/>
+    </row>
+    <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1627,9 +1673,9 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="L31" s="27"/>
-    </row>
-    <row r="32" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M31" s="27"/>
+    </row>
+    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1640,9 +1686,9 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="L32" s="27"/>
-    </row>
-    <row r="33" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M32" s="27"/>
+    </row>
+    <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1653,9 +1699,9 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="L33" s="27"/>
-    </row>
-    <row r="34" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M33" s="27"/>
+    </row>
+    <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="1"/>
@@ -1666,9 +1712,9 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="L34" s="27"/>
-    </row>
-    <row r="35" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M34" s="27"/>
+    </row>
+    <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="1"/>
@@ -1679,9 +1725,9 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="L35" s="27"/>
-    </row>
-    <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M35" s="27"/>
+    </row>
+    <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="4"/>
@@ -1692,9 +1738,9 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="L36" s="27"/>
-    </row>
-    <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M36" s="27"/>
+    </row>
+    <row r="37" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1705,9 +1751,9 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="L37" s="27"/>
-    </row>
-    <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M37" s="27"/>
+    </row>
+    <row r="38" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1718,9 +1764,9 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="L38" s="27"/>
-    </row>
-    <row r="39" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M38" s="27"/>
+    </row>
+    <row r="39" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1731,9 +1777,9 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="L39" s="27"/>
-    </row>
-    <row r="40" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M39" s="27"/>
+    </row>
+    <row r="40" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1744,9 +1790,9 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="L40" s="27"/>
-    </row>
-    <row r="41" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M40" s="27"/>
+    </row>
+    <row r="41" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1757,9 +1803,9 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="L41" s="27"/>
-    </row>
-    <row r="42" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M41" s="27"/>
+    </row>
+    <row r="42" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1770,9 +1816,9 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="L42" s="27"/>
-    </row>
-    <row r="43" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M42" s="27"/>
+    </row>
+    <row r="43" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1783,9 +1829,9 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="L43" s="27"/>
-    </row>
-    <row r="44" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M43" s="27"/>
+    </row>
+    <row r="44" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1796,9 +1842,9 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="L44" s="27"/>
-    </row>
-    <row r="45" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M44" s="27"/>
+    </row>
+    <row r="45" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1809,9 +1855,9 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="L45" s="27"/>
-    </row>
-    <row r="46" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M45" s="27"/>
+    </row>
+    <row r="46" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="1"/>
@@ -1822,9 +1868,9 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="L46" s="27"/>
-    </row>
-    <row r="47" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M46" s="27"/>
+    </row>
+    <row r="47" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="1"/>
@@ -1835,9 +1881,9 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="L47" s="27"/>
-    </row>
-    <row r="48" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M47" s="27"/>
+    </row>
+    <row r="48" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="4"/>
@@ -1848,9 +1894,9 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="L48" s="27"/>
-    </row>
-    <row r="49" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M48" s="27"/>
+    </row>
+    <row r="49" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1861,9 +1907,9 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-      <c r="L49" s="27"/>
-    </row>
-    <row r="50" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M49" s="27"/>
+    </row>
+    <row r="50" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1874,9 +1920,9 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-      <c r="L50" s="27"/>
-    </row>
-    <row r="51" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M50" s="27"/>
+    </row>
+    <row r="51" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1887,9 +1933,9 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="L51" s="27"/>
-    </row>
-    <row r="52" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M51" s="27"/>
+    </row>
+    <row r="52" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1900,9 +1946,9 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="L52" s="27"/>
-    </row>
-    <row r="53" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M52" s="27"/>
+    </row>
+    <row r="53" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1913,9 +1959,9 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-      <c r="L53" s="27"/>
-    </row>
-    <row r="54" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M53" s="27"/>
+    </row>
+    <row r="54" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1926,9 +1972,9 @@
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="L54" s="27"/>
-    </row>
-    <row r="55" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M54" s="27"/>
+    </row>
+    <row r="55" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1939,9 +1985,9 @@
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-      <c r="L55" s="27"/>
-    </row>
-    <row r="56" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M55" s="27"/>
+    </row>
+    <row r="56" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1952,9 +1998,9 @@
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-      <c r="L56" s="27"/>
-    </row>
-    <row r="57" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M56" s="27"/>
+    </row>
+    <row r="57" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1965,9 +2011,9 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="L57" s="27"/>
-    </row>
-    <row r="58" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M57" s="27"/>
+    </row>
+    <row r="58" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="1"/>
@@ -1978,9 +2024,9 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="L58" s="27"/>
-    </row>
-    <row r="59" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M58" s="27"/>
+    </row>
+    <row r="59" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="1"/>
@@ -1991,9 +2037,9 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="L59" s="27"/>
-    </row>
-    <row r="60" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M59" s="27"/>
+    </row>
+    <row r="60" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="4"/>
@@ -2004,9 +2050,9 @@
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-      <c r="L60" s="27"/>
-    </row>
-    <row r="61" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M60" s="27"/>
+    </row>
+    <row r="61" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2017,9 +2063,9 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="L61" s="27"/>
-    </row>
-    <row r="62" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M61" s="27"/>
+    </row>
+    <row r="62" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2030,9 +2076,9 @@
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="L62" s="27"/>
-    </row>
-    <row r="63" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M62" s="27"/>
+    </row>
+    <row r="63" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2043,9 +2089,9 @@
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="L63" s="27"/>
-    </row>
-    <row r="64" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M63" s="27"/>
+    </row>
+    <row r="64" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2056,9 +2102,9 @@
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="L64" s="27"/>
-    </row>
-    <row r="65" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M64" s="27"/>
+    </row>
+    <row r="65" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2069,9 +2115,9 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="L65" s="27"/>
-    </row>
-    <row r="66" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M65" s="27"/>
+    </row>
+    <row r="66" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2082,9 +2128,9 @@
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="L66" s="27"/>
-    </row>
-    <row r="67" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M66" s="27"/>
+    </row>
+    <row r="67" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2095,9 +2141,9 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="L67" s="27"/>
-    </row>
-    <row r="68" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M67" s="27"/>
+    </row>
+    <row r="68" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2108,9 +2154,9 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="L68" s="27"/>
-    </row>
-    <row r="69" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M68" s="27"/>
+    </row>
+    <row r="69" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2121,9 +2167,9 @@
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-      <c r="L69" s="27"/>
-    </row>
-    <row r="70" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M69" s="27"/>
+    </row>
+    <row r="70" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="1"/>
@@ -2134,9 +2180,9 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-      <c r="L70" s="27"/>
-    </row>
-    <row r="71" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M70" s="27"/>
+    </row>
+    <row r="71" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="1"/>
@@ -2147,9 +2193,9 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
-      <c r="L71" s="27"/>
-    </row>
-    <row r="72" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M71" s="27"/>
+    </row>
+    <row r="72" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="4"/>
@@ -2160,9 +2206,9 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
-      <c r="L72" s="27"/>
-    </row>
-    <row r="73" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M72" s="27"/>
+    </row>
+    <row r="73" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2173,9 +2219,9 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
-      <c r="L73" s="27"/>
-    </row>
-    <row r="74" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M73" s="27"/>
+    </row>
+    <row r="74" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2186,9 +2232,9 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="L74" s="27"/>
-    </row>
-    <row r="75" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M74" s="27"/>
+    </row>
+    <row r="75" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2199,9 +2245,9 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
-      <c r="L75" s="27"/>
-    </row>
-    <row r="76" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M75" s="27"/>
+    </row>
+    <row r="76" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2212,9 +2258,9 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-      <c r="L76" s="27"/>
-    </row>
-    <row r="77" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M76" s="27"/>
+    </row>
+    <row r="77" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2225,9 +2271,9 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="L77" s="27"/>
-    </row>
-    <row r="78" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M77" s="27"/>
+    </row>
+    <row r="78" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2238,9 +2284,9 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="L78" s="27"/>
-    </row>
-    <row r="79" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M78" s="27"/>
+    </row>
+    <row r="79" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2251,9 +2297,9 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="L79" s="27"/>
-    </row>
-    <row r="80" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M79" s="27"/>
+    </row>
+    <row r="80" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2264,9 +2310,9 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="L80" s="27"/>
-    </row>
-    <row r="81" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M80" s="27"/>
+    </row>
+    <row r="81" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2277,9 +2323,9 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="L81" s="27"/>
-    </row>
-    <row r="82" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M81" s="27"/>
+    </row>
+    <row r="82" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="1"/>
@@ -2290,9 +2336,9 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="L82" s="27"/>
-    </row>
-    <row r="83" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M82" s="27"/>
+    </row>
+    <row r="83" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="1"/>
@@ -2303,9 +2349,9 @@
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="L83" s="27"/>
-    </row>
-    <row r="84" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M83" s="27"/>
+    </row>
+    <row r="84" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="4"/>
@@ -2316,9 +2362,9 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="L84" s="27"/>
-    </row>
-    <row r="85" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M84" s="27"/>
+    </row>
+    <row r="85" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2329,9 +2375,9 @@
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
-      <c r="L85" s="27"/>
-    </row>
-    <row r="86" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M85" s="27"/>
+    </row>
+    <row r="86" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2342,9 +2388,9 @@
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
-      <c r="L86" s="27"/>
-    </row>
-    <row r="87" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M86" s="27"/>
+    </row>
+    <row r="87" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2355,9 +2401,9 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="L87" s="27"/>
-    </row>
-    <row r="88" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M87" s="27"/>
+    </row>
+    <row r="88" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2368,9 +2414,9 @@
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-      <c r="L88" s="27"/>
-    </row>
-    <row r="89" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M88" s="27"/>
+    </row>
+    <row r="89" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2381,9 +2427,9 @@
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="L89" s="27"/>
-    </row>
-    <row r="90" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M89" s="27"/>
+    </row>
+    <row r="90" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2394,9 +2440,9 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="L90" s="27"/>
-    </row>
-    <row r="91" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M90" s="27"/>
+    </row>
+    <row r="91" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2407,9 +2453,9 @@
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
-      <c r="L91" s="27"/>
-    </row>
-    <row r="92" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M91" s="27"/>
+    </row>
+    <row r="92" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2420,9 +2466,9 @@
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-      <c r="L92" s="27"/>
-    </row>
-    <row r="93" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M92" s="27"/>
+    </row>
+    <row r="93" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -2433,9 +2479,9 @@
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
-      <c r="L93" s="27"/>
-    </row>
-    <row r="94" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M93" s="27"/>
+    </row>
+    <row r="94" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="1"/>
@@ -2446,9 +2492,9 @@
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
-      <c r="L94" s="27"/>
-    </row>
-    <row r="95" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M94" s="27"/>
+    </row>
+    <row r="95" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="1"/>
@@ -2459,9 +2505,9 @@
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
-      <c r="L95" s="27"/>
-    </row>
-    <row r="96" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M95" s="27"/>
+    </row>
+    <row r="96" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="4"/>
@@ -2472,9 +2518,9 @@
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
-      <c r="L96" s="27"/>
-    </row>
-    <row r="97" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M96" s="27"/>
+    </row>
+    <row r="97" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2485,9 +2531,9 @@
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
-      <c r="L97" s="27"/>
-    </row>
-    <row r="98" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M97" s="27"/>
+    </row>
+    <row r="98" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2498,9 +2544,9 @@
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
-      <c r="L98" s="27"/>
-    </row>
-    <row r="99" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M98" s="27"/>
+    </row>
+    <row r="99" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2511,9 +2557,9 @@
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
-      <c r="L99" s="27"/>
-    </row>
-    <row r="100" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M99" s="27"/>
+    </row>
+    <row r="100" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2524,9 +2570,9 @@
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
-      <c r="L100" s="27"/>
-    </row>
-    <row r="101" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M100" s="27"/>
+    </row>
+    <row r="101" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2537,9 +2583,9 @@
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
-      <c r="L101" s="27"/>
-    </row>
-    <row r="102" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M101" s="27"/>
+    </row>
+    <row r="102" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2550,9 +2596,9 @@
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
-      <c r="L102" s="27"/>
-    </row>
-    <row r="103" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M102" s="27"/>
+    </row>
+    <row r="103" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2563,9 +2609,9 @@
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
-      <c r="L103" s="27"/>
-    </row>
-    <row r="104" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M103" s="27"/>
+    </row>
+    <row r="104" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2576,9 +2622,9 @@
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
-      <c r="L104" s="27"/>
-    </row>
-    <row r="105" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M104" s="27"/>
+    </row>
+    <row r="105" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -2589,9 +2635,9 @@
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
-      <c r="L105" s="27"/>
-    </row>
-    <row r="106" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M105" s="27"/>
+    </row>
+    <row r="106" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="1"/>
@@ -2602,9 +2648,9 @@
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
-      <c r="L106" s="27"/>
-    </row>
-    <row r="107" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M106" s="27"/>
+    </row>
+    <row r="107" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="1"/>
@@ -2615,9 +2661,9 @@
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
-      <c r="L107" s="27"/>
-    </row>
-    <row r="108" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M107" s="27"/>
+    </row>
+    <row r="108" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="4"/>
@@ -2628,9 +2674,9 @@
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
-      <c r="L108" s="27"/>
-    </row>
-    <row r="109" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M108" s="27"/>
+    </row>
+    <row r="109" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2641,9 +2687,9 @@
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
-      <c r="L109" s="27"/>
-    </row>
-    <row r="110" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M109" s="27"/>
+    </row>
+    <row r="110" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2654,9 +2700,9 @@
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
-      <c r="L110" s="27"/>
-    </row>
-    <row r="111" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M110" s="27"/>
+    </row>
+    <row r="111" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -2667,9 +2713,9 @@
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
-      <c r="L111" s="27"/>
-    </row>
-    <row r="112" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M111" s="27"/>
+    </row>
+    <row r="112" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -2680,9 +2726,9 @@
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
-      <c r="L112" s="27"/>
-    </row>
-    <row r="113" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M112" s="27"/>
+    </row>
+    <row r="113" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -2693,9 +2739,9 @@
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
-      <c r="L113" s="27"/>
-    </row>
-    <row r="114" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M113" s="27"/>
+    </row>
+    <row r="114" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -2706,9 +2752,9 @@
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
-      <c r="L114" s="27"/>
-    </row>
-    <row r="115" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M114" s="27"/>
+    </row>
+    <row r="115" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -2719,9 +2765,9 @@
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
-      <c r="L115" s="27"/>
-    </row>
-    <row r="116" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M115" s="27"/>
+    </row>
+    <row r="116" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -2732,9 +2778,9 @@
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
-      <c r="L116" s="27"/>
-    </row>
-    <row r="117" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M116" s="27"/>
+    </row>
+    <row r="117" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -2745,9 +2791,9 @@
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
-      <c r="L117" s="27"/>
-    </row>
-    <row r="118" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M117" s="27"/>
+    </row>
+    <row r="118" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="1"/>
@@ -2758,9 +2804,9 @@
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
-      <c r="L118" s="27"/>
-    </row>
-    <row r="119" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M118" s="27"/>
+    </row>
+    <row r="119" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="1"/>
@@ -2771,9 +2817,9 @@
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
-      <c r="L119" s="27"/>
-    </row>
-    <row r="120" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M119" s="27"/>
+    </row>
+    <row r="120" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="4"/>
@@ -2784,9 +2830,9 @@
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
-      <c r="L120" s="27"/>
-    </row>
-    <row r="121" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M120" s="27"/>
+    </row>
+    <row r="121" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -2797,9 +2843,9 @@
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
-      <c r="L121" s="27"/>
-    </row>
-    <row r="122" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M121" s="27"/>
+    </row>
+    <row r="122" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -2810,9 +2856,9 @@
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
-      <c r="L122" s="27"/>
-    </row>
-    <row r="123" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M122" s="27"/>
+    </row>
+    <row r="123" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -2823,9 +2869,9 @@
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
-      <c r="L123" s="27"/>
-    </row>
-    <row r="124" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M123" s="27"/>
+    </row>
+    <row r="124" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -2836,9 +2882,9 @@
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
-      <c r="L124" s="27"/>
-    </row>
-    <row r="125" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M124" s="27"/>
+    </row>
+    <row r="125" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -2849,9 +2895,9 @@
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
-      <c r="L125" s="27"/>
-    </row>
-    <row r="126" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M125" s="27"/>
+    </row>
+    <row r="126" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -2862,9 +2908,9 @@
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
-      <c r="L126" s="27"/>
-    </row>
-    <row r="127" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M126" s="27"/>
+    </row>
+    <row r="127" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -2875,9 +2921,9 @@
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
-      <c r="L127" s="27"/>
-    </row>
-    <row r="128" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M127" s="27"/>
+    </row>
+    <row r="128" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -2888,9 +2934,9 @@
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
-      <c r="L128" s="27"/>
-    </row>
-    <row r="129" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M128" s="27"/>
+    </row>
+    <row r="129" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -2901,9 +2947,9 @@
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
-      <c r="L129" s="27"/>
-    </row>
-    <row r="130" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M129" s="27"/>
+    </row>
+    <row r="130" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="1"/>
@@ -2914,9 +2960,9 @@
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
-      <c r="L130" s="27"/>
-    </row>
-    <row r="131" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M130" s="27"/>
+    </row>
+    <row r="131" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="1"/>
@@ -2927,9 +2973,9 @@
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
-      <c r="L131" s="27"/>
-    </row>
-    <row r="132" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M131" s="27"/>
+    </row>
+    <row r="132" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="4"/>
@@ -2940,9 +2986,9 @@
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
-      <c r="L132" s="27"/>
-    </row>
-    <row r="133" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M132" s="27"/>
+    </row>
+    <row r="133" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -2953,9 +2999,9 @@
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
-      <c r="L133" s="27"/>
-    </row>
-    <row r="134" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M133" s="27"/>
+    </row>
+    <row r="134" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -2966,9 +3012,9 @@
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
-      <c r="L134" s="27"/>
-    </row>
-    <row r="135" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M134" s="27"/>
+    </row>
+    <row r="135" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -2979,9 +3025,9 @@
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
-      <c r="L135" s="27"/>
-    </row>
-    <row r="136" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M135" s="27"/>
+    </row>
+    <row r="136" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -2992,9 +3038,9 @@
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
-      <c r="L136" s="27"/>
-    </row>
-    <row r="137" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M136" s="27"/>
+    </row>
+    <row r="137" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -3005,9 +3051,9 @@
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
-      <c r="L137" s="27"/>
-    </row>
-    <row r="138" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M137" s="27"/>
+    </row>
+    <row r="138" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -3018,9 +3064,9 @@
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
-      <c r="L138" s="27"/>
-    </row>
-    <row r="139" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M138" s="27"/>
+    </row>
+    <row r="139" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -3031,9 +3077,9 @@
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
-      <c r="L139" s="27"/>
-    </row>
-    <row r="140" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M139" s="27"/>
+    </row>
+    <row r="140" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -3044,9 +3090,9 @@
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
-      <c r="L140" s="27"/>
-    </row>
-    <row r="141" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M140" s="27"/>
+    </row>
+    <row r="141" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -3057,9 +3103,9 @@
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
-      <c r="L141" s="27"/>
-    </row>
-    <row r="142" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M141" s="27"/>
+    </row>
+    <row r="142" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="1"/>
@@ -3070,9 +3116,9 @@
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
-      <c r="L142" s="27"/>
-    </row>
-    <row r="143" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M142" s="27"/>
+    </row>
+    <row r="143" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="1"/>
@@ -3083,9 +3129,9 @@
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
-      <c r="L143" s="27"/>
-    </row>
-    <row r="144" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M143" s="27"/>
+    </row>
+    <row r="144" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="4"/>
@@ -3096,9 +3142,9 @@
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
-      <c r="L144" s="27"/>
-    </row>
-    <row r="145" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M144" s="27"/>
+    </row>
+    <row r="145" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -3109,9 +3155,9 @@
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
-      <c r="L145" s="27"/>
-    </row>
-    <row r="146" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M145" s="27"/>
+    </row>
+    <row r="146" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -3122,9 +3168,9 @@
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
-      <c r="L146" s="27"/>
-    </row>
-    <row r="147" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M146" s="27"/>
+    </row>
+    <row r="147" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -3135,9 +3181,9 @@
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
-      <c r="L147" s="27"/>
-    </row>
-    <row r="148" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M147" s="27"/>
+    </row>
+    <row r="148" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -3148,9 +3194,9 @@
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
-      <c r="L148" s="27"/>
-    </row>
-    <row r="149" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M148" s="27"/>
+    </row>
+    <row r="149" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -3161,9 +3207,9 @@
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
-      <c r="L149" s="27"/>
-    </row>
-    <row r="150" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M149" s="27"/>
+    </row>
+    <row r="150" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -3174,9 +3220,9 @@
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
-      <c r="L150" s="27"/>
-    </row>
-    <row r="151" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M150" s="27"/>
+    </row>
+    <row r="151" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -3187,9 +3233,9 @@
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
-      <c r="L151" s="27"/>
-    </row>
-    <row r="152" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M151" s="27"/>
+    </row>
+    <row r="152" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -3200,9 +3246,9 @@
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
-      <c r="L152" s="27"/>
-    </row>
-    <row r="153" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M152" s="27"/>
+    </row>
+    <row r="153" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -3213,9 +3259,9 @@
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
-      <c r="L153" s="27"/>
-    </row>
-    <row r="154" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M153" s="27"/>
+    </row>
+    <row r="154" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="1"/>
@@ -3226,9 +3272,9 @@
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
-      <c r="L154" s="27"/>
-    </row>
-    <row r="155" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M154" s="27"/>
+    </row>
+    <row r="155" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="1"/>
@@ -3239,9 +3285,9 @@
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
-      <c r="L155" s="27"/>
-    </row>
-    <row r="156" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M155" s="27"/>
+    </row>
+    <row r="156" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="4"/>
@@ -3252,9 +3298,9 @@
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
-      <c r="L156" s="27"/>
-    </row>
-    <row r="157" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M156" s="27"/>
+    </row>
+    <row r="157" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -3265,9 +3311,9 @@
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
-      <c r="L157" s="27"/>
-    </row>
-    <row r="158" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M157" s="27"/>
+    </row>
+    <row r="158" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -3278,9 +3324,9 @@
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
-      <c r="L158" s="27"/>
-    </row>
-    <row r="159" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M158" s="27"/>
+    </row>
+    <row r="159" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -3291,9 +3337,9 @@
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
-      <c r="L159" s="27"/>
-    </row>
-    <row r="160" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M159" s="27"/>
+    </row>
+    <row r="160" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -3304,9 +3350,9 @@
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
-      <c r="L160" s="27"/>
-    </row>
-    <row r="161" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M160" s="27"/>
+    </row>
+    <row r="161" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -3317,9 +3363,9 @@
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
-      <c r="L161" s="27"/>
-    </row>
-    <row r="162" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M161" s="27"/>
+    </row>
+    <row r="162" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -3330,9 +3376,9 @@
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
-      <c r="L162" s="27"/>
-    </row>
-    <row r="163" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M162" s="27"/>
+    </row>
+    <row r="163" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -3343,9 +3389,9 @@
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
-      <c r="L163" s="27"/>
-    </row>
-    <row r="164" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M163" s="27"/>
+    </row>
+    <row r="164" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -3356,9 +3402,9 @@
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
-      <c r="L164" s="27"/>
-    </row>
-    <row r="165" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M164" s="27"/>
+    </row>
+    <row r="165" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -3369,9 +3415,9 @@
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
-      <c r="L165" s="27"/>
-    </row>
-    <row r="166" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M165" s="27"/>
+    </row>
+    <row r="166" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="1"/>
@@ -3382,9 +3428,9 @@
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
-      <c r="L166" s="27"/>
-    </row>
-    <row r="167" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M166" s="27"/>
+    </row>
+    <row r="167" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="1"/>
@@ -3395,9 +3441,9 @@
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
-      <c r="L167" s="27"/>
-    </row>
-    <row r="168" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M167" s="27"/>
+    </row>
+    <row r="168" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="4"/>
@@ -3408,9 +3454,9 @@
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
-      <c r="L168" s="27"/>
-    </row>
-    <row r="169" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M168" s="27"/>
+    </row>
+    <row r="169" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -3421,9 +3467,9 @@
       <c r="H169" s="4"/>
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
-      <c r="L169" s="27"/>
-    </row>
-    <row r="170" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M169" s="27"/>
+    </row>
+    <row r="170" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -3434,9 +3480,9 @@
       <c r="H170" s="4"/>
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
-      <c r="L170" s="27"/>
-    </row>
-    <row r="171" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M170" s="27"/>
+    </row>
+    <row r="171" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -3447,9 +3493,9 @@
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
-      <c r="L171" s="27"/>
-    </row>
-    <row r="172" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M171" s="27"/>
+    </row>
+    <row r="172" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -3460,9 +3506,9 @@
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
-      <c r="L172" s="27"/>
-    </row>
-    <row r="173" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M172" s="27"/>
+    </row>
+    <row r="173" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -3473,9 +3519,9 @@
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
-      <c r="L173" s="27"/>
-    </row>
-    <row r="174" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M173" s="27"/>
+    </row>
+    <row r="174" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -3486,9 +3532,9 @@
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
-      <c r="L174" s="27"/>
-    </row>
-    <row r="175" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M174" s="27"/>
+    </row>
+    <row r="175" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -3499,9 +3545,9 @@
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
-      <c r="L175" s="27"/>
-    </row>
-    <row r="176" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M175" s="27"/>
+    </row>
+    <row r="176" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -3512,9 +3558,9 @@
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
-      <c r="L176" s="27"/>
-    </row>
-    <row r="177" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M176" s="27"/>
+    </row>
+    <row r="177" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -3525,9 +3571,9 @@
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
-      <c r="L177" s="27"/>
-    </row>
-    <row r="178" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M177" s="27"/>
+    </row>
+    <row r="178" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="1"/>
@@ -3538,9 +3584,9 @@
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
-      <c r="L178" s="27"/>
-    </row>
-    <row r="179" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M178" s="27"/>
+    </row>
+    <row r="179" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="1"/>
@@ -3551,9 +3597,9 @@
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
-      <c r="L179" s="27"/>
-    </row>
-    <row r="180" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M179" s="27"/>
+    </row>
+    <row r="180" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="4"/>
@@ -3564,9 +3610,9 @@
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
-      <c r="L180" s="27"/>
-    </row>
-    <row r="181" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M180" s="27"/>
+    </row>
+    <row r="181" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -3577,9 +3623,9 @@
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
-      <c r="L181" s="27"/>
-    </row>
-    <row r="182" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M181" s="27"/>
+    </row>
+    <row r="182" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -3590,9 +3636,9 @@
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
-      <c r="L182" s="27"/>
-    </row>
-    <row r="183" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M182" s="27"/>
+    </row>
+    <row r="183" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -3603,9 +3649,9 @@
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
-      <c r="L183" s="27"/>
-    </row>
-    <row r="184" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M183" s="27"/>
+    </row>
+    <row r="184" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -3616,9 +3662,9 @@
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
-      <c r="L184" s="27"/>
-    </row>
-    <row r="185" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M184" s="27"/>
+    </row>
+    <row r="185" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -3629,9 +3675,9 @@
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
-      <c r="L185" s="27"/>
-    </row>
-    <row r="186" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M185" s="27"/>
+    </row>
+    <row r="186" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -3642,9 +3688,9 @@
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
-      <c r="L186" s="27"/>
-    </row>
-    <row r="187" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M186" s="27"/>
+    </row>
+    <row r="187" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -3655,9 +3701,9 @@
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
-      <c r="L187" s="27"/>
-    </row>
-    <row r="188" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M187" s="27"/>
+    </row>
+    <row r="188" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -3668,9 +3714,9 @@
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
-      <c r="L188" s="27"/>
-    </row>
-    <row r="189" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M188" s="27"/>
+    </row>
+    <row r="189" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -3681,9 +3727,9 @@
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
-      <c r="L189" s="27"/>
-    </row>
-    <row r="190" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M189" s="27"/>
+    </row>
+    <row r="190" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="1"/>
@@ -3694,9 +3740,9 @@
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
       <c r="J190" s="4"/>
-      <c r="L190" s="27"/>
-    </row>
-    <row r="191" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M190" s="27"/>
+    </row>
+    <row r="191" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="1"/>
@@ -3707,9 +3753,9 @@
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
-      <c r="L191" s="27"/>
-    </row>
-    <row r="192" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M191" s="27"/>
+    </row>
+    <row r="192" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="4"/>
@@ -3720,9 +3766,9 @@
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
-      <c r="L192" s="27"/>
-    </row>
-    <row r="193" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M192" s="27"/>
+    </row>
+    <row r="193" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -3733,9 +3779,9 @@
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
-      <c r="L193" s="27"/>
-    </row>
-    <row r="194" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M193" s="27"/>
+    </row>
+    <row r="194" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -3746,9 +3792,9 @@
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
-      <c r="L194" s="27"/>
-    </row>
-    <row r="195" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M194" s="27"/>
+    </row>
+    <row r="195" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -3759,9 +3805,9 @@
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
-      <c r="L195" s="27"/>
-    </row>
-    <row r="196" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M195" s="27"/>
+    </row>
+    <row r="196" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -3772,9 +3818,9 @@
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
-      <c r="L196" s="27"/>
-    </row>
-    <row r="197" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M196" s="27"/>
+    </row>
+    <row r="197" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -3785,9 +3831,9 @@
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
       <c r="J197" s="4"/>
-      <c r="L197" s="27"/>
-    </row>
-    <row r="198" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M197" s="27"/>
+    </row>
+    <row r="198" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -3798,9 +3844,9 @@
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
-      <c r="L198" s="27"/>
-    </row>
-    <row r="199" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M198" s="27"/>
+    </row>
+    <row r="199" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -3811,9 +3857,9 @@
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
-      <c r="L199" s="27"/>
-    </row>
-    <row r="200" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M199" s="27"/>
+    </row>
+    <row r="200" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -3824,9 +3870,9 @@
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
-      <c r="L200" s="27"/>
-    </row>
-    <row r="201" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M200" s="27"/>
+    </row>
+    <row r="201" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -3837,9 +3883,9 @@
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
-      <c r="L201" s="27"/>
-    </row>
-    <row r="202" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M201" s="27"/>
+    </row>
+    <row r="202" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="1"/>
@@ -3850,9 +3896,9 @@
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
-      <c r="L202" s="27"/>
-    </row>
-    <row r="203" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M202" s="27"/>
+    </row>
+    <row r="203" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="1"/>
@@ -3863,9 +3909,9 @@
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
-      <c r="L203" s="27"/>
-    </row>
-    <row r="204" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M203" s="27"/>
+    </row>
+    <row r="204" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="4"/>
@@ -3876,9 +3922,9 @@
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
-      <c r="L204" s="27"/>
-    </row>
-    <row r="205" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M204" s="27"/>
+    </row>
+    <row r="205" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -3889,9 +3935,9 @@
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
       <c r="J205" s="4"/>
-      <c r="L205" s="27"/>
-    </row>
-    <row r="206" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M205" s="27"/>
+    </row>
+    <row r="206" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -3902,9 +3948,9 @@
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
-      <c r="L206" s="27"/>
-    </row>
-    <row r="207" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M206" s="27"/>
+    </row>
+    <row r="207" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -3915,9 +3961,9 @@
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
-      <c r="L207" s="27"/>
-    </row>
-    <row r="208" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M207" s="27"/>
+    </row>
+    <row r="208" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -3928,9 +3974,9 @@
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
-      <c r="L208" s="27"/>
-    </row>
-    <row r="209" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M208" s="27"/>
+    </row>
+    <row r="209" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -3941,9 +3987,9 @@
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
-      <c r="L209" s="27"/>
-    </row>
-    <row r="210" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M209" s="27"/>
+    </row>
+    <row r="210" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -3954,9 +4000,9 @@
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
-      <c r="L210" s="27"/>
-    </row>
-    <row r="211" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M210" s="27"/>
+    </row>
+    <row r="211" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -3967,9 +4013,9 @@
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
       <c r="J211" s="4"/>
-      <c r="L211" s="27"/>
-    </row>
-    <row r="212" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M211" s="27"/>
+    </row>
+    <row r="212" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -3980,9 +4026,9 @@
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
-      <c r="L212" s="27"/>
-    </row>
-    <row r="213" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M212" s="27"/>
+    </row>
+    <row r="213" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -3993,9 +4039,9 @@
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
       <c r="J213" s="4"/>
-      <c r="L213" s="27"/>
-    </row>
-    <row r="214" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M213" s="27"/>
+    </row>
+    <row r="214" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="1"/>
@@ -4006,9 +4052,9 @@
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
       <c r="J214" s="4"/>
-      <c r="L214" s="27"/>
-    </row>
-    <row r="215" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M214" s="27"/>
+    </row>
+    <row r="215" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="1"/>
@@ -4019,9 +4065,9 @@
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
       <c r="J215" s="4"/>
-      <c r="L215" s="27"/>
-    </row>
-    <row r="216" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M215" s="27"/>
+    </row>
+    <row r="216" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="4"/>
@@ -4032,9 +4078,9 @@
       <c r="H216" s="4"/>
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
-      <c r="L216" s="27"/>
-    </row>
-    <row r="217" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M216" s="27"/>
+    </row>
+    <row r="217" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -4045,9 +4091,9 @@
       <c r="H217" s="4"/>
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
-      <c r="L217" s="27"/>
-    </row>
-    <row r="218" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M217" s="27"/>
+    </row>
+    <row r="218" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -4058,9 +4104,9 @@
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
-      <c r="L218" s="27"/>
-    </row>
-    <row r="219" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M218" s="27"/>
+    </row>
+    <row r="219" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -4071,9 +4117,9 @@
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
-      <c r="L219" s="27"/>
-    </row>
-    <row r="220" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M219" s="27"/>
+    </row>
+    <row r="220" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -4084,9 +4130,9 @@
       <c r="H220" s="4"/>
       <c r="I220" s="4"/>
       <c r="J220" s="4"/>
-      <c r="L220" s="27"/>
-    </row>
-    <row r="221" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M220" s="27"/>
+    </row>
+    <row r="221" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -4097,9 +4143,9 @@
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
-      <c r="L221" s="27"/>
-    </row>
-    <row r="222" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M221" s="27"/>
+    </row>
+    <row r="222" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -4110,9 +4156,9 @@
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
-      <c r="L222" s="27"/>
-    </row>
-    <row r="223" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M222" s="27"/>
+    </row>
+    <row r="223" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -4123,9 +4169,9 @@
       <c r="H223" s="4"/>
       <c r="I223" s="4"/>
       <c r="J223" s="4"/>
-      <c r="L223" s="27"/>
-    </row>
-    <row r="224" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M223" s="27"/>
+    </row>
+    <row r="224" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -4136,9 +4182,9 @@
       <c r="H224" s="4"/>
       <c r="I224" s="4"/>
       <c r="J224" s="4"/>
-      <c r="L224" s="27"/>
-    </row>
-    <row r="225" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M224" s="27"/>
+    </row>
+    <row r="225" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -4149,9 +4195,9 @@
       <c r="H225" s="4"/>
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
-      <c r="L225" s="27"/>
-    </row>
-    <row r="226" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M225" s="27"/>
+    </row>
+    <row r="226" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="1"/>
@@ -4162,9 +4208,9 @@
       <c r="H226" s="4"/>
       <c r="I226" s="4"/>
       <c r="J226" s="4"/>
-      <c r="L226" s="27"/>
-    </row>
-    <row r="227" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M226" s="27"/>
+    </row>
+    <row r="227" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="1"/>
@@ -4175,9 +4221,9 @@
       <c r="H227" s="4"/>
       <c r="I227" s="4"/>
       <c r="J227" s="4"/>
-      <c r="L227" s="27"/>
-    </row>
-    <row r="228" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M227" s="27"/>
+    </row>
+    <row r="228" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="4"/>
@@ -4188,9 +4234,9 @@
       <c r="H228" s="4"/>
       <c r="I228" s="4"/>
       <c r="J228" s="4"/>
-      <c r="L228" s="27"/>
-    </row>
-    <row r="229" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M228" s="27"/>
+    </row>
+    <row r="229" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -4201,9 +4247,9 @@
       <c r="H229" s="4"/>
       <c r="I229" s="4"/>
       <c r="J229" s="4"/>
-      <c r="L229" s="27"/>
-    </row>
-    <row r="230" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M229" s="27"/>
+    </row>
+    <row r="230" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -4214,9 +4260,9 @@
       <c r="H230" s="4"/>
       <c r="I230" s="4"/>
       <c r="J230" s="4"/>
-      <c r="L230" s="27"/>
-    </row>
-    <row r="231" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M230" s="27"/>
+    </row>
+    <row r="231" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -4227,9 +4273,9 @@
       <c r="H231" s="4"/>
       <c r="I231" s="4"/>
       <c r="J231" s="4"/>
-      <c r="L231" s="27"/>
-    </row>
-    <row r="232" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M231" s="27"/>
+    </row>
+    <row r="232" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -4240,9 +4286,9 @@
       <c r="H232" s="4"/>
       <c r="I232" s="4"/>
       <c r="J232" s="4"/>
-      <c r="L232" s="27"/>
-    </row>
-    <row r="233" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M232" s="27"/>
+    </row>
+    <row r="233" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -4253,9 +4299,9 @@
       <c r="H233" s="4"/>
       <c r="I233" s="4"/>
       <c r="J233" s="4"/>
-      <c r="L233" s="27"/>
-    </row>
-    <row r="234" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M233" s="27"/>
+    </row>
+    <row r="234" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -4266,9 +4312,9 @@
       <c r="H234" s="4"/>
       <c r="I234" s="4"/>
       <c r="J234" s="4"/>
-      <c r="L234" s="27"/>
-    </row>
-    <row r="235" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M234" s="27"/>
+    </row>
+    <row r="235" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -4279,9 +4325,9 @@
       <c r="H235" s="4"/>
       <c r="I235" s="4"/>
       <c r="J235" s="4"/>
-      <c r="L235" s="27"/>
-    </row>
-    <row r="236" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M235" s="27"/>
+    </row>
+    <row r="236" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -4292,9 +4338,9 @@
       <c r="H236" s="4"/>
       <c r="I236" s="4"/>
       <c r="J236" s="4"/>
-      <c r="L236" s="27"/>
-    </row>
-    <row r="237" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M236" s="27"/>
+    </row>
+    <row r="237" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -4305,9 +4351,9 @@
       <c r="H237" s="4"/>
       <c r="I237" s="4"/>
       <c r="J237" s="4"/>
-      <c r="L237" s="27"/>
-    </row>
-    <row r="238" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M237" s="27"/>
+    </row>
+    <row r="238" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="1"/>
@@ -4318,9 +4364,9 @@
       <c r="H238" s="4"/>
       <c r="I238" s="4"/>
       <c r="J238" s="4"/>
-      <c r="L238" s="27"/>
-    </row>
-    <row r="239" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M238" s="27"/>
+    </row>
+    <row r="239" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="1"/>
@@ -4331,9 +4377,9 @@
       <c r="H239" s="4"/>
       <c r="I239" s="4"/>
       <c r="J239" s="4"/>
-      <c r="L239" s="27"/>
-    </row>
-    <row r="240" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M239" s="27"/>
+    </row>
+    <row r="240" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="4"/>
@@ -4344,9 +4390,9 @@
       <c r="H240" s="4"/>
       <c r="I240" s="4"/>
       <c r="J240" s="4"/>
-      <c r="L240" s="27"/>
-    </row>
-    <row r="241" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M240" s="27"/>
+    </row>
+    <row r="241" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -4357,9 +4403,9 @@
       <c r="H241" s="4"/>
       <c r="I241" s="4"/>
       <c r="J241" s="4"/>
-      <c r="L241" s="27"/>
-    </row>
-    <row r="242" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M241" s="27"/>
+    </row>
+    <row r="242" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -4370,9 +4416,9 @@
       <c r="H242" s="4"/>
       <c r="I242" s="4"/>
       <c r="J242" s="4"/>
-      <c r="L242" s="27"/>
-    </row>
-    <row r="243" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M242" s="27"/>
+    </row>
+    <row r="243" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -4383,9 +4429,9 @@
       <c r="H243" s="4"/>
       <c r="I243" s="4"/>
       <c r="J243" s="4"/>
-      <c r="L243" s="27"/>
-    </row>
-    <row r="244" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M243" s="27"/>
+    </row>
+    <row r="244" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -4396,9 +4442,9 @@
       <c r="H244" s="4"/>
       <c r="I244" s="4"/>
       <c r="J244" s="4"/>
-      <c r="L244" s="27"/>
-    </row>
-    <row r="245" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M244" s="27"/>
+    </row>
+    <row r="245" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -4409,9 +4455,9 @@
       <c r="H245" s="4"/>
       <c r="I245" s="4"/>
       <c r="J245" s="4"/>
-      <c r="L245" s="27"/>
-    </row>
-    <row r="246" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M245" s="27"/>
+    </row>
+    <row r="246" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -4422,9 +4468,9 @@
       <c r="H246" s="4"/>
       <c r="I246" s="4"/>
       <c r="J246" s="4"/>
-      <c r="L246" s="27"/>
-    </row>
-    <row r="247" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M246" s="27"/>
+    </row>
+    <row r="247" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -4435,9 +4481,9 @@
       <c r="H247" s="4"/>
       <c r="I247" s="4"/>
       <c r="J247" s="4"/>
-      <c r="L247" s="27"/>
-    </row>
-    <row r="248" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M247" s="27"/>
+    </row>
+    <row r="248" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -4448,9 +4494,9 @@
       <c r="H248" s="4"/>
       <c r="I248" s="4"/>
       <c r="J248" s="4"/>
-      <c r="L248" s="27"/>
-    </row>
-    <row r="249" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M248" s="27"/>
+    </row>
+    <row r="249" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -4461,9 +4507,9 @@
       <c r="H249" s="4"/>
       <c r="I249" s="4"/>
       <c r="J249" s="4"/>
-      <c r="L249" s="27"/>
-    </row>
-    <row r="250" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M249" s="27"/>
+    </row>
+    <row r="250" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="1"/>
@@ -4474,9 +4520,9 @@
       <c r="H250" s="4"/>
       <c r="I250" s="4"/>
       <c r="J250" s="4"/>
-      <c r="L250" s="27"/>
-    </row>
-    <row r="251" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M250" s="27"/>
+    </row>
+    <row r="251" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="1"/>
@@ -4487,9 +4533,9 @@
       <c r="H251" s="4"/>
       <c r="I251" s="4"/>
       <c r="J251" s="4"/>
-      <c r="L251" s="27"/>
-    </row>
-    <row r="252" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M251" s="27"/>
+    </row>
+    <row r="252" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="4"/>
@@ -4500,9 +4546,9 @@
       <c r="H252" s="4"/>
       <c r="I252" s="4"/>
       <c r="J252" s="4"/>
-      <c r="L252" s="27"/>
-    </row>
-    <row r="253" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M252" s="27"/>
+    </row>
+    <row r="253" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -4513,9 +4559,9 @@
       <c r="H253" s="4"/>
       <c r="I253" s="4"/>
       <c r="J253" s="4"/>
-      <c r="L253" s="27"/>
-    </row>
-    <row r="254" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M253" s="27"/>
+    </row>
+    <row r="254" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -4526,9 +4572,9 @@
       <c r="H254" s="4"/>
       <c r="I254" s="4"/>
       <c r="J254" s="4"/>
-      <c r="L254" s="27"/>
-    </row>
-    <row r="255" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M254" s="27"/>
+    </row>
+    <row r="255" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -4539,9 +4585,9 @@
       <c r="H255" s="4"/>
       <c r="I255" s="4"/>
       <c r="J255" s="4"/>
-      <c r="L255" s="27"/>
-    </row>
-    <row r="256" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M255" s="27"/>
+    </row>
+    <row r="256" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -4552,9 +4598,9 @@
       <c r="H256" s="4"/>
       <c r="I256" s="4"/>
       <c r="J256" s="4"/>
-      <c r="L256" s="27"/>
-    </row>
-    <row r="257" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M256" s="27"/>
+    </row>
+    <row r="257" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -4565,9 +4611,9 @@
       <c r="H257" s="4"/>
       <c r="I257" s="4"/>
       <c r="J257" s="4"/>
-      <c r="L257" s="27"/>
-    </row>
-    <row r="258" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M257" s="27"/>
+    </row>
+    <row r="258" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -4578,9 +4624,9 @@
       <c r="H258" s="4"/>
       <c r="I258" s="4"/>
       <c r="J258" s="4"/>
-      <c r="L258" s="27"/>
-    </row>
-    <row r="259" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M258" s="27"/>
+    </row>
+    <row r="259" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -4591,9 +4637,9 @@
       <c r="H259" s="4"/>
       <c r="I259" s="4"/>
       <c r="J259" s="4"/>
-      <c r="L259" s="27"/>
-    </row>
-    <row r="260" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M259" s="27"/>
+    </row>
+    <row r="260" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -4604,9 +4650,9 @@
       <c r="H260" s="4"/>
       <c r="I260" s="4"/>
       <c r="J260" s="4"/>
-      <c r="L260" s="27"/>
-    </row>
-    <row r="261" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M260" s="27"/>
+    </row>
+    <row r="261" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -4617,9 +4663,9 @@
       <c r="H261" s="4"/>
       <c r="I261" s="4"/>
       <c r="J261" s="4"/>
-      <c r="L261" s="27"/>
-    </row>
-    <row r="262" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M261" s="27"/>
+    </row>
+    <row r="262" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="1"/>
@@ -4630,9 +4676,9 @@
       <c r="H262" s="4"/>
       <c r="I262" s="4"/>
       <c r="J262" s="4"/>
-      <c r="L262" s="27"/>
-    </row>
-    <row r="263" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M262" s="27"/>
+    </row>
+    <row r="263" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="1"/>
@@ -4643,9 +4689,9 @@
       <c r="H263" s="4"/>
       <c r="I263" s="4"/>
       <c r="J263" s="4"/>
-      <c r="L263" s="27"/>
-    </row>
-    <row r="264" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M263" s="27"/>
+    </row>
+    <row r="264" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="4"/>
@@ -4656,9 +4702,9 @@
       <c r="H264" s="4"/>
       <c r="I264" s="4"/>
       <c r="J264" s="4"/>
-      <c r="L264" s="27"/>
-    </row>
-    <row r="265" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M264" s="27"/>
+    </row>
+    <row r="265" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -4669,9 +4715,9 @@
       <c r="H265" s="4"/>
       <c r="I265" s="4"/>
       <c r="J265" s="4"/>
-      <c r="L265" s="27"/>
-    </row>
-    <row r="266" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M265" s="27"/>
+    </row>
+    <row r="266" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -4682,9 +4728,9 @@
       <c r="H266" s="4"/>
       <c r="I266" s="4"/>
       <c r="J266" s="4"/>
-      <c r="L266" s="27"/>
-    </row>
-    <row r="267" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M266" s="27"/>
+    </row>
+    <row r="267" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -4695,9 +4741,9 @@
       <c r="H267" s="4"/>
       <c r="I267" s="4"/>
       <c r="J267" s="4"/>
-      <c r="L267" s="27"/>
-    </row>
-    <row r="268" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M267" s="27"/>
+    </row>
+    <row r="268" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -4708,9 +4754,9 @@
       <c r="H268" s="4"/>
       <c r="I268" s="4"/>
       <c r="J268" s="4"/>
-      <c r="L268" s="27"/>
-    </row>
-    <row r="269" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M268" s="27"/>
+    </row>
+    <row r="269" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -4721,9 +4767,9 @@
       <c r="H269" s="4"/>
       <c r="I269" s="4"/>
       <c r="J269" s="4"/>
-      <c r="L269" s="27"/>
-    </row>
-    <row r="270" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M269" s="27"/>
+    </row>
+    <row r="270" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -4734,9 +4780,9 @@
       <c r="H270" s="4"/>
       <c r="I270" s="4"/>
       <c r="J270" s="4"/>
-      <c r="L270" s="27"/>
-    </row>
-    <row r="271" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M270" s="27"/>
+    </row>
+    <row r="271" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -4747,9 +4793,9 @@
       <c r="H271" s="4"/>
       <c r="I271" s="4"/>
       <c r="J271" s="4"/>
-      <c r="L271" s="27"/>
-    </row>
-    <row r="272" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M271" s="27"/>
+    </row>
+    <row r="272" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -4760,9 +4806,9 @@
       <c r="H272" s="4"/>
       <c r="I272" s="4"/>
       <c r="J272" s="4"/>
-      <c r="L272" s="27"/>
-    </row>
-    <row r="273" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M272" s="27"/>
+    </row>
+    <row r="273" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -4773,9 +4819,9 @@
       <c r="H273" s="4"/>
       <c r="I273" s="4"/>
       <c r="J273" s="4"/>
-      <c r="L273" s="27"/>
-    </row>
-    <row r="274" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M273" s="27"/>
+    </row>
+    <row r="274" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="1"/>
@@ -4786,9 +4832,9 @@
       <c r="H274" s="4"/>
       <c r="I274" s="4"/>
       <c r="J274" s="4"/>
-      <c r="L274" s="27"/>
-    </row>
-    <row r="275" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M274" s="27"/>
+    </row>
+    <row r="275" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="1"/>
@@ -4799,9 +4845,9 @@
       <c r="H275" s="4"/>
       <c r="I275" s="4"/>
       <c r="J275" s="4"/>
-      <c r="L275" s="27"/>
-    </row>
-    <row r="276" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M275" s="27"/>
+    </row>
+    <row r="276" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="4"/>
@@ -4812,9 +4858,9 @@
       <c r="H276" s="4"/>
       <c r="I276" s="4"/>
       <c r="J276" s="4"/>
-      <c r="L276" s="27"/>
-    </row>
-    <row r="277" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M276" s="27"/>
+    </row>
+    <row r="277" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -4825,9 +4871,9 @@
       <c r="H277" s="4"/>
       <c r="I277" s="4"/>
       <c r="J277" s="4"/>
-      <c r="L277" s="27"/>
-    </row>
-    <row r="278" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M277" s="27"/>
+    </row>
+    <row r="278" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -4838,9 +4884,9 @@
       <c r="H278" s="4"/>
       <c r="I278" s="4"/>
       <c r="J278" s="4"/>
-      <c r="L278" s="27"/>
-    </row>
-    <row r="279" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M278" s="27"/>
+    </row>
+    <row r="279" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -4851,9 +4897,9 @@
       <c r="H279" s="4"/>
       <c r="I279" s="4"/>
       <c r="J279" s="4"/>
-      <c r="L279" s="27"/>
-    </row>
-    <row r="280" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M279" s="27"/>
+    </row>
+    <row r="280" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -4864,9 +4910,9 @@
       <c r="H280" s="4"/>
       <c r="I280" s="4"/>
       <c r="J280" s="4"/>
-      <c r="L280" s="27"/>
-    </row>
-    <row r="281" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M280" s="27"/>
+    </row>
+    <row r="281" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -4877,9 +4923,9 @@
       <c r="H281" s="4"/>
       <c r="I281" s="4"/>
       <c r="J281" s="4"/>
-      <c r="L281" s="27"/>
-    </row>
-    <row r="282" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M281" s="27"/>
+    </row>
+    <row r="282" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -4890,9 +4936,9 @@
       <c r="H282" s="4"/>
       <c r="I282" s="4"/>
       <c r="J282" s="4"/>
-      <c r="L282" s="27"/>
-    </row>
-    <row r="283" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M282" s="27"/>
+    </row>
+    <row r="283" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -4903,9 +4949,9 @@
       <c r="H283" s="4"/>
       <c r="I283" s="4"/>
       <c r="J283" s="4"/>
-      <c r="L283" s="27"/>
-    </row>
-    <row r="284" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M283" s="27"/>
+    </row>
+    <row r="284" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -4916,9 +4962,9 @@
       <c r="H284" s="4"/>
       <c r="I284" s="4"/>
       <c r="J284" s="4"/>
-      <c r="L284" s="27"/>
-    </row>
-    <row r="285" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M284" s="27"/>
+    </row>
+    <row r="285" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -4929,9 +4975,9 @@
       <c r="H285" s="4"/>
       <c r="I285" s="4"/>
       <c r="J285" s="4"/>
-      <c r="L285" s="27"/>
-    </row>
-    <row r="286" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M285" s="27"/>
+    </row>
+    <row r="286" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="1"/>
@@ -4942,9 +4988,9 @@
       <c r="H286" s="4"/>
       <c r="I286" s="4"/>
       <c r="J286" s="4"/>
-      <c r="L286" s="27"/>
-    </row>
-    <row r="287" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M286" s="27"/>
+    </row>
+    <row r="287" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="1"/>
@@ -4955,9 +5001,9 @@
       <c r="H287" s="4"/>
       <c r="I287" s="4"/>
       <c r="J287" s="4"/>
-      <c r="L287" s="27"/>
-    </row>
-    <row r="288" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M287" s="27"/>
+    </row>
+    <row r="288" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="4"/>
@@ -4968,9 +5014,9 @@
       <c r="H288" s="4"/>
       <c r="I288" s="4"/>
       <c r="J288" s="4"/>
-      <c r="L288" s="27"/>
-    </row>
-    <row r="289" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M288" s="27"/>
+    </row>
+    <row r="289" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -4981,9 +5027,9 @@
       <c r="H289" s="4"/>
       <c r="I289" s="4"/>
       <c r="J289" s="4"/>
-      <c r="L289" s="27"/>
-    </row>
-    <row r="290" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M289" s="27"/>
+    </row>
+    <row r="290" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -4994,9 +5040,9 @@
       <c r="H290" s="4"/>
       <c r="I290" s="4"/>
       <c r="J290" s="4"/>
-      <c r="L290" s="27"/>
-    </row>
-    <row r="291" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M290" s="27"/>
+    </row>
+    <row r="291" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -5007,9 +5053,9 @@
       <c r="H291" s="4"/>
       <c r="I291" s="4"/>
       <c r="J291" s="4"/>
-      <c r="L291" s="27"/>
-    </row>
-    <row r="292" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M291" s="27"/>
+    </row>
+    <row r="292" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -5020,9 +5066,9 @@
       <c r="H292" s="4"/>
       <c r="I292" s="4"/>
       <c r="J292" s="4"/>
-      <c r="L292" s="27"/>
-    </row>
-    <row r="293" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M292" s="27"/>
+    </row>
+    <row r="293" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -5033,9 +5079,9 @@
       <c r="H293" s="4"/>
       <c r="I293" s="4"/>
       <c r="J293" s="4"/>
-      <c r="L293" s="27"/>
-    </row>
-    <row r="294" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M293" s="27"/>
+    </row>
+    <row r="294" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -5046,9 +5092,9 @@
       <c r="H294" s="4"/>
       <c r="I294" s="4"/>
       <c r="J294" s="4"/>
-      <c r="L294" s="27"/>
-    </row>
-    <row r="295" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M294" s="27"/>
+    </row>
+    <row r="295" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -5059,9 +5105,9 @@
       <c r="H295" s="4"/>
       <c r="I295" s="4"/>
       <c r="J295" s="4"/>
-      <c r="L295" s="27"/>
-    </row>
-    <row r="296" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M295" s="27"/>
+    </row>
+    <row r="296" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -5072,9 +5118,9 @@
       <c r="H296" s="4"/>
       <c r="I296" s="4"/>
       <c r="J296" s="4"/>
-      <c r="L296" s="27"/>
-    </row>
-    <row r="297" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M296" s="27"/>
+    </row>
+    <row r="297" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -5085,9 +5131,9 @@
       <c r="H297" s="4"/>
       <c r="I297" s="4"/>
       <c r="J297" s="4"/>
-      <c r="L297" s="27"/>
-    </row>
-    <row r="298" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M297" s="27"/>
+    </row>
+    <row r="298" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="1"/>
@@ -5098,9 +5144,9 @@
       <c r="H298" s="4"/>
       <c r="I298" s="4"/>
       <c r="J298" s="4"/>
-      <c r="L298" s="27"/>
-    </row>
-    <row r="299" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M298" s="27"/>
+    </row>
+    <row r="299" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="1"/>
@@ -5111,9 +5157,9 @@
       <c r="H299" s="4"/>
       <c r="I299" s="4"/>
       <c r="J299" s="4"/>
-      <c r="L299" s="27"/>
-    </row>
-    <row r="300" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M299" s="27"/>
+    </row>
+    <row r="300" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="4"/>
@@ -5124,9 +5170,9 @@
       <c r="H300" s="4"/>
       <c r="I300" s="4"/>
       <c r="J300" s="4"/>
-      <c r="L300" s="27"/>
-    </row>
-    <row r="301" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M300" s="27"/>
+    </row>
+    <row r="301" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -5137,9 +5183,9 @@
       <c r="H301" s="4"/>
       <c r="I301" s="4"/>
       <c r="J301" s="4"/>
-      <c r="L301" s="27"/>
-    </row>
-    <row r="302" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M301" s="27"/>
+    </row>
+    <row r="302" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -5150,9 +5196,9 @@
       <c r="H302" s="4"/>
       <c r="I302" s="4"/>
       <c r="J302" s="4"/>
-      <c r="L302" s="27"/>
-    </row>
-    <row r="303" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M302" s="27"/>
+    </row>
+    <row r="303" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -5163,9 +5209,9 @@
       <c r="H303" s="4"/>
       <c r="I303" s="4"/>
       <c r="J303" s="4"/>
-      <c r="L303" s="27"/>
-    </row>
-    <row r="304" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M303" s="27"/>
+    </row>
+    <row r="304" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -5176,9 +5222,9 @@
       <c r="H304" s="4"/>
       <c r="I304" s="4"/>
       <c r="J304" s="4"/>
-      <c r="L304" s="27"/>
-    </row>
-    <row r="305" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M304" s="27"/>
+    </row>
+    <row r="305" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -5189,9 +5235,9 @@
       <c r="H305" s="4"/>
       <c r="I305" s="4"/>
       <c r="J305" s="4"/>
-      <c r="L305" s="27"/>
-    </row>
-    <row r="306" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M305" s="27"/>
+    </row>
+    <row r="306" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -5202,9 +5248,9 @@
       <c r="H306" s="4"/>
       <c r="I306" s="4"/>
       <c r="J306" s="4"/>
-      <c r="L306" s="27"/>
-    </row>
-    <row r="307" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M306" s="27"/>
+    </row>
+    <row r="307" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -5215,9 +5261,9 @@
       <c r="H307" s="4"/>
       <c r="I307" s="4"/>
       <c r="J307" s="4"/>
-      <c r="L307" s="27"/>
-    </row>
-    <row r="308" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M307" s="27"/>
+    </row>
+    <row r="308" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -5228,9 +5274,9 @@
       <c r="H308" s="4"/>
       <c r="I308" s="4"/>
       <c r="J308" s="4"/>
-      <c r="L308" s="27"/>
-    </row>
-    <row r="309" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M308" s="27"/>
+    </row>
+    <row r="309" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -5241,9 +5287,9 @@
       <c r="H309" s="4"/>
       <c r="I309" s="4"/>
       <c r="J309" s="4"/>
-      <c r="L309" s="27"/>
-    </row>
-    <row r="310" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M309" s="27"/>
+    </row>
+    <row r="310" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="1"/>
@@ -5254,9 +5300,9 @@
       <c r="H310" s="4"/>
       <c r="I310" s="4"/>
       <c r="J310" s="4"/>
-      <c r="L310" s="27"/>
-    </row>
-    <row r="311" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M310" s="27"/>
+    </row>
+    <row r="311" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="1"/>
@@ -5267,9 +5313,9 @@
       <c r="H311" s="4"/>
       <c r="I311" s="4"/>
       <c r="J311" s="4"/>
-      <c r="L311" s="27"/>
-    </row>
-    <row r="312" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M311" s="27"/>
+    </row>
+    <row r="312" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="4"/>
@@ -5280,9 +5326,9 @@
       <c r="H312" s="4"/>
       <c r="I312" s="4"/>
       <c r="J312" s="4"/>
-      <c r="L312" s="27"/>
-    </row>
-    <row r="313" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M312" s="27"/>
+    </row>
+    <row r="313" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -5293,9 +5339,9 @@
       <c r="H313" s="4"/>
       <c r="I313" s="4"/>
       <c r="J313" s="4"/>
-      <c r="L313" s="27"/>
-    </row>
-    <row r="314" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M313" s="27"/>
+    </row>
+    <row r="314" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -5306,9 +5352,9 @@
       <c r="H314" s="4"/>
       <c r="I314" s="4"/>
       <c r="J314" s="4"/>
-      <c r="L314" s="27"/>
-    </row>
-    <row r="315" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M314" s="27"/>
+    </row>
+    <row r="315" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -5319,9 +5365,9 @@
       <c r="H315" s="4"/>
       <c r="I315" s="4"/>
       <c r="J315" s="4"/>
-      <c r="L315" s="27"/>
-    </row>
-    <row r="316" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M315" s="27"/>
+    </row>
+    <row r="316" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -5332,9 +5378,9 @@
       <c r="H316" s="4"/>
       <c r="I316" s="4"/>
       <c r="J316" s="4"/>
-      <c r="L316" s="27"/>
-    </row>
-    <row r="317" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M316" s="27"/>
+    </row>
+    <row r="317" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -5345,9 +5391,9 @@
       <c r="H317" s="4"/>
       <c r="I317" s="4"/>
       <c r="J317" s="4"/>
-      <c r="L317" s="27"/>
-    </row>
-    <row r="318" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M317" s="27"/>
+    </row>
+    <row r="318" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -5358,9 +5404,9 @@
       <c r="H318" s="4"/>
       <c r="I318" s="4"/>
       <c r="J318" s="4"/>
-      <c r="L318" s="27"/>
-    </row>
-    <row r="319" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M318" s="27"/>
+    </row>
+    <row r="319" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -5371,9 +5417,9 @@
       <c r="H319" s="4"/>
       <c r="I319" s="4"/>
       <c r="J319" s="4"/>
-      <c r="L319" s="27"/>
-    </row>
-    <row r="320" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M319" s="27"/>
+    </row>
+    <row r="320" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -5384,9 +5430,9 @@
       <c r="H320" s="4"/>
       <c r="I320" s="4"/>
       <c r="J320" s="4"/>
-      <c r="L320" s="27"/>
-    </row>
-    <row r="321" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M320" s="27"/>
+    </row>
+    <row r="321" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -5397,9 +5443,9 @@
       <c r="H321" s="4"/>
       <c r="I321" s="4"/>
       <c r="J321" s="4"/>
-      <c r="L321" s="27"/>
-    </row>
-    <row r="322" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M321" s="27"/>
+    </row>
+    <row r="322" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="1"/>
@@ -5410,9 +5456,9 @@
       <c r="H322" s="4"/>
       <c r="I322" s="4"/>
       <c r="J322" s="4"/>
-      <c r="L322" s="27"/>
-    </row>
-    <row r="323" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M322" s="27"/>
+    </row>
+    <row r="323" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="1"/>
@@ -5423,9 +5469,9 @@
       <c r="H323" s="4"/>
       <c r="I323" s="4"/>
       <c r="J323" s="4"/>
-      <c r="L323" s="27"/>
-    </row>
-    <row r="324" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M323" s="27"/>
+    </row>
+    <row r="324" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="4"/>
@@ -5436,9 +5482,9 @@
       <c r="H324" s="4"/>
       <c r="I324" s="4"/>
       <c r="J324" s="4"/>
-      <c r="L324" s="27"/>
-    </row>
-    <row r="325" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M324" s="27"/>
+    </row>
+    <row r="325" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -5449,9 +5495,9 @@
       <c r="H325" s="4"/>
       <c r="I325" s="4"/>
       <c r="J325" s="4"/>
-      <c r="L325" s="27"/>
-    </row>
-    <row r="326" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M325" s="27"/>
+    </row>
+    <row r="326" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -5462,9 +5508,9 @@
       <c r="H326" s="4"/>
       <c r="I326" s="4"/>
       <c r="J326" s="4"/>
-      <c r="L326" s="27"/>
-    </row>
-    <row r="327" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M326" s="27"/>
+    </row>
+    <row r="327" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -5475,9 +5521,9 @@
       <c r="H327" s="4"/>
       <c r="I327" s="4"/>
       <c r="J327" s="4"/>
-      <c r="L327" s="27"/>
-    </row>
-    <row r="328" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M327" s="27"/>
+    </row>
+    <row r="328" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -5488,9 +5534,9 @@
       <c r="H328" s="4"/>
       <c r="I328" s="4"/>
       <c r="J328" s="4"/>
-      <c r="L328" s="27"/>
-    </row>
-    <row r="329" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M328" s="27"/>
+    </row>
+    <row r="329" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -5501,9 +5547,9 @@
       <c r="H329" s="4"/>
       <c r="I329" s="4"/>
       <c r="J329" s="4"/>
-      <c r="L329" s="27"/>
-    </row>
-    <row r="330" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M329" s="27"/>
+    </row>
+    <row r="330" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -5514,9 +5560,9 @@
       <c r="H330" s="4"/>
       <c r="I330" s="4"/>
       <c r="J330" s="4"/>
-      <c r="L330" s="27"/>
-    </row>
-    <row r="331" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M330" s="27"/>
+    </row>
+    <row r="331" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -5527,9 +5573,9 @@
       <c r="H331" s="4"/>
       <c r="I331" s="4"/>
       <c r="J331" s="4"/>
-      <c r="L331" s="27"/>
-    </row>
-    <row r="332" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M331" s="27"/>
+    </row>
+    <row r="332" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -5540,9 +5586,9 @@
       <c r="H332" s="4"/>
       <c r="I332" s="4"/>
       <c r="J332" s="4"/>
-      <c r="L332" s="27"/>
-    </row>
-    <row r="333" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M332" s="27"/>
+    </row>
+    <row r="333" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -5553,9 +5599,9 @@
       <c r="H333" s="4"/>
       <c r="I333" s="4"/>
       <c r="J333" s="4"/>
-      <c r="L333" s="27"/>
-    </row>
-    <row r="334" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M333" s="27"/>
+    </row>
+    <row r="334" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="1"/>
@@ -5566,9 +5612,9 @@
       <c r="H334" s="4"/>
       <c r="I334" s="4"/>
       <c r="J334" s="4"/>
-      <c r="L334" s="27"/>
-    </row>
-    <row r="335" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M334" s="27"/>
+    </row>
+    <row r="335" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="1"/>
@@ -5579,9 +5625,9 @@
       <c r="H335" s="4"/>
       <c r="I335" s="4"/>
       <c r="J335" s="4"/>
-      <c r="L335" s="27"/>
-    </row>
-    <row r="336" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M335" s="27"/>
+    </row>
+    <row r="336" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="4"/>
@@ -5592,9 +5638,9 @@
       <c r="H336" s="4"/>
       <c r="I336" s="4"/>
       <c r="J336" s="4"/>
-      <c r="L336" s="27"/>
-    </row>
-    <row r="337" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M336" s="27"/>
+    </row>
+    <row r="337" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -5605,9 +5651,9 @@
       <c r="H337" s="4"/>
       <c r="I337" s="4"/>
       <c r="J337" s="4"/>
-      <c r="L337" s="27"/>
-    </row>
-    <row r="338" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M337" s="27"/>
+    </row>
+    <row r="338" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -5618,9 +5664,9 @@
       <c r="H338" s="4"/>
       <c r="I338" s="4"/>
       <c r="J338" s="4"/>
-      <c r="L338" s="27"/>
-    </row>
-    <row r="339" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M338" s="27"/>
+    </row>
+    <row r="339" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -5631,9 +5677,9 @@
       <c r="H339" s="4"/>
       <c r="I339" s="4"/>
       <c r="J339" s="4"/>
-      <c r="L339" s="27"/>
-    </row>
-    <row r="340" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M339" s="27"/>
+    </row>
+    <row r="340" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -5644,9 +5690,9 @@
       <c r="H340" s="4"/>
       <c r="I340" s="4"/>
       <c r="J340" s="4"/>
-      <c r="L340" s="27"/>
-    </row>
-    <row r="341" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M340" s="27"/>
+    </row>
+    <row r="341" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -5657,9 +5703,9 @@
       <c r="H341" s="4"/>
       <c r="I341" s="4"/>
       <c r="J341" s="4"/>
-      <c r="L341" s="27"/>
-    </row>
-    <row r="342" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M341" s="27"/>
+    </row>
+    <row r="342" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -5670,9 +5716,9 @@
       <c r="H342" s="4"/>
       <c r="I342" s="4"/>
       <c r="J342" s="4"/>
-      <c r="L342" s="27"/>
-    </row>
-    <row r="343" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M342" s="27"/>
+    </row>
+    <row r="343" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -5683,9 +5729,9 @@
       <c r="H343" s="4"/>
       <c r="I343" s="4"/>
       <c r="J343" s="4"/>
-      <c r="L343" s="27"/>
-    </row>
-    <row r="344" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M343" s="27"/>
+    </row>
+    <row r="344" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="4"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -5696,9 +5742,9 @@
       <c r="H344" s="4"/>
       <c r="I344" s="4"/>
       <c r="J344" s="4"/>
-      <c r="L344" s="27"/>
-    </row>
-    <row r="345" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M344" s="27"/>
+    </row>
+    <row r="345" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -5709,9 +5755,9 @@
       <c r="H345" s="4"/>
       <c r="I345" s="4"/>
       <c r="J345" s="4"/>
-      <c r="L345" s="27"/>
-    </row>
-    <row r="346" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M345" s="27"/>
+    </row>
+    <row r="346" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="1"/>
@@ -5722,9 +5768,9 @@
       <c r="H346" s="4"/>
       <c r="I346" s="4"/>
       <c r="J346" s="4"/>
-      <c r="L346" s="27"/>
-    </row>
-    <row r="347" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M346" s="27"/>
+    </row>
+    <row r="347" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="1"/>
@@ -5735,9 +5781,9 @@
       <c r="H347" s="4"/>
       <c r="I347" s="4"/>
       <c r="J347" s="4"/>
-      <c r="L347" s="27"/>
-    </row>
-    <row r="348" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M347" s="27"/>
+    </row>
+    <row r="348" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="4"/>
@@ -5748,9 +5794,9 @@
       <c r="H348" s="4"/>
       <c r="I348" s="4"/>
       <c r="J348" s="4"/>
-      <c r="L348" s="27"/>
-    </row>
-    <row r="349" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M348" s="27"/>
+    </row>
+    <row r="349" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -5761,9 +5807,9 @@
       <c r="H349" s="4"/>
       <c r="I349" s="4"/>
       <c r="J349" s="4"/>
-      <c r="L349" s="27"/>
-    </row>
-    <row r="350" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M349" s="27"/>
+    </row>
+    <row r="350" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -5774,9 +5820,9 @@
       <c r="H350" s="4"/>
       <c r="I350" s="4"/>
       <c r="J350" s="4"/>
-      <c r="L350" s="27"/>
-    </row>
-    <row r="351" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M350" s="27"/>
+    </row>
+    <row r="351" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -5787,9 +5833,9 @@
       <c r="H351" s="4"/>
       <c r="I351" s="4"/>
       <c r="J351" s="4"/>
-      <c r="L351" s="27"/>
-    </row>
-    <row r="352" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M351" s="27"/>
+    </row>
+    <row r="352" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -5800,9 +5846,9 @@
       <c r="H352" s="4"/>
       <c r="I352" s="4"/>
       <c r="J352" s="4"/>
-      <c r="L352" s="27"/>
-    </row>
-    <row r="353" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M352" s="27"/>
+    </row>
+    <row r="353" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -5813,9 +5859,9 @@
       <c r="H353" s="4"/>
       <c r="I353" s="4"/>
       <c r="J353" s="4"/>
-      <c r="L353" s="27"/>
-    </row>
-    <row r="354" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M353" s="27"/>
+    </row>
+    <row r="354" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -5826,9 +5872,9 @@
       <c r="H354" s="4"/>
       <c r="I354" s="4"/>
       <c r="J354" s="4"/>
-      <c r="L354" s="27"/>
-    </row>
-    <row r="355" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M354" s="27"/>
+    </row>
+    <row r="355" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -5839,9 +5885,9 @@
       <c r="H355" s="4"/>
       <c r="I355" s="4"/>
       <c r="J355" s="4"/>
-      <c r="L355" s="27"/>
-    </row>
-    <row r="356" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M355" s="27"/>
+    </row>
+    <row r="356" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="4"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -5852,9 +5898,9 @@
       <c r="H356" s="4"/>
       <c r="I356" s="4"/>
       <c r="J356" s="4"/>
-      <c r="L356" s="27"/>
-    </row>
-    <row r="357" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M356" s="27"/>
+    </row>
+    <row r="357" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -5865,9 +5911,9 @@
       <c r="H357" s="4"/>
       <c r="I357" s="4"/>
       <c r="J357" s="4"/>
-      <c r="L357" s="27"/>
-    </row>
-    <row r="358" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M357" s="27"/>
+    </row>
+    <row r="358" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="1"/>
@@ -5878,9 +5924,9 @@
       <c r="H358" s="4"/>
       <c r="I358" s="4"/>
       <c r="J358" s="4"/>
-      <c r="L358" s="27"/>
-    </row>
-    <row r="359" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M358" s="27"/>
+    </row>
+    <row r="359" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="1"/>
@@ -5891,9 +5937,9 @@
       <c r="H359" s="4"/>
       <c r="I359" s="4"/>
       <c r="J359" s="4"/>
-      <c r="L359" s="27"/>
-    </row>
-    <row r="360" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M359" s="27"/>
+    </row>
+    <row r="360" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="4"/>
@@ -5904,9 +5950,9 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
       <c r="J360" s="4"/>
-      <c r="L360" s="27"/>
-    </row>
-    <row r="361" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M360" s="27"/>
+    </row>
+    <row r="361" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -5917,9 +5963,9 @@
       <c r="H361" s="4"/>
       <c r="I361" s="4"/>
       <c r="J361" s="4"/>
-      <c r="L361" s="27"/>
-    </row>
-    <row r="362" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M361" s="27"/>
+    </row>
+    <row r="362" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -5930,9 +5976,9 @@
       <c r="H362" s="4"/>
       <c r="I362" s="4"/>
       <c r="J362" s="4"/>
-      <c r="L362" s="27"/>
-    </row>
-    <row r="363" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M362" s="27"/>
+    </row>
+    <row r="363" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -5943,9 +5989,9 @@
       <c r="H363" s="4"/>
       <c r="I363" s="4"/>
       <c r="J363" s="4"/>
-      <c r="L363" s="27"/>
-    </row>
-    <row r="364" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M363" s="27"/>
+    </row>
+    <row r="364" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -5956,9 +6002,9 @@
       <c r="H364" s="4"/>
       <c r="I364" s="4"/>
       <c r="J364" s="4"/>
-      <c r="L364" s="27"/>
-    </row>
-    <row r="365" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M364" s="27"/>
+    </row>
+    <row r="365" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -5969,9 +6015,9 @@
       <c r="H365" s="4"/>
       <c r="I365" s="4"/>
       <c r="J365" s="4"/>
-      <c r="L365" s="27"/>
-    </row>
-    <row r="366" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M365" s="27"/>
+    </row>
+    <row r="366" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -5982,9 +6028,9 @@
       <c r="H366" s="4"/>
       <c r="I366" s="4"/>
       <c r="J366" s="4"/>
-      <c r="L366" s="27"/>
-    </row>
-    <row r="367" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M366" s="27"/>
+    </row>
+    <row r="367" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -5995,9 +6041,9 @@
       <c r="H367" s="4"/>
       <c r="I367" s="4"/>
       <c r="J367" s="4"/>
-      <c r="L367" s="27"/>
-    </row>
-    <row r="368" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M367" s="27"/>
+    </row>
+    <row r="368" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="4"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -6008,9 +6054,9 @@
       <c r="H368" s="4"/>
       <c r="I368" s="4"/>
       <c r="J368" s="4"/>
-      <c r="L368" s="27"/>
-    </row>
-    <row r="369" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M368" s="27"/>
+    </row>
+    <row r="369" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -6021,9 +6067,9 @@
       <c r="H369" s="4"/>
       <c r="I369" s="4"/>
       <c r="J369" s="4"/>
-      <c r="L369" s="27"/>
-    </row>
-    <row r="370" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M369" s="27"/>
+    </row>
+    <row r="370" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="1"/>
@@ -6034,9 +6080,9 @@
       <c r="H370" s="4"/>
       <c r="I370" s="4"/>
       <c r="J370" s="4"/>
-      <c r="L370" s="27"/>
-    </row>
-    <row r="371" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M370" s="27"/>
+    </row>
+    <row r="371" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="1"/>
@@ -6047,9 +6093,9 @@
       <c r="H371" s="4"/>
       <c r="I371" s="4"/>
       <c r="J371" s="4"/>
-      <c r="L371" s="27"/>
-    </row>
-    <row r="372" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M371" s="27"/>
+    </row>
+    <row r="372" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="4"/>
@@ -6060,9 +6106,9 @@
       <c r="H372" s="4"/>
       <c r="I372" s="4"/>
       <c r="J372" s="4"/>
-      <c r="L372" s="27"/>
-    </row>
-    <row r="373" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M372" s="27"/>
+    </row>
+    <row r="373" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -6073,9 +6119,9 @@
       <c r="H373" s="4"/>
       <c r="I373" s="4"/>
       <c r="J373" s="4"/>
-      <c r="L373" s="27"/>
-    </row>
-    <row r="374" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M373" s="27"/>
+    </row>
+    <row r="374" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -6086,9 +6132,9 @@
       <c r="H374" s="4"/>
       <c r="I374" s="4"/>
       <c r="J374" s="4"/>
-      <c r="L374" s="27"/>
-    </row>
-    <row r="375" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M374" s="27"/>
+    </row>
+    <row r="375" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -6099,9 +6145,9 @@
       <c r="H375" s="4"/>
       <c r="I375" s="4"/>
       <c r="J375" s="4"/>
-      <c r="L375" s="27"/>
-    </row>
-    <row r="376" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M375" s="27"/>
+    </row>
+    <row r="376" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -6112,9 +6158,9 @@
       <c r="H376" s="4"/>
       <c r="I376" s="4"/>
       <c r="J376" s="4"/>
-      <c r="L376" s="27"/>
-    </row>
-    <row r="377" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M376" s="27"/>
+    </row>
+    <row r="377" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -6125,9 +6171,9 @@
       <c r="H377" s="4"/>
       <c r="I377" s="4"/>
       <c r="J377" s="4"/>
-      <c r="L377" s="27"/>
-    </row>
-    <row r="378" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M377" s="27"/>
+    </row>
+    <row r="378" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -6138,9 +6184,9 @@
       <c r="H378" s="4"/>
       <c r="I378" s="4"/>
       <c r="J378" s="4"/>
-      <c r="L378" s="27"/>
-    </row>
-    <row r="379" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M378" s="27"/>
+    </row>
+    <row r="379" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -6151,9 +6197,9 @@
       <c r="H379" s="4"/>
       <c r="I379" s="4"/>
       <c r="J379" s="4"/>
-      <c r="L379" s="27"/>
-    </row>
-    <row r="380" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M379" s="27"/>
+    </row>
+    <row r="380" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="4"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -6164,9 +6210,9 @@
       <c r="H380" s="4"/>
       <c r="I380" s="4"/>
       <c r="J380" s="4"/>
-      <c r="L380" s="27"/>
-    </row>
-    <row r="381" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M380" s="27"/>
+    </row>
+    <row r="381" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -6177,9 +6223,9 @@
       <c r="H381" s="4"/>
       <c r="I381" s="4"/>
       <c r="J381" s="4"/>
-      <c r="L381" s="27"/>
-    </row>
-    <row r="382" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M381" s="27"/>
+    </row>
+    <row r="382" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="1"/>
@@ -6190,9 +6236,9 @@
       <c r="H382" s="4"/>
       <c r="I382" s="4"/>
       <c r="J382" s="4"/>
-      <c r="L382" s="27"/>
-    </row>
-    <row r="383" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M382" s="27"/>
+    </row>
+    <row r="383" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="1"/>
@@ -6203,9 +6249,9 @@
       <c r="H383" s="4"/>
       <c r="I383" s="4"/>
       <c r="J383" s="4"/>
-      <c r="L383" s="27"/>
-    </row>
-    <row r="384" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M383" s="27"/>
+    </row>
+    <row r="384" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="4"/>
@@ -6216,9 +6262,9 @@
       <c r="H384" s="4"/>
       <c r="I384" s="4"/>
       <c r="J384" s="4"/>
-      <c r="L384" s="27"/>
-    </row>
-    <row r="385" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M384" s="27"/>
+    </row>
+    <row r="385" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -6229,9 +6275,9 @@
       <c r="H385" s="4"/>
       <c r="I385" s="4"/>
       <c r="J385" s="4"/>
-      <c r="L385" s="27"/>
-    </row>
-    <row r="386" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M385" s="27"/>
+    </row>
+    <row r="386" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -6242,9 +6288,9 @@
       <c r="H386" s="4"/>
       <c r="I386" s="4"/>
       <c r="J386" s="4"/>
-      <c r="L386" s="27"/>
-    </row>
-    <row r="387" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M386" s="27"/>
+    </row>
+    <row r="387" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -6255,9 +6301,9 @@
       <c r="H387" s="4"/>
       <c r="I387" s="4"/>
       <c r="J387" s="4"/>
-      <c r="L387" s="27"/>
-    </row>
-    <row r="388" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M387" s="27"/>
+    </row>
+    <row r="388" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -6268,9 +6314,9 @@
       <c r="H388" s="4"/>
       <c r="I388" s="4"/>
       <c r="J388" s="4"/>
-      <c r="L388" s="27"/>
-    </row>
-    <row r="389" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M388" s="27"/>
+    </row>
+    <row r="389" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -6281,9 +6327,9 @@
       <c r="H389" s="4"/>
       <c r="I389" s="4"/>
       <c r="J389" s="4"/>
-      <c r="L389" s="27"/>
-    </row>
-    <row r="390" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M389" s="27"/>
+    </row>
+    <row r="390" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -6294,9 +6340,9 @@
       <c r="H390" s="4"/>
       <c r="I390" s="4"/>
       <c r="J390" s="4"/>
-      <c r="L390" s="27"/>
-    </row>
-    <row r="391" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M390" s="27"/>
+    </row>
+    <row r="391" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -6307,9 +6353,9 @@
       <c r="H391" s="4"/>
       <c r="I391" s="4"/>
       <c r="J391" s="4"/>
-      <c r="L391" s="27"/>
-    </row>
-    <row r="392" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M391" s="27"/>
+    </row>
+    <row r="392" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="4"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -6320,9 +6366,9 @@
       <c r="H392" s="4"/>
       <c r="I392" s="4"/>
       <c r="J392" s="4"/>
-      <c r="L392" s="27"/>
-    </row>
-    <row r="393" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M392" s="27"/>
+    </row>
+    <row r="393" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -6333,9 +6379,9 @@
       <c r="H393" s="4"/>
       <c r="I393" s="4"/>
       <c r="J393" s="4"/>
-      <c r="L393" s="27"/>
-    </row>
-    <row r="394" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M393" s="27"/>
+    </row>
+    <row r="394" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="1"/>
@@ -6346,9 +6392,9 @@
       <c r="H394" s="4"/>
       <c r="I394" s="4"/>
       <c r="J394" s="4"/>
-      <c r="L394" s="27"/>
-    </row>
-    <row r="395" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M394" s="27"/>
+    </row>
+    <row r="395" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="1"/>
@@ -6359,9 +6405,9 @@
       <c r="H395" s="4"/>
       <c r="I395" s="4"/>
       <c r="J395" s="4"/>
-      <c r="L395" s="27"/>
-    </row>
-    <row r="396" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M395" s="27"/>
+    </row>
+    <row r="396" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="4"/>
@@ -6372,9 +6418,9 @@
       <c r="H396" s="4"/>
       <c r="I396" s="4"/>
       <c r="J396" s="4"/>
-      <c r="L396" s="27"/>
-    </row>
-    <row r="397" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M396" s="27"/>
+    </row>
+    <row r="397" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -6385,9 +6431,9 @@
       <c r="H397" s="4"/>
       <c r="I397" s="4"/>
       <c r="J397" s="4"/>
-      <c r="L397" s="27"/>
-    </row>
-    <row r="398" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M397" s="27"/>
+    </row>
+    <row r="398" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -6398,9 +6444,9 @@
       <c r="H398" s="4"/>
       <c r="I398" s="4"/>
       <c r="J398" s="4"/>
-      <c r="L398" s="27"/>
-    </row>
-    <row r="399" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M398" s="27"/>
+    </row>
+    <row r="399" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -6411,9 +6457,9 @@
       <c r="H399" s="4"/>
       <c r="I399" s="4"/>
       <c r="J399" s="4"/>
-      <c r="L399" s="27"/>
-    </row>
-    <row r="400" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M399" s="27"/>
+    </row>
+    <row r="400" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -6424,9 +6470,9 @@
       <c r="H400" s="4"/>
       <c r="I400" s="4"/>
       <c r="J400" s="4"/>
-      <c r="L400" s="27"/>
-    </row>
-    <row r="401" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M400" s="27"/>
+    </row>
+    <row r="401" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -6437,9 +6483,9 @@
       <c r="H401" s="4"/>
       <c r="I401" s="4"/>
       <c r="J401" s="4"/>
-      <c r="L401" s="27"/>
-    </row>
-    <row r="402" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M401" s="27"/>
+    </row>
+    <row r="402" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -6450,9 +6496,9 @@
       <c r="H402" s="4"/>
       <c r="I402" s="4"/>
       <c r="J402" s="4"/>
-      <c r="L402" s="27"/>
-    </row>
-    <row r="403" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M402" s="27"/>
+    </row>
+    <row r="403" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -6463,9 +6509,9 @@
       <c r="H403" s="4"/>
       <c r="I403" s="4"/>
       <c r="J403" s="4"/>
-      <c r="L403" s="27"/>
-    </row>
-    <row r="404" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M403" s="27"/>
+    </row>
+    <row r="404" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="4"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -6476,9 +6522,9 @@
       <c r="H404" s="4"/>
       <c r="I404" s="4"/>
       <c r="J404" s="4"/>
-      <c r="L404" s="27"/>
-    </row>
-    <row r="405" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M404" s="27"/>
+    </row>
+    <row r="405" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -6489,9 +6535,9 @@
       <c r="H405" s="4"/>
       <c r="I405" s="4"/>
       <c r="J405" s="4"/>
-      <c r="L405" s="27"/>
-    </row>
-    <row r="406" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M405" s="27"/>
+    </row>
+    <row r="406" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="1"/>
@@ -6502,9 +6548,9 @@
       <c r="H406" s="4"/>
       <c r="I406" s="4"/>
       <c r="J406" s="4"/>
-      <c r="L406" s="27"/>
-    </row>
-    <row r="407" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M406" s="27"/>
+    </row>
+    <row r="407" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="1"/>
@@ -6515,9 +6561,9 @@
       <c r="H407" s="4"/>
       <c r="I407" s="4"/>
       <c r="J407" s="4"/>
-      <c r="L407" s="27"/>
-    </row>
-    <row r="408" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M407" s="27"/>
+    </row>
+    <row r="408" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="4"/>
@@ -6528,9 +6574,9 @@
       <c r="H408" s="4"/>
       <c r="I408" s="4"/>
       <c r="J408" s="4"/>
-      <c r="L408" s="27"/>
-    </row>
-    <row r="409" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M408" s="27"/>
+    </row>
+    <row r="409" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -6541,9 +6587,9 @@
       <c r="H409" s="4"/>
       <c r="I409" s="4"/>
       <c r="J409" s="4"/>
-      <c r="L409" s="27"/>
-    </row>
-    <row r="410" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M409" s="27"/>
+    </row>
+    <row r="410" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -6554,9 +6600,9 @@
       <c r="H410" s="4"/>
       <c r="I410" s="4"/>
       <c r="J410" s="4"/>
-      <c r="L410" s="27"/>
-    </row>
-    <row r="411" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M410" s="27"/>
+    </row>
+    <row r="411" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -6567,9 +6613,9 @@
       <c r="H411" s="4"/>
       <c r="I411" s="4"/>
       <c r="J411" s="4"/>
-      <c r="L411" s="27"/>
-    </row>
-    <row r="412" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M411" s="27"/>
+    </row>
+    <row r="412" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -6580,9 +6626,9 @@
       <c r="H412" s="4"/>
       <c r="I412" s="4"/>
       <c r="J412" s="4"/>
-      <c r="L412" s="27"/>
-    </row>
-    <row r="413" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M412" s="27"/>
+    </row>
+    <row r="413" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -6593,9 +6639,9 @@
       <c r="H413" s="4"/>
       <c r="I413" s="4"/>
       <c r="J413" s="4"/>
-      <c r="L413" s="27"/>
-    </row>
-    <row r="414" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M413" s="27"/>
+    </row>
+    <row r="414" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -6606,9 +6652,9 @@
       <c r="H414" s="4"/>
       <c r="I414" s="4"/>
       <c r="J414" s="4"/>
-      <c r="L414" s="27"/>
-    </row>
-    <row r="415" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M414" s="27"/>
+    </row>
+    <row r="415" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -6619,9 +6665,9 @@
       <c r="H415" s="4"/>
       <c r="I415" s="4"/>
       <c r="J415" s="4"/>
-      <c r="L415" s="27"/>
-    </row>
-    <row r="416" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M415" s="27"/>
+    </row>
+    <row r="416" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="4"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -6632,9 +6678,9 @@
       <c r="H416" s="4"/>
       <c r="I416" s="4"/>
       <c r="J416" s="4"/>
-      <c r="L416" s="27"/>
-    </row>
-    <row r="417" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M416" s="27"/>
+    </row>
+    <row r="417" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -6645,9 +6691,9 @@
       <c r="H417" s="4"/>
       <c r="I417" s="4"/>
       <c r="J417" s="4"/>
-      <c r="L417" s="27"/>
-    </row>
-    <row r="418" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M417" s="27"/>
+    </row>
+    <row r="418" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="1"/>
@@ -6658,9 +6704,9 @@
       <c r="H418" s="4"/>
       <c r="I418" s="4"/>
       <c r="J418" s="4"/>
-      <c r="L418" s="27"/>
-    </row>
-    <row r="419" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M418" s="27"/>
+    </row>
+    <row r="419" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="1"/>
@@ -6671,9 +6717,9 @@
       <c r="H419" s="4"/>
       <c r="I419" s="4"/>
       <c r="J419" s="4"/>
-      <c r="L419" s="27"/>
-    </row>
-    <row r="420" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M419" s="27"/>
+    </row>
+    <row r="420" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="4"/>
@@ -6684,9 +6730,9 @@
       <c r="H420" s="4"/>
       <c r="I420" s="4"/>
       <c r="J420" s="4"/>
-      <c r="L420" s="27"/>
-    </row>
-    <row r="421" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M420" s="27"/>
+    </row>
+    <row r="421" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -6697,9 +6743,9 @@
       <c r="H421" s="4"/>
       <c r="I421" s="4"/>
       <c r="J421" s="4"/>
-      <c r="L421" s="27"/>
-    </row>
-    <row r="422" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M421" s="27"/>
+    </row>
+    <row r="422" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -6710,9 +6756,9 @@
       <c r="H422" s="4"/>
       <c r="I422" s="4"/>
       <c r="J422" s="4"/>
-      <c r="L422" s="27"/>
-    </row>
-    <row r="423" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M422" s="27"/>
+    </row>
+    <row r="423" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -6723,9 +6769,9 @@
       <c r="H423" s="4"/>
       <c r="I423" s="4"/>
       <c r="J423" s="4"/>
-      <c r="L423" s="27"/>
-    </row>
-    <row r="424" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M423" s="27"/>
+    </row>
+    <row r="424" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -6736,9 +6782,9 @@
       <c r="H424" s="4"/>
       <c r="I424" s="4"/>
       <c r="J424" s="4"/>
-      <c r="L424" s="27"/>
-    </row>
-    <row r="425" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M424" s="27"/>
+    </row>
+    <row r="425" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -6749,9 +6795,9 @@
       <c r="H425" s="4"/>
       <c r="I425" s="4"/>
       <c r="J425" s="4"/>
-      <c r="L425" s="27"/>
-    </row>
-    <row r="426" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M425" s="27"/>
+    </row>
+    <row r="426" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -6762,9 +6808,9 @@
       <c r="H426" s="4"/>
       <c r="I426" s="4"/>
       <c r="J426" s="4"/>
-      <c r="L426" s="27"/>
-    </row>
-    <row r="427" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M426" s="27"/>
+    </row>
+    <row r="427" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -6775,9 +6821,9 @@
       <c r="H427" s="4"/>
       <c r="I427" s="4"/>
       <c r="J427" s="4"/>
-      <c r="L427" s="27"/>
-    </row>
-    <row r="428" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M427" s="27"/>
+    </row>
+    <row r="428" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="4"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -6788,9 +6834,9 @@
       <c r="H428" s="4"/>
       <c r="I428" s="4"/>
       <c r="J428" s="4"/>
-      <c r="L428" s="27"/>
-    </row>
-    <row r="429" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M428" s="27"/>
+    </row>
+    <row r="429" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -6801,9 +6847,9 @@
       <c r="H429" s="4"/>
       <c r="I429" s="4"/>
       <c r="J429" s="4"/>
-      <c r="L429" s="27"/>
-    </row>
-    <row r="430" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M429" s="27"/>
+    </row>
+    <row r="430" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="1"/>
@@ -6814,9 +6860,9 @@
       <c r="H430" s="4"/>
       <c r="I430" s="4"/>
       <c r="J430" s="4"/>
-      <c r="L430" s="27"/>
-    </row>
-    <row r="431" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M430" s="27"/>
+    </row>
+    <row r="431" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="1"/>
@@ -6827,9 +6873,9 @@
       <c r="H431" s="4"/>
       <c r="I431" s="4"/>
       <c r="J431" s="4"/>
-      <c r="L431" s="27"/>
-    </row>
-    <row r="432" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M431" s="27"/>
+    </row>
+    <row r="432" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="4"/>
@@ -6840,9 +6886,9 @@
       <c r="H432" s="4"/>
       <c r="I432" s="4"/>
       <c r="J432" s="4"/>
-      <c r="L432" s="27"/>
-    </row>
-    <row r="433" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M432" s="27"/>
+    </row>
+    <row r="433" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -6853,9 +6899,9 @@
       <c r="H433" s="4"/>
       <c r="I433" s="4"/>
       <c r="J433" s="4"/>
-      <c r="L433" s="27"/>
-    </row>
-    <row r="434" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M433" s="27"/>
+    </row>
+    <row r="434" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -6866,9 +6912,9 @@
       <c r="H434" s="4"/>
       <c r="I434" s="4"/>
       <c r="J434" s="4"/>
-      <c r="L434" s="27"/>
-    </row>
-    <row r="435" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M434" s="27"/>
+    </row>
+    <row r="435" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -6879,9 +6925,9 @@
       <c r="H435" s="4"/>
       <c r="I435" s="4"/>
       <c r="J435" s="4"/>
-      <c r="L435" s="27"/>
-    </row>
-    <row r="436" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M435" s="27"/>
+    </row>
+    <row r="436" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -6892,9 +6938,9 @@
       <c r="H436" s="4"/>
       <c r="I436" s="4"/>
       <c r="J436" s="4"/>
-      <c r="L436" s="27"/>
-    </row>
-    <row r="437" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M436" s="27"/>
+    </row>
+    <row r="437" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -6905,9 +6951,9 @@
       <c r="H437" s="4"/>
       <c r="I437" s="4"/>
       <c r="J437" s="4"/>
-      <c r="L437" s="27"/>
-    </row>
-    <row r="438" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M437" s="27"/>
+    </row>
+    <row r="438" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -6918,9 +6964,9 @@
       <c r="H438" s="4"/>
       <c r="I438" s="4"/>
       <c r="J438" s="4"/>
-      <c r="L438" s="27"/>
-    </row>
-    <row r="439" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M438" s="27"/>
+    </row>
+    <row r="439" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -6931,9 +6977,9 @@
       <c r="H439" s="4"/>
       <c r="I439" s="4"/>
       <c r="J439" s="4"/>
-      <c r="L439" s="27"/>
-    </row>
-    <row r="440" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M439" s="27"/>
+    </row>
+    <row r="440" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="4"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -6944,9 +6990,9 @@
       <c r="H440" s="4"/>
       <c r="I440" s="4"/>
       <c r="J440" s="4"/>
-      <c r="L440" s="27"/>
-    </row>
-    <row r="441" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M440" s="27"/>
+    </row>
+    <row r="441" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -6957,9 +7003,9 @@
       <c r="H441" s="4"/>
       <c r="I441" s="4"/>
       <c r="J441" s="4"/>
-      <c r="L441" s="27"/>
-    </row>
-    <row r="442" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M441" s="27"/>
+    </row>
+    <row r="442" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="1"/>
@@ -6970,9 +7016,9 @@
       <c r="H442" s="4"/>
       <c r="I442" s="4"/>
       <c r="J442" s="4"/>
-      <c r="L442" s="27"/>
-    </row>
-    <row r="443" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M442" s="27"/>
+    </row>
+    <row r="443" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="1"/>
@@ -6983,9 +7029,9 @@
       <c r="H443" s="4"/>
       <c r="I443" s="4"/>
       <c r="J443" s="4"/>
-      <c r="L443" s="27"/>
-    </row>
-    <row r="444" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M443" s="27"/>
+    </row>
+    <row r="444" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="4"/>
@@ -6996,9 +7042,9 @@
       <c r="H444" s="4"/>
       <c r="I444" s="4"/>
       <c r="J444" s="4"/>
-      <c r="L444" s="27"/>
-    </row>
-    <row r="445" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M444" s="27"/>
+    </row>
+    <row r="445" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -7009,9 +7055,9 @@
       <c r="H445" s="4"/>
       <c r="I445" s="4"/>
       <c r="J445" s="4"/>
-      <c r="L445" s="27"/>
-    </row>
-    <row r="446" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M445" s="27"/>
+    </row>
+    <row r="446" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -7022,9 +7068,9 @@
       <c r="H446" s="4"/>
       <c r="I446" s="4"/>
       <c r="J446" s="4"/>
-      <c r="L446" s="27"/>
-    </row>
-    <row r="447" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M446" s="27"/>
+    </row>
+    <row r="447" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -7035,9 +7081,9 @@
       <c r="H447" s="4"/>
       <c r="I447" s="4"/>
       <c r="J447" s="4"/>
-      <c r="L447" s="27"/>
-    </row>
-    <row r="448" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M447" s="27"/>
+    </row>
+    <row r="448" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -7048,9 +7094,9 @@
       <c r="H448" s="4"/>
       <c r="I448" s="4"/>
       <c r="J448" s="4"/>
-      <c r="L448" s="27"/>
-    </row>
-    <row r="449" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M448" s="27"/>
+    </row>
+    <row r="449" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -7061,9 +7107,9 @@
       <c r="H449" s="4"/>
       <c r="I449" s="4"/>
       <c r="J449" s="4"/>
-      <c r="L449" s="27"/>
-    </row>
-    <row r="450" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M449" s="27"/>
+    </row>
+    <row r="450" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -7074,9 +7120,9 @@
       <c r="H450" s="4"/>
       <c r="I450" s="4"/>
       <c r="J450" s="4"/>
-      <c r="L450" s="27"/>
-    </row>
-    <row r="451" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M450" s="27"/>
+    </row>
+    <row r="451" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -7087,9 +7133,9 @@
       <c r="H451" s="4"/>
       <c r="I451" s="4"/>
       <c r="J451" s="4"/>
-      <c r="L451" s="27"/>
-    </row>
-    <row r="452" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M451" s="27"/>
+    </row>
+    <row r="452" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="4"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -7100,9 +7146,9 @@
       <c r="H452" s="4"/>
       <c r="I452" s="4"/>
       <c r="J452" s="4"/>
-      <c r="L452" s="27"/>
-    </row>
-    <row r="453" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M452" s="27"/>
+    </row>
+    <row r="453" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
@@ -7113,9 +7159,9 @@
       <c r="H453" s="4"/>
       <c r="I453" s="4"/>
       <c r="J453" s="4"/>
-      <c r="L453" s="27"/>
-    </row>
-    <row r="454" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M453" s="27"/>
+    </row>
+    <row r="454" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="1"/>
@@ -7126,9 +7172,9 @@
       <c r="H454" s="4"/>
       <c r="I454" s="4"/>
       <c r="J454" s="4"/>
-      <c r="L454" s="27"/>
-    </row>
-    <row r="455" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M454" s="27"/>
+    </row>
+    <row r="455" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="1"/>
@@ -7139,9 +7185,9 @@
       <c r="H455" s="4"/>
       <c r="I455" s="4"/>
       <c r="J455" s="4"/>
-      <c r="L455" s="27"/>
-    </row>
-    <row r="456" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M455" s="27"/>
+    </row>
+    <row r="456" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="4"/>
@@ -7152,9 +7198,9 @@
       <c r="H456" s="4"/>
       <c r="I456" s="4"/>
       <c r="J456" s="4"/>
-      <c r="L456" s="27"/>
-    </row>
-    <row r="457" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M456" s="27"/>
+    </row>
+    <row r="457" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -7165,9 +7211,9 @@
       <c r="H457" s="4"/>
       <c r="I457" s="4"/>
       <c r="J457" s="4"/>
-      <c r="L457" s="27"/>
-    </row>
-    <row r="458" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M457" s="27"/>
+    </row>
+    <row r="458" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -7178,9 +7224,9 @@
       <c r="H458" s="4"/>
       <c r="I458" s="4"/>
       <c r="J458" s="4"/>
-      <c r="L458" s="27"/>
-    </row>
-    <row r="459" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M458" s="27"/>
+    </row>
+    <row r="459" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -7191,9 +7237,9 @@
       <c r="H459" s="4"/>
       <c r="I459" s="4"/>
       <c r="J459" s="4"/>
-      <c r="L459" s="27"/>
-    </row>
-    <row r="460" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M459" s="27"/>
+    </row>
+    <row r="460" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -7204,9 +7250,9 @@
       <c r="H460" s="4"/>
       <c r="I460" s="4"/>
       <c r="J460" s="4"/>
-      <c r="L460" s="27"/>
-    </row>
-    <row r="461" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M460" s="27"/>
+    </row>
+    <row r="461" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -7217,9 +7263,9 @@
       <c r="H461" s="4"/>
       <c r="I461" s="4"/>
       <c r="J461" s="4"/>
-      <c r="L461" s="27"/>
-    </row>
-    <row r="462" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M461" s="27"/>
+    </row>
+    <row r="462" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -7230,9 +7276,9 @@
       <c r="H462" s="4"/>
       <c r="I462" s="4"/>
       <c r="J462" s="4"/>
-      <c r="L462" s="27"/>
-    </row>
-    <row r="463" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M462" s="27"/>
+    </row>
+    <row r="463" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -7243,9 +7289,9 @@
       <c r="H463" s="4"/>
       <c r="I463" s="4"/>
       <c r="J463" s="4"/>
-      <c r="L463" s="27"/>
-    </row>
-    <row r="464" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M463" s="27"/>
+    </row>
+    <row r="464" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="4"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -7256,9 +7302,9 @@
       <c r="H464" s="4"/>
       <c r="I464" s="4"/>
       <c r="J464" s="4"/>
-      <c r="L464" s="27"/>
-    </row>
-    <row r="465" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M464" s="27"/>
+    </row>
+    <row r="465" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
@@ -7269,9 +7315,9 @@
       <c r="H465" s="4"/>
       <c r="I465" s="4"/>
       <c r="J465" s="4"/>
-      <c r="L465" s="27"/>
-    </row>
-    <row r="466" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M465" s="27"/>
+    </row>
+    <row r="466" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="1"/>
@@ -7282,9 +7328,9 @@
       <c r="H466" s="4"/>
       <c r="I466" s="4"/>
       <c r="J466" s="4"/>
-      <c r="L466" s="27"/>
-    </row>
-    <row r="467" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M466" s="27"/>
+    </row>
+    <row r="467" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="1"/>
@@ -7295,9 +7341,9 @@
       <c r="H467" s="4"/>
       <c r="I467" s="4"/>
       <c r="J467" s="4"/>
-      <c r="L467" s="27"/>
-    </row>
-    <row r="468" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M467" s="27"/>
+    </row>
+    <row r="468" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="4"/>
@@ -7308,9 +7354,9 @@
       <c r="H468" s="4"/>
       <c r="I468" s="4"/>
       <c r="J468" s="4"/>
-      <c r="L468" s="27"/>
-    </row>
-    <row r="469" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M468" s="27"/>
+    </row>
+    <row r="469" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -7321,9 +7367,9 @@
       <c r="H469" s="4"/>
       <c r="I469" s="4"/>
       <c r="J469" s="4"/>
-      <c r="L469" s="27"/>
-    </row>
-    <row r="470" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M469" s="27"/>
+    </row>
+    <row r="470" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -7334,9 +7380,9 @@
       <c r="H470" s="4"/>
       <c r="I470" s="4"/>
       <c r="J470" s="4"/>
-      <c r="L470" s="27"/>
-    </row>
-    <row r="471" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M470" s="27"/>
+    </row>
+    <row r="471" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -7347,9 +7393,9 @@
       <c r="H471" s="4"/>
       <c r="I471" s="4"/>
       <c r="J471" s="4"/>
-      <c r="L471" s="27"/>
-    </row>
-    <row r="472" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M471" s="27"/>
+    </row>
+    <row r="472" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -7360,9 +7406,9 @@
       <c r="H472" s="4"/>
       <c r="I472" s="4"/>
       <c r="J472" s="4"/>
-      <c r="L472" s="27"/>
-    </row>
-    <row r="473" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M472" s="27"/>
+    </row>
+    <row r="473" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -7373,9 +7419,9 @@
       <c r="H473" s="4"/>
       <c r="I473" s="4"/>
       <c r="J473" s="4"/>
-      <c r="L473" s="27"/>
-    </row>
-    <row r="474" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M473" s="27"/>
+    </row>
+    <row r="474" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -7386,9 +7432,9 @@
       <c r="H474" s="4"/>
       <c r="I474" s="4"/>
       <c r="J474" s="4"/>
-      <c r="L474" s="27"/>
-    </row>
-    <row r="475" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M474" s="27"/>
+    </row>
+    <row r="475" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -7399,9 +7445,9 @@
       <c r="H475" s="4"/>
       <c r="I475" s="4"/>
       <c r="J475" s="4"/>
-      <c r="L475" s="27"/>
-    </row>
-    <row r="476" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M475" s="27"/>
+    </row>
+    <row r="476" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="4"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -7412,9 +7458,9 @@
       <c r="H476" s="4"/>
       <c r="I476" s="4"/>
       <c r="J476" s="4"/>
-      <c r="L476" s="27"/>
-    </row>
-    <row r="477" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M476" s="27"/>
+    </row>
+    <row r="477" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
@@ -7425,9 +7471,9 @@
       <c r="H477" s="4"/>
       <c r="I477" s="4"/>
       <c r="J477" s="4"/>
-      <c r="L477" s="27"/>
-    </row>
-    <row r="478" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M477" s="27"/>
+    </row>
+    <row r="478" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="1"/>
@@ -7438,9 +7484,9 @@
       <c r="H478" s="4"/>
       <c r="I478" s="4"/>
       <c r="J478" s="4"/>
-      <c r="L478" s="27"/>
-    </row>
-    <row r="479" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M478" s="27"/>
+    </row>
+    <row r="479" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="1"/>
@@ -7451,9 +7497,9 @@
       <c r="H479" s="4"/>
       <c r="I479" s="4"/>
       <c r="J479" s="4"/>
-      <c r="L479" s="27"/>
-    </row>
-    <row r="480" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M479" s="27"/>
+    </row>
+    <row r="480" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="4"/>
@@ -7464,9 +7510,9 @@
       <c r="H480" s="4"/>
       <c r="I480" s="4"/>
       <c r="J480" s="4"/>
-      <c r="L480" s="27"/>
-    </row>
-    <row r="481" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M480" s="27"/>
+    </row>
+    <row r="481" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -7477,7 +7523,7 @@
       <c r="H481" s="4"/>
       <c r="I481" s="4"/>
       <c r="J481" s="4"/>
-      <c r="L481" s="27"/>
+      <c r="M481" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LineData.xlsx
+++ b/LineData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://faurecia-my.sharepoint.com/personal/anass_elhoud_forvia_com/Documents/PhD Codes/PRODynamics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danislud\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{0E8AF885-8A49-4F33-B607-216B84C5E4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C898A01-7893-4EDB-B3F5-4E8061133302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27105" yWindow="5850" windowWidth="27735" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Line Data" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
   <si>
     <t>Available Strategies</t>
   </si>
@@ -241,12 +241,21 @@
   <si>
     <t>Manual Time</t>
   </si>
+  <si>
+    <t>Initial stock</t>
+  </si>
+  <si>
+    <t>Refill size</t>
+  </si>
+  <si>
+    <t>Fill central storage</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,8 +275,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,8 +295,14 @@
         <fgColor rgb="FFB4C7E7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -423,6 +445,19 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -440,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -486,9 +521,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -501,21 +533,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -523,7 +540,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -544,11 +564,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -567,21 +647,21 @@
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Machine"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Buffer Capacity"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Initial Buffer"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="MTTF"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MTTR"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Transport Time"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Transport Order"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Buffer Capacity" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Initial Buffer" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="MTTF" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MTTR" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Transport Time" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Transport Order" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau2" displayName="Tableau2" ref="A1:C15" totalsRowShown="0">
-  <autoFilter ref="A1:C15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau2" displayName="Tableau2" ref="A1:C17" totalsRowShown="0">
+  <autoFilter ref="A1:C17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Machine"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Ref A1"/>
@@ -879,30 +959,31 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M481"/>
+  <dimension ref="A1:N481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" style="29" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="23" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -927,23 +1008,26 @@
       <c r="H1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="33" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N1" s="33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
@@ -953,38 +1037,39 @@
       <c r="C2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="24">
         <v>1</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="24">
         <v>0</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="24">
         <v>3600</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="24">
         <v>100</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="25">
         <v>1</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="34">
         <v>1</v>
       </c>
-      <c r="K2" s="30">
+      <c r="K2" s="34">
         <v>0</v>
       </c>
-      <c r="L2" s="30">
+      <c r="L2" s="34">
         <v>0</v>
       </c>
-      <c r="M2" s="26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="34"/>
+      <c r="N2" s="34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -994,38 +1079,39 @@
       <c r="C3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="24">
         <v>1</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="24">
         <v>0</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="24">
         <v>3600</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="24">
         <v>100</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="25">
         <v>2</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="25">
         <v>1</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="25">
         <v>0</v>
       </c>
-      <c r="L3" s="30">
+      <c r="L3" s="25">
         <v>0</v>
       </c>
-      <c r="M3" s="26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="25"/>
+      <c r="N3" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
@@ -1035,36 +1121,39 @@
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="24">
         <v>1</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="24">
         <v>0</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="24">
         <v>3600</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="24">
         <v>180</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="25">
         <v>3</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="25">
         <v>1</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="25">
         <v>0</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="25">
         <v>0</v>
       </c>
-      <c r="M4" s="26"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="25"/>
+      <c r="N4" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
@@ -1074,36 +1163,39 @@
       <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="24">
         <v>1</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="24">
         <v>0</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="24">
         <v>3600</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="24">
         <v>180</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="25">
         <v>4</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="25">
         <v>1</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="25">
         <v>0</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="25">
         <v>0</v>
       </c>
-      <c r="M5" s="26"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="25"/>
+      <c r="N5" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
@@ -1113,36 +1205,39 @@
       <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="24">
         <v>1</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="24">
         <v>0</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="24">
         <v>3600</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="24">
         <v>220</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="25">
         <v>5</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="25">
         <v>1</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="25">
         <v>0</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="25">
         <v>0</v>
       </c>
-      <c r="M6" s="26"/>
-    </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="25"/>
+      <c r="N6" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1152,36 +1247,39 @@
       <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="24">
         <v>1</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="24">
         <v>0</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="24">
         <v>3600</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="24">
         <v>220</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="25">
         <v>6</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="25">
         <v>1</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="25">
         <v>0</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="25">
         <v>0</v>
       </c>
-      <c r="M7" s="26"/>
-    </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="25"/>
+      <c r="N7" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
@@ -1191,36 +1289,39 @@
       <c r="C8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="24">
         <v>1</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="24">
         <v>0</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="24">
         <v>3600</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="24">
         <v>-250</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="25">
         <v>7</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="25">
         <v>1</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="25">
         <v>0</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="25">
         <v>0</v>
       </c>
-      <c r="M8" s="26"/>
-    </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="25"/>
+      <c r="N8" s="32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -1230,36 +1331,39 @@
       <c r="C9" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="24">
         <v>1</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="24">
         <v>0</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="24">
         <v>3600</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="24">
         <v>180</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="25">
         <v>8</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="25">
         <v>1</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="25">
         <v>0</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="25">
         <v>0</v>
       </c>
-      <c r="M9" s="26"/>
-    </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="25"/>
+      <c r="N9" s="32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
@@ -1269,36 +1373,39 @@
       <c r="C10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="24">
         <v>1</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="24">
         <v>0</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="24">
         <v>3600</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="24">
         <v>180</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="25">
         <v>9</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="25">
         <v>1</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="25">
         <v>0</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="25">
         <v>0</v>
       </c>
-      <c r="M10" s="26"/>
-    </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="25"/>
+      <c r="N10" s="32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
@@ -1308,36 +1415,39 @@
       <c r="C11" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="24">
         <v>1</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="24">
         <v>0</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="24">
         <v>3600</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="24">
         <v>220</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="25">
         <v>10</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="25">
         <v>1</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="25">
         <v>0</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="25">
         <v>0</v>
       </c>
-      <c r="M11" s="26"/>
-    </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="25"/>
+      <c r="N11" s="32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
@@ -1347,36 +1457,39 @@
       <c r="C12" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="24">
         <v>1</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="24">
         <v>0</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="24">
         <v>3600</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="24">
         <v>220</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="25">
         <v>11</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="25">
         <v>1</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="25">
         <v>0</v>
       </c>
-      <c r="L12" s="30">
+      <c r="L12" s="25">
         <v>0</v>
       </c>
-      <c r="M12" s="26"/>
-    </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="25"/>
+      <c r="N12" s="32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
@@ -1386,36 +1499,39 @@
       <c r="C13" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="24">
         <v>1</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="24">
         <v>0</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="24">
         <v>3600</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="24">
         <v>220</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="25">
         <v>12</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="25">
         <v>1</v>
       </c>
-      <c r="K13" s="30">
+      <c r="K13" s="25">
         <v>0</v>
       </c>
-      <c r="L13" s="30">
+      <c r="L13" s="25">
         <v>0</v>
       </c>
-      <c r="M13" s="26"/>
-    </row>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="25"/>
+      <c r="N13" s="32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
@@ -1425,60 +1541,63 @@
       <c r="C14" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="24">
         <v>1</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="24">
         <v>0</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="24">
         <v>3600</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="24">
         <v>220</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="25">
         <v>13</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="25">
         <v>1</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="25">
         <v>0</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="25">
         <v>0</v>
       </c>
-      <c r="M14" s="26"/>
-    </row>
-    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="25"/>
+      <c r="N14" s="32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="18"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="M15" s="27"/>
-    </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="21"/>
+    </row>
+    <row r="16" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="18"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="M16" s="27"/>
+      <c r="M16" s="21"/>
     </row>
     <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -1486,12 +1605,12 @@
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="18"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="M17" s="27"/>
+      <c r="M17" s="21"/>
     </row>
     <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -1499,12 +1618,12 @@
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="18"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="M18" s="27"/>
+      <c r="M18" s="21"/>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -1512,12 +1631,12 @@
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="18"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="M19" s="27"/>
+      <c r="M19" s="21"/>
     </row>
     <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
@@ -1525,12 +1644,12 @@
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="18"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="M20" s="27"/>
+      <c r="M20" s="21"/>
     </row>
     <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
@@ -1538,12 +1657,12 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="18"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="M21" s="27"/>
+      <c r="M21" s="21"/>
     </row>
     <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
@@ -1556,7 +1675,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="M22" s="27"/>
+      <c r="M22" s="21"/>
     </row>
     <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
@@ -1564,12 +1683,12 @@
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="18"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="M23" s="27"/>
+      <c r="M23" s="21"/>
     </row>
     <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -1577,12 +1696,12 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="18"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="M24" s="27"/>
+      <c r="M24" s="21"/>
     </row>
     <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -1595,7 +1714,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="M25" s="27"/>
+      <c r="M25" s="21"/>
     </row>
     <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
@@ -1603,12 +1722,12 @@
       <c r="C26" s="1"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="18"/>
+      <c r="F26" s="17"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="M26" s="27"/>
+      <c r="M26" s="21"/>
     </row>
     <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -1616,12 +1735,12 @@
       <c r="C27" s="1"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="18"/>
+      <c r="F27" s="17"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="M27" s="27"/>
+      <c r="M27" s="21"/>
     </row>
     <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -1629,12 +1748,12 @@
       <c r="C28" s="1"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="18"/>
+      <c r="F28" s="17"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="M28" s="27"/>
+      <c r="M28" s="21"/>
     </row>
     <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
@@ -1642,12 +1761,12 @@
       <c r="C29" s="1"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="18"/>
+      <c r="F29" s="17"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="M29" s="27"/>
+      <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
@@ -1655,12 +1774,12 @@
       <c r="C30" s="1"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="18"/>
+      <c r="F30" s="17"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="M30" s="27"/>
+      <c r="M30" s="21"/>
     </row>
     <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -1668,12 +1787,12 @@
       <c r="C31" s="1"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="18"/>
+      <c r="F31" s="17"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="M31" s="27"/>
+      <c r="M31" s="21"/>
     </row>
     <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
@@ -1681,12 +1800,12 @@
       <c r="C32" s="1"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="18"/>
+      <c r="F32" s="17"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="M32" s="27"/>
+      <c r="M32" s="21"/>
     </row>
     <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
@@ -1694,12 +1813,12 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="18"/>
+      <c r="F33" s="17"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="M33" s="27"/>
+      <c r="M33" s="21"/>
     </row>
     <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
@@ -1712,7 +1831,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="M34" s="27"/>
+      <c r="M34" s="21"/>
     </row>
     <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
@@ -1720,12 +1839,12 @@
       <c r="C35" s="1"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="18"/>
+      <c r="F35" s="17"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="M35" s="27"/>
+      <c r="M35" s="21"/>
     </row>
     <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
@@ -1733,12 +1852,12 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="18"/>
+      <c r="F36" s="17"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="M36" s="27"/>
+      <c r="M36" s="21"/>
     </row>
     <row r="37" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
@@ -1751,7 +1870,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="M37" s="27"/>
+      <c r="M37" s="21"/>
     </row>
     <row r="38" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
@@ -1759,12 +1878,12 @@
       <c r="C38" s="1"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="18"/>
+      <c r="F38" s="17"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="M38" s="27"/>
+      <c r="M38" s="21"/>
     </row>
     <row r="39" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
@@ -1772,12 +1891,12 @@
       <c r="C39" s="1"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="18"/>
+      <c r="F39" s="17"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="M39" s="27"/>
+      <c r="M39" s="21"/>
     </row>
     <row r="40" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
@@ -1785,12 +1904,12 @@
       <c r="C40" s="1"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="18"/>
+      <c r="F40" s="17"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="M40" s="27"/>
+      <c r="M40" s="21"/>
     </row>
     <row r="41" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
@@ -1798,12 +1917,12 @@
       <c r="C41" s="1"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="18"/>
+      <c r="F41" s="17"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="M41" s="27"/>
+      <c r="M41" s="21"/>
     </row>
     <row r="42" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
@@ -1811,12 +1930,12 @@
       <c r="C42" s="1"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="18"/>
+      <c r="F42" s="17"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="M42" s="27"/>
+      <c r="M42" s="21"/>
     </row>
     <row r="43" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
@@ -1824,12 +1943,12 @@
       <c r="C43" s="1"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="18"/>
+      <c r="F43" s="17"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="M43" s="27"/>
+      <c r="M43" s="21"/>
     </row>
     <row r="44" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
@@ -1837,12 +1956,12 @@
       <c r="C44" s="1"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="18"/>
+      <c r="F44" s="17"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="M44" s="27"/>
+      <c r="M44" s="21"/>
     </row>
     <row r="45" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
@@ -1850,12 +1969,12 @@
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="18"/>
+      <c r="F45" s="17"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="M45" s="27"/>
+      <c r="M45" s="21"/>
     </row>
     <row r="46" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
@@ -1868,7 +1987,7 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="M46" s="27"/>
+      <c r="M46" s="21"/>
     </row>
     <row r="47" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
@@ -1876,12 +1995,12 @@
       <c r="C47" s="1"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="18"/>
+      <c r="F47" s="17"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="M47" s="27"/>
+      <c r="M47" s="21"/>
     </row>
     <row r="48" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
@@ -1889,12 +2008,12 @@
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="18"/>
+      <c r="F48" s="17"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="M48" s="27"/>
+      <c r="M48" s="21"/>
     </row>
     <row r="49" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
@@ -1907,7 +2026,7 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-      <c r="M49" s="27"/>
+      <c r="M49" s="21"/>
     </row>
     <row r="50" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
@@ -1915,12 +2034,12 @@
       <c r="C50" s="1"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="18"/>
+      <c r="F50" s="17"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-      <c r="M50" s="27"/>
+      <c r="M50" s="21"/>
     </row>
     <row r="51" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
@@ -1928,12 +2047,12 @@
       <c r="C51" s="1"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="18"/>
+      <c r="F51" s="17"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="M51" s="27"/>
+      <c r="M51" s="21"/>
     </row>
     <row r="52" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
@@ -1941,12 +2060,12 @@
       <c r="C52" s="1"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="18"/>
+      <c r="F52" s="17"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="M52" s="27"/>
+      <c r="M52" s="21"/>
     </row>
     <row r="53" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
@@ -1954,12 +2073,12 @@
       <c r="C53" s="1"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="18"/>
+      <c r="F53" s="17"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-      <c r="M53" s="27"/>
+      <c r="M53" s="21"/>
     </row>
     <row r="54" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
@@ -1967,12 +2086,12 @@
       <c r="C54" s="1"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="18"/>
+      <c r="F54" s="17"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="M54" s="27"/>
+      <c r="M54" s="21"/>
     </row>
     <row r="55" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
@@ -1980,12 +2099,12 @@
       <c r="C55" s="1"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="18"/>
+      <c r="F55" s="17"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-      <c r="M55" s="27"/>
+      <c r="M55" s="21"/>
     </row>
     <row r="56" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
@@ -1993,12 +2112,12 @@
       <c r="C56" s="1"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="18"/>
+      <c r="F56" s="17"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-      <c r="M56" s="27"/>
+      <c r="M56" s="21"/>
     </row>
     <row r="57" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
@@ -2006,12 +2125,12 @@
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="18"/>
+      <c r="F57" s="17"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="M57" s="27"/>
+      <c r="M57" s="21"/>
     </row>
     <row r="58" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
@@ -2024,7 +2143,7 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="M58" s="27"/>
+      <c r="M58" s="21"/>
     </row>
     <row r="59" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
@@ -2032,12 +2151,12 @@
       <c r="C59" s="1"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="18"/>
+      <c r="F59" s="17"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="M59" s="27"/>
+      <c r="M59" s="21"/>
     </row>
     <row r="60" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
@@ -2045,12 +2164,12 @@
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="18"/>
+      <c r="F60" s="17"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-      <c r="M60" s="27"/>
+      <c r="M60" s="21"/>
     </row>
     <row r="61" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
@@ -2063,7 +2182,7 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="M61" s="27"/>
+      <c r="M61" s="21"/>
     </row>
     <row r="62" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
@@ -2071,12 +2190,12 @@
       <c r="C62" s="1"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="18"/>
+      <c r="F62" s="17"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="M62" s="27"/>
+      <c r="M62" s="21"/>
     </row>
     <row r="63" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
@@ -2084,12 +2203,12 @@
       <c r="C63" s="1"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="18"/>
+      <c r="F63" s="17"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="M63" s="27"/>
+      <c r="M63" s="21"/>
     </row>
     <row r="64" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
@@ -2097,12 +2216,12 @@
       <c r="C64" s="1"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="18"/>
+      <c r="F64" s="17"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="M64" s="27"/>
+      <c r="M64" s="21"/>
     </row>
     <row r="65" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
@@ -2110,12 +2229,12 @@
       <c r="C65" s="1"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="18"/>
+      <c r="F65" s="17"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="M65" s="27"/>
+      <c r="M65" s="21"/>
     </row>
     <row r="66" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
@@ -2123,12 +2242,12 @@
       <c r="C66" s="1"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="18"/>
+      <c r="F66" s="17"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="M66" s="27"/>
+      <c r="M66" s="21"/>
     </row>
     <row r="67" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
@@ -2136,12 +2255,12 @@
       <c r="C67" s="1"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="18"/>
+      <c r="F67" s="17"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="M67" s="27"/>
+      <c r="M67" s="21"/>
     </row>
     <row r="68" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
@@ -2149,12 +2268,12 @@
       <c r="C68" s="1"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="18"/>
+      <c r="F68" s="17"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="M68" s="27"/>
+      <c r="M68" s="21"/>
     </row>
     <row r="69" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
@@ -2162,12 +2281,12 @@
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="18"/>
+      <c r="F69" s="17"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-      <c r="M69" s="27"/>
+      <c r="M69" s="21"/>
     </row>
     <row r="70" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
@@ -2180,7 +2299,7 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-      <c r="M70" s="27"/>
+      <c r="M70" s="21"/>
     </row>
     <row r="71" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
@@ -2188,12 +2307,12 @@
       <c r="C71" s="1"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="18"/>
+      <c r="F71" s="17"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
-      <c r="M71" s="27"/>
+      <c r="M71" s="21"/>
     </row>
     <row r="72" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
@@ -2201,12 +2320,12 @@
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
-      <c r="F72" s="18"/>
+      <c r="F72" s="17"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
-      <c r="M72" s="27"/>
+      <c r="M72" s="21"/>
     </row>
     <row r="73" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
@@ -2219,7 +2338,7 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
-      <c r="M73" s="27"/>
+      <c r="M73" s="21"/>
     </row>
     <row r="74" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
@@ -2227,12 +2346,12 @@
       <c r="C74" s="1"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
-      <c r="F74" s="18"/>
+      <c r="F74" s="17"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="M74" s="27"/>
+      <c r="M74" s="21"/>
     </row>
     <row r="75" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
@@ -2240,12 +2359,12 @@
       <c r="C75" s="1"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
-      <c r="F75" s="18"/>
+      <c r="F75" s="17"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
-      <c r="M75" s="27"/>
+      <c r="M75" s="21"/>
     </row>
     <row r="76" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
@@ -2253,12 +2372,12 @@
       <c r="C76" s="1"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
-      <c r="F76" s="18"/>
+      <c r="F76" s="17"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-      <c r="M76" s="27"/>
+      <c r="M76" s="21"/>
     </row>
     <row r="77" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
@@ -2266,12 +2385,12 @@
       <c r="C77" s="1"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
-      <c r="F77" s="18"/>
+      <c r="F77" s="17"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="M77" s="27"/>
+      <c r="M77" s="21"/>
     </row>
     <row r="78" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
@@ -2279,12 +2398,12 @@
       <c r="C78" s="1"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
-      <c r="F78" s="18"/>
+      <c r="F78" s="17"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="M78" s="27"/>
+      <c r="M78" s="21"/>
     </row>
     <row r="79" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
@@ -2292,12 +2411,12 @@
       <c r="C79" s="1"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
-      <c r="F79" s="18"/>
+      <c r="F79" s="17"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="M79" s="27"/>
+      <c r="M79" s="21"/>
     </row>
     <row r="80" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
@@ -2305,12 +2424,12 @@
       <c r="C80" s="1"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
-      <c r="F80" s="18"/>
+      <c r="F80" s="17"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="M80" s="27"/>
+      <c r="M80" s="21"/>
     </row>
     <row r="81" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
@@ -2318,12 +2437,12 @@
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
-      <c r="F81" s="18"/>
+      <c r="F81" s="17"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="M81" s="27"/>
+      <c r="M81" s="21"/>
     </row>
     <row r="82" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
@@ -2336,7 +2455,7 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="M82" s="27"/>
+      <c r="M82" s="21"/>
     </row>
     <row r="83" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
@@ -2344,12 +2463,12 @@
       <c r="C83" s="1"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
-      <c r="F83" s="18"/>
+      <c r="F83" s="17"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="M83" s="27"/>
+      <c r="M83" s="21"/>
     </row>
     <row r="84" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
@@ -2357,12 +2476,12 @@
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
-      <c r="F84" s="18"/>
+      <c r="F84" s="17"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="M84" s="27"/>
+      <c r="M84" s="21"/>
     </row>
     <row r="85" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
@@ -2375,7 +2494,7 @@
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
-      <c r="M85" s="27"/>
+      <c r="M85" s="21"/>
     </row>
     <row r="86" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
@@ -2383,12 +2502,12 @@
       <c r="C86" s="1"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
-      <c r="F86" s="18"/>
+      <c r="F86" s="17"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
-      <c r="M86" s="27"/>
+      <c r="M86" s="21"/>
     </row>
     <row r="87" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
@@ -2396,12 +2515,12 @@
       <c r="C87" s="1"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
-      <c r="F87" s="18"/>
+      <c r="F87" s="17"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="M87" s="27"/>
+      <c r="M87" s="21"/>
     </row>
     <row r="88" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
@@ -2409,12 +2528,12 @@
       <c r="C88" s="1"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
-      <c r="F88" s="18"/>
+      <c r="F88" s="17"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-      <c r="M88" s="27"/>
+      <c r="M88" s="21"/>
     </row>
     <row r="89" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
@@ -2422,12 +2541,12 @@
       <c r="C89" s="1"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
-      <c r="F89" s="18"/>
+      <c r="F89" s="17"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="M89" s="27"/>
+      <c r="M89" s="21"/>
     </row>
     <row r="90" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
@@ -2435,12 +2554,12 @@
       <c r="C90" s="1"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
-      <c r="F90" s="18"/>
+      <c r="F90" s="17"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="M90" s="27"/>
+      <c r="M90" s="21"/>
     </row>
     <row r="91" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
@@ -2448,12 +2567,12 @@
       <c r="C91" s="1"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
-      <c r="F91" s="18"/>
+      <c r="F91" s="17"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
-      <c r="M91" s="27"/>
+      <c r="M91" s="21"/>
     </row>
     <row r="92" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
@@ -2461,12 +2580,12 @@
       <c r="C92" s="1"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
-      <c r="F92" s="18"/>
+      <c r="F92" s="17"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-      <c r="M92" s="27"/>
+      <c r="M92" s="21"/>
     </row>
     <row r="93" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
@@ -2474,12 +2593,12 @@
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
-      <c r="F93" s="18"/>
+      <c r="F93" s="17"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
-      <c r="M93" s="27"/>
+      <c r="M93" s="21"/>
     </row>
     <row r="94" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
@@ -2492,7 +2611,7 @@
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
-      <c r="M94" s="27"/>
+      <c r="M94" s="21"/>
     </row>
     <row r="95" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
@@ -2500,12 +2619,12 @@
       <c r="C95" s="1"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="18"/>
+      <c r="F95" s="17"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
-      <c r="M95" s="27"/>
+      <c r="M95" s="21"/>
     </row>
     <row r="96" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
@@ -2513,12 +2632,12 @@
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
-      <c r="F96" s="18"/>
+      <c r="F96" s="17"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
-      <c r="M96" s="27"/>
+      <c r="M96" s="21"/>
     </row>
     <row r="97" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
@@ -2531,7 +2650,7 @@
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
-      <c r="M97" s="27"/>
+      <c r="M97" s="21"/>
     </row>
     <row r="98" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
@@ -2539,12 +2658,12 @@
       <c r="C98" s="1"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
-      <c r="F98" s="18"/>
+      <c r="F98" s="17"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
-      <c r="M98" s="27"/>
+      <c r="M98" s="21"/>
     </row>
     <row r="99" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
@@ -2552,12 +2671,12 @@
       <c r="C99" s="1"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
-      <c r="F99" s="18"/>
+      <c r="F99" s="17"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
-      <c r="M99" s="27"/>
+      <c r="M99" s="21"/>
     </row>
     <row r="100" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
@@ -2565,12 +2684,12 @@
       <c r="C100" s="1"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
-      <c r="F100" s="18"/>
+      <c r="F100" s="17"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
-      <c r="M100" s="27"/>
+      <c r="M100" s="21"/>
     </row>
     <row r="101" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
@@ -2578,12 +2697,12 @@
       <c r="C101" s="1"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
-      <c r="F101" s="18"/>
+      <c r="F101" s="17"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
-      <c r="M101" s="27"/>
+      <c r="M101" s="21"/>
     </row>
     <row r="102" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
@@ -2591,12 +2710,12 @@
       <c r="C102" s="1"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
-      <c r="F102" s="18"/>
+      <c r="F102" s="17"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
-      <c r="M102" s="27"/>
+      <c r="M102" s="21"/>
     </row>
     <row r="103" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
@@ -2604,12 +2723,12 @@
       <c r="C103" s="1"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
-      <c r="F103" s="18"/>
+      <c r="F103" s="17"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
-      <c r="M103" s="27"/>
+      <c r="M103" s="21"/>
     </row>
     <row r="104" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
@@ -2617,12 +2736,12 @@
       <c r="C104" s="1"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
-      <c r="F104" s="18"/>
+      <c r="F104" s="17"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
-      <c r="M104" s="27"/>
+      <c r="M104" s="21"/>
     </row>
     <row r="105" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
@@ -2630,12 +2749,12 @@
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
-      <c r="F105" s="18"/>
+      <c r="F105" s="17"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
-      <c r="M105" s="27"/>
+      <c r="M105" s="21"/>
     </row>
     <row r="106" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
@@ -2648,7 +2767,7 @@
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
-      <c r="M106" s="27"/>
+      <c r="M106" s="21"/>
     </row>
     <row r="107" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
@@ -2656,12 +2775,12 @@
       <c r="C107" s="1"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
-      <c r="F107" s="18"/>
+      <c r="F107" s="17"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
-      <c r="M107" s="27"/>
+      <c r="M107" s="21"/>
     </row>
     <row r="108" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
@@ -2669,12 +2788,12 @@
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
-      <c r="F108" s="18"/>
+      <c r="F108" s="17"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
-      <c r="M108" s="27"/>
+      <c r="M108" s="21"/>
     </row>
     <row r="109" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
@@ -2687,7 +2806,7 @@
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
-      <c r="M109" s="27"/>
+      <c r="M109" s="21"/>
     </row>
     <row r="110" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
@@ -2695,12 +2814,12 @@
       <c r="C110" s="1"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
-      <c r="F110" s="18"/>
+      <c r="F110" s="17"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
-      <c r="M110" s="27"/>
+      <c r="M110" s="21"/>
     </row>
     <row r="111" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
@@ -2708,12 +2827,12 @@
       <c r="C111" s="1"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
-      <c r="F111" s="18"/>
+      <c r="F111" s="17"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
-      <c r="M111" s="27"/>
+      <c r="M111" s="21"/>
     </row>
     <row r="112" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
@@ -2721,12 +2840,12 @@
       <c r="C112" s="1"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
-      <c r="F112" s="18"/>
+      <c r="F112" s="17"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
-      <c r="M112" s="27"/>
+      <c r="M112" s="21"/>
     </row>
     <row r="113" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
@@ -2734,12 +2853,12 @@
       <c r="C113" s="1"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
-      <c r="F113" s="18"/>
+      <c r="F113" s="17"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
-      <c r="M113" s="27"/>
+      <c r="M113" s="21"/>
     </row>
     <row r="114" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
@@ -2747,12 +2866,12 @@
       <c r="C114" s="1"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
-      <c r="F114" s="18"/>
+      <c r="F114" s="17"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
-      <c r="M114" s="27"/>
+      <c r="M114" s="21"/>
     </row>
     <row r="115" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
@@ -2760,12 +2879,12 @@
       <c r="C115" s="1"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
-      <c r="F115" s="18"/>
+      <c r="F115" s="17"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
-      <c r="M115" s="27"/>
+      <c r="M115" s="21"/>
     </row>
     <row r="116" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
@@ -2773,12 +2892,12 @@
       <c r="C116" s="1"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
-      <c r="F116" s="18"/>
+      <c r="F116" s="17"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
-      <c r="M116" s="27"/>
+      <c r="M116" s="21"/>
     </row>
     <row r="117" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
@@ -2786,12 +2905,12 @@
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
-      <c r="F117" s="18"/>
+      <c r="F117" s="17"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
-      <c r="M117" s="27"/>
+      <c r="M117" s="21"/>
     </row>
     <row r="118" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
@@ -2804,7 +2923,7 @@
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
-      <c r="M118" s="27"/>
+      <c r="M118" s="21"/>
     </row>
     <row r="119" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
@@ -2812,12 +2931,12 @@
       <c r="C119" s="1"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
-      <c r="F119" s="18"/>
+      <c r="F119" s="17"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
-      <c r="M119" s="27"/>
+      <c r="M119" s="21"/>
     </row>
     <row r="120" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
@@ -2825,12 +2944,12 @@
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
-      <c r="F120" s="18"/>
+      <c r="F120" s="17"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
-      <c r="M120" s="27"/>
+      <c r="M120" s="21"/>
     </row>
     <row r="121" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
@@ -2843,7 +2962,7 @@
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
-      <c r="M121" s="27"/>
+      <c r="M121" s="21"/>
     </row>
     <row r="122" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
@@ -2851,12 +2970,12 @@
       <c r="C122" s="1"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
-      <c r="F122" s="18"/>
+      <c r="F122" s="17"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
-      <c r="M122" s="27"/>
+      <c r="M122" s="21"/>
     </row>
     <row r="123" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
@@ -2864,12 +2983,12 @@
       <c r="C123" s="1"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
-      <c r="F123" s="18"/>
+      <c r="F123" s="17"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
-      <c r="M123" s="27"/>
+      <c r="M123" s="21"/>
     </row>
     <row r="124" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
@@ -2877,12 +2996,12 @@
       <c r="C124" s="1"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
-      <c r="F124" s="18"/>
+      <c r="F124" s="17"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
-      <c r="M124" s="27"/>
+      <c r="M124" s="21"/>
     </row>
     <row r="125" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
@@ -2890,12 +3009,12 @@
       <c r="C125" s="1"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
-      <c r="F125" s="18"/>
+      <c r="F125" s="17"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
-      <c r="M125" s="27"/>
+      <c r="M125" s="21"/>
     </row>
     <row r="126" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
@@ -2903,12 +3022,12 @@
       <c r="C126" s="1"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
-      <c r="F126" s="18"/>
+      <c r="F126" s="17"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
-      <c r="M126" s="27"/>
+      <c r="M126" s="21"/>
     </row>
     <row r="127" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
@@ -2916,12 +3035,12 @@
       <c r="C127" s="1"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
-      <c r="F127" s="18"/>
+      <c r="F127" s="17"/>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
-      <c r="M127" s="27"/>
+      <c r="M127" s="21"/>
     </row>
     <row r="128" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
@@ -2929,12 +3048,12 @@
       <c r="C128" s="1"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
-      <c r="F128" s="18"/>
+      <c r="F128" s="17"/>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
-      <c r="M128" s="27"/>
+      <c r="M128" s="21"/>
     </row>
     <row r="129" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
@@ -2942,12 +3061,12 @@
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
-      <c r="F129" s="18"/>
+      <c r="F129" s="17"/>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
-      <c r="M129" s="27"/>
+      <c r="M129" s="21"/>
     </row>
     <row r="130" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
@@ -2960,7 +3079,7 @@
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
-      <c r="M130" s="27"/>
+      <c r="M130" s="21"/>
     </row>
     <row r="131" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
@@ -2968,12 +3087,12 @@
       <c r="C131" s="1"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
-      <c r="F131" s="18"/>
+      <c r="F131" s="17"/>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
-      <c r="M131" s="27"/>
+      <c r="M131" s="21"/>
     </row>
     <row r="132" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
@@ -2981,12 +3100,12 @@
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
-      <c r="F132" s="18"/>
+      <c r="F132" s="17"/>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
-      <c r="M132" s="27"/>
+      <c r="M132" s="21"/>
     </row>
     <row r="133" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
@@ -2999,7 +3118,7 @@
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
-      <c r="M133" s="27"/>
+      <c r="M133" s="21"/>
     </row>
     <row r="134" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
@@ -3007,12 +3126,12 @@
       <c r="C134" s="1"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
-      <c r="F134" s="18"/>
+      <c r="F134" s="17"/>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
-      <c r="M134" s="27"/>
+      <c r="M134" s="21"/>
     </row>
     <row r="135" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
@@ -3020,12 +3139,12 @@
       <c r="C135" s="1"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
-      <c r="F135" s="18"/>
+      <c r="F135" s="17"/>
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
-      <c r="M135" s="27"/>
+      <c r="M135" s="21"/>
     </row>
     <row r="136" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
@@ -3033,12 +3152,12 @@
       <c r="C136" s="1"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
-      <c r="F136" s="18"/>
+      <c r="F136" s="17"/>
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
-      <c r="M136" s="27"/>
+      <c r="M136" s="21"/>
     </row>
     <row r="137" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
@@ -3046,12 +3165,12 @@
       <c r="C137" s="1"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
-      <c r="F137" s="18"/>
+      <c r="F137" s="17"/>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
-      <c r="M137" s="27"/>
+      <c r="M137" s="21"/>
     </row>
     <row r="138" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
@@ -3059,12 +3178,12 @@
       <c r="C138" s="1"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
-      <c r="F138" s="18"/>
+      <c r="F138" s="17"/>
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
-      <c r="M138" s="27"/>
+      <c r="M138" s="21"/>
     </row>
     <row r="139" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
@@ -3072,12 +3191,12 @@
       <c r="C139" s="1"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
-      <c r="F139" s="18"/>
+      <c r="F139" s="17"/>
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
-      <c r="M139" s="27"/>
+      <c r="M139" s="21"/>
     </row>
     <row r="140" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
@@ -3085,12 +3204,12 @@
       <c r="C140" s="1"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
-      <c r="F140" s="18"/>
+      <c r="F140" s="17"/>
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
-      <c r="M140" s="27"/>
+      <c r="M140" s="21"/>
     </row>
     <row r="141" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
@@ -3098,12 +3217,12 @@
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
-      <c r="F141" s="18"/>
+      <c r="F141" s="17"/>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
-      <c r="M141" s="27"/>
+      <c r="M141" s="21"/>
     </row>
     <row r="142" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
@@ -3116,7 +3235,7 @@
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
-      <c r="M142" s="27"/>
+      <c r="M142" s="21"/>
     </row>
     <row r="143" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
@@ -3124,12 +3243,12 @@
       <c r="C143" s="1"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
-      <c r="F143" s="18"/>
+      <c r="F143" s="17"/>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
-      <c r="M143" s="27"/>
+      <c r="M143" s="21"/>
     </row>
     <row r="144" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
@@ -3137,12 +3256,12 @@
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
-      <c r="F144" s="18"/>
+      <c r="F144" s="17"/>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
-      <c r="M144" s="27"/>
+      <c r="M144" s="21"/>
     </row>
     <row r="145" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
@@ -3155,7 +3274,7 @@
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
-      <c r="M145" s="27"/>
+      <c r="M145" s="21"/>
     </row>
     <row r="146" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
@@ -3163,12 +3282,12 @@
       <c r="C146" s="1"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
-      <c r="F146" s="18"/>
+      <c r="F146" s="17"/>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
-      <c r="M146" s="27"/>
+      <c r="M146" s="21"/>
     </row>
     <row r="147" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
@@ -3176,12 +3295,12 @@
       <c r="C147" s="1"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
-      <c r="F147" s="18"/>
+      <c r="F147" s="17"/>
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
-      <c r="M147" s="27"/>
+      <c r="M147" s="21"/>
     </row>
     <row r="148" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
@@ -3189,12 +3308,12 @@
       <c r="C148" s="1"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
-      <c r="F148" s="18"/>
+      <c r="F148" s="17"/>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
-      <c r="M148" s="27"/>
+      <c r="M148" s="21"/>
     </row>
     <row r="149" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
@@ -3202,12 +3321,12 @@
       <c r="C149" s="1"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
-      <c r="F149" s="18"/>
+      <c r="F149" s="17"/>
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
-      <c r="M149" s="27"/>
+      <c r="M149" s="21"/>
     </row>
     <row r="150" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
@@ -3215,12 +3334,12 @@
       <c r="C150" s="1"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
-      <c r="F150" s="18"/>
+      <c r="F150" s="17"/>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
-      <c r="M150" s="27"/>
+      <c r="M150" s="21"/>
     </row>
     <row r="151" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
@@ -3228,12 +3347,12 @@
       <c r="C151" s="1"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
-      <c r="F151" s="18"/>
+      <c r="F151" s="17"/>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
-      <c r="M151" s="27"/>
+      <c r="M151" s="21"/>
     </row>
     <row r="152" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
@@ -3241,12 +3360,12 @@
       <c r="C152" s="1"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
-      <c r="F152" s="18"/>
+      <c r="F152" s="17"/>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
-      <c r="M152" s="27"/>
+      <c r="M152" s="21"/>
     </row>
     <row r="153" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
@@ -3254,12 +3373,12 @@
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
-      <c r="F153" s="18"/>
+      <c r="F153" s="17"/>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
-      <c r="M153" s="27"/>
+      <c r="M153" s="21"/>
     </row>
     <row r="154" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
@@ -3272,7 +3391,7 @@
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
-      <c r="M154" s="27"/>
+      <c r="M154" s="21"/>
     </row>
     <row r="155" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
@@ -3280,12 +3399,12 @@
       <c r="C155" s="1"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
-      <c r="F155" s="18"/>
+      <c r="F155" s="17"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
-      <c r="M155" s="27"/>
+      <c r="M155" s="21"/>
     </row>
     <row r="156" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
@@ -3293,12 +3412,12 @@
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
-      <c r="F156" s="18"/>
+      <c r="F156" s="17"/>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
-      <c r="M156" s="27"/>
+      <c r="M156" s="21"/>
     </row>
     <row r="157" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
@@ -3311,7 +3430,7 @@
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
-      <c r="M157" s="27"/>
+      <c r="M157" s="21"/>
     </row>
     <row r="158" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
@@ -3319,12 +3438,12 @@
       <c r="C158" s="1"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
-      <c r="F158" s="18"/>
+      <c r="F158" s="17"/>
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
-      <c r="M158" s="27"/>
+      <c r="M158" s="21"/>
     </row>
     <row r="159" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
@@ -3332,12 +3451,12 @@
       <c r="C159" s="1"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
-      <c r="F159" s="18"/>
+      <c r="F159" s="17"/>
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
-      <c r="M159" s="27"/>
+      <c r="M159" s="21"/>
     </row>
     <row r="160" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
@@ -3345,12 +3464,12 @@
       <c r="C160" s="1"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
-      <c r="F160" s="18"/>
+      <c r="F160" s="17"/>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
-      <c r="M160" s="27"/>
+      <c r="M160" s="21"/>
     </row>
     <row r="161" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
@@ -3358,12 +3477,12 @@
       <c r="C161" s="1"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
-      <c r="F161" s="18"/>
+      <c r="F161" s="17"/>
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
-      <c r="M161" s="27"/>
+      <c r="M161" s="21"/>
     </row>
     <row r="162" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
@@ -3371,12 +3490,12 @@
       <c r="C162" s="1"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
-      <c r="F162" s="18"/>
+      <c r="F162" s="17"/>
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
-      <c r="M162" s="27"/>
+      <c r="M162" s="21"/>
     </row>
     <row r="163" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
@@ -3384,12 +3503,12 @@
       <c r="C163" s="1"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
-      <c r="F163" s="18"/>
+      <c r="F163" s="17"/>
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
-      <c r="M163" s="27"/>
+      <c r="M163" s="21"/>
     </row>
     <row r="164" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
@@ -3397,12 +3516,12 @@
       <c r="C164" s="1"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
-      <c r="F164" s="18"/>
+      <c r="F164" s="17"/>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
-      <c r="M164" s="27"/>
+      <c r="M164" s="21"/>
     </row>
     <row r="165" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
@@ -3410,12 +3529,12 @@
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
-      <c r="F165" s="18"/>
+      <c r="F165" s="17"/>
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
-      <c r="M165" s="27"/>
+      <c r="M165" s="21"/>
     </row>
     <row r="166" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
@@ -3428,7 +3547,7 @@
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
-      <c r="M166" s="27"/>
+      <c r="M166" s="21"/>
     </row>
     <row r="167" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
@@ -3436,12 +3555,12 @@
       <c r="C167" s="1"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
-      <c r="F167" s="18"/>
+      <c r="F167" s="17"/>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
-      <c r="M167" s="27"/>
+      <c r="M167" s="21"/>
     </row>
     <row r="168" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
@@ -3449,12 +3568,12 @@
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
-      <c r="F168" s="18"/>
+      <c r="F168" s="17"/>
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
-      <c r="M168" s="27"/>
+      <c r="M168" s="21"/>
     </row>
     <row r="169" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
@@ -3467,7 +3586,7 @@
       <c r="H169" s="4"/>
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
-      <c r="M169" s="27"/>
+      <c r="M169" s="21"/>
     </row>
     <row r="170" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
@@ -3475,12 +3594,12 @@
       <c r="C170" s="1"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
-      <c r="F170" s="18"/>
+      <c r="F170" s="17"/>
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
-      <c r="M170" s="27"/>
+      <c r="M170" s="21"/>
     </row>
     <row r="171" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
@@ -3488,12 +3607,12 @@
       <c r="C171" s="1"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
-      <c r="F171" s="18"/>
+      <c r="F171" s="17"/>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
-      <c r="M171" s="27"/>
+      <c r="M171" s="21"/>
     </row>
     <row r="172" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
@@ -3501,12 +3620,12 @@
       <c r="C172" s="1"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
-      <c r="F172" s="18"/>
+      <c r="F172" s="17"/>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
-      <c r="M172" s="27"/>
+      <c r="M172" s="21"/>
     </row>
     <row r="173" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
@@ -3514,12 +3633,12 @@
       <c r="C173" s="1"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
-      <c r="F173" s="18"/>
+      <c r="F173" s="17"/>
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
-      <c r="M173" s="27"/>
+      <c r="M173" s="21"/>
     </row>
     <row r="174" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
@@ -3527,12 +3646,12 @@
       <c r="C174" s="1"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
-      <c r="F174" s="18"/>
+      <c r="F174" s="17"/>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
-      <c r="M174" s="27"/>
+      <c r="M174" s="21"/>
     </row>
     <row r="175" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
@@ -3540,12 +3659,12 @@
       <c r="C175" s="1"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
-      <c r="F175" s="18"/>
+      <c r="F175" s="17"/>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
-      <c r="M175" s="27"/>
+      <c r="M175" s="21"/>
     </row>
     <row r="176" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
@@ -3553,12 +3672,12 @@
       <c r="C176" s="1"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
-      <c r="F176" s="18"/>
+      <c r="F176" s="17"/>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
-      <c r="M176" s="27"/>
+      <c r="M176" s="21"/>
     </row>
     <row r="177" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
@@ -3566,12 +3685,12 @@
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
-      <c r="F177" s="18"/>
+      <c r="F177" s="17"/>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
-      <c r="M177" s="27"/>
+      <c r="M177" s="21"/>
     </row>
     <row r="178" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
@@ -3584,7 +3703,7 @@
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
-      <c r="M178" s="27"/>
+      <c r="M178" s="21"/>
     </row>
     <row r="179" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
@@ -3592,12 +3711,12 @@
       <c r="C179" s="1"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
-      <c r="F179" s="18"/>
+      <c r="F179" s="17"/>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
-      <c r="M179" s="27"/>
+      <c r="M179" s="21"/>
     </row>
     <row r="180" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
@@ -3605,12 +3724,12 @@
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
-      <c r="F180" s="18"/>
+      <c r="F180" s="17"/>
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
-      <c r="M180" s="27"/>
+      <c r="M180" s="21"/>
     </row>
     <row r="181" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
@@ -3623,7 +3742,7 @@
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
-      <c r="M181" s="27"/>
+      <c r="M181" s="21"/>
     </row>
     <row r="182" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
@@ -3631,12 +3750,12 @@
       <c r="C182" s="1"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
-      <c r="F182" s="18"/>
+      <c r="F182" s="17"/>
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
-      <c r="M182" s="27"/>
+      <c r="M182" s="21"/>
     </row>
     <row r="183" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
@@ -3644,12 +3763,12 @@
       <c r="C183" s="1"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
-      <c r="F183" s="18"/>
+      <c r="F183" s="17"/>
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
-      <c r="M183" s="27"/>
+      <c r="M183" s="21"/>
     </row>
     <row r="184" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
@@ -3657,12 +3776,12 @@
       <c r="C184" s="1"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
-      <c r="F184" s="18"/>
+      <c r="F184" s="17"/>
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
-      <c r="M184" s="27"/>
+      <c r="M184" s="21"/>
     </row>
     <row r="185" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
@@ -3670,12 +3789,12 @@
       <c r="C185" s="1"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
-      <c r="F185" s="18"/>
+      <c r="F185" s="17"/>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
-      <c r="M185" s="27"/>
+      <c r="M185" s="21"/>
     </row>
     <row r="186" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
@@ -3683,12 +3802,12 @@
       <c r="C186" s="1"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
-      <c r="F186" s="18"/>
+      <c r="F186" s="17"/>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
-      <c r="M186" s="27"/>
+      <c r="M186" s="21"/>
     </row>
     <row r="187" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
@@ -3696,12 +3815,12 @@
       <c r="C187" s="1"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
-      <c r="F187" s="18"/>
+      <c r="F187" s="17"/>
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
-      <c r="M187" s="27"/>
+      <c r="M187" s="21"/>
     </row>
     <row r="188" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
@@ -3709,12 +3828,12 @@
       <c r="C188" s="1"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
-      <c r="F188" s="18"/>
+      <c r="F188" s="17"/>
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
-      <c r="M188" s="27"/>
+      <c r="M188" s="21"/>
     </row>
     <row r="189" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
@@ -3722,12 +3841,12 @@
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
-      <c r="F189" s="18"/>
+      <c r="F189" s="17"/>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
-      <c r="M189" s="27"/>
+      <c r="M189" s="21"/>
     </row>
     <row r="190" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
@@ -3740,7 +3859,7 @@
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
       <c r="J190" s="4"/>
-      <c r="M190" s="27"/>
+      <c r="M190" s="21"/>
     </row>
     <row r="191" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
@@ -3748,12 +3867,12 @@
       <c r="C191" s="1"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
-      <c r="F191" s="18"/>
+      <c r="F191" s="17"/>
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
-      <c r="M191" s="27"/>
+      <c r="M191" s="21"/>
     </row>
     <row r="192" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
@@ -3761,12 +3880,12 @@
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
-      <c r="F192" s="18"/>
+      <c r="F192" s="17"/>
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
-      <c r="M192" s="27"/>
+      <c r="M192" s="21"/>
     </row>
     <row r="193" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
@@ -3779,7 +3898,7 @@
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
-      <c r="M193" s="27"/>
+      <c r="M193" s="21"/>
     </row>
     <row r="194" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
@@ -3787,12 +3906,12 @@
       <c r="C194" s="1"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
-      <c r="F194" s="18"/>
+      <c r="F194" s="17"/>
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
-      <c r="M194" s="27"/>
+      <c r="M194" s="21"/>
     </row>
     <row r="195" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
@@ -3800,12 +3919,12 @@
       <c r="C195" s="1"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
-      <c r="F195" s="18"/>
+      <c r="F195" s="17"/>
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
-      <c r="M195" s="27"/>
+      <c r="M195" s="21"/>
     </row>
     <row r="196" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
@@ -3813,12 +3932,12 @@
       <c r="C196" s="1"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
-      <c r="F196" s="18"/>
+      <c r="F196" s="17"/>
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
-      <c r="M196" s="27"/>
+      <c r="M196" s="21"/>
     </row>
     <row r="197" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
@@ -3826,12 +3945,12 @@
       <c r="C197" s="1"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
-      <c r="F197" s="18"/>
+      <c r="F197" s="17"/>
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
       <c r="J197" s="4"/>
-      <c r="M197" s="27"/>
+      <c r="M197" s="21"/>
     </row>
     <row r="198" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
@@ -3839,12 +3958,12 @@
       <c r="C198" s="1"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
-      <c r="F198" s="18"/>
+      <c r="F198" s="17"/>
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
-      <c r="M198" s="27"/>
+      <c r="M198" s="21"/>
     </row>
     <row r="199" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
@@ -3852,12 +3971,12 @@
       <c r="C199" s="1"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
-      <c r="F199" s="18"/>
+      <c r="F199" s="17"/>
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
-      <c r="M199" s="27"/>
+      <c r="M199" s="21"/>
     </row>
     <row r="200" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
@@ -3865,12 +3984,12 @@
       <c r="C200" s="1"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
-      <c r="F200" s="18"/>
+      <c r="F200" s="17"/>
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
-      <c r="M200" s="27"/>
+      <c r="M200" s="21"/>
     </row>
     <row r="201" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
@@ -3878,12 +3997,12 @@
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
-      <c r="F201" s="18"/>
+      <c r="F201" s="17"/>
       <c r="G201" s="4"/>
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
-      <c r="M201" s="27"/>
+      <c r="M201" s="21"/>
     </row>
     <row r="202" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
@@ -3896,7 +4015,7 @@
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
-      <c r="M202" s="27"/>
+      <c r="M202" s="21"/>
     </row>
     <row r="203" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
@@ -3904,12 +4023,12 @@
       <c r="C203" s="1"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
-      <c r="F203" s="18"/>
+      <c r="F203" s="17"/>
       <c r="G203" s="4"/>
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
-      <c r="M203" s="27"/>
+      <c r="M203" s="21"/>
     </row>
     <row r="204" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
@@ -3917,12 +4036,12 @@
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
-      <c r="F204" s="18"/>
+      <c r="F204" s="17"/>
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
-      <c r="M204" s="27"/>
+      <c r="M204" s="21"/>
     </row>
     <row r="205" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
@@ -3935,7 +4054,7 @@
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
       <c r="J205" s="4"/>
-      <c r="M205" s="27"/>
+      <c r="M205" s="21"/>
     </row>
     <row r="206" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
@@ -3943,12 +4062,12 @@
       <c r="C206" s="1"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
-      <c r="F206" s="18"/>
+      <c r="F206" s="17"/>
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
-      <c r="M206" s="27"/>
+      <c r="M206" s="21"/>
     </row>
     <row r="207" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
@@ -3956,12 +4075,12 @@
       <c r="C207" s="1"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
-      <c r="F207" s="18"/>
+      <c r="F207" s="17"/>
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
-      <c r="M207" s="27"/>
+      <c r="M207" s="21"/>
     </row>
     <row r="208" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
@@ -3969,12 +4088,12 @@
       <c r="C208" s="1"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
-      <c r="F208" s="18"/>
+      <c r="F208" s="17"/>
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
-      <c r="M208" s="27"/>
+      <c r="M208" s="21"/>
     </row>
     <row r="209" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
@@ -3982,12 +4101,12 @@
       <c r="C209" s="1"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
-      <c r="F209" s="18"/>
+      <c r="F209" s="17"/>
       <c r="G209" s="4"/>
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
-      <c r="M209" s="27"/>
+      <c r="M209" s="21"/>
     </row>
     <row r="210" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
@@ -3995,12 +4114,12 @@
       <c r="C210" s="1"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
-      <c r="F210" s="18"/>
+      <c r="F210" s="17"/>
       <c r="G210" s="4"/>
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
-      <c r="M210" s="27"/>
+      <c r="M210" s="21"/>
     </row>
     <row r="211" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
@@ -4008,12 +4127,12 @@
       <c r="C211" s="1"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
-      <c r="F211" s="18"/>
+      <c r="F211" s="17"/>
       <c r="G211" s="4"/>
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
       <c r="J211" s="4"/>
-      <c r="M211" s="27"/>
+      <c r="M211" s="21"/>
     </row>
     <row r="212" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
@@ -4021,12 +4140,12 @@
       <c r="C212" s="1"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
-      <c r="F212" s="18"/>
+      <c r="F212" s="17"/>
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
-      <c r="M212" s="27"/>
+      <c r="M212" s="21"/>
     </row>
     <row r="213" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
@@ -4034,12 +4153,12 @@
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
-      <c r="F213" s="18"/>
+      <c r="F213" s="17"/>
       <c r="G213" s="4"/>
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
       <c r="J213" s="4"/>
-      <c r="M213" s="27"/>
+      <c r="M213" s="21"/>
     </row>
     <row r="214" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
@@ -4052,7 +4171,7 @@
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
       <c r="J214" s="4"/>
-      <c r="M214" s="27"/>
+      <c r="M214" s="21"/>
     </row>
     <row r="215" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
@@ -4060,12 +4179,12 @@
       <c r="C215" s="1"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
-      <c r="F215" s="18"/>
+      <c r="F215" s="17"/>
       <c r="G215" s="4"/>
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
       <c r="J215" s="4"/>
-      <c r="M215" s="27"/>
+      <c r="M215" s="21"/>
     </row>
     <row r="216" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
@@ -4073,12 +4192,12 @@
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
-      <c r="F216" s="18"/>
+      <c r="F216" s="17"/>
       <c r="G216" s="4"/>
       <c r="H216" s="4"/>
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
-      <c r="M216" s="27"/>
+      <c r="M216" s="21"/>
     </row>
     <row r="217" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
@@ -4091,7 +4210,7 @@
       <c r="H217" s="4"/>
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
-      <c r="M217" s="27"/>
+      <c r="M217" s="21"/>
     </row>
     <row r="218" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
@@ -4099,12 +4218,12 @@
       <c r="C218" s="1"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
-      <c r="F218" s="18"/>
+      <c r="F218" s="17"/>
       <c r="G218" s="4"/>
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
-      <c r="M218" s="27"/>
+      <c r="M218" s="21"/>
     </row>
     <row r="219" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
@@ -4112,12 +4231,12 @@
       <c r="C219" s="1"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
-      <c r="F219" s="18"/>
+      <c r="F219" s="17"/>
       <c r="G219" s="4"/>
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
-      <c r="M219" s="27"/>
+      <c r="M219" s="21"/>
     </row>
     <row r="220" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
@@ -4125,12 +4244,12 @@
       <c r="C220" s="1"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
-      <c r="F220" s="18"/>
+      <c r="F220" s="17"/>
       <c r="G220" s="4"/>
       <c r="H220" s="4"/>
       <c r="I220" s="4"/>
       <c r="J220" s="4"/>
-      <c r="M220" s="27"/>
+      <c r="M220" s="21"/>
     </row>
     <row r="221" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
@@ -4138,12 +4257,12 @@
       <c r="C221" s="1"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
-      <c r="F221" s="18"/>
+      <c r="F221" s="17"/>
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
-      <c r="M221" s="27"/>
+      <c r="M221" s="21"/>
     </row>
     <row r="222" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
@@ -4151,12 +4270,12 @@
       <c r="C222" s="1"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
-      <c r="F222" s="18"/>
+      <c r="F222" s="17"/>
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
-      <c r="M222" s="27"/>
+      <c r="M222" s="21"/>
     </row>
     <row r="223" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
@@ -4164,12 +4283,12 @@
       <c r="C223" s="1"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
-      <c r="F223" s="18"/>
+      <c r="F223" s="17"/>
       <c r="G223" s="4"/>
       <c r="H223" s="4"/>
       <c r="I223" s="4"/>
       <c r="J223" s="4"/>
-      <c r="M223" s="27"/>
+      <c r="M223" s="21"/>
     </row>
     <row r="224" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
@@ -4177,12 +4296,12 @@
       <c r="C224" s="1"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
-      <c r="F224" s="18"/>
+      <c r="F224" s="17"/>
       <c r="G224" s="4"/>
       <c r="H224" s="4"/>
       <c r="I224" s="4"/>
       <c r="J224" s="4"/>
-      <c r="M224" s="27"/>
+      <c r="M224" s="21"/>
     </row>
     <row r="225" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
@@ -4190,12 +4309,12 @@
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
-      <c r="F225" s="18"/>
+      <c r="F225" s="17"/>
       <c r="G225" s="4"/>
       <c r="H225" s="4"/>
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
-      <c r="M225" s="27"/>
+      <c r="M225" s="21"/>
     </row>
     <row r="226" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
@@ -4208,7 +4327,7 @@
       <c r="H226" s="4"/>
       <c r="I226" s="4"/>
       <c r="J226" s="4"/>
-      <c r="M226" s="27"/>
+      <c r="M226" s="21"/>
     </row>
     <row r="227" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
@@ -4216,12 +4335,12 @@
       <c r="C227" s="1"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
-      <c r="F227" s="18"/>
+      <c r="F227" s="17"/>
       <c r="G227" s="4"/>
       <c r="H227" s="4"/>
       <c r="I227" s="4"/>
       <c r="J227" s="4"/>
-      <c r="M227" s="27"/>
+      <c r="M227" s="21"/>
     </row>
     <row r="228" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
@@ -4229,12 +4348,12 @@
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
-      <c r="F228" s="18"/>
+      <c r="F228" s="17"/>
       <c r="G228" s="4"/>
       <c r="H228" s="4"/>
       <c r="I228" s="4"/>
       <c r="J228" s="4"/>
-      <c r="M228" s="27"/>
+      <c r="M228" s="21"/>
     </row>
     <row r="229" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
@@ -4247,7 +4366,7 @@
       <c r="H229" s="4"/>
       <c r="I229" s="4"/>
       <c r="J229" s="4"/>
-      <c r="M229" s="27"/>
+      <c r="M229" s="21"/>
     </row>
     <row r="230" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
@@ -4255,12 +4374,12 @@
       <c r="C230" s="1"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
-      <c r="F230" s="18"/>
+      <c r="F230" s="17"/>
       <c r="G230" s="4"/>
       <c r="H230" s="4"/>
       <c r="I230" s="4"/>
       <c r="J230" s="4"/>
-      <c r="M230" s="27"/>
+      <c r="M230" s="21"/>
     </row>
     <row r="231" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
@@ -4268,12 +4387,12 @@
       <c r="C231" s="1"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
-      <c r="F231" s="18"/>
+      <c r="F231" s="17"/>
       <c r="G231" s="4"/>
       <c r="H231" s="4"/>
       <c r="I231" s="4"/>
       <c r="J231" s="4"/>
-      <c r="M231" s="27"/>
+      <c r="M231" s="21"/>
     </row>
     <row r="232" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
@@ -4281,12 +4400,12 @@
       <c r="C232" s="1"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
-      <c r="F232" s="18"/>
+      <c r="F232" s="17"/>
       <c r="G232" s="4"/>
       <c r="H232" s="4"/>
       <c r="I232" s="4"/>
       <c r="J232" s="4"/>
-      <c r="M232" s="27"/>
+      <c r="M232" s="21"/>
     </row>
     <row r="233" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
@@ -4294,12 +4413,12 @@
       <c r="C233" s="1"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
-      <c r="F233" s="18"/>
+      <c r="F233" s="17"/>
       <c r="G233" s="4"/>
       <c r="H233" s="4"/>
       <c r="I233" s="4"/>
       <c r="J233" s="4"/>
-      <c r="M233" s="27"/>
+      <c r="M233" s="21"/>
     </row>
     <row r="234" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
@@ -4307,12 +4426,12 @@
       <c r="C234" s="1"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
-      <c r="F234" s="18"/>
+      <c r="F234" s="17"/>
       <c r="G234" s="4"/>
       <c r="H234" s="4"/>
       <c r="I234" s="4"/>
       <c r="J234" s="4"/>
-      <c r="M234" s="27"/>
+      <c r="M234" s="21"/>
     </row>
     <row r="235" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
@@ -4320,12 +4439,12 @@
       <c r="C235" s="1"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
-      <c r="F235" s="18"/>
+      <c r="F235" s="17"/>
       <c r="G235" s="4"/>
       <c r="H235" s="4"/>
       <c r="I235" s="4"/>
       <c r="J235" s="4"/>
-      <c r="M235" s="27"/>
+      <c r="M235" s="21"/>
     </row>
     <row r="236" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
@@ -4333,12 +4452,12 @@
       <c r="C236" s="1"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
-      <c r="F236" s="18"/>
+      <c r="F236" s="17"/>
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
       <c r="I236" s="4"/>
       <c r="J236" s="4"/>
-      <c r="M236" s="27"/>
+      <c r="M236" s="21"/>
     </row>
     <row r="237" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
@@ -4346,12 +4465,12 @@
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
-      <c r="F237" s="18"/>
+      <c r="F237" s="17"/>
       <c r="G237" s="4"/>
       <c r="H237" s="4"/>
       <c r="I237" s="4"/>
       <c r="J237" s="4"/>
-      <c r="M237" s="27"/>
+      <c r="M237" s="21"/>
     </row>
     <row r="238" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
@@ -4364,7 +4483,7 @@
       <c r="H238" s="4"/>
       <c r="I238" s="4"/>
       <c r="J238" s="4"/>
-      <c r="M238" s="27"/>
+      <c r="M238" s="21"/>
     </row>
     <row r="239" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
@@ -4372,12 +4491,12 @@
       <c r="C239" s="1"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
-      <c r="F239" s="18"/>
+      <c r="F239" s="17"/>
       <c r="G239" s="4"/>
       <c r="H239" s="4"/>
       <c r="I239" s="4"/>
       <c r="J239" s="4"/>
-      <c r="M239" s="27"/>
+      <c r="M239" s="21"/>
     </row>
     <row r="240" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
@@ -4385,12 +4504,12 @@
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
-      <c r="F240" s="18"/>
+      <c r="F240" s="17"/>
       <c r="G240" s="4"/>
       <c r="H240" s="4"/>
       <c r="I240" s="4"/>
       <c r="J240" s="4"/>
-      <c r="M240" s="27"/>
+      <c r="M240" s="21"/>
     </row>
     <row r="241" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
@@ -4403,7 +4522,7 @@
       <c r="H241" s="4"/>
       <c r="I241" s="4"/>
       <c r="J241" s="4"/>
-      <c r="M241" s="27"/>
+      <c r="M241" s="21"/>
     </row>
     <row r="242" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
@@ -4411,12 +4530,12 @@
       <c r="C242" s="1"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
-      <c r="F242" s="18"/>
+      <c r="F242" s="17"/>
       <c r="G242" s="4"/>
       <c r="H242" s="4"/>
       <c r="I242" s="4"/>
       <c r="J242" s="4"/>
-      <c r="M242" s="27"/>
+      <c r="M242" s="21"/>
     </row>
     <row r="243" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
@@ -4424,12 +4543,12 @@
       <c r="C243" s="1"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
-      <c r="F243" s="18"/>
+      <c r="F243" s="17"/>
       <c r="G243" s="4"/>
       <c r="H243" s="4"/>
       <c r="I243" s="4"/>
       <c r="J243" s="4"/>
-      <c r="M243" s="27"/>
+      <c r="M243" s="21"/>
     </row>
     <row r="244" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
@@ -4437,12 +4556,12 @@
       <c r="C244" s="1"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
-      <c r="F244" s="18"/>
+      <c r="F244" s="17"/>
       <c r="G244" s="4"/>
       <c r="H244" s="4"/>
       <c r="I244" s="4"/>
       <c r="J244" s="4"/>
-      <c r="M244" s="27"/>
+      <c r="M244" s="21"/>
     </row>
     <row r="245" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
@@ -4450,12 +4569,12 @@
       <c r="C245" s="1"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
-      <c r="F245" s="18"/>
+      <c r="F245" s="17"/>
       <c r="G245" s="4"/>
       <c r="H245" s="4"/>
       <c r="I245" s="4"/>
       <c r="J245" s="4"/>
-      <c r="M245" s="27"/>
+      <c r="M245" s="21"/>
     </row>
     <row r="246" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
@@ -4463,12 +4582,12 @@
       <c r="C246" s="1"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
-      <c r="F246" s="18"/>
+      <c r="F246" s="17"/>
       <c r="G246" s="4"/>
       <c r="H246" s="4"/>
       <c r="I246" s="4"/>
       <c r="J246" s="4"/>
-      <c r="M246" s="27"/>
+      <c r="M246" s="21"/>
     </row>
     <row r="247" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
@@ -4476,12 +4595,12 @@
       <c r="C247" s="1"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
-      <c r="F247" s="18"/>
+      <c r="F247" s="17"/>
       <c r="G247" s="4"/>
       <c r="H247" s="4"/>
       <c r="I247" s="4"/>
       <c r="J247" s="4"/>
-      <c r="M247" s="27"/>
+      <c r="M247" s="21"/>
     </row>
     <row r="248" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
@@ -4489,12 +4608,12 @@
       <c r="C248" s="1"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
-      <c r="F248" s="18"/>
+      <c r="F248" s="17"/>
       <c r="G248" s="4"/>
       <c r="H248" s="4"/>
       <c r="I248" s="4"/>
       <c r="J248" s="4"/>
-      <c r="M248" s="27"/>
+      <c r="M248" s="21"/>
     </row>
     <row r="249" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
@@ -4502,12 +4621,12 @@
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
-      <c r="F249" s="18"/>
+      <c r="F249" s="17"/>
       <c r="G249" s="4"/>
       <c r="H249" s="4"/>
       <c r="I249" s="4"/>
       <c r="J249" s="4"/>
-      <c r="M249" s="27"/>
+      <c r="M249" s="21"/>
     </row>
     <row r="250" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
@@ -4520,7 +4639,7 @@
       <c r="H250" s="4"/>
       <c r="I250" s="4"/>
       <c r="J250" s="4"/>
-      <c r="M250" s="27"/>
+      <c r="M250" s="21"/>
     </row>
     <row r="251" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
@@ -4528,12 +4647,12 @@
       <c r="C251" s="1"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
-      <c r="F251" s="18"/>
+      <c r="F251" s="17"/>
       <c r="G251" s="4"/>
       <c r="H251" s="4"/>
       <c r="I251" s="4"/>
       <c r="J251" s="4"/>
-      <c r="M251" s="27"/>
+      <c r="M251" s="21"/>
     </row>
     <row r="252" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
@@ -4541,12 +4660,12 @@
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
-      <c r="F252" s="18"/>
+      <c r="F252" s="17"/>
       <c r="G252" s="4"/>
       <c r="H252" s="4"/>
       <c r="I252" s="4"/>
       <c r="J252" s="4"/>
-      <c r="M252" s="27"/>
+      <c r="M252" s="21"/>
     </row>
     <row r="253" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
@@ -4559,7 +4678,7 @@
       <c r="H253" s="4"/>
       <c r="I253" s="4"/>
       <c r="J253" s="4"/>
-      <c r="M253" s="27"/>
+      <c r="M253" s="21"/>
     </row>
     <row r="254" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
@@ -4567,12 +4686,12 @@
       <c r="C254" s="1"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
-      <c r="F254" s="18"/>
+      <c r="F254" s="17"/>
       <c r="G254" s="4"/>
       <c r="H254" s="4"/>
       <c r="I254" s="4"/>
       <c r="J254" s="4"/>
-      <c r="M254" s="27"/>
+      <c r="M254" s="21"/>
     </row>
     <row r="255" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
@@ -4580,12 +4699,12 @@
       <c r="C255" s="1"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
-      <c r="F255" s="18"/>
+      <c r="F255" s="17"/>
       <c r="G255" s="4"/>
       <c r="H255" s="4"/>
       <c r="I255" s="4"/>
       <c r="J255" s="4"/>
-      <c r="M255" s="27"/>
+      <c r="M255" s="21"/>
     </row>
     <row r="256" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
@@ -4593,12 +4712,12 @@
       <c r="C256" s="1"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
-      <c r="F256" s="18"/>
+      <c r="F256" s="17"/>
       <c r="G256" s="4"/>
       <c r="H256" s="4"/>
       <c r="I256" s="4"/>
       <c r="J256" s="4"/>
-      <c r="M256" s="27"/>
+      <c r="M256" s="21"/>
     </row>
     <row r="257" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
@@ -4606,12 +4725,12 @@
       <c r="C257" s="1"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
-      <c r="F257" s="18"/>
+      <c r="F257" s="17"/>
       <c r="G257" s="4"/>
       <c r="H257" s="4"/>
       <c r="I257" s="4"/>
       <c r="J257" s="4"/>
-      <c r="M257" s="27"/>
+      <c r="M257" s="21"/>
     </row>
     <row r="258" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
@@ -4619,12 +4738,12 @@
       <c r="C258" s="1"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
-      <c r="F258" s="18"/>
+      <c r="F258" s="17"/>
       <c r="G258" s="4"/>
       <c r="H258" s="4"/>
       <c r="I258" s="4"/>
       <c r="J258" s="4"/>
-      <c r="M258" s="27"/>
+      <c r="M258" s="21"/>
     </row>
     <row r="259" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
@@ -4632,12 +4751,12 @@
       <c r="C259" s="1"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
-      <c r="F259" s="18"/>
+      <c r="F259" s="17"/>
       <c r="G259" s="4"/>
       <c r="H259" s="4"/>
       <c r="I259" s="4"/>
       <c r="J259" s="4"/>
-      <c r="M259" s="27"/>
+      <c r="M259" s="21"/>
     </row>
     <row r="260" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
@@ -4645,12 +4764,12 @@
       <c r="C260" s="1"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
-      <c r="F260" s="18"/>
+      <c r="F260" s="17"/>
       <c r="G260" s="4"/>
       <c r="H260" s="4"/>
       <c r="I260" s="4"/>
       <c r="J260" s="4"/>
-      <c r="M260" s="27"/>
+      <c r="M260" s="21"/>
     </row>
     <row r="261" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
@@ -4658,12 +4777,12 @@
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
-      <c r="F261" s="18"/>
+      <c r="F261" s="17"/>
       <c r="G261" s="4"/>
       <c r="H261" s="4"/>
       <c r="I261" s="4"/>
       <c r="J261" s="4"/>
-      <c r="M261" s="27"/>
+      <c r="M261" s="21"/>
     </row>
     <row r="262" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
@@ -4676,7 +4795,7 @@
       <c r="H262" s="4"/>
       <c r="I262" s="4"/>
       <c r="J262" s="4"/>
-      <c r="M262" s="27"/>
+      <c r="M262" s="21"/>
     </row>
     <row r="263" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
@@ -4684,12 +4803,12 @@
       <c r="C263" s="1"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
-      <c r="F263" s="18"/>
+      <c r="F263" s="17"/>
       <c r="G263" s="4"/>
       <c r="H263" s="4"/>
       <c r="I263" s="4"/>
       <c r="J263" s="4"/>
-      <c r="M263" s="27"/>
+      <c r="M263" s="21"/>
     </row>
     <row r="264" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
@@ -4697,12 +4816,12 @@
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
-      <c r="F264" s="18"/>
+      <c r="F264" s="17"/>
       <c r="G264" s="4"/>
       <c r="H264" s="4"/>
       <c r="I264" s="4"/>
       <c r="J264" s="4"/>
-      <c r="M264" s="27"/>
+      <c r="M264" s="21"/>
     </row>
     <row r="265" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
@@ -4715,7 +4834,7 @@
       <c r="H265" s="4"/>
       <c r="I265" s="4"/>
       <c r="J265" s="4"/>
-      <c r="M265" s="27"/>
+      <c r="M265" s="21"/>
     </row>
     <row r="266" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
@@ -4723,12 +4842,12 @@
       <c r="C266" s="1"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
-      <c r="F266" s="18"/>
+      <c r="F266" s="17"/>
       <c r="G266" s="4"/>
       <c r="H266" s="4"/>
       <c r="I266" s="4"/>
       <c r="J266" s="4"/>
-      <c r="M266" s="27"/>
+      <c r="M266" s="21"/>
     </row>
     <row r="267" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
@@ -4736,12 +4855,12 @@
       <c r="C267" s="1"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
-      <c r="F267" s="18"/>
+      <c r="F267" s="17"/>
       <c r="G267" s="4"/>
       <c r="H267" s="4"/>
       <c r="I267" s="4"/>
       <c r="J267" s="4"/>
-      <c r="M267" s="27"/>
+      <c r="M267" s="21"/>
     </row>
     <row r="268" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
@@ -4749,12 +4868,12 @@
       <c r="C268" s="1"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
-      <c r="F268" s="18"/>
+      <c r="F268" s="17"/>
       <c r="G268" s="4"/>
       <c r="H268" s="4"/>
       <c r="I268" s="4"/>
       <c r="J268" s="4"/>
-      <c r="M268" s="27"/>
+      <c r="M268" s="21"/>
     </row>
     <row r="269" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
@@ -4762,12 +4881,12 @@
       <c r="C269" s="1"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
-      <c r="F269" s="18"/>
+      <c r="F269" s="17"/>
       <c r="G269" s="4"/>
       <c r="H269" s="4"/>
       <c r="I269" s="4"/>
       <c r="J269" s="4"/>
-      <c r="M269" s="27"/>
+      <c r="M269" s="21"/>
     </row>
     <row r="270" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
@@ -4775,12 +4894,12 @@
       <c r="C270" s="1"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
-      <c r="F270" s="18"/>
+      <c r="F270" s="17"/>
       <c r="G270" s="4"/>
       <c r="H270" s="4"/>
       <c r="I270" s="4"/>
       <c r="J270" s="4"/>
-      <c r="M270" s="27"/>
+      <c r="M270" s="21"/>
     </row>
     <row r="271" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
@@ -4788,12 +4907,12 @@
       <c r="C271" s="1"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
-      <c r="F271" s="18"/>
+      <c r="F271" s="17"/>
       <c r="G271" s="4"/>
       <c r="H271" s="4"/>
       <c r="I271" s="4"/>
       <c r="J271" s="4"/>
-      <c r="M271" s="27"/>
+      <c r="M271" s="21"/>
     </row>
     <row r="272" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
@@ -4801,12 +4920,12 @@
       <c r="C272" s="1"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
-      <c r="F272" s="18"/>
+      <c r="F272" s="17"/>
       <c r="G272" s="4"/>
       <c r="H272" s="4"/>
       <c r="I272" s="4"/>
       <c r="J272" s="4"/>
-      <c r="M272" s="27"/>
+      <c r="M272" s="21"/>
     </row>
     <row r="273" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
@@ -4814,12 +4933,12 @@
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
-      <c r="F273" s="18"/>
+      <c r="F273" s="17"/>
       <c r="G273" s="4"/>
       <c r="H273" s="4"/>
       <c r="I273" s="4"/>
       <c r="J273" s="4"/>
-      <c r="M273" s="27"/>
+      <c r="M273" s="21"/>
     </row>
     <row r="274" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
@@ -4832,7 +4951,7 @@
       <c r="H274" s="4"/>
       <c r="I274" s="4"/>
       <c r="J274" s="4"/>
-      <c r="M274" s="27"/>
+      <c r="M274" s="21"/>
     </row>
     <row r="275" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
@@ -4840,12 +4959,12 @@
       <c r="C275" s="1"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
-      <c r="F275" s="18"/>
+      <c r="F275" s="17"/>
       <c r="G275" s="4"/>
       <c r="H275" s="4"/>
       <c r="I275" s="4"/>
       <c r="J275" s="4"/>
-      <c r="M275" s="27"/>
+      <c r="M275" s="21"/>
     </row>
     <row r="276" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
@@ -4853,12 +4972,12 @@
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
-      <c r="F276" s="18"/>
+      <c r="F276" s="17"/>
       <c r="G276" s="4"/>
       <c r="H276" s="4"/>
       <c r="I276" s="4"/>
       <c r="J276" s="4"/>
-      <c r="M276" s="27"/>
+      <c r="M276" s="21"/>
     </row>
     <row r="277" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
@@ -4871,7 +4990,7 @@
       <c r="H277" s="4"/>
       <c r="I277" s="4"/>
       <c r="J277" s="4"/>
-      <c r="M277" s="27"/>
+      <c r="M277" s="21"/>
     </row>
     <row r="278" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
@@ -4879,12 +4998,12 @@
       <c r="C278" s="1"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
-      <c r="F278" s="18"/>
+      <c r="F278" s="17"/>
       <c r="G278" s="4"/>
       <c r="H278" s="4"/>
       <c r="I278" s="4"/>
       <c r="J278" s="4"/>
-      <c r="M278" s="27"/>
+      <c r="M278" s="21"/>
     </row>
     <row r="279" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
@@ -4892,12 +5011,12 @@
       <c r="C279" s="1"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
-      <c r="F279" s="18"/>
+      <c r="F279" s="17"/>
       <c r="G279" s="4"/>
       <c r="H279" s="4"/>
       <c r="I279" s="4"/>
       <c r="J279" s="4"/>
-      <c r="M279" s="27"/>
+      <c r="M279" s="21"/>
     </row>
     <row r="280" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
@@ -4905,12 +5024,12 @@
       <c r="C280" s="1"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
-      <c r="F280" s="18"/>
+      <c r="F280" s="17"/>
       <c r="G280" s="4"/>
       <c r="H280" s="4"/>
       <c r="I280" s="4"/>
       <c r="J280" s="4"/>
-      <c r="M280" s="27"/>
+      <c r="M280" s="21"/>
     </row>
     <row r="281" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
@@ -4918,12 +5037,12 @@
       <c r="C281" s="1"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
-      <c r="F281" s="18"/>
+      <c r="F281" s="17"/>
       <c r="G281" s="4"/>
       <c r="H281" s="4"/>
       <c r="I281" s="4"/>
       <c r="J281" s="4"/>
-      <c r="M281" s="27"/>
+      <c r="M281" s="21"/>
     </row>
     <row r="282" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
@@ -4931,12 +5050,12 @@
       <c r="C282" s="1"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
-      <c r="F282" s="18"/>
+      <c r="F282" s="17"/>
       <c r="G282" s="4"/>
       <c r="H282" s="4"/>
       <c r="I282" s="4"/>
       <c r="J282" s="4"/>
-      <c r="M282" s="27"/>
+      <c r="M282" s="21"/>
     </row>
     <row r="283" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
@@ -4944,12 +5063,12 @@
       <c r="C283" s="1"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
-      <c r="F283" s="18"/>
+      <c r="F283" s="17"/>
       <c r="G283" s="4"/>
       <c r="H283" s="4"/>
       <c r="I283" s="4"/>
       <c r="J283" s="4"/>
-      <c r="M283" s="27"/>
+      <c r="M283" s="21"/>
     </row>
     <row r="284" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
@@ -4957,12 +5076,12 @@
       <c r="C284" s="1"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
-      <c r="F284" s="18"/>
+      <c r="F284" s="17"/>
       <c r="G284" s="4"/>
       <c r="H284" s="4"/>
       <c r="I284" s="4"/>
       <c r="J284" s="4"/>
-      <c r="M284" s="27"/>
+      <c r="M284" s="21"/>
     </row>
     <row r="285" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
@@ -4970,12 +5089,12 @@
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
-      <c r="F285" s="18"/>
+      <c r="F285" s="17"/>
       <c r="G285" s="4"/>
       <c r="H285" s="4"/>
       <c r="I285" s="4"/>
       <c r="J285" s="4"/>
-      <c r="M285" s="27"/>
+      <c r="M285" s="21"/>
     </row>
     <row r="286" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
@@ -4988,7 +5107,7 @@
       <c r="H286" s="4"/>
       <c r="I286" s="4"/>
       <c r="J286" s="4"/>
-      <c r="M286" s="27"/>
+      <c r="M286" s="21"/>
     </row>
     <row r="287" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
@@ -4996,12 +5115,12 @@
       <c r="C287" s="1"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
-      <c r="F287" s="18"/>
+      <c r="F287" s="17"/>
       <c r="G287" s="4"/>
       <c r="H287" s="4"/>
       <c r="I287" s="4"/>
       <c r="J287" s="4"/>
-      <c r="M287" s="27"/>
+      <c r="M287" s="21"/>
     </row>
     <row r="288" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
@@ -5009,12 +5128,12 @@
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
-      <c r="F288" s="18"/>
+      <c r="F288" s="17"/>
       <c r="G288" s="4"/>
       <c r="H288" s="4"/>
       <c r="I288" s="4"/>
       <c r="J288" s="4"/>
-      <c r="M288" s="27"/>
+      <c r="M288" s="21"/>
     </row>
     <row r="289" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
@@ -5027,7 +5146,7 @@
       <c r="H289" s="4"/>
       <c r="I289" s="4"/>
       <c r="J289" s="4"/>
-      <c r="M289" s="27"/>
+      <c r="M289" s="21"/>
     </row>
     <row r="290" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
@@ -5035,12 +5154,12 @@
       <c r="C290" s="1"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
-      <c r="F290" s="18"/>
+      <c r="F290" s="17"/>
       <c r="G290" s="4"/>
       <c r="H290" s="4"/>
       <c r="I290" s="4"/>
       <c r="J290" s="4"/>
-      <c r="M290" s="27"/>
+      <c r="M290" s="21"/>
     </row>
     <row r="291" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
@@ -5048,12 +5167,12 @@
       <c r="C291" s="1"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
-      <c r="F291" s="18"/>
+      <c r="F291" s="17"/>
       <c r="G291" s="4"/>
       <c r="H291" s="4"/>
       <c r="I291" s="4"/>
       <c r="J291" s="4"/>
-      <c r="M291" s="27"/>
+      <c r="M291" s="21"/>
     </row>
     <row r="292" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
@@ -5061,12 +5180,12 @@
       <c r="C292" s="1"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
-      <c r="F292" s="18"/>
+      <c r="F292" s="17"/>
       <c r="G292" s="4"/>
       <c r="H292" s="4"/>
       <c r="I292" s="4"/>
       <c r="J292" s="4"/>
-      <c r="M292" s="27"/>
+      <c r="M292" s="21"/>
     </row>
     <row r="293" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
@@ -5074,12 +5193,12 @@
       <c r="C293" s="1"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
-      <c r="F293" s="18"/>
+      <c r="F293" s="17"/>
       <c r="G293" s="4"/>
       <c r="H293" s="4"/>
       <c r="I293" s="4"/>
       <c r="J293" s="4"/>
-      <c r="M293" s="27"/>
+      <c r="M293" s="21"/>
     </row>
     <row r="294" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
@@ -5087,12 +5206,12 @@
       <c r="C294" s="1"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
-      <c r="F294" s="18"/>
+      <c r="F294" s="17"/>
       <c r="G294" s="4"/>
       <c r="H294" s="4"/>
       <c r="I294" s="4"/>
       <c r="J294" s="4"/>
-      <c r="M294" s="27"/>
+      <c r="M294" s="21"/>
     </row>
     <row r="295" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
@@ -5100,12 +5219,12 @@
       <c r="C295" s="1"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
-      <c r="F295" s="18"/>
+      <c r="F295" s="17"/>
       <c r="G295" s="4"/>
       <c r="H295" s="4"/>
       <c r="I295" s="4"/>
       <c r="J295" s="4"/>
-      <c r="M295" s="27"/>
+      <c r="M295" s="21"/>
     </row>
     <row r="296" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
@@ -5113,12 +5232,12 @@
       <c r="C296" s="1"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
-      <c r="F296" s="18"/>
+      <c r="F296" s="17"/>
       <c r="G296" s="4"/>
       <c r="H296" s="4"/>
       <c r="I296" s="4"/>
       <c r="J296" s="4"/>
-      <c r="M296" s="27"/>
+      <c r="M296" s="21"/>
     </row>
     <row r="297" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
@@ -5126,12 +5245,12 @@
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
-      <c r="F297" s="18"/>
+      <c r="F297" s="17"/>
       <c r="G297" s="4"/>
       <c r="H297" s="4"/>
       <c r="I297" s="4"/>
       <c r="J297" s="4"/>
-      <c r="M297" s="27"/>
+      <c r="M297" s="21"/>
     </row>
     <row r="298" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
@@ -5144,7 +5263,7 @@
       <c r="H298" s="4"/>
       <c r="I298" s="4"/>
       <c r="J298" s="4"/>
-      <c r="M298" s="27"/>
+      <c r="M298" s="21"/>
     </row>
     <row r="299" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
@@ -5152,12 +5271,12 @@
       <c r="C299" s="1"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
-      <c r="F299" s="18"/>
+      <c r="F299" s="17"/>
       <c r="G299" s="4"/>
       <c r="H299" s="4"/>
       <c r="I299" s="4"/>
       <c r="J299" s="4"/>
-      <c r="M299" s="27"/>
+      <c r="M299" s="21"/>
     </row>
     <row r="300" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
@@ -5165,12 +5284,12 @@
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
-      <c r="F300" s="18"/>
+      <c r="F300" s="17"/>
       <c r="G300" s="4"/>
       <c r="H300" s="4"/>
       <c r="I300" s="4"/>
       <c r="J300" s="4"/>
-      <c r="M300" s="27"/>
+      <c r="M300" s="21"/>
     </row>
     <row r="301" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
@@ -5183,7 +5302,7 @@
       <c r="H301" s="4"/>
       <c r="I301" s="4"/>
       <c r="J301" s="4"/>
-      <c r="M301" s="27"/>
+      <c r="M301" s="21"/>
     </row>
     <row r="302" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
@@ -5191,12 +5310,12 @@
       <c r="C302" s="1"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
-      <c r="F302" s="18"/>
+      <c r="F302" s="17"/>
       <c r="G302" s="4"/>
       <c r="H302" s="4"/>
       <c r="I302" s="4"/>
       <c r="J302" s="4"/>
-      <c r="M302" s="27"/>
+      <c r="M302" s="21"/>
     </row>
     <row r="303" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
@@ -5204,12 +5323,12 @@
       <c r="C303" s="1"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
-      <c r="F303" s="18"/>
+      <c r="F303" s="17"/>
       <c r="G303" s="4"/>
       <c r="H303" s="4"/>
       <c r="I303" s="4"/>
       <c r="J303" s="4"/>
-      <c r="M303" s="27"/>
+      <c r="M303" s="21"/>
     </row>
     <row r="304" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
@@ -5217,12 +5336,12 @@
       <c r="C304" s="1"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
-      <c r="F304" s="18"/>
+      <c r="F304" s="17"/>
       <c r="G304" s="4"/>
       <c r="H304" s="4"/>
       <c r="I304" s="4"/>
       <c r="J304" s="4"/>
-      <c r="M304" s="27"/>
+      <c r="M304" s="21"/>
     </row>
     <row r="305" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
@@ -5230,12 +5349,12 @@
       <c r="C305" s="1"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
-      <c r="F305" s="18"/>
+      <c r="F305" s="17"/>
       <c r="G305" s="4"/>
       <c r="H305" s="4"/>
       <c r="I305" s="4"/>
       <c r="J305" s="4"/>
-      <c r="M305" s="27"/>
+      <c r="M305" s="21"/>
     </row>
     <row r="306" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
@@ -5243,12 +5362,12 @@
       <c r="C306" s="1"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
-      <c r="F306" s="18"/>
+      <c r="F306" s="17"/>
       <c r="G306" s="4"/>
       <c r="H306" s="4"/>
       <c r="I306" s="4"/>
       <c r="J306" s="4"/>
-      <c r="M306" s="27"/>
+      <c r="M306" s="21"/>
     </row>
     <row r="307" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
@@ -5256,12 +5375,12 @@
       <c r="C307" s="1"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
-      <c r="F307" s="18"/>
+      <c r="F307" s="17"/>
       <c r="G307" s="4"/>
       <c r="H307" s="4"/>
       <c r="I307" s="4"/>
       <c r="J307" s="4"/>
-      <c r="M307" s="27"/>
+      <c r="M307" s="21"/>
     </row>
     <row r="308" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4"/>
@@ -5269,12 +5388,12 @@
       <c r="C308" s="1"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
-      <c r="F308" s="18"/>
+      <c r="F308" s="17"/>
       <c r="G308" s="4"/>
       <c r="H308" s="4"/>
       <c r="I308" s="4"/>
       <c r="J308" s="4"/>
-      <c r="M308" s="27"/>
+      <c r="M308" s="21"/>
     </row>
     <row r="309" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4"/>
@@ -5282,12 +5401,12 @@
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
-      <c r="F309" s="18"/>
+      <c r="F309" s="17"/>
       <c r="G309" s="4"/>
       <c r="H309" s="4"/>
       <c r="I309" s="4"/>
       <c r="J309" s="4"/>
-      <c r="M309" s="27"/>
+      <c r="M309" s="21"/>
     </row>
     <row r="310" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
@@ -5300,7 +5419,7 @@
       <c r="H310" s="4"/>
       <c r="I310" s="4"/>
       <c r="J310" s="4"/>
-      <c r="M310" s="27"/>
+      <c r="M310" s="21"/>
     </row>
     <row r="311" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="4"/>
@@ -5308,12 +5427,12 @@
       <c r="C311" s="1"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
-      <c r="F311" s="18"/>
+      <c r="F311" s="17"/>
       <c r="G311" s="4"/>
       <c r="H311" s="4"/>
       <c r="I311" s="4"/>
       <c r="J311" s="4"/>
-      <c r="M311" s="27"/>
+      <c r="M311" s="21"/>
     </row>
     <row r="312" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
@@ -5321,12 +5440,12 @@
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
-      <c r="F312" s="18"/>
+      <c r="F312" s="17"/>
       <c r="G312" s="4"/>
       <c r="H312" s="4"/>
       <c r="I312" s="4"/>
       <c r="J312" s="4"/>
-      <c r="M312" s="27"/>
+      <c r="M312" s="21"/>
     </row>
     <row r="313" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
@@ -5339,7 +5458,7 @@
       <c r="H313" s="4"/>
       <c r="I313" s="4"/>
       <c r="J313" s="4"/>
-      <c r="M313" s="27"/>
+      <c r="M313" s="21"/>
     </row>
     <row r="314" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
@@ -5347,12 +5466,12 @@
       <c r="C314" s="1"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
-      <c r="F314" s="18"/>
+      <c r="F314" s="17"/>
       <c r="G314" s="4"/>
       <c r="H314" s="4"/>
       <c r="I314" s="4"/>
       <c r="J314" s="4"/>
-      <c r="M314" s="27"/>
+      <c r="M314" s="21"/>
     </row>
     <row r="315" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
@@ -5360,12 +5479,12 @@
       <c r="C315" s="1"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
-      <c r="F315" s="18"/>
+      <c r="F315" s="17"/>
       <c r="G315" s="4"/>
       <c r="H315" s="4"/>
       <c r="I315" s="4"/>
       <c r="J315" s="4"/>
-      <c r="M315" s="27"/>
+      <c r="M315" s="21"/>
     </row>
     <row r="316" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
@@ -5373,12 +5492,12 @@
       <c r="C316" s="1"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
-      <c r="F316" s="18"/>
+      <c r="F316" s="17"/>
       <c r="G316" s="4"/>
       <c r="H316" s="4"/>
       <c r="I316" s="4"/>
       <c r="J316" s="4"/>
-      <c r="M316" s="27"/>
+      <c r="M316" s="21"/>
     </row>
     <row r="317" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
@@ -5386,12 +5505,12 @@
       <c r="C317" s="1"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
-      <c r="F317" s="18"/>
+      <c r="F317" s="17"/>
       <c r="G317" s="4"/>
       <c r="H317" s="4"/>
       <c r="I317" s="4"/>
       <c r="J317" s="4"/>
-      <c r="M317" s="27"/>
+      <c r="M317" s="21"/>
     </row>
     <row r="318" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
@@ -5399,12 +5518,12 @@
       <c r="C318" s="1"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
-      <c r="F318" s="18"/>
+      <c r="F318" s="17"/>
       <c r="G318" s="4"/>
       <c r="H318" s="4"/>
       <c r="I318" s="4"/>
       <c r="J318" s="4"/>
-      <c r="M318" s="27"/>
+      <c r="M318" s="21"/>
     </row>
     <row r="319" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
@@ -5412,12 +5531,12 @@
       <c r="C319" s="1"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
-      <c r="F319" s="18"/>
+      <c r="F319" s="17"/>
       <c r="G319" s="4"/>
       <c r="H319" s="4"/>
       <c r="I319" s="4"/>
       <c r="J319" s="4"/>
-      <c r="M319" s="27"/>
+      <c r="M319" s="21"/>
     </row>
     <row r="320" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4"/>
@@ -5425,12 +5544,12 @@
       <c r="C320" s="1"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
-      <c r="F320" s="18"/>
+      <c r="F320" s="17"/>
       <c r="G320" s="4"/>
       <c r="H320" s="4"/>
       <c r="I320" s="4"/>
       <c r="J320" s="4"/>
-      <c r="M320" s="27"/>
+      <c r="M320" s="21"/>
     </row>
     <row r="321" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
@@ -5438,12 +5557,12 @@
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
-      <c r="F321" s="18"/>
+      <c r="F321" s="17"/>
       <c r="G321" s="4"/>
       <c r="H321" s="4"/>
       <c r="I321" s="4"/>
       <c r="J321" s="4"/>
-      <c r="M321" s="27"/>
+      <c r="M321" s="21"/>
     </row>
     <row r="322" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
@@ -5456,7 +5575,7 @@
       <c r="H322" s="4"/>
       <c r="I322" s="4"/>
       <c r="J322" s="4"/>
-      <c r="M322" s="27"/>
+      <c r="M322" s="21"/>
     </row>
     <row r="323" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
@@ -5464,12 +5583,12 @@
       <c r="C323" s="1"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
-      <c r="F323" s="18"/>
+      <c r="F323" s="17"/>
       <c r="G323" s="4"/>
       <c r="H323" s="4"/>
       <c r="I323" s="4"/>
       <c r="J323" s="4"/>
-      <c r="M323" s="27"/>
+      <c r="M323" s="21"/>
     </row>
     <row r="324" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
@@ -5477,12 +5596,12 @@
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
-      <c r="F324" s="18"/>
+      <c r="F324" s="17"/>
       <c r="G324" s="4"/>
       <c r="H324" s="4"/>
       <c r="I324" s="4"/>
       <c r="J324" s="4"/>
-      <c r="M324" s="27"/>
+      <c r="M324" s="21"/>
     </row>
     <row r="325" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
@@ -5495,7 +5614,7 @@
       <c r="H325" s="4"/>
       <c r="I325" s="4"/>
       <c r="J325" s="4"/>
-      <c r="M325" s="27"/>
+      <c r="M325" s="21"/>
     </row>
     <row r="326" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
@@ -5503,12 +5622,12 @@
       <c r="C326" s="1"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
-      <c r="F326" s="18"/>
+      <c r="F326" s="17"/>
       <c r="G326" s="4"/>
       <c r="H326" s="4"/>
       <c r="I326" s="4"/>
       <c r="J326" s="4"/>
-      <c r="M326" s="27"/>
+      <c r="M326" s="21"/>
     </row>
     <row r="327" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
@@ -5516,12 +5635,12 @@
       <c r="C327" s="1"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
-      <c r="F327" s="18"/>
+      <c r="F327" s="17"/>
       <c r="G327" s="4"/>
       <c r="H327" s="4"/>
       <c r="I327" s="4"/>
       <c r="J327" s="4"/>
-      <c r="M327" s="27"/>
+      <c r="M327" s="21"/>
     </row>
     <row r="328" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
@@ -5529,12 +5648,12 @@
       <c r="C328" s="1"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
-      <c r="F328" s="18"/>
+      <c r="F328" s="17"/>
       <c r="G328" s="4"/>
       <c r="H328" s="4"/>
       <c r="I328" s="4"/>
       <c r="J328" s="4"/>
-      <c r="M328" s="27"/>
+      <c r="M328" s="21"/>
     </row>
     <row r="329" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
@@ -5542,12 +5661,12 @@
       <c r="C329" s="1"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
-      <c r="F329" s="18"/>
+      <c r="F329" s="17"/>
       <c r="G329" s="4"/>
       <c r="H329" s="4"/>
       <c r="I329" s="4"/>
       <c r="J329" s="4"/>
-      <c r="M329" s="27"/>
+      <c r="M329" s="21"/>
     </row>
     <row r="330" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
@@ -5555,12 +5674,12 @@
       <c r="C330" s="1"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
-      <c r="F330" s="18"/>
+      <c r="F330" s="17"/>
       <c r="G330" s="4"/>
       <c r="H330" s="4"/>
       <c r="I330" s="4"/>
       <c r="J330" s="4"/>
-      <c r="M330" s="27"/>
+      <c r="M330" s="21"/>
     </row>
     <row r="331" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
@@ -5568,12 +5687,12 @@
       <c r="C331" s="1"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
-      <c r="F331" s="18"/>
+      <c r="F331" s="17"/>
       <c r="G331" s="4"/>
       <c r="H331" s="4"/>
       <c r="I331" s="4"/>
       <c r="J331" s="4"/>
-      <c r="M331" s="27"/>
+      <c r="M331" s="21"/>
     </row>
     <row r="332" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
@@ -5581,12 +5700,12 @@
       <c r="C332" s="1"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
-      <c r="F332" s="18"/>
+      <c r="F332" s="17"/>
       <c r="G332" s="4"/>
       <c r="H332" s="4"/>
       <c r="I332" s="4"/>
       <c r="J332" s="4"/>
-      <c r="M332" s="27"/>
+      <c r="M332" s="21"/>
     </row>
     <row r="333" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4"/>
@@ -5594,12 +5713,12 @@
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
-      <c r="F333" s="18"/>
+      <c r="F333" s="17"/>
       <c r="G333" s="4"/>
       <c r="H333" s="4"/>
       <c r="I333" s="4"/>
       <c r="J333" s="4"/>
-      <c r="M333" s="27"/>
+      <c r="M333" s="21"/>
     </row>
     <row r="334" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="4"/>
@@ -5612,7 +5731,7 @@
       <c r="H334" s="4"/>
       <c r="I334" s="4"/>
       <c r="J334" s="4"/>
-      <c r="M334" s="27"/>
+      <c r="M334" s="21"/>
     </row>
     <row r="335" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="4"/>
@@ -5620,12 +5739,12 @@
       <c r="C335" s="1"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
-      <c r="F335" s="18"/>
+      <c r="F335" s="17"/>
       <c r="G335" s="4"/>
       <c r="H335" s="4"/>
       <c r="I335" s="4"/>
       <c r="J335" s="4"/>
-      <c r="M335" s="27"/>
+      <c r="M335" s="21"/>
     </row>
     <row r="336" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
@@ -5633,12 +5752,12 @@
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
-      <c r="F336" s="18"/>
+      <c r="F336" s="17"/>
       <c r="G336" s="4"/>
       <c r="H336" s="4"/>
       <c r="I336" s="4"/>
       <c r="J336" s="4"/>
-      <c r="M336" s="27"/>
+      <c r="M336" s="21"/>
     </row>
     <row r="337" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
@@ -5651,7 +5770,7 @@
       <c r="H337" s="4"/>
       <c r="I337" s="4"/>
       <c r="J337" s="4"/>
-      <c r="M337" s="27"/>
+      <c r="M337" s="21"/>
     </row>
     <row r="338" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
@@ -5659,12 +5778,12 @@
       <c r="C338" s="1"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
-      <c r="F338" s="18"/>
+      <c r="F338" s="17"/>
       <c r="G338" s="4"/>
       <c r="H338" s="4"/>
       <c r="I338" s="4"/>
       <c r="J338" s="4"/>
-      <c r="M338" s="27"/>
+      <c r="M338" s="21"/>
     </row>
     <row r="339" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
@@ -5672,12 +5791,12 @@
       <c r="C339" s="1"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
-      <c r="F339" s="18"/>
+      <c r="F339" s="17"/>
       <c r="G339" s="4"/>
       <c r="H339" s="4"/>
       <c r="I339" s="4"/>
       <c r="J339" s="4"/>
-      <c r="M339" s="27"/>
+      <c r="M339" s="21"/>
     </row>
     <row r="340" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
@@ -5685,12 +5804,12 @@
       <c r="C340" s="1"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
-      <c r="F340" s="18"/>
+      <c r="F340" s="17"/>
       <c r="G340" s="4"/>
       <c r="H340" s="4"/>
       <c r="I340" s="4"/>
       <c r="J340" s="4"/>
-      <c r="M340" s="27"/>
+      <c r="M340" s="21"/>
     </row>
     <row r="341" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
@@ -5698,12 +5817,12 @@
       <c r="C341" s="1"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
-      <c r="F341" s="18"/>
+      <c r="F341" s="17"/>
       <c r="G341" s="4"/>
       <c r="H341" s="4"/>
       <c r="I341" s="4"/>
       <c r="J341" s="4"/>
-      <c r="M341" s="27"/>
+      <c r="M341" s="21"/>
     </row>
     <row r="342" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
@@ -5711,12 +5830,12 @@
       <c r="C342" s="1"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
-      <c r="F342" s="18"/>
+      <c r="F342" s="17"/>
       <c r="G342" s="4"/>
       <c r="H342" s="4"/>
       <c r="I342" s="4"/>
       <c r="J342" s="4"/>
-      <c r="M342" s="27"/>
+      <c r="M342" s="21"/>
     </row>
     <row r="343" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
@@ -5724,12 +5843,12 @@
       <c r="C343" s="1"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
-      <c r="F343" s="18"/>
+      <c r="F343" s="17"/>
       <c r="G343" s="4"/>
       <c r="H343" s="4"/>
       <c r="I343" s="4"/>
       <c r="J343" s="4"/>
-      <c r="M343" s="27"/>
+      <c r="M343" s="21"/>
     </row>
     <row r="344" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="4"/>
@@ -5737,12 +5856,12 @@
       <c r="C344" s="1"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
-      <c r="F344" s="18"/>
+      <c r="F344" s="17"/>
       <c r="G344" s="4"/>
       <c r="H344" s="4"/>
       <c r="I344" s="4"/>
       <c r="J344" s="4"/>
-      <c r="M344" s="27"/>
+      <c r="M344" s="21"/>
     </row>
     <row r="345" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="4"/>
@@ -5750,12 +5869,12 @@
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
-      <c r="F345" s="18"/>
+      <c r="F345" s="17"/>
       <c r="G345" s="4"/>
       <c r="H345" s="4"/>
       <c r="I345" s="4"/>
       <c r="J345" s="4"/>
-      <c r="M345" s="27"/>
+      <c r="M345" s="21"/>
     </row>
     <row r="346" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="4"/>
@@ -5768,7 +5887,7 @@
       <c r="H346" s="4"/>
       <c r="I346" s="4"/>
       <c r="J346" s="4"/>
-      <c r="M346" s="27"/>
+      <c r="M346" s="21"/>
     </row>
     <row r="347" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="4"/>
@@ -5776,12 +5895,12 @@
       <c r="C347" s="1"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
-      <c r="F347" s="18"/>
+      <c r="F347" s="17"/>
       <c r="G347" s="4"/>
       <c r="H347" s="4"/>
       <c r="I347" s="4"/>
       <c r="J347" s="4"/>
-      <c r="M347" s="27"/>
+      <c r="M347" s="21"/>
     </row>
     <row r="348" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
@@ -5789,12 +5908,12 @@
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
-      <c r="F348" s="18"/>
+      <c r="F348" s="17"/>
       <c r="G348" s="4"/>
       <c r="H348" s="4"/>
       <c r="I348" s="4"/>
       <c r="J348" s="4"/>
-      <c r="M348" s="27"/>
+      <c r="M348" s="21"/>
     </row>
     <row r="349" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
@@ -5807,7 +5926,7 @@
       <c r="H349" s="4"/>
       <c r="I349" s="4"/>
       <c r="J349" s="4"/>
-      <c r="M349" s="27"/>
+      <c r="M349" s="21"/>
     </row>
     <row r="350" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
@@ -5815,12 +5934,12 @@
       <c r="C350" s="1"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
-      <c r="F350" s="18"/>
+      <c r="F350" s="17"/>
       <c r="G350" s="4"/>
       <c r="H350" s="4"/>
       <c r="I350" s="4"/>
       <c r="J350" s="4"/>
-      <c r="M350" s="27"/>
+      <c r="M350" s="21"/>
     </row>
     <row r="351" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
@@ -5828,12 +5947,12 @@
       <c r="C351" s="1"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
-      <c r="F351" s="18"/>
+      <c r="F351" s="17"/>
       <c r="G351" s="4"/>
       <c r="H351" s="4"/>
       <c r="I351" s="4"/>
       <c r="J351" s="4"/>
-      <c r="M351" s="27"/>
+      <c r="M351" s="21"/>
     </row>
     <row r="352" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
@@ -5841,12 +5960,12 @@
       <c r="C352" s="1"/>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
-      <c r="F352" s="18"/>
+      <c r="F352" s="17"/>
       <c r="G352" s="4"/>
       <c r="H352" s="4"/>
       <c r="I352" s="4"/>
       <c r="J352" s="4"/>
-      <c r="M352" s="27"/>
+      <c r="M352" s="21"/>
     </row>
     <row r="353" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
@@ -5854,12 +5973,12 @@
       <c r="C353" s="1"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
-      <c r="F353" s="18"/>
+      <c r="F353" s="17"/>
       <c r="G353" s="4"/>
       <c r="H353" s="4"/>
       <c r="I353" s="4"/>
       <c r="J353" s="4"/>
-      <c r="M353" s="27"/>
+      <c r="M353" s="21"/>
     </row>
     <row r="354" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
@@ -5867,12 +5986,12 @@
       <c r="C354" s="1"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
-      <c r="F354" s="18"/>
+      <c r="F354" s="17"/>
       <c r="G354" s="4"/>
       <c r="H354" s="4"/>
       <c r="I354" s="4"/>
       <c r="J354" s="4"/>
-      <c r="M354" s="27"/>
+      <c r="M354" s="21"/>
     </row>
     <row r="355" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
@@ -5880,12 +5999,12 @@
       <c r="C355" s="1"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
-      <c r="F355" s="18"/>
+      <c r="F355" s="17"/>
       <c r="G355" s="4"/>
       <c r="H355" s="4"/>
       <c r="I355" s="4"/>
       <c r="J355" s="4"/>
-      <c r="M355" s="27"/>
+      <c r="M355" s="21"/>
     </row>
     <row r="356" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="4"/>
@@ -5893,12 +6012,12 @@
       <c r="C356" s="1"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
-      <c r="F356" s="18"/>
+      <c r="F356" s="17"/>
       <c r="G356" s="4"/>
       <c r="H356" s="4"/>
       <c r="I356" s="4"/>
       <c r="J356" s="4"/>
-      <c r="M356" s="27"/>
+      <c r="M356" s="21"/>
     </row>
     <row r="357" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4"/>
@@ -5906,12 +6025,12 @@
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
-      <c r="F357" s="18"/>
+      <c r="F357" s="17"/>
       <c r="G357" s="4"/>
       <c r="H357" s="4"/>
       <c r="I357" s="4"/>
       <c r="J357" s="4"/>
-      <c r="M357" s="27"/>
+      <c r="M357" s="21"/>
     </row>
     <row r="358" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
@@ -5924,7 +6043,7 @@
       <c r="H358" s="4"/>
       <c r="I358" s="4"/>
       <c r="J358" s="4"/>
-      <c r="M358" s="27"/>
+      <c r="M358" s="21"/>
     </row>
     <row r="359" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
@@ -5932,12 +6051,12 @@
       <c r="C359" s="1"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
-      <c r="F359" s="18"/>
+      <c r="F359" s="17"/>
       <c r="G359" s="4"/>
       <c r="H359" s="4"/>
       <c r="I359" s="4"/>
       <c r="J359" s="4"/>
-      <c r="M359" s="27"/>
+      <c r="M359" s="21"/>
     </row>
     <row r="360" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
@@ -5945,12 +6064,12 @@
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
-      <c r="F360" s="18"/>
+      <c r="F360" s="17"/>
       <c r="G360" s="4"/>
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
       <c r="J360" s="4"/>
-      <c r="M360" s="27"/>
+      <c r="M360" s="21"/>
     </row>
     <row r="361" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
@@ -5963,7 +6082,7 @@
       <c r="H361" s="4"/>
       <c r="I361" s="4"/>
       <c r="J361" s="4"/>
-      <c r="M361" s="27"/>
+      <c r="M361" s="21"/>
     </row>
     <row r="362" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
@@ -5971,12 +6090,12 @@
       <c r="C362" s="1"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
-      <c r="F362" s="18"/>
+      <c r="F362" s="17"/>
       <c r="G362" s="4"/>
       <c r="H362" s="4"/>
       <c r="I362" s="4"/>
       <c r="J362" s="4"/>
-      <c r="M362" s="27"/>
+      <c r="M362" s="21"/>
     </row>
     <row r="363" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
@@ -5984,12 +6103,12 @@
       <c r="C363" s="1"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
-      <c r="F363" s="18"/>
+      <c r="F363" s="17"/>
       <c r="G363" s="4"/>
       <c r="H363" s="4"/>
       <c r="I363" s="4"/>
       <c r="J363" s="4"/>
-      <c r="M363" s="27"/>
+      <c r="M363" s="21"/>
     </row>
     <row r="364" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
@@ -5997,12 +6116,12 @@
       <c r="C364" s="1"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
-      <c r="F364" s="18"/>
+      <c r="F364" s="17"/>
       <c r="G364" s="4"/>
       <c r="H364" s="4"/>
       <c r="I364" s="4"/>
       <c r="J364" s="4"/>
-      <c r="M364" s="27"/>
+      <c r="M364" s="21"/>
     </row>
     <row r="365" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
@@ -6010,12 +6129,12 @@
       <c r="C365" s="1"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
-      <c r="F365" s="18"/>
+      <c r="F365" s="17"/>
       <c r="G365" s="4"/>
       <c r="H365" s="4"/>
       <c r="I365" s="4"/>
       <c r="J365" s="4"/>
-      <c r="M365" s="27"/>
+      <c r="M365" s="21"/>
     </row>
     <row r="366" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
@@ -6023,12 +6142,12 @@
       <c r="C366" s="1"/>
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
-      <c r="F366" s="18"/>
+      <c r="F366" s="17"/>
       <c r="G366" s="4"/>
       <c r="H366" s="4"/>
       <c r="I366" s="4"/>
       <c r="J366" s="4"/>
-      <c r="M366" s="27"/>
+      <c r="M366" s="21"/>
     </row>
     <row r="367" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
@@ -6036,12 +6155,12 @@
       <c r="C367" s="1"/>
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
-      <c r="F367" s="18"/>
+      <c r="F367" s="17"/>
       <c r="G367" s="4"/>
       <c r="H367" s="4"/>
       <c r="I367" s="4"/>
       <c r="J367" s="4"/>
-      <c r="M367" s="27"/>
+      <c r="M367" s="21"/>
     </row>
     <row r="368" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="4"/>
@@ -6049,12 +6168,12 @@
       <c r="C368" s="1"/>
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
-      <c r="F368" s="18"/>
+      <c r="F368" s="17"/>
       <c r="G368" s="4"/>
       <c r="H368" s="4"/>
       <c r="I368" s="4"/>
       <c r="J368" s="4"/>
-      <c r="M368" s="27"/>
+      <c r="M368" s="21"/>
     </row>
     <row r="369" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="4"/>
@@ -6062,12 +6181,12 @@
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
-      <c r="F369" s="18"/>
+      <c r="F369" s="17"/>
       <c r="G369" s="4"/>
       <c r="H369" s="4"/>
       <c r="I369" s="4"/>
       <c r="J369" s="4"/>
-      <c r="M369" s="27"/>
+      <c r="M369" s="21"/>
     </row>
     <row r="370" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="4"/>
@@ -6080,7 +6199,7 @@
       <c r="H370" s="4"/>
       <c r="I370" s="4"/>
       <c r="J370" s="4"/>
-      <c r="M370" s="27"/>
+      <c r="M370" s="21"/>
     </row>
     <row r="371" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="4"/>
@@ -6088,12 +6207,12 @@
       <c r="C371" s="1"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
-      <c r="F371" s="18"/>
+      <c r="F371" s="17"/>
       <c r="G371" s="4"/>
       <c r="H371" s="4"/>
       <c r="I371" s="4"/>
       <c r="J371" s="4"/>
-      <c r="M371" s="27"/>
+      <c r="M371" s="21"/>
     </row>
     <row r="372" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
@@ -6101,12 +6220,12 @@
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
-      <c r="F372" s="18"/>
+      <c r="F372" s="17"/>
       <c r="G372" s="4"/>
       <c r="H372" s="4"/>
       <c r="I372" s="4"/>
       <c r="J372" s="4"/>
-      <c r="M372" s="27"/>
+      <c r="M372" s="21"/>
     </row>
     <row r="373" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
@@ -6119,7 +6238,7 @@
       <c r="H373" s="4"/>
       <c r="I373" s="4"/>
       <c r="J373" s="4"/>
-      <c r="M373" s="27"/>
+      <c r="M373" s="21"/>
     </row>
     <row r="374" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
@@ -6127,12 +6246,12 @@
       <c r="C374" s="1"/>
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
-      <c r="F374" s="18"/>
+      <c r="F374" s="17"/>
       <c r="G374" s="4"/>
       <c r="H374" s="4"/>
       <c r="I374" s="4"/>
       <c r="J374" s="4"/>
-      <c r="M374" s="27"/>
+      <c r="M374" s="21"/>
     </row>
     <row r="375" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
@@ -6140,12 +6259,12 @@
       <c r="C375" s="1"/>
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
-      <c r="F375" s="18"/>
+      <c r="F375" s="17"/>
       <c r="G375" s="4"/>
       <c r="H375" s="4"/>
       <c r="I375" s="4"/>
       <c r="J375" s="4"/>
-      <c r="M375" s="27"/>
+      <c r="M375" s="21"/>
     </row>
     <row r="376" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
@@ -6153,12 +6272,12 @@
       <c r="C376" s="1"/>
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
-      <c r="F376" s="18"/>
+      <c r="F376" s="17"/>
       <c r="G376" s="4"/>
       <c r="H376" s="4"/>
       <c r="I376" s="4"/>
       <c r="J376" s="4"/>
-      <c r="M376" s="27"/>
+      <c r="M376" s="21"/>
     </row>
     <row r="377" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
@@ -6166,12 +6285,12 @@
       <c r="C377" s="1"/>
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
-      <c r="F377" s="18"/>
+      <c r="F377" s="17"/>
       <c r="G377" s="4"/>
       <c r="H377" s="4"/>
       <c r="I377" s="4"/>
       <c r="J377" s="4"/>
-      <c r="M377" s="27"/>
+      <c r="M377" s="21"/>
     </row>
     <row r="378" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
@@ -6179,12 +6298,12 @@
       <c r="C378" s="1"/>
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
-      <c r="F378" s="18"/>
+      <c r="F378" s="17"/>
       <c r="G378" s="4"/>
       <c r="H378" s="4"/>
       <c r="I378" s="4"/>
       <c r="J378" s="4"/>
-      <c r="M378" s="27"/>
+      <c r="M378" s="21"/>
     </row>
     <row r="379" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
@@ -6192,12 +6311,12 @@
       <c r="C379" s="1"/>
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
-      <c r="F379" s="18"/>
+      <c r="F379" s="17"/>
       <c r="G379" s="4"/>
       <c r="H379" s="4"/>
       <c r="I379" s="4"/>
       <c r="J379" s="4"/>
-      <c r="M379" s="27"/>
+      <c r="M379" s="21"/>
     </row>
     <row r="380" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="4"/>
@@ -6205,12 +6324,12 @@
       <c r="C380" s="1"/>
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
-      <c r="F380" s="18"/>
+      <c r="F380" s="17"/>
       <c r="G380" s="4"/>
       <c r="H380" s="4"/>
       <c r="I380" s="4"/>
       <c r="J380" s="4"/>
-      <c r="M380" s="27"/>
+      <c r="M380" s="21"/>
     </row>
     <row r="381" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="4"/>
@@ -6218,12 +6337,12 @@
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
-      <c r="F381" s="18"/>
+      <c r="F381" s="17"/>
       <c r="G381" s="4"/>
       <c r="H381" s="4"/>
       <c r="I381" s="4"/>
       <c r="J381" s="4"/>
-      <c r="M381" s="27"/>
+      <c r="M381" s="21"/>
     </row>
     <row r="382" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="4"/>
@@ -6236,7 +6355,7 @@
       <c r="H382" s="4"/>
       <c r="I382" s="4"/>
       <c r="J382" s="4"/>
-      <c r="M382" s="27"/>
+      <c r="M382" s="21"/>
     </row>
     <row r="383" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="4"/>
@@ -6244,12 +6363,12 @@
       <c r="C383" s="1"/>
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
-      <c r="F383" s="18"/>
+      <c r="F383" s="17"/>
       <c r="G383" s="4"/>
       <c r="H383" s="4"/>
       <c r="I383" s="4"/>
       <c r="J383" s="4"/>
-      <c r="M383" s="27"/>
+      <c r="M383" s="21"/>
     </row>
     <row r="384" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
@@ -6257,12 +6376,12 @@
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
-      <c r="F384" s="18"/>
+      <c r="F384" s="17"/>
       <c r="G384" s="4"/>
       <c r="H384" s="4"/>
       <c r="I384" s="4"/>
       <c r="J384" s="4"/>
-      <c r="M384" s="27"/>
+      <c r="M384" s="21"/>
     </row>
     <row r="385" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
@@ -6275,7 +6394,7 @@
       <c r="H385" s="4"/>
       <c r="I385" s="4"/>
       <c r="J385" s="4"/>
-      <c r="M385" s="27"/>
+      <c r="M385" s="21"/>
     </row>
     <row r="386" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
@@ -6283,12 +6402,12 @@
       <c r="C386" s="1"/>
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
-      <c r="F386" s="18"/>
+      <c r="F386" s="17"/>
       <c r="G386" s="4"/>
       <c r="H386" s="4"/>
       <c r="I386" s="4"/>
       <c r="J386" s="4"/>
-      <c r="M386" s="27"/>
+      <c r="M386" s="21"/>
     </row>
     <row r="387" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
@@ -6296,12 +6415,12 @@
       <c r="C387" s="1"/>
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
-      <c r="F387" s="18"/>
+      <c r="F387" s="17"/>
       <c r="G387" s="4"/>
       <c r="H387" s="4"/>
       <c r="I387" s="4"/>
       <c r="J387" s="4"/>
-      <c r="M387" s="27"/>
+      <c r="M387" s="21"/>
     </row>
     <row r="388" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
@@ -6309,12 +6428,12 @@
       <c r="C388" s="1"/>
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
-      <c r="F388" s="18"/>
+      <c r="F388" s="17"/>
       <c r="G388" s="4"/>
       <c r="H388" s="4"/>
       <c r="I388" s="4"/>
       <c r="J388" s="4"/>
-      <c r="M388" s="27"/>
+      <c r="M388" s="21"/>
     </row>
     <row r="389" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
@@ -6322,12 +6441,12 @@
       <c r="C389" s="1"/>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
-      <c r="F389" s="18"/>
+      <c r="F389" s="17"/>
       <c r="G389" s="4"/>
       <c r="H389" s="4"/>
       <c r="I389" s="4"/>
       <c r="J389" s="4"/>
-      <c r="M389" s="27"/>
+      <c r="M389" s="21"/>
     </row>
     <row r="390" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
@@ -6335,12 +6454,12 @@
       <c r="C390" s="1"/>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
-      <c r="F390" s="18"/>
+      <c r="F390" s="17"/>
       <c r="G390" s="4"/>
       <c r="H390" s="4"/>
       <c r="I390" s="4"/>
       <c r="J390" s="4"/>
-      <c r="M390" s="27"/>
+      <c r="M390" s="21"/>
     </row>
     <row r="391" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
@@ -6348,12 +6467,12 @@
       <c r="C391" s="1"/>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
-      <c r="F391" s="18"/>
+      <c r="F391" s="17"/>
       <c r="G391" s="4"/>
       <c r="H391" s="4"/>
       <c r="I391" s="4"/>
       <c r="J391" s="4"/>
-      <c r="M391" s="27"/>
+      <c r="M391" s="21"/>
     </row>
     <row r="392" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="4"/>
@@ -6361,12 +6480,12 @@
       <c r="C392" s="1"/>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
-      <c r="F392" s="18"/>
+      <c r="F392" s="17"/>
       <c r="G392" s="4"/>
       <c r="H392" s="4"/>
       <c r="I392" s="4"/>
       <c r="J392" s="4"/>
-      <c r="M392" s="27"/>
+      <c r="M392" s="21"/>
     </row>
     <row r="393" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="4"/>
@@ -6374,12 +6493,12 @@
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
-      <c r="F393" s="18"/>
+      <c r="F393" s="17"/>
       <c r="G393" s="4"/>
       <c r="H393" s="4"/>
       <c r="I393" s="4"/>
       <c r="J393" s="4"/>
-      <c r="M393" s="27"/>
+      <c r="M393" s="21"/>
     </row>
     <row r="394" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="4"/>
@@ -6392,7 +6511,7 @@
       <c r="H394" s="4"/>
       <c r="I394" s="4"/>
       <c r="J394" s="4"/>
-      <c r="M394" s="27"/>
+      <c r="M394" s="21"/>
     </row>
     <row r="395" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="4"/>
@@ -6400,12 +6519,12 @@
       <c r="C395" s="1"/>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
-      <c r="F395" s="18"/>
+      <c r="F395" s="17"/>
       <c r="G395" s="4"/>
       <c r="H395" s="4"/>
       <c r="I395" s="4"/>
       <c r="J395" s="4"/>
-      <c r="M395" s="27"/>
+      <c r="M395" s="21"/>
     </row>
     <row r="396" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
@@ -6413,12 +6532,12 @@
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
-      <c r="F396" s="18"/>
+      <c r="F396" s="17"/>
       <c r="G396" s="4"/>
       <c r="H396" s="4"/>
       <c r="I396" s="4"/>
       <c r="J396" s="4"/>
-      <c r="M396" s="27"/>
+      <c r="M396" s="21"/>
     </row>
     <row r="397" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
@@ -6431,7 +6550,7 @@
       <c r="H397" s="4"/>
       <c r="I397" s="4"/>
       <c r="J397" s="4"/>
-      <c r="M397" s="27"/>
+      <c r="M397" s="21"/>
     </row>
     <row r="398" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
@@ -6439,12 +6558,12 @@
       <c r="C398" s="1"/>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
-      <c r="F398" s="18"/>
+      <c r="F398" s="17"/>
       <c r="G398" s="4"/>
       <c r="H398" s="4"/>
       <c r="I398" s="4"/>
       <c r="J398" s="4"/>
-      <c r="M398" s="27"/>
+      <c r="M398" s="21"/>
     </row>
     <row r="399" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
@@ -6452,12 +6571,12 @@
       <c r="C399" s="1"/>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
-      <c r="F399" s="18"/>
+      <c r="F399" s="17"/>
       <c r="G399" s="4"/>
       <c r="H399" s="4"/>
       <c r="I399" s="4"/>
       <c r="J399" s="4"/>
-      <c r="M399" s="27"/>
+      <c r="M399" s="21"/>
     </row>
     <row r="400" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
@@ -6465,12 +6584,12 @@
       <c r="C400" s="1"/>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
-      <c r="F400" s="18"/>
+      <c r="F400" s="17"/>
       <c r="G400" s="4"/>
       <c r="H400" s="4"/>
       <c r="I400" s="4"/>
       <c r="J400" s="4"/>
-      <c r="M400" s="27"/>
+      <c r="M400" s="21"/>
     </row>
     <row r="401" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
@@ -6478,12 +6597,12 @@
       <c r="C401" s="1"/>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
-      <c r="F401" s="18"/>
+      <c r="F401" s="17"/>
       <c r="G401" s="4"/>
       <c r="H401" s="4"/>
       <c r="I401" s="4"/>
       <c r="J401" s="4"/>
-      <c r="M401" s="27"/>
+      <c r="M401" s="21"/>
     </row>
     <row r="402" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
@@ -6491,12 +6610,12 @@
       <c r="C402" s="1"/>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
-      <c r="F402" s="18"/>
+      <c r="F402" s="17"/>
       <c r="G402" s="4"/>
       <c r="H402" s="4"/>
       <c r="I402" s="4"/>
       <c r="J402" s="4"/>
-      <c r="M402" s="27"/>
+      <c r="M402" s="21"/>
     </row>
     <row r="403" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
@@ -6504,12 +6623,12 @@
       <c r="C403" s="1"/>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
-      <c r="F403" s="18"/>
+      <c r="F403" s="17"/>
       <c r="G403" s="4"/>
       <c r="H403" s="4"/>
       <c r="I403" s="4"/>
       <c r="J403" s="4"/>
-      <c r="M403" s="27"/>
+      <c r="M403" s="21"/>
     </row>
     <row r="404" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="4"/>
@@ -6517,12 +6636,12 @@
       <c r="C404" s="1"/>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
-      <c r="F404" s="18"/>
+      <c r="F404" s="17"/>
       <c r="G404" s="4"/>
       <c r="H404" s="4"/>
       <c r="I404" s="4"/>
       <c r="J404" s="4"/>
-      <c r="M404" s="27"/>
+      <c r="M404" s="21"/>
     </row>
     <row r="405" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="4"/>
@@ -6530,12 +6649,12 @@
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
-      <c r="F405" s="18"/>
+      <c r="F405" s="17"/>
       <c r="G405" s="4"/>
       <c r="H405" s="4"/>
       <c r="I405" s="4"/>
       <c r="J405" s="4"/>
-      <c r="M405" s="27"/>
+      <c r="M405" s="21"/>
     </row>
     <row r="406" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="4"/>
@@ -6548,7 +6667,7 @@
       <c r="H406" s="4"/>
       <c r="I406" s="4"/>
       <c r="J406" s="4"/>
-      <c r="M406" s="27"/>
+      <c r="M406" s="21"/>
     </row>
     <row r="407" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="4"/>
@@ -6556,12 +6675,12 @@
       <c r="C407" s="1"/>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
-      <c r="F407" s="18"/>
+      <c r="F407" s="17"/>
       <c r="G407" s="4"/>
       <c r="H407" s="4"/>
       <c r="I407" s="4"/>
       <c r="J407" s="4"/>
-      <c r="M407" s="27"/>
+      <c r="M407" s="21"/>
     </row>
     <row r="408" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
@@ -6569,12 +6688,12 @@
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
-      <c r="F408" s="18"/>
+      <c r="F408" s="17"/>
       <c r="G408" s="4"/>
       <c r="H408" s="4"/>
       <c r="I408" s="4"/>
       <c r="J408" s="4"/>
-      <c r="M408" s="27"/>
+      <c r="M408" s="21"/>
     </row>
     <row r="409" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
@@ -6587,7 +6706,7 @@
       <c r="H409" s="4"/>
       <c r="I409" s="4"/>
       <c r="J409" s="4"/>
-      <c r="M409" s="27"/>
+      <c r="M409" s="21"/>
     </row>
     <row r="410" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
@@ -6595,12 +6714,12 @@
       <c r="C410" s="1"/>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
-      <c r="F410" s="18"/>
+      <c r="F410" s="17"/>
       <c r="G410" s="4"/>
       <c r="H410" s="4"/>
       <c r="I410" s="4"/>
       <c r="J410" s="4"/>
-      <c r="M410" s="27"/>
+      <c r="M410" s="21"/>
     </row>
     <row r="411" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
@@ -6608,12 +6727,12 @@
       <c r="C411" s="1"/>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
-      <c r="F411" s="18"/>
+      <c r="F411" s="17"/>
       <c r="G411" s="4"/>
       <c r="H411" s="4"/>
       <c r="I411" s="4"/>
       <c r="J411" s="4"/>
-      <c r="M411" s="27"/>
+      <c r="M411" s="21"/>
     </row>
     <row r="412" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
@@ -6621,12 +6740,12 @@
       <c r="C412" s="1"/>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
-      <c r="F412" s="18"/>
+      <c r="F412" s="17"/>
       <c r="G412" s="4"/>
       <c r="H412" s="4"/>
       <c r="I412" s="4"/>
       <c r="J412" s="4"/>
-      <c r="M412" s="27"/>
+      <c r="M412" s="21"/>
     </row>
     <row r="413" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
@@ -6634,12 +6753,12 @@
       <c r="C413" s="1"/>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
-      <c r="F413" s="18"/>
+      <c r="F413" s="17"/>
       <c r="G413" s="4"/>
       <c r="H413" s="4"/>
       <c r="I413" s="4"/>
       <c r="J413" s="4"/>
-      <c r="M413" s="27"/>
+      <c r="M413" s="21"/>
     </row>
     <row r="414" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
@@ -6647,12 +6766,12 @@
       <c r="C414" s="1"/>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
-      <c r="F414" s="18"/>
+      <c r="F414" s="17"/>
       <c r="G414" s="4"/>
       <c r="H414" s="4"/>
       <c r="I414" s="4"/>
       <c r="J414" s="4"/>
-      <c r="M414" s="27"/>
+      <c r="M414" s="21"/>
     </row>
     <row r="415" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
@@ -6660,12 +6779,12 @@
       <c r="C415" s="1"/>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
-      <c r="F415" s="18"/>
+      <c r="F415" s="17"/>
       <c r="G415" s="4"/>
       <c r="H415" s="4"/>
       <c r="I415" s="4"/>
       <c r="J415" s="4"/>
-      <c r="M415" s="27"/>
+      <c r="M415" s="21"/>
     </row>
     <row r="416" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="4"/>
@@ -6673,12 +6792,12 @@
       <c r="C416" s="1"/>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
-      <c r="F416" s="18"/>
+      <c r="F416" s="17"/>
       <c r="G416" s="4"/>
       <c r="H416" s="4"/>
       <c r="I416" s="4"/>
       <c r="J416" s="4"/>
-      <c r="M416" s="27"/>
+      <c r="M416" s="21"/>
     </row>
     <row r="417" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="4"/>
@@ -6686,12 +6805,12 @@
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
-      <c r="F417" s="18"/>
+      <c r="F417" s="17"/>
       <c r="G417" s="4"/>
       <c r="H417" s="4"/>
       <c r="I417" s="4"/>
       <c r="J417" s="4"/>
-      <c r="M417" s="27"/>
+      <c r="M417" s="21"/>
     </row>
     <row r="418" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="4"/>
@@ -6704,7 +6823,7 @@
       <c r="H418" s="4"/>
       <c r="I418" s="4"/>
       <c r="J418" s="4"/>
-      <c r="M418" s="27"/>
+      <c r="M418" s="21"/>
     </row>
     <row r="419" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="4"/>
@@ -6712,12 +6831,12 @@
       <c r="C419" s="1"/>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
-      <c r="F419" s="18"/>
+      <c r="F419" s="17"/>
       <c r="G419" s="4"/>
       <c r="H419" s="4"/>
       <c r="I419" s="4"/>
       <c r="J419" s="4"/>
-      <c r="M419" s="27"/>
+      <c r="M419" s="21"/>
     </row>
     <row r="420" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
@@ -6725,12 +6844,12 @@
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
-      <c r="F420" s="18"/>
+      <c r="F420" s="17"/>
       <c r="G420" s="4"/>
       <c r="H420" s="4"/>
       <c r="I420" s="4"/>
       <c r="J420" s="4"/>
-      <c r="M420" s="27"/>
+      <c r="M420" s="21"/>
     </row>
     <row r="421" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
@@ -6743,7 +6862,7 @@
       <c r="H421" s="4"/>
       <c r="I421" s="4"/>
       <c r="J421" s="4"/>
-      <c r="M421" s="27"/>
+      <c r="M421" s="21"/>
     </row>
     <row r="422" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
@@ -6751,12 +6870,12 @@
       <c r="C422" s="1"/>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
-      <c r="F422" s="18"/>
+      <c r="F422" s="17"/>
       <c r="G422" s="4"/>
       <c r="H422" s="4"/>
       <c r="I422" s="4"/>
       <c r="J422" s="4"/>
-      <c r="M422" s="27"/>
+      <c r="M422" s="21"/>
     </row>
     <row r="423" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
@@ -6764,12 +6883,12 @@
       <c r="C423" s="1"/>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
-      <c r="F423" s="18"/>
+      <c r="F423" s="17"/>
       <c r="G423" s="4"/>
       <c r="H423" s="4"/>
       <c r="I423" s="4"/>
       <c r="J423" s="4"/>
-      <c r="M423" s="27"/>
+      <c r="M423" s="21"/>
     </row>
     <row r="424" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
@@ -6777,12 +6896,12 @@
       <c r="C424" s="1"/>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
-      <c r="F424" s="18"/>
+      <c r="F424" s="17"/>
       <c r="G424" s="4"/>
       <c r="H424" s="4"/>
       <c r="I424" s="4"/>
       <c r="J424" s="4"/>
-      <c r="M424" s="27"/>
+      <c r="M424" s="21"/>
     </row>
     <row r="425" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
@@ -6790,12 +6909,12 @@
       <c r="C425" s="1"/>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
-      <c r="F425" s="18"/>
+      <c r="F425" s="17"/>
       <c r="G425" s="4"/>
       <c r="H425" s="4"/>
       <c r="I425" s="4"/>
       <c r="J425" s="4"/>
-      <c r="M425" s="27"/>
+      <c r="M425" s="21"/>
     </row>
     <row r="426" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
@@ -6803,12 +6922,12 @@
       <c r="C426" s="1"/>
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
-      <c r="F426" s="18"/>
+      <c r="F426" s="17"/>
       <c r="G426" s="4"/>
       <c r="H426" s="4"/>
       <c r="I426" s="4"/>
       <c r="J426" s="4"/>
-      <c r="M426" s="27"/>
+      <c r="M426" s="21"/>
     </row>
     <row r="427" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
@@ -6816,12 +6935,12 @@
       <c r="C427" s="1"/>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
-      <c r="F427" s="18"/>
+      <c r="F427" s="17"/>
       <c r="G427" s="4"/>
       <c r="H427" s="4"/>
       <c r="I427" s="4"/>
       <c r="J427" s="4"/>
-      <c r="M427" s="27"/>
+      <c r="M427" s="21"/>
     </row>
     <row r="428" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="4"/>
@@ -6829,12 +6948,12 @@
       <c r="C428" s="1"/>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
-      <c r="F428" s="18"/>
+      <c r="F428" s="17"/>
       <c r="G428" s="4"/>
       <c r="H428" s="4"/>
       <c r="I428" s="4"/>
       <c r="J428" s="4"/>
-      <c r="M428" s="27"/>
+      <c r="M428" s="21"/>
     </row>
     <row r="429" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="4"/>
@@ -6842,12 +6961,12 @@
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
-      <c r="F429" s="18"/>
+      <c r="F429" s="17"/>
       <c r="G429" s="4"/>
       <c r="H429" s="4"/>
       <c r="I429" s="4"/>
       <c r="J429" s="4"/>
-      <c r="M429" s="27"/>
+      <c r="M429" s="21"/>
     </row>
     <row r="430" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="4"/>
@@ -6860,7 +6979,7 @@
       <c r="H430" s="4"/>
       <c r="I430" s="4"/>
       <c r="J430" s="4"/>
-      <c r="M430" s="27"/>
+      <c r="M430" s="21"/>
     </row>
     <row r="431" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="4"/>
@@ -6868,12 +6987,12 @@
       <c r="C431" s="1"/>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
-      <c r="F431" s="18"/>
+      <c r="F431" s="17"/>
       <c r="G431" s="4"/>
       <c r="H431" s="4"/>
       <c r="I431" s="4"/>
       <c r="J431" s="4"/>
-      <c r="M431" s="27"/>
+      <c r="M431" s="21"/>
     </row>
     <row r="432" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
@@ -6881,12 +7000,12 @@
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
-      <c r="F432" s="18"/>
+      <c r="F432" s="17"/>
       <c r="G432" s="4"/>
       <c r="H432" s="4"/>
       <c r="I432" s="4"/>
       <c r="J432" s="4"/>
-      <c r="M432" s="27"/>
+      <c r="M432" s="21"/>
     </row>
     <row r="433" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
@@ -6899,7 +7018,7 @@
       <c r="H433" s="4"/>
       <c r="I433" s="4"/>
       <c r="J433" s="4"/>
-      <c r="M433" s="27"/>
+      <c r="M433" s="21"/>
     </row>
     <row r="434" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
@@ -6907,12 +7026,12 @@
       <c r="C434" s="1"/>
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
-      <c r="F434" s="18"/>
+      <c r="F434" s="17"/>
       <c r="G434" s="4"/>
       <c r="H434" s="4"/>
       <c r="I434" s="4"/>
       <c r="J434" s="4"/>
-      <c r="M434" s="27"/>
+      <c r="M434" s="21"/>
     </row>
     <row r="435" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
@@ -6920,12 +7039,12 @@
       <c r="C435" s="1"/>
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
-      <c r="F435" s="18"/>
+      <c r="F435" s="17"/>
       <c r="G435" s="4"/>
       <c r="H435" s="4"/>
       <c r="I435" s="4"/>
       <c r="J435" s="4"/>
-      <c r="M435" s="27"/>
+      <c r="M435" s="21"/>
     </row>
     <row r="436" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
@@ -6933,12 +7052,12 @@
       <c r="C436" s="1"/>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
-      <c r="F436" s="18"/>
+      <c r="F436" s="17"/>
       <c r="G436" s="4"/>
       <c r="H436" s="4"/>
       <c r="I436" s="4"/>
       <c r="J436" s="4"/>
-      <c r="M436" s="27"/>
+      <c r="M436" s="21"/>
     </row>
     <row r="437" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
@@ -6946,12 +7065,12 @@
       <c r="C437" s="1"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
-      <c r="F437" s="18"/>
+      <c r="F437" s="17"/>
       <c r="G437" s="4"/>
       <c r="H437" s="4"/>
       <c r="I437" s="4"/>
       <c r="J437" s="4"/>
-      <c r="M437" s="27"/>
+      <c r="M437" s="21"/>
     </row>
     <row r="438" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
@@ -6959,12 +7078,12 @@
       <c r="C438" s="1"/>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
-      <c r="F438" s="18"/>
+      <c r="F438" s="17"/>
       <c r="G438" s="4"/>
       <c r="H438" s="4"/>
       <c r="I438" s="4"/>
       <c r="J438" s="4"/>
-      <c r="M438" s="27"/>
+      <c r="M438" s="21"/>
     </row>
     <row r="439" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
@@ -6972,12 +7091,12 @@
       <c r="C439" s="1"/>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
-      <c r="F439" s="18"/>
+      <c r="F439" s="17"/>
       <c r="G439" s="4"/>
       <c r="H439" s="4"/>
       <c r="I439" s="4"/>
       <c r="J439" s="4"/>
-      <c r="M439" s="27"/>
+      <c r="M439" s="21"/>
     </row>
     <row r="440" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="4"/>
@@ -6985,12 +7104,12 @@
       <c r="C440" s="1"/>
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
-      <c r="F440" s="18"/>
+      <c r="F440" s="17"/>
       <c r="G440" s="4"/>
       <c r="H440" s="4"/>
       <c r="I440" s="4"/>
       <c r="J440" s="4"/>
-      <c r="M440" s="27"/>
+      <c r="M440" s="21"/>
     </row>
     <row r="441" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="4"/>
@@ -6998,12 +7117,12 @@
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
-      <c r="F441" s="18"/>
+      <c r="F441" s="17"/>
       <c r="G441" s="4"/>
       <c r="H441" s="4"/>
       <c r="I441" s="4"/>
       <c r="J441" s="4"/>
-      <c r="M441" s="27"/>
+      <c r="M441" s="21"/>
     </row>
     <row r="442" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="4"/>
@@ -7016,7 +7135,7 @@
       <c r="H442" s="4"/>
       <c r="I442" s="4"/>
       <c r="J442" s="4"/>
-      <c r="M442" s="27"/>
+      <c r="M442" s="21"/>
     </row>
     <row r="443" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="4"/>
@@ -7024,12 +7143,12 @@
       <c r="C443" s="1"/>
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
-      <c r="F443" s="18"/>
+      <c r="F443" s="17"/>
       <c r="G443" s="4"/>
       <c r="H443" s="4"/>
       <c r="I443" s="4"/>
       <c r="J443" s="4"/>
-      <c r="M443" s="27"/>
+      <c r="M443" s="21"/>
     </row>
     <row r="444" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
@@ -7037,12 +7156,12 @@
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
       <c r="E444" s="4"/>
-      <c r="F444" s="18"/>
+      <c r="F444" s="17"/>
       <c r="G444" s="4"/>
       <c r="H444" s="4"/>
       <c r="I444" s="4"/>
       <c r="J444" s="4"/>
-      <c r="M444" s="27"/>
+      <c r="M444" s="21"/>
     </row>
     <row r="445" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
@@ -7055,7 +7174,7 @@
       <c r="H445" s="4"/>
       <c r="I445" s="4"/>
       <c r="J445" s="4"/>
-      <c r="M445" s="27"/>
+      <c r="M445" s="21"/>
     </row>
     <row r="446" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
@@ -7063,12 +7182,12 @@
       <c r="C446" s="1"/>
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
-      <c r="F446" s="18"/>
+      <c r="F446" s="17"/>
       <c r="G446" s="4"/>
       <c r="H446" s="4"/>
       <c r="I446" s="4"/>
       <c r="J446" s="4"/>
-      <c r="M446" s="27"/>
+      <c r="M446" s="21"/>
     </row>
     <row r="447" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
@@ -7076,12 +7195,12 @@
       <c r="C447" s="1"/>
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
-      <c r="F447" s="18"/>
+      <c r="F447" s="17"/>
       <c r="G447" s="4"/>
       <c r="H447" s="4"/>
       <c r="I447" s="4"/>
       <c r="J447" s="4"/>
-      <c r="M447" s="27"/>
+      <c r="M447" s="21"/>
     </row>
     <row r="448" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
@@ -7089,12 +7208,12 @@
       <c r="C448" s="1"/>
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
-      <c r="F448" s="18"/>
+      <c r="F448" s="17"/>
       <c r="G448" s="4"/>
       <c r="H448" s="4"/>
       <c r="I448" s="4"/>
       <c r="J448" s="4"/>
-      <c r="M448" s="27"/>
+      <c r="M448" s="21"/>
     </row>
     <row r="449" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
@@ -7102,12 +7221,12 @@
       <c r="C449" s="1"/>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
-      <c r="F449" s="18"/>
+      <c r="F449" s="17"/>
       <c r="G449" s="4"/>
       <c r="H449" s="4"/>
       <c r="I449" s="4"/>
       <c r="J449" s="4"/>
-      <c r="M449" s="27"/>
+      <c r="M449" s="21"/>
     </row>
     <row r="450" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
@@ -7115,12 +7234,12 @@
       <c r="C450" s="1"/>
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
-      <c r="F450" s="18"/>
+      <c r="F450" s="17"/>
       <c r="G450" s="4"/>
       <c r="H450" s="4"/>
       <c r="I450" s="4"/>
       <c r="J450" s="4"/>
-      <c r="M450" s="27"/>
+      <c r="M450" s="21"/>
     </row>
     <row r="451" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
@@ -7128,12 +7247,12 @@
       <c r="C451" s="1"/>
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
-      <c r="F451" s="18"/>
+      <c r="F451" s="17"/>
       <c r="G451" s="4"/>
       <c r="H451" s="4"/>
       <c r="I451" s="4"/>
       <c r="J451" s="4"/>
-      <c r="M451" s="27"/>
+      <c r="M451" s="21"/>
     </row>
     <row r="452" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="4"/>
@@ -7141,12 +7260,12 @@
       <c r="C452" s="1"/>
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
-      <c r="F452" s="18"/>
+      <c r="F452" s="17"/>
       <c r="G452" s="4"/>
       <c r="H452" s="4"/>
       <c r="I452" s="4"/>
       <c r="J452" s="4"/>
-      <c r="M452" s="27"/>
+      <c r="M452" s="21"/>
     </row>
     <row r="453" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="4"/>
@@ -7154,12 +7273,12 @@
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
-      <c r="F453" s="18"/>
+      <c r="F453" s="17"/>
       <c r="G453" s="4"/>
       <c r="H453" s="4"/>
       <c r="I453" s="4"/>
       <c r="J453" s="4"/>
-      <c r="M453" s="27"/>
+      <c r="M453" s="21"/>
     </row>
     <row r="454" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="4"/>
@@ -7172,7 +7291,7 @@
       <c r="H454" s="4"/>
       <c r="I454" s="4"/>
       <c r="J454" s="4"/>
-      <c r="M454" s="27"/>
+      <c r="M454" s="21"/>
     </row>
     <row r="455" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="4"/>
@@ -7180,12 +7299,12 @@
       <c r="C455" s="1"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
-      <c r="F455" s="18"/>
+      <c r="F455" s="17"/>
       <c r="G455" s="4"/>
       <c r="H455" s="4"/>
       <c r="I455" s="4"/>
       <c r="J455" s="4"/>
-      <c r="M455" s="27"/>
+      <c r="M455" s="21"/>
     </row>
     <row r="456" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
@@ -7193,12 +7312,12 @@
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
-      <c r="F456" s="18"/>
+      <c r="F456" s="17"/>
       <c r="G456" s="4"/>
       <c r="H456" s="4"/>
       <c r="I456" s="4"/>
       <c r="J456" s="4"/>
-      <c r="M456" s="27"/>
+      <c r="M456" s="21"/>
     </row>
     <row r="457" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
@@ -7211,7 +7330,7 @@
       <c r="H457" s="4"/>
       <c r="I457" s="4"/>
       <c r="J457" s="4"/>
-      <c r="M457" s="27"/>
+      <c r="M457" s="21"/>
     </row>
     <row r="458" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
@@ -7219,12 +7338,12 @@
       <c r="C458" s="1"/>
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
-      <c r="F458" s="18"/>
+      <c r="F458" s="17"/>
       <c r="G458" s="4"/>
       <c r="H458" s="4"/>
       <c r="I458" s="4"/>
       <c r="J458" s="4"/>
-      <c r="M458" s="27"/>
+      <c r="M458" s="21"/>
     </row>
     <row r="459" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
@@ -7232,12 +7351,12 @@
       <c r="C459" s="1"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
-      <c r="F459" s="18"/>
+      <c r="F459" s="17"/>
       <c r="G459" s="4"/>
       <c r="H459" s="4"/>
       <c r="I459" s="4"/>
       <c r="J459" s="4"/>
-      <c r="M459" s="27"/>
+      <c r="M459" s="21"/>
     </row>
     <row r="460" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
@@ -7245,12 +7364,12 @@
       <c r="C460" s="1"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
-      <c r="F460" s="18"/>
+      <c r="F460" s="17"/>
       <c r="G460" s="4"/>
       <c r="H460" s="4"/>
       <c r="I460" s="4"/>
       <c r="J460" s="4"/>
-      <c r="M460" s="27"/>
+      <c r="M460" s="21"/>
     </row>
     <row r="461" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
@@ -7258,12 +7377,12 @@
       <c r="C461" s="1"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
-      <c r="F461" s="18"/>
+      <c r="F461" s="17"/>
       <c r="G461" s="4"/>
       <c r="H461" s="4"/>
       <c r="I461" s="4"/>
       <c r="J461" s="4"/>
-      <c r="M461" s="27"/>
+      <c r="M461" s="21"/>
     </row>
     <row r="462" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
@@ -7271,12 +7390,12 @@
       <c r="C462" s="1"/>
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
-      <c r="F462" s="18"/>
+      <c r="F462" s="17"/>
       <c r="G462" s="4"/>
       <c r="H462" s="4"/>
       <c r="I462" s="4"/>
       <c r="J462" s="4"/>
-      <c r="M462" s="27"/>
+      <c r="M462" s="21"/>
     </row>
     <row r="463" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
@@ -7284,12 +7403,12 @@
       <c r="C463" s="1"/>
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
-      <c r="F463" s="18"/>
+      <c r="F463" s="17"/>
       <c r="G463" s="4"/>
       <c r="H463" s="4"/>
       <c r="I463" s="4"/>
       <c r="J463" s="4"/>
-      <c r="M463" s="27"/>
+      <c r="M463" s="21"/>
     </row>
     <row r="464" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="4"/>
@@ -7297,12 +7416,12 @@
       <c r="C464" s="1"/>
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
-      <c r="F464" s="18"/>
+      <c r="F464" s="17"/>
       <c r="G464" s="4"/>
       <c r="H464" s="4"/>
       <c r="I464" s="4"/>
       <c r="J464" s="4"/>
-      <c r="M464" s="27"/>
+      <c r="M464" s="21"/>
     </row>
     <row r="465" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="4"/>
@@ -7310,12 +7429,12 @@
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
       <c r="E465" s="4"/>
-      <c r="F465" s="18"/>
+      <c r="F465" s="17"/>
       <c r="G465" s="4"/>
       <c r="H465" s="4"/>
       <c r="I465" s="4"/>
       <c r="J465" s="4"/>
-      <c r="M465" s="27"/>
+      <c r="M465" s="21"/>
     </row>
     <row r="466" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="4"/>
@@ -7328,7 +7447,7 @@
       <c r="H466" s="4"/>
       <c r="I466" s="4"/>
       <c r="J466" s="4"/>
-      <c r="M466" s="27"/>
+      <c r="M466" s="21"/>
     </row>
     <row r="467" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="4"/>
@@ -7336,12 +7455,12 @@
       <c r="C467" s="1"/>
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
-      <c r="F467" s="18"/>
+      <c r="F467" s="17"/>
       <c r="G467" s="4"/>
       <c r="H467" s="4"/>
       <c r="I467" s="4"/>
       <c r="J467" s="4"/>
-      <c r="M467" s="27"/>
+      <c r="M467" s="21"/>
     </row>
     <row r="468" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
@@ -7349,12 +7468,12 @@
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
-      <c r="F468" s="18"/>
+      <c r="F468" s="17"/>
       <c r="G468" s="4"/>
       <c r="H468" s="4"/>
       <c r="I468" s="4"/>
       <c r="J468" s="4"/>
-      <c r="M468" s="27"/>
+      <c r="M468" s="21"/>
     </row>
     <row r="469" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
@@ -7367,7 +7486,7 @@
       <c r="H469" s="4"/>
       <c r="I469" s="4"/>
       <c r="J469" s="4"/>
-      <c r="M469" s="27"/>
+      <c r="M469" s="21"/>
     </row>
     <row r="470" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
@@ -7375,12 +7494,12 @@
       <c r="C470" s="1"/>
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
-      <c r="F470" s="18"/>
+      <c r="F470" s="17"/>
       <c r="G470" s="4"/>
       <c r="H470" s="4"/>
       <c r="I470" s="4"/>
       <c r="J470" s="4"/>
-      <c r="M470" s="27"/>
+      <c r="M470" s="21"/>
     </row>
     <row r="471" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
@@ -7388,12 +7507,12 @@
       <c r="C471" s="1"/>
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
-      <c r="F471" s="18"/>
+      <c r="F471" s="17"/>
       <c r="G471" s="4"/>
       <c r="H471" s="4"/>
       <c r="I471" s="4"/>
       <c r="J471" s="4"/>
-      <c r="M471" s="27"/>
+      <c r="M471" s="21"/>
     </row>
     <row r="472" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
@@ -7401,12 +7520,12 @@
       <c r="C472" s="1"/>
       <c r="D472" s="4"/>
       <c r="E472" s="4"/>
-      <c r="F472" s="18"/>
+      <c r="F472" s="17"/>
       <c r="G472" s="4"/>
       <c r="H472" s="4"/>
       <c r="I472" s="4"/>
       <c r="J472" s="4"/>
-      <c r="M472" s="27"/>
+      <c r="M472" s="21"/>
     </row>
     <row r="473" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
@@ -7414,12 +7533,12 @@
       <c r="C473" s="1"/>
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
-      <c r="F473" s="18"/>
+      <c r="F473" s="17"/>
       <c r="G473" s="4"/>
       <c r="H473" s="4"/>
       <c r="I473" s="4"/>
       <c r="J473" s="4"/>
-      <c r="M473" s="27"/>
+      <c r="M473" s="21"/>
     </row>
     <row r="474" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
@@ -7427,12 +7546,12 @@
       <c r="C474" s="1"/>
       <c r="D474" s="4"/>
       <c r="E474" s="4"/>
-      <c r="F474" s="18"/>
+      <c r="F474" s="17"/>
       <c r="G474" s="4"/>
       <c r="H474" s="4"/>
       <c r="I474" s="4"/>
       <c r="J474" s="4"/>
-      <c r="M474" s="27"/>
+      <c r="M474" s="21"/>
     </row>
     <row r="475" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
@@ -7440,12 +7559,12 @@
       <c r="C475" s="1"/>
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
-      <c r="F475" s="18"/>
+      <c r="F475" s="17"/>
       <c r="G475" s="4"/>
       <c r="H475" s="4"/>
       <c r="I475" s="4"/>
       <c r="J475" s="4"/>
-      <c r="M475" s="27"/>
+      <c r="M475" s="21"/>
     </row>
     <row r="476" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="4"/>
@@ -7453,12 +7572,12 @@
       <c r="C476" s="1"/>
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
-      <c r="F476" s="18"/>
+      <c r="F476" s="17"/>
       <c r="G476" s="4"/>
       <c r="H476" s="4"/>
       <c r="I476" s="4"/>
       <c r="J476" s="4"/>
-      <c r="M476" s="27"/>
+      <c r="M476" s="21"/>
     </row>
     <row r="477" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="4"/>
@@ -7466,12 +7585,12 @@
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
-      <c r="F477" s="18"/>
+      <c r="F477" s="17"/>
       <c r="G477" s="4"/>
       <c r="H477" s="4"/>
       <c r="I477" s="4"/>
       <c r="J477" s="4"/>
-      <c r="M477" s="27"/>
+      <c r="M477" s="21"/>
     </row>
     <row r="478" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="4"/>
@@ -7484,7 +7603,7 @@
       <c r="H478" s="4"/>
       <c r="I478" s="4"/>
       <c r="J478" s="4"/>
-      <c r="M478" s="27"/>
+      <c r="M478" s="21"/>
     </row>
     <row r="479" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="4"/>
@@ -7492,12 +7611,12 @@
       <c r="C479" s="1"/>
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
-      <c r="F479" s="18"/>
+      <c r="F479" s="17"/>
       <c r="G479" s="4"/>
       <c r="H479" s="4"/>
       <c r="I479" s="4"/>
       <c r="J479" s="4"/>
-      <c r="M479" s="27"/>
+      <c r="M479" s="21"/>
     </row>
     <row r="480" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
@@ -7505,12 +7624,12 @@
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
       <c r="E480" s="4"/>
-      <c r="F480" s="18"/>
+      <c r="F480" s="17"/>
       <c r="G480" s="4"/>
       <c r="H480" s="4"/>
       <c r="I480" s="4"/>
       <c r="J480" s="4"/>
-      <c r="M480" s="27"/>
+      <c r="M480" s="21"/>
     </row>
     <row r="481" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
@@ -7523,7 +7642,7 @@
       <c r="H481" s="4"/>
       <c r="I481" s="4"/>
       <c r="J481" s="4"/>
-      <c r="M481" s="27"/>
+      <c r="M481" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7547,7 +7666,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
@@ -7566,7 +7685,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="26" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -7577,7 +7696,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
@@ -7586,7 +7705,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="26" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -7597,7 +7716,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="6" t="s">
         <v>30</v>
       </c>
@@ -7606,7 +7725,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="6" t="s">
         <v>31</v>
       </c>
@@ -7615,7 +7734,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="6" t="s">
         <v>32</v>
       </c>
@@ -7624,7 +7743,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="6" t="s">
         <v>33</v>
       </c>
@@ -7633,7 +7752,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="26" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -7642,21 +7761,21 @@
       <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="28" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -7667,7 +7786,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
@@ -7676,7 +7795,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="30" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -7687,7 +7806,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="6" t="s">
         <v>42</v>
       </c>
@@ -7716,13 +7835,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B12"/>
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
@@ -7752,52 +7871,52 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>8</v>
+      <c r="A3" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="B3" s="7">
-        <v>2052</v>
+        <v>0</v>
       </c>
       <c r="C3" s="7">
-        <v>2052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>9</v>
+      <c r="A4" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="7">
-        <v>2052</v>
+        <v>1</v>
       </c>
       <c r="C4" s="7">
-        <v>2052</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="7">
-        <v>1260</v>
+        <v>2052</v>
       </c>
       <c r="C5" s="7">
-        <v>1260</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="7">
-        <v>1260</v>
+        <v>2052</v>
       </c>
       <c r="C6" s="7">
-        <v>1260</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="7">
         <v>1260</v>
@@ -7808,7 +7927,7 @@
     </row>
     <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="7">
         <v>1260</v>
@@ -7817,42 +7936,42 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1260</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1260</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B11" s="7">
         <v>54</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C11" s="7">
         <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="7">
-        <v>3420</v>
-      </c>
-      <c r="C10" s="7">
-        <v>3420</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="7">
-        <v>3420</v>
-      </c>
-      <c r="C11" s="7">
-        <v>3420</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="7">
         <v>3420</v>
@@ -7863,7 +7982,7 @@
     </row>
     <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="7">
         <v>3420</v>
@@ -7874,7 +7993,7 @@
     </row>
     <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="7">
         <v>3420</v>
@@ -7883,14 +8002,36 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>20</v>
+    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="B15" s="7">
         <v>3420</v>
       </c>
       <c r="C15" s="7">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="7">
+        <v>3420</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3420</v>
+      </c>
+      <c r="C17" s="7">
         <v>3420</v>
       </c>
     </row>
@@ -7915,7 +8056,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>

--- a/LineData.xlsx
+++ b/LineData.xlsx
@@ -5,26 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danislud\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danislud\Documents\PRODynamics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C898A01-7893-4EDB-B3F5-4E8061133302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AFDE5D8-1D9D-43C8-A4A9-9BB4DF60813F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Line Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Config" sheetId="2" r:id="rId2"/>
-    <sheet name="Multi-Ref" sheetId="3" r:id="rId3"/>
-    <sheet name="Assets" sheetId="4" r:id="rId4"/>
+    <sheet name="Multi-Ref" sheetId="3" r:id="rId2"/>
+    <sheet name="PDP-Batch-Details" sheetId="5" r:id="rId3"/>
+    <sheet name="PDP-Batch-List" sheetId="6" r:id="rId4"/>
+    <sheet name="Config" sheetId="2" r:id="rId5"/>
+    <sheet name="Assets" sheetId="4" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'PDP-Batch-Details'!$A$1:$C$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="81">
   <si>
     <t>Available Strategies</t>
   </si>
@@ -250,12 +255,30 @@
   <si>
     <t>Fill central storage</t>
   </si>
+  <si>
+    <t>Batch name</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Group 1</t>
+  </si>
+  <si>
+    <t>Group 2</t>
+  </si>
+  <si>
+    <t>Batchs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,8 +305,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,6 +330,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -475,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -546,6 +583,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -562,15 +611,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -961,7 +1001,7 @@
   </sheetPr>
   <dimension ref="A1:N481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -1011,19 +1051,19 @@
       <c r="I1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="27" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1055,17 +1095,17 @@
       <c r="I2" s="25">
         <v>1</v>
       </c>
-      <c r="J2" s="34">
+      <c r="J2" s="28">
         <v>1</v>
       </c>
-      <c r="K2" s="34">
+      <c r="K2" s="28">
         <v>0</v>
       </c>
-      <c r="L2" s="34">
+      <c r="L2" s="28">
         <v>0</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34" t="b">
+      <c r="M2" s="28"/>
+      <c r="N2" s="28" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1107,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="25"/>
-      <c r="N3" s="32" t="b">
+      <c r="N3" s="26" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1149,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="25"/>
-      <c r="N4" s="32" t="b">
+      <c r="N4" s="26" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1191,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="25"/>
-      <c r="N5" s="32" t="b">
+      <c r="N5" s="26" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1233,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="25"/>
-      <c r="N6" s="32" t="b">
+      <c r="N6" s="26" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1275,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="25"/>
-      <c r="N7" s="32" t="b">
+      <c r="N7" s="26" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1317,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="25"/>
-      <c r="N8" s="32" t="b">
+      <c r="N8" s="26" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1359,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="25"/>
-      <c r="N9" s="32" t="b">
+      <c r="N9" s="26" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1401,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="25"/>
-      <c r="N10" s="32" t="b">
+      <c r="N10" s="26" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1443,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="25"/>
-      <c r="N11" s="32" t="b">
+      <c r="N11" s="26" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1485,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="25"/>
-      <c r="N12" s="32" t="b">
+      <c r="N12" s="26" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1527,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="25"/>
-      <c r="N13" s="32" t="b">
+      <c r="N13" s="26" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1569,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="25"/>
-      <c r="N14" s="32" t="b">
+      <c r="N14" s="26" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7658,179 +7698,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="7">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Calibri"&amp;8&amp;K808080 INTERNAL &amp; PARTNERS&amp;1#_x000D_</oddHeader>
-    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;2&amp;KFFFFFF 5acXjzUk</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -8047,7 +7914,291 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A86181-EF33-48DD-ABA9-ABF62C32FC08}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="29">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{E2A86181-EF33-48DD-ABA9-ABF62C32FC08}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C322632-4B48-4009-913B-945F1E0D549C}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+      <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;8&amp;K808080 INTERNAL &amp; PARTNERS&amp;1#_x000D_</oddHeader>
+    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;2&amp;KFFFFFF 5acXjzUk</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>

--- a/LineData.xlsx
+++ b/LineData.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danislud\Documents\PRODynamics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AFDE5D8-1D9D-43C8-A4A9-9BB4DF60813F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4DC0A4F-DB1B-486D-9D85-57D5B0E25082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Line Data" sheetId="1" r:id="rId1"/>
     <sheet name="Multi-Ref" sheetId="3" r:id="rId2"/>
     <sheet name="PDP-Batch-Details" sheetId="5" r:id="rId3"/>
-    <sheet name="PDP-Batch-List" sheetId="6" r:id="rId4"/>
-    <sheet name="Config" sheetId="2" r:id="rId5"/>
-    <sheet name="Assets" sheetId="4" r:id="rId6"/>
+    <sheet name="Config" sheetId="2" r:id="rId4"/>
+    <sheet name="Assets" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'PDP-Batch-Details'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'PDP-Batch-Details'!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="77">
   <si>
     <t>Available Strategies</t>
   </si>
@@ -256,22 +255,10 @@
     <t>Fill central storage</t>
   </si>
   <si>
-    <t>Batch name</t>
-  </si>
-  <si>
     <t>Reference</t>
   </si>
   <si>
     <t>Quantity</t>
-  </si>
-  <si>
-    <t>Group 1</t>
-  </si>
-  <si>
-    <t>Group 2</t>
-  </si>
-  <si>
-    <t>Batchs</t>
   </si>
 </sst>
 </file>
@@ -512,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -594,7 +581,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -7916,116 +7902,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A86181-EF33-48DD-ABA9-ABF62C32FC08}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>75</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="29">
+      <c r="B2" s="29">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="29">
+      <c r="B3" s="29">
         <v>200</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{E2A86181-EF33-48DD-ABA9-ABF62C32FC08}"/>
+  <autoFilter ref="A1:B1" xr:uid="{E2A86181-EF33-48DD-ABA9-ABF62C32FC08}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C322632-4B48-4009-913B-945F1E0D549C}">
-  <dimension ref="A1:A8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -8053,7 +7973,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -8064,7 +7984,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
@@ -8073,7 +7993,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -8084,7 +8004,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="6" t="s">
         <v>30</v>
       </c>
@@ -8093,7 +8013,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="6" t="s">
         <v>31</v>
       </c>
@@ -8102,7 +8022,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="6" t="s">
         <v>32</v>
       </c>
@@ -8111,7 +8031,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="6" t="s">
         <v>33</v>
       </c>
@@ -8120,7 +8040,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -8129,21 +8049,21 @@
       <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -8154,7 +8074,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
@@ -8163,7 +8083,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="35" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -8174,7 +8094,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="6" t="s">
         <v>42</v>
       </c>
@@ -8198,7 +8118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>

--- a/LineData.xlsx
+++ b/LineData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danislud\Documents\PRODynamics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4DC0A4F-DB1B-486D-9D85-57D5B0E25082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22B5F35C-0123-4E02-ACC2-337C6BBB4BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Line Data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="78">
   <si>
     <t>Available Strategies</t>
   </si>
@@ -260,6 +260,9 @@
   <si>
     <t>Quantity</t>
   </si>
+  <si>
+    <t>Duplicate</t>
+  </si>
 </sst>
 </file>
 
@@ -326,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -495,11 +498,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -597,6 +613,15 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -985,10 +1010,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:N481"/>
+  <dimension ref="A1:O481"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,10 +1031,10 @@
     <col min="11" max="11" width="18.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.42578125" style="23" customWidth="1"/>
     <col min="13" max="13" width="15.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -1052,8 +1077,11 @@
       <c r="N1" s="27" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
@@ -1094,8 +1122,11 @@
       <c r="N2" s="28" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -1133,11 +1164,14 @@
         <v>0</v>
       </c>
       <c r="M3" s="25"/>
-      <c r="N3" s="26" t="b">
+      <c r="N3" s="37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
@@ -1175,11 +1209,14 @@
         <v>0</v>
       </c>
       <c r="M4" s="25"/>
-      <c r="N4" s="26" t="b">
+      <c r="N4" s="37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
@@ -1217,11 +1254,14 @@
         <v>0</v>
       </c>
       <c r="M5" s="25"/>
-      <c r="N5" s="26" t="b">
+      <c r="N5" s="37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
@@ -1259,11 +1299,14 @@
         <v>0</v>
       </c>
       <c r="M6" s="25"/>
-      <c r="N6" s="26" t="b">
+      <c r="N6" s="37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1301,11 +1344,14 @@
         <v>0</v>
       </c>
       <c r="M7" s="25"/>
-      <c r="N7" s="26" t="b">
+      <c r="N7" s="37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
@@ -1343,11 +1389,14 @@
         <v>0</v>
       </c>
       <c r="M8" s="25"/>
-      <c r="N8" s="26" t="b">
+      <c r="N8" s="37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -1385,11 +1434,14 @@
         <v>0</v>
       </c>
       <c r="M9" s="25"/>
-      <c r="N9" s="26" t="b">
+      <c r="N9" s="37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
@@ -1427,11 +1479,14 @@
         <v>0</v>
       </c>
       <c r="M10" s="25"/>
-      <c r="N10" s="26" t="b">
+      <c r="N10" s="37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
@@ -1469,11 +1524,14 @@
         <v>0</v>
       </c>
       <c r="M11" s="25"/>
-      <c r="N11" s="26" t="b">
+      <c r="N11" s="37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
@@ -1511,11 +1569,14 @@
         <v>0</v>
       </c>
       <c r="M12" s="25"/>
-      <c r="N12" s="26" t="b">
+      <c r="N12" s="37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O12" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
@@ -1553,11 +1614,14 @@
         <v>0</v>
       </c>
       <c r="M13" s="25"/>
-      <c r="N13" s="26" t="b">
+      <c r="N13" s="37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
@@ -1595,11 +1659,14 @@
         <v>0</v>
       </c>
       <c r="M14" s="25"/>
-      <c r="N14" s="26" t="b">
+      <c r="N14" s="37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1612,7 +1679,7 @@
       <c r="J15" s="4"/>
       <c r="M15" s="21"/>
     </row>
-    <row r="16" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -7904,7 +7971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A86181-EF33-48DD-ABA9-ABF62C32FC08}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>

--- a/LineData.xlsx
+++ b/LineData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danislud\Documents\PRODynamics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elhoudan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22B5F35C-0123-4E02-ACC2-337C6BBB4BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0CEE3CF-62BA-4AB1-AC87-1A494D8FC25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Line Data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="79">
   <si>
     <t>Available Strategies</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>Duplicate</t>
+  </si>
+  <si>
+    <t>R1</t>
   </si>
 </sst>
 </file>
@@ -597,6 +600,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -613,15 +625,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1012,11 +1015,11 @@
   </sheetPr>
   <dimension ref="A1:O481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -1077,7 +1080,7 @@
       <c r="N1" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="32" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1109,8 +1112,8 @@
       <c r="I2" s="25">
         <v>1</v>
       </c>
-      <c r="J2" s="28">
-        <v>1</v>
+      <c r="J2" s="28" t="s">
+        <v>78</v>
       </c>
       <c r="K2" s="28">
         <v>0</v>
@@ -1118,11 +1121,13 @@
       <c r="L2" s="28">
         <v>0</v>
       </c>
-      <c r="M2" s="28"/>
+      <c r="M2" s="28" t="s">
+        <v>8</v>
+      </c>
       <c r="N2" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="O2" s="39">
+      <c r="O2" s="33">
         <v>1</v>
       </c>
     </row>
@@ -1164,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="25"/>
-      <c r="N3" s="37" t="b">
+      <c r="N3" s="31" t="b">
         <v>0</v>
       </c>
       <c r="O3" s="26">
@@ -1209,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="25"/>
-      <c r="N4" s="37" t="b">
+      <c r="N4" s="31" t="b">
         <v>0</v>
       </c>
       <c r="O4" s="26">
@@ -1254,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="25"/>
-      <c r="N5" s="37" t="b">
+      <c r="N5" s="31" t="b">
         <v>0</v>
       </c>
       <c r="O5" s="26">
@@ -1299,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="25"/>
-      <c r="N6" s="37" t="b">
+      <c r="N6" s="31" t="b">
         <v>0</v>
       </c>
       <c r="O6" s="26">
@@ -1344,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="25"/>
-      <c r="N7" s="37" t="b">
+      <c r="N7" s="31" t="b">
         <v>0</v>
       </c>
       <c r="O7" s="26">
@@ -1389,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="25"/>
-      <c r="N8" s="37" t="b">
+      <c r="N8" s="31" t="b">
         <v>1</v>
       </c>
       <c r="O8" s="26">
@@ -1434,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="25"/>
-      <c r="N9" s="37" t="b">
+      <c r="N9" s="31" t="b">
         <v>1</v>
       </c>
       <c r="O9" s="26">
@@ -1479,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="25"/>
-      <c r="N10" s="37" t="b">
+      <c r="N10" s="31" t="b">
         <v>1</v>
       </c>
       <c r="O10" s="26">
@@ -1524,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="25"/>
-      <c r="N11" s="37" t="b">
+      <c r="N11" s="31" t="b">
         <v>1</v>
       </c>
       <c r="O11" s="26">
@@ -1569,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="25"/>
-      <c r="N12" s="37" t="b">
+      <c r="N12" s="31" t="b">
         <v>1</v>
       </c>
       <c r="O12" s="26">
@@ -1614,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="25"/>
-      <c r="N13" s="37" t="b">
+      <c r="N13" s="31" t="b">
         <v>1</v>
       </c>
       <c r="O13" s="26">
@@ -1659,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="25"/>
-      <c r="N14" s="37" t="b">
+      <c r="N14" s="31" t="b">
         <v>1</v>
       </c>
       <c r="O14" s="26">
@@ -7761,7 +7766,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
@@ -7975,7 +7980,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
@@ -8021,7 +8026,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
@@ -8040,7 +8045,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -8051,7 +8056,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
@@ -8060,7 +8065,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="34" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -8071,7 +8076,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="6" t="s">
         <v>30</v>
       </c>
@@ -8080,7 +8085,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="6" t="s">
         <v>31</v>
       </c>
@@ -8089,7 +8094,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="6" t="s">
         <v>32</v>
       </c>
@@ -8098,7 +8103,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="6" t="s">
         <v>33</v>
       </c>
@@ -8107,7 +8112,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="34" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -8116,21 +8121,21 @@
       <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="36" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -8141,7 +8146,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
@@ -8150,7 +8155,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="38" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -8161,7 +8166,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="6" t="s">
         <v>42</v>
       </c>
@@ -8194,7 +8199,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
